--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2850" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F07B50D9-FDFF-4EF5-A6B4-8512AE50EA9B}"/>
+  <xr:revisionPtr revIDLastSave="2861" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD3555AA-42A1-468F-A31C-6F3C18779F8C}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="10" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="9" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="10" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="627">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -1926,6 +1926,9 @@
   </si>
   <si>
     <t>6-2 2-6 6-1</t>
+  </si>
+  <si>
+    <t>2-6 6-1 6-1</t>
   </si>
 </sst>
 </file>
@@ -4755,10 +4758,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4957,6 +4960,48 @@
         <v>109</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" t="s">
+        <v>313</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" t="s">
+        <v>490</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" t="s">
+        <v>539</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4970,7 +5015,7 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" activeCellId="1" sqref="A1:A11 F1:F11"/>
     </sheetView>
   </sheetViews>
@@ -5021,7 +5066,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="2">
-        <f>(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F10" si="0">(D2-E2)/D2</f>
         <v>-2</v>
       </c>
     </row>
@@ -5042,7 +5087,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="2">
-        <f>(D3-E3)/D3</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
@@ -5063,7 +5108,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="2">
-        <f>(D4-E4)/D4</f>
+        <f t="shared" si="0"/>
         <v>0.46666666666666667</v>
       </c>
     </row>
@@ -5084,7 +5129,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="2">
-        <f>(D5-E5)/D5</f>
+        <f t="shared" si="0"/>
         <v>0.30555555555555558</v>
       </c>
     </row>
@@ -5105,7 +5150,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="2">
-        <f>(D6-E6)/D6</f>
+        <f t="shared" si="0"/>
         <v>0.54716981132075471</v>
       </c>
     </row>
@@ -5126,7 +5171,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="2">
-        <f>(D7-E7)/D7</f>
+        <f t="shared" si="0"/>
         <v>0.46153846153846156</v>
       </c>
     </row>
@@ -5147,7 +5192,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="2">
-        <f>(D8-E8)/D8</f>
+        <f t="shared" si="0"/>
         <v>0.6071428571428571</v>
       </c>
     </row>
@@ -5168,7 +5213,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="2">
-        <f>(D9-E9)/D9</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
@@ -5189,7 +5234,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="2">
-        <f>(D10-E10)/D10</f>
+        <f t="shared" si="0"/>
         <v>0.38235294117647056</v>
       </c>
     </row>
@@ -5210,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" ref="F11" si="0">(D11-E11)/D11</f>
+        <f t="shared" ref="F11" si="1">(D11-E11)/D11</f>
         <v>1</v>
       </c>
     </row>
@@ -5223,19 +5268,19 @@
         <v>170</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" ref="C12:E12" si="1">SUM(C2:C11)</f>
+        <f t="shared" ref="C12:E12" si="2">SUM(C2:C11)</f>
         <v>12</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>307</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" ref="F12:F13" si="2">(D12-E12)/D12</f>
+        <f t="shared" ref="F12:F13" si="3">(D12-E12)/D12</f>
         <v>0.50814332247557004</v>
       </c>
     </row>
@@ -5248,19 +5293,19 @@
         <v>17</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" ref="C13:E13" si="3">AVERAGE(C2:C11)</f>
+        <f t="shared" ref="C13:E13" si="4">AVERAGE(C2:C11)</f>
         <v>1.2</v>
       </c>
       <c r="D13" s="3">
+        <f t="shared" si="4"/>
+        <v>30.7</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="4"/>
+        <v>15.1</v>
+      </c>
+      <c r="F13" s="4">
         <f t="shared" si="3"/>
-        <v>30.7</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="3"/>
-        <v>15.1</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="2"/>
         <v>0.50814332247557004</v>
       </c>
     </row>
@@ -10851,8 +10896,8 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2861" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD3555AA-42A1-468F-A31C-6F3C18779F8C}"/>
+  <xr:revisionPtr revIDLastSave="2913" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0882C1A4-B3FF-4352-A6DB-CF996CAD0AAD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="9" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
+    <workbookView minimized="1" xWindow="2508" yWindow="2508" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="10" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="10" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="632">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -1929,6 +1929,21 @@
   </si>
   <si>
     <t>2-6 6-1 6-1</t>
+  </si>
+  <si>
+    <t>0-6 7-6(2) 6-1</t>
+  </si>
+  <si>
+    <t>6-3 2-6 6-4</t>
+  </si>
+  <si>
+    <t>7-6(11) 6-4</t>
+  </si>
+  <si>
+    <t>Marie Bouzková (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Sorana Cîrstea (ROMANIA)</t>
   </si>
 </sst>
 </file>
@@ -2224,7 +2239,7 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2332,7 +2347,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2844,7 +2859,7 @@
                   <c:v>0.38235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4758,20 +4773,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E29" activeCellId="2" sqref="E17 E24 E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4994,12 +5009,170 @@
         <v>626</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>141</v>
       </c>
       <c r="D17" t="s">
         <v>539</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>362</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" t="s">
+        <v>241</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" t="s">
+        <v>517</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" t="s">
+        <v>486</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>366</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" t="s">
+        <v>630</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" t="s">
+        <v>539</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" t="s">
+        <v>631</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5015,8 +5188,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A11 F1:F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5243,20 +5416,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11" si="1">(D11-E11)/D11</f>
-        <v>1</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5265,7 +5438,7 @@
       </c>
       <c r="B12" s="3">
         <f>SUM(B2:B11)</f>
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ref="C12:E12" si="2">SUM(C2:C11)</f>
@@ -5273,15 +5446,15 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="2"/>
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="2"/>
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ref="F12:F13" si="3">(D12-E12)/D12</f>
-        <v>0.50814332247557004</v>
+        <v>0.51265822784810122</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5290,7 +5463,7 @@
       </c>
       <c r="B13" s="3">
         <f>AVERAGE(B2:B11)</f>
-        <v>17</v>
+        <v>17.3</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ref="C13:E13" si="4">AVERAGE(C2:C11)</f>
@@ -5298,15 +5471,15 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="4"/>
-        <v>30.7</v>
+        <v>31.6</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="4"/>
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="3"/>
-        <v>0.50814332247557004</v>
+        <v>0.51265822784810133</v>
       </c>
     </row>
   </sheetData>
@@ -9186,8 +9359,8 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:B48"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11940,7 +12113,7 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E74" activeCellId="20" sqref="E2 E4 E9 E12 E16 E18 E20 E23 E28 E30 E35 E39 E45 E47 E50 E53 E58 E65 E68 E70 E74"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2913" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0882C1A4-B3FF-4352-A6DB-CF996CAD0AAD}"/>
+  <xr:revisionPtr revIDLastSave="2925" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23E480C9-E741-4BEF-9492-DA7DCEE2533C}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2508" yWindow="2508" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="10" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="10" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="10" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="634">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -1944,6 +1944,12 @@
   </si>
   <si>
     <t>Sorana Cîrstea (ROMANIA)</t>
+  </si>
+  <si>
+    <t>4-6 6-4 6-4</t>
+  </si>
+  <si>
+    <t>Anastasia Potapova (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -2239,7 +2245,7 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2347,7 +2353,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2859,7 +2865,7 @@
                   <c:v>0.38235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.85</c:v>
+                  <c:v>0.82608695652173914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4348,10 +4354,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4773,10 +4775,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E29" activeCellId="2" sqref="E17 E24 E29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E34" activeCellId="3" sqref="E17 E24 E29 E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5173,6 +5175,68 @@
       </c>
       <c r="F29" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>561</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" t="s">
+        <v>539</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" t="s">
+        <v>575</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" t="s">
+        <v>633</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" t="s">
+        <v>582</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5416,20 +5480,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11" si="1">(D11-E11)/D11</f>
-        <v>0.85</v>
+        <v>0.82608695652173914</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5438,7 +5502,7 @@
       </c>
       <c r="B12" s="3">
         <f>SUM(B2:B11)</f>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ref="C12:E12" si="2">SUM(C2:C11)</f>
@@ -5446,15 +5510,15 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="2"/>
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="2"/>
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ref="F12:F13" si="3">(D12-E12)/D12</f>
-        <v>0.51265822784810122</v>
+        <v>0.51410658307210033</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5463,7 +5527,7 @@
       </c>
       <c r="B13" s="3">
         <f>AVERAGE(B2:B11)</f>
-        <v>17.3</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ref="C13:E13" si="4">AVERAGE(C2:C11)</f>
@@ -5471,15 +5535,15 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="4"/>
-        <v>31.6</v>
+        <v>31.9</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="4"/>
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="3"/>
-        <v>0.51265822784810133</v>
+        <v>0.51410658307210033</v>
       </c>
     </row>
   </sheetData>
@@ -12112,8 +12176,8 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2925" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23E480C9-E741-4BEF-9492-DA7DCEE2533C}"/>
+  <xr:revisionPtr revIDLastSave="2932" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4AC2615-31DE-464B-8E42-782896020E4C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="10" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="11" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="10" r:id="rId1"/>
@@ -1190,9 +1190,6 @@
     <t>ISTANBUL OPEN</t>
   </si>
   <si>
-    <t>MUTUA MADRID OPEN</t>
-  </si>
-  <si>
     <t>Carlota Martinez Cirez (SPAIN)</t>
   </si>
   <si>
@@ -1589,9 +1586,6 @@
     <t>3-6 6-2 6-2</t>
   </si>
   <si>
-    <t>QATAR OPEN</t>
-  </si>
-  <si>
     <t>7-5 2-6 7-5</t>
   </si>
   <si>
@@ -1950,6 +1944,12 @@
   </si>
   <si>
     <t>Anastasia Potapova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>QATAR LADIES OPEN</t>
   </si>
 </sst>
 </file>
@@ -4268,7 +4268,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A9282421-0523-4C67-AE1B-EF70907B0B08}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4352,6 +4352,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4657,7 +4661,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4777,8 +4781,8 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E34" activeCellId="3" sqref="E17 E24 E29 E34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5002,13 +5006,13 @@
         <v>133</v>
       </c>
       <c r="D16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F16" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -5016,13 +5020,13 @@
         <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F17" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -5064,13 +5068,13 @@
         <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -5078,7 +5082,7 @@
         <v>141</v>
       </c>
       <c r="D22" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>136</v>
@@ -5092,7 +5096,7 @@
         <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>136</v>
@@ -5112,7 +5116,7 @@
         <v>129</v>
       </c>
       <c r="F24" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -5140,13 +5144,13 @@
         <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F27" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -5154,7 +5158,7 @@
         <v>133</v>
       </c>
       <c r="D28" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>136</v>
@@ -5168,7 +5172,7 @@
         <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>129</v>
@@ -5179,7 +5183,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -5188,7 +5192,7 @@
         <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>136</v>
@@ -5202,13 +5206,13 @@
         <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F32" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.3">
@@ -5216,13 +5220,13 @@
         <v>150</v>
       </c>
       <c r="D33" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F33" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.3">
@@ -5230,7 +5234,7 @@
         <v>157</v>
       </c>
       <c r="D34" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>129</v>
@@ -5252,7 +5256,7 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -7107,7 +7111,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -8161,8 +8165,8 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:B62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8595,7 +8599,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>380</v>
+        <v>632</v>
       </c>
       <c r="B37" t="s">
         <v>18</v>
@@ -8604,7 +8608,7 @@
         <v>215</v>
       </c>
       <c r="D37" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>136</v>
@@ -8618,7 +8622,7 @@
         <v>216</v>
       </c>
       <c r="D38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>136</v>
@@ -8632,18 +8636,18 @@
         <v>165</v>
       </c>
       <c r="D39" t="s">
+        <v>382</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" t="s">
         <v>383</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F39" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B41" t="s">
         <v>18</v>
@@ -8652,7 +8656,7 @@
         <v>215</v>
       </c>
       <c r="D41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>136</v>
@@ -8666,13 +8670,13 @@
         <v>216</v>
       </c>
       <c r="D42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -8680,13 +8684,13 @@
         <v>165</v>
       </c>
       <c r="D43" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -8711,7 +8715,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B47" t="s">
         <v>90</v>
@@ -8726,7 +8730,7 @@
         <v>136</v>
       </c>
       <c r="F47" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -8734,7 +8738,7 @@
         <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>136</v>
@@ -8748,7 +8752,7 @@
         <v>141</v>
       </c>
       <c r="D49" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>129</v>
@@ -8759,7 +8763,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B51" t="s">
         <v>90</v>
@@ -8768,18 +8772,18 @@
         <v>127</v>
       </c>
       <c r="D51" t="s">
+        <v>395</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" t="s">
         <v>396</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F51" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B53" t="s">
         <v>90</v>
@@ -8788,13 +8792,13 @@
         <v>165</v>
       </c>
       <c r="D53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F53" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -8802,13 +8806,13 @@
         <v>127</v>
       </c>
       <c r="D54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F54" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -8822,7 +8826,7 @@
         <v>136</v>
       </c>
       <c r="F55" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -8830,13 +8834,13 @@
         <v>141</v>
       </c>
       <c r="D56" t="s">
+        <v>403</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" t="s">
         <v>404</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F56" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -8844,13 +8848,13 @@
         <v>150</v>
       </c>
       <c r="D57" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F57" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -8858,13 +8862,13 @@
         <v>157</v>
       </c>
       <c r="D58" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F58" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -8889,7 +8893,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -8898,7 +8902,7 @@
         <v>215</v>
       </c>
       <c r="D62" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>129</v>
@@ -8909,7 +8913,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
@@ -8918,13 +8922,13 @@
         <v>165</v>
       </c>
       <c r="D64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F64" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -8932,7 +8936,7 @@
         <v>127</v>
       </c>
       <c r="D65" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>136</v>
@@ -8952,7 +8956,7 @@
         <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -8966,13 +8970,13 @@
         <v>165</v>
       </c>
       <c r="D68" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F68" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -8980,13 +8984,13 @@
         <v>127</v>
       </c>
       <c r="D69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -8994,13 +8998,13 @@
         <v>133</v>
       </c>
       <c r="D70" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -9008,7 +9012,7 @@
         <v>141</v>
       </c>
       <c r="D71" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>136</v>
@@ -9033,7 +9037,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
@@ -9042,13 +9046,13 @@
         <v>127</v>
       </c>
       <c r="D74" t="s">
+        <v>421</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F74" t="s">
         <v>422</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F74" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -9056,13 +9060,13 @@
         <v>133</v>
       </c>
       <c r="D75" t="s">
+        <v>423</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" t="s">
         <v>424</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F75" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -9076,7 +9080,7 @@
         <v>136</v>
       </c>
       <c r="F76" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -9084,13 +9088,13 @@
         <v>150</v>
       </c>
       <c r="D77" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F77" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -9098,7 +9102,7 @@
         <v>157</v>
       </c>
       <c r="D78" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>136</v>
@@ -9118,7 +9122,7 @@
         <v>164</v>
       </c>
       <c r="D80" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>136</v>
@@ -9132,13 +9136,13 @@
         <v>165</v>
       </c>
       <c r="D81" t="s">
+        <v>429</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F81" t="s">
         <v>430</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F81" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -9160,7 +9164,7 @@
         <v>133</v>
       </c>
       <c r="D83" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>129</v>
@@ -9171,7 +9175,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B85" t="s">
         <v>14</v>
@@ -9191,7 +9195,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B87" t="s">
         <v>14</v>
@@ -9200,13 +9204,13 @@
         <v>165</v>
       </c>
       <c r="D87" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F87" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -9214,13 +9218,13 @@
         <v>127</v>
       </c>
       <c r="D88" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F88" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -9228,13 +9232,13 @@
         <v>133</v>
       </c>
       <c r="D89" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F89" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -9242,7 +9246,7 @@
         <v>141</v>
       </c>
       <c r="D90" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>136</v>
@@ -9262,7 +9266,7 @@
         <v>136</v>
       </c>
       <c r="F91" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -9270,13 +9274,13 @@
         <v>157</v>
       </c>
       <c r="D92" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F92" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -9290,7 +9294,7 @@
         <v>127</v>
       </c>
       <c r="D94" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>136</v>
@@ -9304,13 +9308,13 @@
         <v>133</v>
       </c>
       <c r="D95" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F95" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -9318,13 +9322,13 @@
         <v>141</v>
       </c>
       <c r="D96" t="s">
+        <v>443</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F96" t="s">
         <v>444</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F96" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -9338,7 +9342,7 @@
         <v>127</v>
       </c>
       <c r="D98" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>136</v>
@@ -9372,18 +9376,18 @@
         <v>129</v>
       </c>
       <c r="F100" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B102" t="s">
         <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D102" t="s">
         <v>279</v>
@@ -9397,10 +9401,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D103" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>129</v>
@@ -9423,8 +9427,8 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9474,7 +9478,7 @@
         <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -9488,7 +9492,7 @@
         <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -9502,7 +9506,7 @@
         <v>136</v>
       </c>
       <c r="F4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -9510,7 +9514,7 @@
         <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>136</v>
@@ -9524,18 +9528,18 @@
         <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -9550,7 +9554,7 @@
         <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -9578,7 +9582,7 @@
         <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>136</v>
@@ -9592,13 +9596,13 @@
         <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -9612,7 +9616,7 @@
         <v>133</v>
       </c>
       <c r="D14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>136</v>
@@ -9646,7 +9650,7 @@
         <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -9657,7 +9661,7 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>136</v>
@@ -9668,13 +9672,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
+        <v>459</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" t="s">
         <v>460</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F19" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -9694,7 +9698,7 @@
         <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -9708,7 +9712,7 @@
         <v>129</v>
       </c>
       <c r="F22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -9722,13 +9726,13 @@
         <v>165</v>
       </c>
       <c r="D24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F24" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -9742,7 +9746,7 @@
         <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -9750,13 +9754,13 @@
         <v>133</v>
       </c>
       <c r="D26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F26" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -9770,7 +9774,7 @@
         <v>165</v>
       </c>
       <c r="D28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>129</v>
@@ -9781,7 +9785,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -9796,7 +9800,7 @@
         <v>136</v>
       </c>
       <c r="F30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -9804,7 +9808,7 @@
         <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>129</v>
@@ -9815,19 +9819,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F33" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -9843,7 +9847,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>380</v>
+        <v>632</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
@@ -9863,7 +9867,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B38" t="s">
         <v>18</v>
@@ -9872,7 +9876,7 @@
         <v>165</v>
       </c>
       <c r="D38" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>129</v>
@@ -9883,7 +9887,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B40" t="s">
         <v>18</v>
@@ -9906,7 +9910,7 @@
         <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>136</v>
@@ -9920,13 +9924,13 @@
         <v>141</v>
       </c>
       <c r="D42" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F42" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -9954,7 +9958,7 @@
         <v>164</v>
       </c>
       <c r="D45" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>136</v>
@@ -9968,7 +9972,7 @@
         <v>165</v>
       </c>
       <c r="D46" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>129</v>
@@ -9979,7 +9983,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B48" t="s">
         <v>90</v>
@@ -9988,18 +9992,18 @@
         <v>127</v>
       </c>
       <c r="D48" t="s">
+        <v>475</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" t="s">
         <v>476</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F48" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B50" t="s">
         <v>90</v>
@@ -10008,18 +10012,18 @@
         <v>127</v>
       </c>
       <c r="D50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F50" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B52" t="s">
         <v>90</v>
@@ -10042,13 +10046,13 @@
         <v>133</v>
       </c>
       <c r="D53" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F53" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -10076,7 +10080,7 @@
         <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>129</v>
@@ -10087,7 +10091,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
@@ -10110,13 +10114,13 @@
         <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F59" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -10149,7 +10153,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -10158,13 +10162,13 @@
         <v>165</v>
       </c>
       <c r="D63" t="s">
+        <v>482</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" t="s">
         <v>483</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F63" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -10178,7 +10182,7 @@
         <v>165</v>
       </c>
       <c r="D65" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>136</v>
@@ -10206,13 +10210,13 @@
         <v>133</v>
       </c>
       <c r="D67" t="s">
+        <v>485</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F67" t="s">
         <v>486</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -10226,7 +10230,7 @@
         <v>164</v>
       </c>
       <c r="D69" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>136</v>
@@ -10240,18 +10244,18 @@
         <v>165</v>
       </c>
       <c r="D70" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
@@ -10260,13 +10264,13 @@
         <v>133</v>
       </c>
       <c r="D72" t="s">
+        <v>489</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>490</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F72" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -10274,18 +10278,18 @@
         <v>141</v>
       </c>
       <c r="D73" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F73" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
@@ -10294,13 +10298,13 @@
         <v>165</v>
       </c>
       <c r="D75" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F75" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -10308,7 +10312,7 @@
         <v>127</v>
       </c>
       <c r="D76" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>136</v>
@@ -10342,7 +10346,7 @@
         <v>136</v>
       </c>
       <c r="F78" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -10364,13 +10368,13 @@
         <v>157</v>
       </c>
       <c r="D80" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F80" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -10384,7 +10388,7 @@
         <v>127</v>
       </c>
       <c r="D82" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>129</v>
@@ -10395,13 +10399,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B84" t="s">
         <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D84" t="s">
         <v>168</v>
@@ -10410,15 +10414,15 @@
         <v>136</v>
       </c>
       <c r="F84" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D85" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>136</v>
@@ -10432,13 +10436,13 @@
         <v>150</v>
       </c>
       <c r="D86" t="s">
+        <v>498</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F86" t="s">
         <v>499</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F86" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -10468,8 +10472,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10513,13 +10517,13 @@
         <v>127</v>
       </c>
       <c r="D2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" t="s">
         <v>502</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -10527,7 +10531,7 @@
         <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>129</v>
@@ -10538,7 +10542,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -10547,13 +10551,13 @@
         <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -10561,13 +10565,13 @@
         <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -10595,7 +10599,7 @@
         <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -10609,13 +10613,13 @@
         <v>164</v>
       </c>
       <c r="D10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -10626,7 +10630,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>136</v>
@@ -10657,13 +10661,13 @@
         <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -10691,12 +10695,12 @@
         <v>129</v>
       </c>
       <c r="F17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>513</v>
+        <v>633</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -10705,13 +10709,13 @@
         <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F19" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -10719,13 +10723,13 @@
         <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -10739,7 +10743,7 @@
         <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -10772,7 +10776,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -10787,7 +10791,7 @@
         <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -10795,13 +10799,13 @@
         <v>133</v>
       </c>
       <c r="D26" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F26" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -10815,13 +10819,13 @@
         <v>127</v>
       </c>
       <c r="D28" t="s">
+        <v>518</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" t="s">
         <v>520</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F28" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -10829,7 +10833,7 @@
         <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>129</v>
@@ -10849,13 +10853,13 @@
         <v>164</v>
       </c>
       <c r="D31" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F31" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -10863,18 +10867,18 @@
         <v>165</v>
       </c>
       <c r="D32" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F32" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
@@ -10883,7 +10887,7 @@
         <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>136</v>
@@ -10903,7 +10907,7 @@
         <v>136</v>
       </c>
       <c r="F35" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -10911,13 +10915,13 @@
         <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F36" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -10925,7 +10929,7 @@
         <v>150</v>
       </c>
       <c r="D37" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>129</v>
@@ -10945,7 +10949,7 @@
         <v>164</v>
       </c>
       <c r="D39" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>136</v>
@@ -10959,7 +10963,7 @@
         <v>165</v>
       </c>
       <c r="D40" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>136</v>
@@ -10973,7 +10977,7 @@
         <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>129</v>
@@ -10984,7 +10988,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -10993,13 +10997,13 @@
         <v>133</v>
       </c>
       <c r="D43" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F43" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -11007,13 +11011,13 @@
         <v>141</v>
       </c>
       <c r="D44" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F44" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -11021,7 +11025,7 @@
         <v>150</v>
       </c>
       <c r="D45" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>136</v>
@@ -11035,7 +11039,7 @@
         <v>157</v>
       </c>
       <c r="D46" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>129</v>
@@ -11046,7 +11050,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -11075,7 +11079,7 @@
         <v>136</v>
       </c>
       <c r="F49" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.3">
@@ -11083,13 +11087,13 @@
         <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F50" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.3">
@@ -11097,13 +11101,13 @@
         <v>150</v>
       </c>
       <c r="D51" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F51" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.3">
@@ -11133,8 +11137,8 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11169,7 +11173,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -11184,7 +11188,7 @@
         <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -11192,7 +11196,7 @@
         <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>136</v>
@@ -11206,7 +11210,7 @@
         <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>136</v>
@@ -11226,7 +11230,7 @@
         <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -11234,7 +11238,7 @@
         <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>136</v>
@@ -11259,7 +11263,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -11268,13 +11272,13 @@
         <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -11294,7 +11298,7 @@
         <v>136</v>
       </c>
       <c r="F11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -11302,7 +11306,7 @@
         <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>136</v>
@@ -11316,7 +11320,7 @@
         <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>136</v>
@@ -11330,18 +11334,18 @@
         <v>133</v>
       </c>
       <c r="D14" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>513</v>
+        <v>633</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -11350,13 +11354,13 @@
         <v>133</v>
       </c>
       <c r="D16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -11370,7 +11374,7 @@
         <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>136</v>
@@ -11384,7 +11388,7 @@
         <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>136</v>
@@ -11398,13 +11402,13 @@
         <v>141</v>
       </c>
       <c r="D20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -11418,13 +11422,13 @@
         <v>165</v>
       </c>
       <c r="D22" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F22" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -11438,7 +11442,7 @@
         <v>136</v>
       </c>
       <c r="F23" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -11452,7 +11456,7 @@
         <v>136</v>
       </c>
       <c r="F24" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -11466,12 +11470,12 @@
         <v>129</v>
       </c>
       <c r="F25" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -11494,7 +11498,7 @@
         <v>133</v>
       </c>
       <c r="D28" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>136</v>
@@ -11508,13 +11512,13 @@
         <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F29" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -11542,12 +11546,12 @@
         <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>380</v>
+        <v>632</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -11556,13 +11560,13 @@
         <v>165</v>
       </c>
       <c r="D33" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F33" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -11570,7 +11574,7 @@
         <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>136</v>
@@ -11584,13 +11588,13 @@
         <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F35" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -11604,7 +11608,7 @@
         <v>136</v>
       </c>
       <c r="F36" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -11612,7 +11616,7 @@
         <v>150</v>
       </c>
       <c r="D37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>136</v>
@@ -11632,12 +11636,12 @@
         <v>136</v>
       </c>
       <c r="F38" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B40" t="s">
         <v>18</v>
@@ -11646,7 +11650,7 @@
         <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>136</v>
@@ -11660,7 +11664,7 @@
         <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>129</v>
@@ -11680,7 +11684,7 @@
         <v>164</v>
       </c>
       <c r="D43" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>136</v>
@@ -11694,7 +11698,7 @@
         <v>165</v>
       </c>
       <c r="D44" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>136</v>
@@ -11708,18 +11712,18 @@
         <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F45" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B47" t="s">
         <v>90</v>
@@ -11728,18 +11732,18 @@
         <v>133</v>
       </c>
       <c r="D47" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F47" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B49" t="s">
         <v>90</v>
@@ -11748,7 +11752,7 @@
         <v>127</v>
       </c>
       <c r="D49" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>136</v>
@@ -11762,7 +11766,7 @@
         <v>133</v>
       </c>
       <c r="D50" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>136</v>
@@ -11782,7 +11786,7 @@
         <v>129</v>
       </c>
       <c r="F51" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -11810,7 +11814,7 @@
         <v>165</v>
       </c>
       <c r="D54" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>136</v>
@@ -11824,13 +11828,13 @@
         <v>127</v>
       </c>
       <c r="D55" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F55" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -11844,7 +11848,7 @@
         <v>136</v>
       </c>
       <c r="F56" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -11852,7 +11856,7 @@
         <v>141</v>
       </c>
       <c r="D57" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>136</v>
@@ -11866,7 +11870,7 @@
         <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>129</v>
@@ -11877,7 +11881,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
@@ -11906,12 +11910,12 @@
         <v>129</v>
       </c>
       <c r="F61" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -11926,7 +11930,7 @@
         <v>136</v>
       </c>
       <c r="F63" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -11934,7 +11938,7 @@
         <v>133</v>
       </c>
       <c r="D64" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>136</v>
@@ -11948,13 +11952,13 @@
         <v>141</v>
       </c>
       <c r="D65" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F65" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -11962,7 +11966,7 @@
         <v>150</v>
       </c>
       <c r="D66" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>129</v>
@@ -11982,13 +11986,13 @@
         <v>127</v>
       </c>
       <c r="D68" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -12008,7 +12012,7 @@
         <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -12030,7 +12034,7 @@
         <v>127</v>
       </c>
       <c r="D72" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>136</v>
@@ -12058,7 +12062,7 @@
         <v>141</v>
       </c>
       <c r="D74" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>136</v>
@@ -12072,13 +12076,13 @@
         <v>150</v>
       </c>
       <c r="D75" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F75" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -12092,13 +12096,13 @@
         <v>133</v>
       </c>
       <c r="D77" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F77" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -12117,50 +12121,50 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B80" t="s">
         <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D80" t="s">
+        <v>580</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" t="s">
         <v>582</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F80" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D81" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F81" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D82" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F82" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -12176,8 +12180,8 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:F28"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12221,18 +12225,18 @@
         <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -12241,13 +12245,13 @@
         <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -12267,7 +12271,7 @@
         <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -12275,13 +12279,13 @@
         <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -12295,7 +12299,7 @@
         <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -12303,13 +12307,13 @@
         <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -12323,7 +12327,7 @@
         <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>136</v>
@@ -12348,7 +12352,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>513</v>
+        <v>633</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -12357,7 +12361,7 @@
         <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>136</v>
@@ -12371,7 +12375,7 @@
         <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>136</v>
@@ -12385,7 +12389,7 @@
         <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>129</v>
@@ -12411,7 +12415,7 @@
         <v>129</v>
       </c>
       <c r="F18" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -12436,7 +12440,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -12445,7 +12449,7 @@
         <v>127</v>
       </c>
       <c r="D22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>136</v>
@@ -12459,18 +12463,18 @@
         <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -12485,7 +12489,7 @@
         <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -12493,13 +12497,13 @@
         <v>141</v>
       </c>
       <c r="D26" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F26" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -12507,7 +12511,7 @@
         <v>150</v>
       </c>
       <c r="D27" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>136</v>
@@ -12521,7 +12525,7 @@
         <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>129</v>
@@ -12532,7 +12536,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>380</v>
+        <v>632</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -12541,18 +12545,18 @@
         <v>165</v>
       </c>
       <c r="D30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
@@ -12567,7 +12571,7 @@
         <v>136</v>
       </c>
       <c r="F32" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -12575,7 +12579,7 @@
         <v>133</v>
       </c>
       <c r="D33" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>136</v>
@@ -12589,13 +12593,13 @@
         <v>141</v>
       </c>
       <c r="D34" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F34" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -12603,7 +12607,7 @@
         <v>150</v>
       </c>
       <c r="D35" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>129</v>
@@ -12623,13 +12627,13 @@
         <v>164</v>
       </c>
       <c r="D37" t="s">
+        <v>600</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" t="s">
         <v>602</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -12657,12 +12661,12 @@
         <v>129</v>
       </c>
       <c r="F39" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B41" t="s">
         <v>90</v>
@@ -12685,7 +12689,7 @@
         <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>136</v>
@@ -12699,13 +12703,13 @@
         <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F43" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -12733,12 +12737,12 @@
         <v>129</v>
       </c>
       <c r="F45" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B47" t="s">
         <v>90</v>
@@ -12758,7 +12762,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -12767,13 +12771,13 @@
         <v>133</v>
       </c>
       <c r="D49" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F49" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -12781,18 +12785,18 @@
         <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F50" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -12801,7 +12805,7 @@
         <v>127</v>
       </c>
       <c r="D52" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>136</v>
@@ -12815,13 +12819,13 @@
         <v>133</v>
       </c>
       <c r="D53" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F53" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -12841,7 +12845,7 @@
         <v>136</v>
       </c>
       <c r="F55" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -12855,7 +12859,7 @@
         <v>136</v>
       </c>
       <c r="F56" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -12869,7 +12873,7 @@
         <v>136</v>
       </c>
       <c r="F57" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -12877,13 +12881,13 @@
         <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F58" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -12897,7 +12901,7 @@
         <v>164</v>
       </c>
       <c r="D60" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>136</v>
@@ -12911,13 +12915,13 @@
         <v>165</v>
       </c>
       <c r="D61" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F61" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -12925,7 +12929,7 @@
         <v>127</v>
       </c>
       <c r="D62" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>136</v>
@@ -12939,13 +12943,13 @@
         <v>133</v>
       </c>
       <c r="D63" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F63" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -12953,7 +12957,7 @@
         <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>136</v>
@@ -12967,18 +12971,18 @@
         <v>150</v>
       </c>
       <c r="D65" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F65" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -12993,7 +12997,7 @@
         <v>136</v>
       </c>
       <c r="F67" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -13007,12 +13011,12 @@
         <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -13027,21 +13031,21 @@
         <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D72" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>136</v>
@@ -13052,30 +13056,30 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D73" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F73" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D74" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F74" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -13083,13 +13087,13 @@
         <v>150</v>
       </c>
       <c r="D75" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F75" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -13097,7 +13101,7 @@
         <v>157</v>
       </c>
       <c r="D76" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>136</v>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2932" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4AC2615-31DE-464B-8E42-782896020E4C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="11" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="10" r:id="rId1"/>
@@ -4268,7 +4268,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A9282421-0523-4C67-AE1B-EF70907B0B08}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -9427,8 +9427,8 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2932" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4AC2615-31DE-464B-8E42-782896020E4C}"/>
+  <xr:revisionPtr revIDLastSave="2957" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCDE2D34-C51D-49ED-9F67-7B0A38F90084}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
+    <workbookView minimized="1" xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="10" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="10" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="637">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -1950,6 +1950,15 @@
   </si>
   <si>
     <t>QATAR LADIES OPEN</t>
+  </si>
+  <si>
+    <t>6-3 3-6 6-3</t>
+  </si>
+  <si>
+    <t>Mirra Andreeva (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Mayar Sherif (EGYPT)</t>
   </si>
 </sst>
 </file>
@@ -2245,7 +2254,7 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2865,7 +2874,7 @@
                   <c:v>0.38235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.82608695652173914</c:v>
+                  <c:v>0.86206896551724133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4779,10 +4788,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5215,7 +5224,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>150</v>
       </c>
@@ -5229,7 +5238,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>157</v>
       </c>
@@ -5241,6 +5250,96 @@
       </c>
       <c r="F34" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>632</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" t="s">
+        <v>629</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" t="s">
+        <v>567</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" t="s">
+        <v>635</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" t="s">
+        <v>636</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" t="s">
+        <v>485</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" t="s">
+        <v>580</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" t="s">
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -5256,8 +5355,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5484,20 +5583,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11" si="1">(D11-E11)/D11</f>
-        <v>0.82608695652173914</v>
+        <v>0.86206896551724133</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5506,15 +5605,15 @@
       </c>
       <c r="B12" s="3">
         <f>SUM(B2:B11)</f>
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ref="C12:E12" si="2">SUM(C2:C11)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="2"/>
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="2"/>
@@ -5522,7 +5621,7 @@
       </c>
       <c r="F12" s="4">
         <f t="shared" ref="F12:F13" si="3">(D12-E12)/D12</f>
-        <v>0.51410658307210033</v>
+        <v>0.52307692307692311</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5531,15 +5630,15 @@
       </c>
       <c r="B13" s="3">
         <f>AVERAGE(B2:B11)</f>
-        <v>17.399999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ref="C13:E13" si="4">AVERAGE(C2:C11)</f>
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="4"/>
-        <v>31.9</v>
+        <v>32.5</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="4"/>
@@ -5547,7 +5646,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="3"/>
-        <v>0.51410658307210033</v>
+        <v>0.52307692307692311</v>
       </c>
     </row>
   </sheetData>
@@ -9427,8 +9526,8 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2957" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCDE2D34-C51D-49ED-9F67-7B0A38F90084}"/>
+  <xr:revisionPtr revIDLastSave="2964" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{555F069C-DAA2-472B-ACB4-DB80FC82487D}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="10" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="10" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="637">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -2362,7 +2362,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2874,7 +2874,7 @@
                   <c:v>0.38235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.86206896551724133</c:v>
+                  <c:v>0.82758620689655171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4788,10 +4788,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="A43" activeCellId="7" sqref="A2 A7 A15 A19 A26 A31 A36 A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5342,6 +5342,26 @@
         <v>634</v>
       </c>
     </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>384</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" t="s">
+        <v>435</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" t="s">
+        <v>505</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5356,7 +5376,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5583,7 +5603,7 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -5592,11 +5612,11 @@
         <v>29</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11" si="1">(D11-E11)/D11</f>
-        <v>0.86206896551724133</v>
+        <v>0.82758620689655171</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5605,7 +5625,7 @@
       </c>
       <c r="B12" s="3">
         <f>SUM(B2:B11)</f>
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ref="C12:E12" si="2">SUM(C2:C11)</f>
@@ -5617,11 +5637,11 @@
       </c>
       <c r="E12" s="3">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ref="F12:F13" si="3">(D12-E12)/D12</f>
-        <v>0.52307692307692311</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5630,7 +5650,7 @@
       </c>
       <c r="B13" s="3">
         <f>AVERAGE(B2:B11)</f>
-        <v>17.5</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ref="C13:E13" si="4">AVERAGE(C2:C11)</f>
@@ -5642,11 +5662,11 @@
       </c>
       <c r="E13" s="3">
         <f t="shared" si="4"/>
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="3"/>
-        <v>0.52307692307692311</v>
+        <v>0.51999999999999991</v>
       </c>
     </row>
   </sheetData>
@@ -12279,8 +12299,8 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2964" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{555F069C-DAA2-472B-ACB4-DB80FC82487D}"/>
+  <xr:revisionPtr revIDLastSave="2987" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F0C662B-AD80-4949-82AA-AB0250D5A135}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="640">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -1959,6 +1959,15 @@
   </si>
   <si>
     <t>Mayar Sherif (EGYPT)</t>
+  </si>
+  <si>
+    <t>Iryna Shymanovich (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Kamilla Rakhimova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>7-6(5) 6-7(5) 7-5</t>
   </si>
 </sst>
 </file>
@@ -2254,7 +2263,7 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2362,7 +2371,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2874,7 +2883,7 @@
                   <c:v>0.38235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.82758620689655171</c:v>
+                  <c:v>0.82352941176470584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4363,10 +4372,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4788,10 +4793,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A43" activeCellId="7" sqref="A2 A7 A15 A19 A26 A31 A36 A43"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" activeCellId="2" sqref="A2 A7 A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5360,6 +5365,96 @@
       </c>
       <c r="F43" t="s">
         <v>505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>299</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" t="s">
+        <v>592</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" t="s">
+        <v>637</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" t="s">
+        <v>638</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" t="s">
+        <v>335</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" t="s">
+        <v>434</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" t="s">
+        <v>498</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" t="s">
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -5603,20 +5698,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11" si="1">(D11-E11)/D11</f>
-        <v>0.82758620689655171</v>
+        <v>0.82352941176470584</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5625,7 +5720,7 @@
       </c>
       <c r="B12" s="3">
         <f>SUM(B2:B11)</f>
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ref="C12:E12" si="2">SUM(C2:C11)</f>
@@ -5633,15 +5728,15 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="2"/>
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="2"/>
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ref="F12:F13" si="3">(D12-E12)/D12</f>
-        <v>0.52</v>
+        <v>0.52424242424242429</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5650,7 +5745,7 @@
       </c>
       <c r="B13" s="3">
         <f>AVERAGE(B2:B11)</f>
-        <v>17.600000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ref="C13:E13" si="4">AVERAGE(C2:C11)</f>
@@ -5658,15 +5753,15 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="4"/>
-        <v>32.5</v>
+        <v>33</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="4"/>
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="3"/>
-        <v>0.51999999999999991</v>
+        <v>0.52424242424242429</v>
       </c>
     </row>
   </sheetData>
@@ -9547,7 +9642,7 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2987" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F0C662B-AD80-4949-82AA-AB0250D5A135}"/>
+  <xr:revisionPtr revIDLastSave="3000" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39C79029-BED5-4943-A235-0EF46E5D91D0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="642">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -1968,6 +1968,12 @@
   </si>
   <si>
     <t>7-6(5) 6-7(5) 7-5</t>
+  </si>
+  <si>
+    <t>LIBEMA OPEN</t>
+  </si>
+  <si>
+    <t>6-2 7-6(2)</t>
   </si>
 </sst>
 </file>
@@ -2263,7 +2269,7 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2371,7 +2377,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2883,7 +2889,7 @@
                   <c:v>0.38235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.82352941176470584</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4793,10 +4799,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A36" activeCellId="2" sqref="A2 A7 A36"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E52" activeCellId="9" sqref="E2:E5 E7:E13 E15:E16 E19 E21:E23 E26:E28 E31:E33 E36:E41 E45:E49 E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4806,7 +4812,7 @@
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5429,7 +5435,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>141</v>
       </c>
@@ -5443,7 +5449,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>150</v>
       </c>
@@ -5455,6 +5461,40 @@
       </c>
       <c r="F50" t="s">
         <v>639</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>640</v>
+      </c>
+      <c r="B52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" t="s">
+        <v>429</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F53" t="s">
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -5698,20 +5738,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11" si="1">(D11-E11)/D11</f>
-        <v>0.82352941176470584</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5720,7 +5760,7 @@
       </c>
       <c r="B12" s="3">
         <f>SUM(B2:B11)</f>
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ref="C12:E12" si="2">SUM(C2:C11)</f>
@@ -5728,15 +5768,15 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="2"/>
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ref="F12:F13" si="3">(D12-E12)/D12</f>
-        <v>0.52424242424242429</v>
+        <v>0.5226586102719033</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5745,7 +5785,7 @@
       </c>
       <c r="B13" s="3">
         <f>AVERAGE(B2:B11)</f>
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ref="C13:E13" si="4">AVERAGE(C2:C11)</f>
@@ -5753,15 +5793,15 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="4"/>
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="3"/>
-        <v>0.52424242424242429</v>
+        <v>0.5226586102719033</v>
       </c>
     </row>
   </sheetData>
@@ -12395,12 +12435,12 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B32"/>
+      <selection activeCell="A41" sqref="A41:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
@@ -12880,7 +12920,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>390</v>
+        <v>640</v>
       </c>
       <c r="B41" t="s">
         <v>90</v>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2964" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{555F069C-DAA2-472B-ACB4-DB80FC82487D}"/>
+  <xr:revisionPtr revIDLastSave="3000" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39C79029-BED5-4943-A235-0EF46E5D91D0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="642">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -1959,6 +1959,21 @@
   </si>
   <si>
     <t>Mayar Sherif (EGYPT)</t>
+  </si>
+  <si>
+    <t>Iryna Shymanovich (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Kamilla Rakhimova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>7-6(5) 6-7(5) 7-5</t>
+  </si>
+  <si>
+    <t>LIBEMA OPEN</t>
+  </si>
+  <si>
+    <t>6-2 7-6(2)</t>
   </si>
 </sst>
 </file>
@@ -2254,7 +2269,7 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2362,7 +2377,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2874,7 +2889,7 @@
                   <c:v>0.38235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.82758620689655171</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4363,10 +4378,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4788,10 +4799,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A43" activeCellId="7" sqref="A2 A7 A15 A19 A26 A31 A36 A43"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E52" activeCellId="9" sqref="E2:E5 E7:E13 E15:E16 E19 E21:E23 E26:E28 E31:E33 E36:E41 E45:E49 E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4801,7 +4812,7 @@
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5360,6 +5371,130 @@
       </c>
       <c r="F43" t="s">
         <v>505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>299</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" t="s">
+        <v>592</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" t="s">
+        <v>637</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" t="s">
+        <v>638</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" t="s">
+        <v>335</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" t="s">
+        <v>434</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" t="s">
+        <v>498</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>640</v>
+      </c>
+      <c r="B52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" t="s">
+        <v>429</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F53" t="s">
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -5603,20 +5738,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11" si="1">(D11-E11)/D11</f>
-        <v>0.82758620689655171</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5625,7 +5760,7 @@
       </c>
       <c r="B12" s="3">
         <f>SUM(B2:B11)</f>
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ref="C12:E12" si="2">SUM(C2:C11)</f>
@@ -5633,15 +5768,15 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="2"/>
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="2"/>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ref="F12:F13" si="3">(D12-E12)/D12</f>
-        <v>0.52</v>
+        <v>0.5226586102719033</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5650,7 +5785,7 @@
       </c>
       <c r="B13" s="3">
         <f>AVERAGE(B2:B11)</f>
-        <v>17.600000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ref="C13:E13" si="4">AVERAGE(C2:C11)</f>
@@ -5658,15 +5793,15 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="4"/>
-        <v>32.5</v>
+        <v>33.1</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="4"/>
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="3"/>
-        <v>0.51999999999999991</v>
+        <v>0.5226586102719033</v>
       </c>
     </row>
   </sheetData>
@@ -9547,7 +9682,7 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12300,12 +12435,12 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B32"/>
+      <selection activeCell="A41" sqref="A41:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
@@ -12785,7 +12920,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>390</v>
+        <v>640</v>
       </c>
       <c r="B41" t="s">
         <v>90</v>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3000" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39C79029-BED5-4943-A235-0EF46E5D91D0}"/>
+  <xr:revisionPtr revIDLastSave="3019" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11B80647-CFEF-44C7-807E-39816EDB39DD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="646">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -1974,6 +1974,18 @@
   </si>
   <si>
     <t>6-2 7-6(2)</t>
+  </si>
+  <si>
+    <t>6-7(5) 6-4 6-3</t>
+  </si>
+  <si>
+    <t>Panna Udvardy (HUNGARY)</t>
+  </si>
+  <si>
+    <t>Varvara Gracheva (FRANCE)</t>
+  </si>
+  <si>
+    <t>2-6 7-5 6-2</t>
   </si>
 </sst>
 </file>
@@ -2269,7 +2281,7 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2377,7 +2389,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4378,6 +4390,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4799,10 +4815,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E52" activeCellId="9" sqref="E2:E5 E7:E13 E15:E16 E19 E21:E23 E26:E28 E31:E33 E36:E41 E45:E49 E52"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E60" activeCellId="7" sqref="E17 E24 E29 E34 E43 E50 E53 E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5495,6 +5511,96 @@
       </c>
       <c r="F53" t="s">
         <v>641</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>307</v>
+      </c>
+      <c r="B55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" t="s">
+        <v>643</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" t="s">
+        <v>644</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" t="s">
+        <v>303</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" t="s">
+        <v>285</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" t="s">
+        <v>412</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" t="s">
+        <v>528</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F60" t="s">
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -5738,16 +5844,16 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11" si="1">(D11-E11)/D11</f>
@@ -5760,7 +5866,7 @@
       </c>
       <c r="B12" s="3">
         <f>SUM(B2:B11)</f>
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ref="C12:E12" si="2">SUM(C2:C11)</f>
@@ -5768,15 +5874,15 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="2"/>
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="2"/>
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ref="F12:F13" si="3">(D12-E12)/D12</f>
-        <v>0.5226586102719033</v>
+        <v>0.5267857142857143</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5785,7 +5891,7 @@
       </c>
       <c r="B13" s="3">
         <f>AVERAGE(B2:B11)</f>
-        <v>17.8</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ref="C13:E13" si="4">AVERAGE(C2:C11)</f>
@@ -5793,15 +5899,15 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="4"/>
-        <v>33.1</v>
+        <v>33.6</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="4"/>
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="3"/>
-        <v>0.5226586102719033</v>
+        <v>0.5267857142857143</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3019" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11B80647-CFEF-44C7-807E-39816EDB39DD}"/>
+  <xr:revisionPtr revIDLastSave="3030" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C45A45FA-B6F7-4D57-A81B-7AF4F9EB7C76}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="648">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -1986,6 +1986,12 @@
   </si>
   <si>
     <t>2-6 7-5 6-2</t>
+  </si>
+  <si>
+    <t>6-3 7-6(5)</t>
+  </si>
+  <si>
+    <t>7-6(2) 4-6 6-3</t>
   </si>
 </sst>
 </file>
@@ -2281,7 +2287,7 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2389,7 +2395,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2901,7 +2907,7 @@
                   <c:v>0.38235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8</c:v>
+                  <c:v>0.78048780487804881</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4815,10 +4821,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E60" activeCellId="7" sqref="E17 E24 E29 E34 E43 E50 E53 E60"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E63" activeCellId="8" sqref="E17 E24 E29 E34 E43 E50 E53 E60 E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5601,6 +5607,40 @@
       </c>
       <c r="F60" t="s">
         <v>642</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>414</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" t="s">
+        <v>484</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F62" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" t="s">
+        <v>158</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -5844,20 +5884,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11" si="1">(D11-E11)/D11</f>
-        <v>0.8</v>
+        <v>0.78048780487804881</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5866,7 +5906,7 @@
       </c>
       <c r="B12" s="3">
         <f>SUM(B2:B11)</f>
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ref="C12:E12" si="2">SUM(C2:C11)</f>
@@ -5874,15 +5914,15 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="2"/>
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ref="F12:F13" si="3">(D12-E12)/D12</f>
-        <v>0.5267857142857143</v>
+        <v>0.52522255192878342</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5891,7 +5931,7 @@
       </c>
       <c r="B13" s="3">
         <f>AVERAGE(B2:B11)</f>
-        <v>17.899999999999999</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ref="C13:E13" si="4">AVERAGE(C2:C11)</f>
@@ -5899,15 +5939,15 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="4"/>
-        <v>33.6</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="4"/>
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="3"/>
-        <v>0.5267857142857143</v>
+        <v>0.52522255192878342</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3030" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C45A45FA-B6F7-4D57-A81B-7AF4F9EB7C76}"/>
+  <xr:revisionPtr revIDLastSave="3046" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8A1F38B-68DA-4C16-8450-4B746FA8FD99}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="651">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -1992,6 +1992,15 @@
   </si>
   <si>
     <t>7-6(2) 4-6 6-3</t>
+  </si>
+  <si>
+    <t>7-5 2-6 6-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-3 6-3 </t>
+  </si>
+  <si>
+    <t>6-7(4) 6-3 6-2</t>
   </si>
 </sst>
 </file>
@@ -2287,7 +2296,7 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2395,7 +2404,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2907,7 +2916,7 @@
                   <c:v>0.38235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.78048780487804881</c:v>
+                  <c:v>0.77272727272727271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4821,10 +4830,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E63" activeCellId="8" sqref="E17 E24 E29 E34 E43 E50 E53 E60 E63"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E65" activeCellId="12" sqref="E2:E5 E7:E13 E15:E16 E19 E21:E23 E26:E28 E31:E33 E36:E41 E45:E49 E52 E55:E59 E62 E65:E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5641,6 +5650,68 @@
       </c>
       <c r="F63" t="s">
         <v>647</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>315</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" t="s">
+        <v>546</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F65" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" t="s">
+        <v>496</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F66" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" t="s">
+        <v>528</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" t="s">
+        <v>498</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F68" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -5884,20 +5955,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11" si="1">(D11-E11)/D11</f>
-        <v>0.78048780487804881</v>
+        <v>0.77272727272727271</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5906,7 +5977,7 @@
       </c>
       <c r="B12" s="3">
         <f>SUM(B2:B11)</f>
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ref="C12:E12" si="2">SUM(C2:C11)</f>
@@ -5914,15 +5985,15 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="2"/>
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ref="F12:F13" si="3">(D12-E12)/D12</f>
-        <v>0.52522255192878342</v>
+        <v>0.52647058823529413</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5931,7 +6002,7 @@
       </c>
       <c r="B13" s="3">
         <f>AVERAGE(B2:B11)</f>
-        <v>18</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ref="C13:E13" si="4">AVERAGE(C2:C11)</f>
@@ -5939,15 +6010,15 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="4"/>
-        <v>33.700000000000003</v>
+        <v>34</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="3"/>
-        <v>0.52522255192878342</v>
+        <v>0.52647058823529402</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3046" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8A1F38B-68DA-4C16-8450-4B746FA8FD99}"/>
+  <xr:revisionPtr revIDLastSave="3077" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{092F6A02-2E8D-44BE-B28C-5B24755A693D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="656">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -2001,6 +2001,21 @@
   </si>
   <si>
     <t>6-7(4) 6-3 6-2</t>
+  </si>
+  <si>
+    <t>Maryna Zanevska (UKRAINE)</t>
+  </si>
+  <si>
+    <t>0-6 7-6(1) 7-6(10-5)</t>
+  </si>
+  <si>
+    <t>2-6 6-3 6-2</t>
+  </si>
+  <si>
+    <t>Jodie Burrage (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>Qinwen Zheng (CHINA)</t>
   </si>
 </sst>
 </file>
@@ -2296,7 +2311,7 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2404,7 +2419,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2916,7 +2931,7 @@
                   <c:v>0.38235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.77272727272727271</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4830,10 +4845,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E65" activeCellId="12" sqref="E2:E5 E7:E13 E15:E16 E19 E21:E23 E26:E28 E31:E33 E36:E41 E45:E49 E52 E55:E59 E62 E65:E67"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E70" activeCellId="13" sqref="E2:E5 E7:E13 E15:E16 E19 E21:E23 E26:E28 E31:E33 E36:E41 E45:E49 E52 E55:E59 E62 E65:E67 E70:E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4843,7 +4858,7 @@
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5712,6 +5727,110 @@
       </c>
       <c r="F68" t="s">
         <v>650</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>238</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" t="s">
+        <v>651</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71" t="s">
+        <v>654</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" t="s">
+        <v>615</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>133</v>
+      </c>
+      <c r="D73" t="s">
+        <v>496</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>141</v>
+      </c>
+      <c r="D74" t="s">
+        <v>655</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" t="s">
+        <v>412</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" t="s">
+        <v>515</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F76" t="s">
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -5955,20 +6074,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11" si="1">(D11-E11)/D11</f>
-        <v>0.77272727272727271</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5977,7 +6096,7 @@
       </c>
       <c r="B12" s="3">
         <f>SUM(B2:B11)</f>
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ref="C12:E12" si="2">SUM(C2:C11)</f>
@@ -5985,15 +6104,15 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="2"/>
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="2"/>
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ref="F12:F13" si="3">(D12-E12)/D12</f>
-        <v>0.52647058823529413</v>
+        <v>0.53179190751445082</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6002,7 +6121,7 @@
       </c>
       <c r="B13" s="3">
         <f>AVERAGE(B2:B11)</f>
-        <v>18.100000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ref="C13:E13" si="4">AVERAGE(C2:C11)</f>
@@ -6010,15 +6129,15 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>34.6</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="4"/>
-        <v>16.100000000000001</v>
+        <v>16.2</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="3"/>
-        <v>0.52647058823529402</v>
+        <v>0.53179190751445093</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3077" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{092F6A02-2E8D-44BE-B28C-5B24755A693D}"/>
+  <xr:revisionPtr revIDLastSave="3078" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8E3F0DC-8203-402D-A49B-F3F42A2AEF35}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="10" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="10" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="2021" sheetId="7" r:id="rId8"/>
     <sheet name="2022" sheetId="8" r:id="rId9"/>
     <sheet name="2023" sheetId="12" r:id="rId10"/>
-    <sheet name="YTD Stats" sheetId="9" r:id="rId11"/>
+    <sheet name="Stats" sheetId="9" r:id="rId11"/>
     <sheet name="Wins-Losses" sheetId="13" r:id="rId12"/>
     <sheet name="Winning Percentile Range" sheetId="14" r:id="rId13"/>
   </sheets>
@@ -2219,7 +2219,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2240,7 +2240,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
+              <c:f>Stats!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2279,7 +2279,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$11</c:f>
+              <c:f>Stats!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2327,7 +2327,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2348,7 +2348,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
+              <c:f>Stats!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2387,7 +2387,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$11</c:f>
+              <c:f>Stats!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2811,7 +2811,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2860,7 +2860,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
+              <c:f>Stats!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2899,7 +2899,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$11</c:f>
+              <c:f>Stats!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4391,7 +4391,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8570360" cy="5830584"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3078" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8E3F0DC-8203-402D-A49B-F3F42A2AEF35}"/>
+  <xr:revisionPtr revIDLastSave="3096" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E45FEA8-D936-4691-99D2-A6CAA555A802}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="10" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="657">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -2016,6 +2016,9 @@
   </si>
   <si>
     <t>Qinwen Zheng (CHINA)</t>
+  </si>
+  <si>
+    <t>7-5 7-6(2)</t>
   </si>
 </sst>
 </file>
@@ -2311,7 +2314,7 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2419,7 +2422,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2931,7 +2934,7 @@
                   <c:v>0.38235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.78</c:v>
+                  <c:v>0.77358490566037741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4845,10 +4848,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E70" activeCellId="13" sqref="E2:E5 E7:E13 E15:E16 E19 E21:E23 E26:E28 E31:E33 E36:E41 E45:E49 E52 E55:E59 E62 E65:E67 E70:E75"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E78" activeCellId="14" sqref="E2:E5 E7:E13 E15:E16 E19 E21:E23 E26:E28 E31:E33 E36:E41 E45:E49 E52 E55:E59 E62 E65:E67 E70:E75 E78:E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5831,6 +5834,68 @@
       </c>
       <c r="F76" t="s">
         <v>653</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>326</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
+        <v>165</v>
+      </c>
+      <c r="D78" t="s">
+        <v>435</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F78" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>127</v>
+      </c>
+      <c r="D79" t="s">
+        <v>455</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F79" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>133</v>
+      </c>
+      <c r="D80" t="s">
+        <v>305</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>141</v>
+      </c>
+      <c r="D81" t="s">
+        <v>172</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F81" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -6074,20 +6139,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11" si="1">(D11-E11)/D11</f>
-        <v>0.78</v>
+        <v>0.77358490566037741</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6096,7 +6161,7 @@
       </c>
       <c r="B12" s="3">
         <f>SUM(B2:B11)</f>
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ref="C12:E12" si="2">SUM(C2:C11)</f>
@@ -6104,15 +6169,15 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="2"/>
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="2"/>
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ref="F12:F13" si="3">(D12-E12)/D12</f>
-        <v>0.53179190751445082</v>
+        <v>0.53295128939828085</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6121,7 +6186,7 @@
       </c>
       <c r="B13" s="3">
         <f>AVERAGE(B2:B11)</f>
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ref="C13:E13" si="4">AVERAGE(C2:C11)</f>
@@ -6129,15 +6194,15 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="4"/>
-        <v>34.6</v>
+        <v>34.9</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="4"/>
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="3"/>
-        <v>0.53179190751445093</v>
+        <v>0.53295128939828074</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3096" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E45FEA8-D936-4691-99D2-A6CAA555A802}"/>
+  <xr:revisionPtr revIDLastSave="3097" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1E6B41B-D317-4AA0-A04F-9FB26261FAD6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="10" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="11" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="10" r:id="rId1"/>
@@ -4337,7 +4337,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A9282421-0523-4C67-AE1B-EF70907B0B08}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4361,7 +4361,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4730,20 +4730,20 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>133</v>
       </c>
@@ -4850,21 +4850,21 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E78" activeCellId="14" sqref="E2:E5 E7:E13 E15:E16 E19 E21:E23 E26:E28 E31:E33 E36:E41 E45:E49 E52 E55:E59 E62 E65:E67 E70:E75 E78:E80"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>150</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>157</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>165</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>127</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>133</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>141</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>157</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>127</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>133</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>141</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>157</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>366</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>127</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>133</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>141</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>559</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>150</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>157</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>632</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>127</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>133</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>141</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>157</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>384</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>165</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>127</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>133</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>141</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>150</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>640</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>133</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>307</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>165</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>127</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>133</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>141</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>414</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>315</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>141</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>150</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>238</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>165</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>127</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>157</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>326</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>127</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>133</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>141</v>
       </c>
@@ -5911,21 +5911,21 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>0.30555555555555558</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>0.54716981132075471</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>0.6071428571428571</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>0.38235294117647056</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>0.77358490566037741</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>0.53295128939828085</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -6228,20 +6228,20 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>140</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>133</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>141</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>148</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>148</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>150</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>148</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>130</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>133</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>141</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>177</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>177</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>133</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>182</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>140</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>133</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>141</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>150</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>157</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>133</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>141</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>150</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>157</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>133</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>150</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>199</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>133</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>141</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>150</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>157</v>
       </c>
@@ -6953,20 +6953,20 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>204</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>150</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>157</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>212</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>214</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>216</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>133</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>141</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>222</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>133</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>141</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>157</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>141</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>150</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>231</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>133</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>234</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>133</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>236</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>238</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>216</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>242</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>133</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>141</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>150</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>244</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>246</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>133</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>249</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>133</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>150</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>157</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>256</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>141</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>150</v>
       </c>
@@ -7767,20 +7767,20 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>163</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>216</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>264</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>265</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>267</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>270</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>216</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>165</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>274</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>276</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>280</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>133</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>141</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>150</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>157</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>287</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>216</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>265</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>290</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>214</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>293</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>295</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>299</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>300</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>133</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>306</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>307</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>216</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>308</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>164</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>165</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>312</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>133</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>315</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>216</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>238</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>317</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>133</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>141</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>319</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>141</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>150</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>326</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>328</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>157</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>265</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>337</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>339</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>133</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>341</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>133</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>141</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>150</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>157</v>
       </c>
@@ -8821,20 +8821,20 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>141</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>350</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>133</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>141</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>265</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>320</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>216</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>308</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>165</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>127</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>366</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>165</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>287</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>133</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>141</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>157</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>265</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>301</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>379</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>632</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>216</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>165</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>384</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>216</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>165</v>
       </c>
@@ -9348,7 +9348,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>390</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>133</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>141</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>394</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>397</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>127</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>133</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>150</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>157</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>307</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>409</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>414</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>127</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>315</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>127</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>133</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>141</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>150</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>426</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>133</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>141</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>150</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>157</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>238</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>165</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>127</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>133</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>432</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>433</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>127</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>133</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>141</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>150</v>
       </c>
@@ -9924,7 +9924,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>157</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>326</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>133</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>141</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>328</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>133</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>141</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>447</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>448</v>
       </c>
@@ -10083,20 +10083,20 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>141</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>150</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>157</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>453</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>165</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>127</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>264</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>150</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>265</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>459</v>
       </c>
@@ -10336,7 +10336,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>270</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>133</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>362</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>127</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>133</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>366</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>469</v>
       </c>
@@ -10458,7 +10458,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>133</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>464</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>279</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>632</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>384</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>474</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>133</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>165</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>390</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>477</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>397</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>133</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>141</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>307</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>409</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>141</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>157</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>414</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>315</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>127</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>133</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>238</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>165</v>
       </c>
@@ -10908,7 +10908,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>492</v>
       </c>
@@ -10928,7 +10928,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>141</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>433</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>127</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>133</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>141</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>150</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>157</v>
       </c>
@@ -11032,7 +11032,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>326</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>447</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>448</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>150</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>157</v>
       </c>
@@ -11128,20 +11128,20 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -11181,7 +11181,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -11195,7 +11195,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>506</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>150</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>265</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>267</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>633</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>133</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>141</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>150</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>157</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>514</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>133</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>315</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>238</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>165</v>
       </c>
@@ -11531,7 +11531,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>474</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>299</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>165</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>127</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>529</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>141</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>150</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>157</v>
       </c>
@@ -11703,7 +11703,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>534</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>133</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>150</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>157</v>
       </c>
@@ -11793,20 +11793,20 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>539</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>127</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>133</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>141</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -11902,7 +11902,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>157</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>542</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>163</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>165</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>127</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>133</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>633</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>133</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>141</v>
       </c>
@@ -12066,7 +12066,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>366</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>127</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>133</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>141</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>559</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>133</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>141</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>150</v>
       </c>
@@ -12190,7 +12190,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>157</v>
       </c>
@@ -12204,7 +12204,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>632</v>
       </c>
@@ -12224,7 +12224,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>127</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>157</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>384</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>133</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>299</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>165</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>127</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>564</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>397</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>133</v>
       </c>
@@ -12430,7 +12430,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>141</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>307</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>165</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>127</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>133</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>141</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>150</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>569</v>
       </c>
@@ -12554,7 +12554,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>127</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>414</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>133</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>141</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>150</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>315</v>
       </c>
@@ -12650,7 +12650,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>238</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>165</v>
       </c>
@@ -12684,7 +12684,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>127</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -12712,7 +12712,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>244</v>
       </c>
@@ -12760,7 +12760,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>141</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>579</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>448</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>448</v>
       </c>
@@ -12836,20 +12836,20 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:F42"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -12889,7 +12889,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>585</v>
       </c>
@@ -12909,7 +12909,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -12929,7 +12929,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>165</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>127</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>133</v>
       </c>
@@ -12971,7 +12971,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>270</v>
       </c>
@@ -12991,7 +12991,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>133</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>633</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>133</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>141</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>362</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>366</v>
       </c>
@@ -13093,7 +13093,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>469</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>133</v>
       </c>
@@ -13127,7 +13127,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>559</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>141</v>
       </c>
@@ -13161,7 +13161,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>150</v>
       </c>
@@ -13175,7 +13175,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>157</v>
       </c>
@@ -13189,7 +13189,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>632</v>
       </c>
@@ -13209,7 +13209,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>384</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>133</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>150</v>
       </c>
@@ -13271,7 +13271,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>299</v>
       </c>
@@ -13291,7 +13291,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>165</v>
       </c>
@@ -13305,7 +13305,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>127</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>640</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>133</v>
       </c>
@@ -13353,7 +13353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>141</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>150</v>
       </c>
@@ -13381,7 +13381,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>157</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>564</v>
       </c>
@@ -13415,7 +13415,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>409</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -13449,7 +13449,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>414</v>
       </c>
@@ -13469,7 +13469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>133</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>315</v>
       </c>
@@ -13503,7 +13503,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>133</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>141</v>
       </c>
@@ -13531,7 +13531,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>150</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>238</v>
       </c>
@@ -13565,7 +13565,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>165</v>
       </c>
@@ -13579,7 +13579,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>127</v>
       </c>
@@ -13593,7 +13593,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -13607,7 +13607,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>141</v>
       </c>
@@ -13621,7 +13621,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>150</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>617</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>141</v>
       </c>
@@ -13669,7 +13669,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>620</v>
       </c>
@@ -13689,7 +13689,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>579</v>
       </c>
@@ -13709,7 +13709,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>448</v>
       </c>
@@ -13723,7 +13723,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>448</v>
       </c>
@@ -13737,7 +13737,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>157</v>
       </c>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3097" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1E6B41B-D317-4AA0-A04F-9FB26261FAD6}"/>
+  <xr:revisionPtr revIDLastSave="3115" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C5E586F-78EE-4603-A5CD-47AC2E670156}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="11" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="10" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="10" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="658">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -2019,6 +2019,9 @@
   </si>
   <si>
     <t>7-5 7-6(2)</t>
+  </si>
+  <si>
+    <t>6-2 3-6 6-3</t>
   </si>
 </sst>
 </file>
@@ -2314,7 +2317,7 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2422,7 +2425,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2934,7 +2937,7 @@
                   <c:v>0.38235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.77358490566037741</c:v>
+                  <c:v>0.74545454545454548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4337,7 +4340,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A9282421-0523-4C67-AE1B-EF70907B0B08}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4848,10 +4851,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E86" activeCellId="13" sqref="E17 E24 E29 E34 E43 E50 E53 E60 E63 E68 E76 E81 E84 E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5884,7 +5887,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>141</v>
       </c>
@@ -5896,6 +5899,68 @@
       </c>
       <c r="F81" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>579</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" t="s">
+        <v>448</v>
+      </c>
+      <c r="D83" t="s">
+        <v>485</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F83" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>448</v>
+      </c>
+      <c r="D84" t="s">
+        <v>519</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>448</v>
+      </c>
+      <c r="D85" t="s">
+        <v>172</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F85" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>150</v>
+      </c>
+      <c r="D86" t="s">
+        <v>580</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F86" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -5911,8 +5976,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6139,20 +6204,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11" si="1">(D11-E11)/D11</f>
-        <v>0.77358490566037741</v>
+        <v>0.74545454545454548</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -6161,7 +6226,7 @@
       </c>
       <c r="B12" s="3">
         <f>SUM(B2:B11)</f>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ref="C12:E12" si="2">SUM(C2:C11)</f>
@@ -6169,15 +6234,15 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="2"/>
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="2"/>
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ref="F12:F13" si="3">(D12-E12)/D12</f>
-        <v>0.53295128939828085</v>
+        <v>0.52991452991452992</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6186,7 +6251,7 @@
       </c>
       <c r="B13" s="3">
         <f>AVERAGE(B2:B11)</f>
-        <v>18.3</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ref="C13:E13" si="4">AVERAGE(C2:C11)</f>
@@ -6194,15 +6259,15 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="4"/>
-        <v>34.9</v>
+        <v>35.1</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="4"/>
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="3"/>
-        <v>0.53295128939828074</v>
+        <v>0.52991452991452992</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3115" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C5E586F-78EE-4603-A5CD-47AC2E670156}"/>
+  <xr:revisionPtr revIDLastSave="3121" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6793CE9C-E699-4F43-AC87-8224E3B73E7E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="10" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="10" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="657">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -1218,9 +1218,6 @@
   </si>
   <si>
     <t>6-2 6-4 </t>
-  </si>
-  <si>
-    <t>ROSMALEN GRASS COURT CHAMPIONSHIPS</t>
   </si>
   <si>
     <t>Ajla Tomljanović (AUSTRALIA)</t>
@@ -4733,20 +4730,20 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4766,7 +4763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -4786,7 +4783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -4806,7 +4803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -4826,7 +4823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>133</v>
       </c>
@@ -4854,20 +4851,20 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E86" activeCellId="13" sqref="E17 E24 E29 E34 E43 E50 E53 E60 E63 E68 E76 E81 E84 E86"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4887,7 +4884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -4907,7 +4904,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -4921,7 +4918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>150</v>
       </c>
@@ -4935,7 +4932,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>157</v>
       </c>
@@ -4949,7 +4946,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -4969,7 +4966,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>165</v>
       </c>
@@ -4983,7 +4980,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>127</v>
       </c>
@@ -4997,7 +4994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>133</v>
       </c>
@@ -5011,7 +5008,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>141</v>
       </c>
@@ -5025,7 +5022,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -5039,7 +5036,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>157</v>
       </c>
@@ -5053,7 +5050,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -5073,35 +5070,35 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>133</v>
       </c>
       <c r="D16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F16" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F17" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -5121,7 +5118,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>127</v>
       </c>
@@ -5135,26 +5132,26 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>141</v>
       </c>
       <c r="D22" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>136</v>
@@ -5163,12 +5160,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>136</v>
@@ -5177,7 +5174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>157</v>
       </c>
@@ -5188,10 +5185,10 @@
         <v>129</v>
       </c>
       <c r="F24" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>366</v>
       </c>
@@ -5211,26 +5208,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F27" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>133</v>
       </c>
       <c r="D28" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>136</v>
@@ -5239,12 +5236,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>129</v>
@@ -5253,9 +5250,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -5264,7 +5261,7 @@
         <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>136</v>
@@ -5273,40 +5270,40 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F32" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>150</v>
       </c>
       <c r="D33" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F33" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>157</v>
       </c>
       <c r="D34" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>129</v>
@@ -5315,9 +5312,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
@@ -5326,7 +5323,7 @@
         <v>165</v>
       </c>
       <c r="D36" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>136</v>
@@ -5335,12 +5332,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>136</v>
@@ -5349,12 +5346,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>133</v>
       </c>
       <c r="D38" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>136</v>
@@ -5363,12 +5360,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>141</v>
       </c>
       <c r="D39" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>136</v>
@@ -5377,12 +5374,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>150</v>
       </c>
       <c r="D40" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>136</v>
@@ -5391,21 +5388,21 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>157</v>
       </c>
       <c r="D41" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F41" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>384</v>
       </c>
@@ -5416,16 +5413,16 @@
         <v>165</v>
       </c>
       <c r="D43" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F43" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -5436,7 +5433,7 @@
         <v>164</v>
       </c>
       <c r="D45" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>136</v>
@@ -5445,12 +5442,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>165</v>
       </c>
       <c r="D46" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>136</v>
@@ -5459,12 +5456,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>127</v>
       </c>
       <c r="D47" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>136</v>
@@ -5473,7 +5470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>133</v>
       </c>
@@ -5487,12 +5484,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>141</v>
       </c>
       <c r="D49" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>136</v>
@@ -5501,23 +5498,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>150</v>
       </c>
       <c r="D50" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F50" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>639</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>640</v>
       </c>
       <c r="B52" t="s">
         <v>90</v>
@@ -5526,7 +5523,7 @@
         <v>127</v>
       </c>
       <c r="D52" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>136</v>
@@ -5535,7 +5532,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>133</v>
       </c>
@@ -5546,10 +5543,10 @@
         <v>129</v>
       </c>
       <c r="F53" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>307</v>
       </c>
@@ -5560,7 +5557,7 @@
         <v>164</v>
       </c>
       <c r="D55" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>136</v>
@@ -5569,21 +5566,21 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>165</v>
       </c>
       <c r="D56" t="s">
+        <v>643</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" t="s">
         <v>644</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F56" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>127</v>
       </c>
@@ -5597,7 +5594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>133</v>
       </c>
@@ -5611,12 +5608,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>136</v>
@@ -5625,23 +5622,23 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>150</v>
       </c>
       <c r="D60" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F60" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -5650,16 +5647,16 @@
         <v>127</v>
       </c>
       <c r="D62" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F62" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -5670,10 +5667,10 @@
         <v>129</v>
       </c>
       <c r="F63" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>315</v>
       </c>
@@ -5684,35 +5681,35 @@
         <v>127</v>
       </c>
       <c r="D65" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F65" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>133</v>
       </c>
       <c r="D66" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F66" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>141</v>
       </c>
       <c r="D67" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>136</v>
@@ -5721,21 +5718,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>238</v>
       </c>
@@ -5746,7 +5743,7 @@
         <v>164</v>
       </c>
       <c r="D70" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>136</v>
@@ -5755,12 +5752,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>165</v>
       </c>
       <c r="D71" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>136</v>
@@ -5769,12 +5766,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>127</v>
       </c>
       <c r="D72" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>136</v>
@@ -5783,12 +5780,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>133</v>
       </c>
       <c r="D73" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>136</v>
@@ -5797,12 +5794,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>141</v>
       </c>
       <c r="D74" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>136</v>
@@ -5811,35 +5808,35 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>150</v>
       </c>
       <c r="D75" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F75" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>157</v>
       </c>
       <c r="D76" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F76" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>326</v>
       </c>
@@ -5850,30 +5847,30 @@
         <v>165</v>
       </c>
       <c r="D78" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F78" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>127</v>
       </c>
       <c r="D79" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F79" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>133</v>
       </c>
@@ -5884,10 +5881,10 @@
         <v>136</v>
       </c>
       <c r="F80" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>141</v>
       </c>
@@ -5901,18 +5898,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B83" t="s">
         <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D83" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>136</v>
@@ -5921,12 +5918,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D84" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>129</v>
@@ -5935,9 +5932,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D85" t="s">
         <v>172</v>
@@ -5946,15 +5943,15 @@
         <v>136</v>
       </c>
       <c r="F85" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>150</v>
       </c>
       <c r="D86" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>129</v>
@@ -5976,21 +5973,21 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -6010,7 +6007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -6031,7 +6028,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -6052,7 +6049,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -6073,7 +6070,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -6094,7 +6091,7 @@
         <v>0.30555555555555558</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -6115,7 +6112,7 @@
         <v>0.54716981132075471</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -6136,7 +6133,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -6157,7 +6154,7 @@
         <v>0.6071428571428571</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -6178,7 +6175,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -6199,7 +6196,7 @@
         <v>0.38235294117647056</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -6220,7 +6217,7 @@
         <v>0.74545454545454548</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -6245,7 +6242,7 @@
         <v>0.52991452991452992</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -6293,20 +6290,20 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6326,7 +6323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -6346,7 +6343,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -6360,7 +6357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -6380,7 +6377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -6394,7 +6391,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -6408,7 +6405,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>140</v>
       </c>
@@ -6428,7 +6425,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>133</v>
       </c>
@@ -6442,7 +6439,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>141</v>
       </c>
@@ -6456,7 +6453,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>148</v>
       </c>
@@ -6476,7 +6473,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>148</v>
       </c>
@@ -6496,7 +6493,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -6510,7 +6507,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -6524,7 +6521,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>150</v>
       </c>
@@ -6538,7 +6535,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>148</v>
       </c>
@@ -6558,7 +6555,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>130</v>
       </c>
@@ -6578,7 +6575,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>133</v>
       </c>
@@ -6592,7 +6589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>141</v>
       </c>
@@ -6606,7 +6603,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -6626,7 +6623,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>177</v>
       </c>
@@ -6646,7 +6643,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -6660,7 +6657,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>177</v>
       </c>
@@ -6680,7 +6677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>133</v>
       </c>
@@ -6694,7 +6691,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>182</v>
       </c>
@@ -6714,7 +6711,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>140</v>
       </c>
@@ -6734,7 +6731,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>133</v>
       </c>
@@ -6748,7 +6745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>141</v>
       </c>
@@ -6762,7 +6759,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>150</v>
       </c>
@@ -6776,7 +6773,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>157</v>
       </c>
@@ -6790,7 +6787,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -6810,7 +6807,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>133</v>
       </c>
@@ -6824,7 +6821,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>141</v>
       </c>
@@ -6838,7 +6835,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>150</v>
       </c>
@@ -6852,7 +6849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>157</v>
       </c>
@@ -6866,7 +6863,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -6886,7 +6883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>133</v>
       </c>
@@ -6900,7 +6897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -6914,7 +6911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>150</v>
       </c>
@@ -6928,7 +6925,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>199</v>
       </c>
@@ -6948,7 +6945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>133</v>
       </c>
@@ -6962,7 +6959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>141</v>
       </c>
@@ -6976,7 +6973,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>150</v>
       </c>
@@ -6990,7 +6987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>157</v>
       </c>
@@ -7018,20 +7015,20 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7051,7 +7048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -7071,7 +7068,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -7085,7 +7082,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>204</v>
       </c>
@@ -7105,7 +7102,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -7119,7 +7116,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -7133,7 +7130,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>150</v>
       </c>
@@ -7147,7 +7144,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>157</v>
       </c>
@@ -7161,7 +7158,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>212</v>
       </c>
@@ -7181,7 +7178,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>214</v>
       </c>
@@ -7201,7 +7198,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>216</v>
       </c>
@@ -7215,7 +7212,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -7235,7 +7232,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>133</v>
       </c>
@@ -7249,7 +7246,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>141</v>
       </c>
@@ -7263,7 +7260,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>222</v>
       </c>
@@ -7283,7 +7280,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>133</v>
       </c>
@@ -7297,7 +7294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>141</v>
       </c>
@@ -7311,7 +7308,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -7325,7 +7322,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>157</v>
       </c>
@@ -7339,7 +7336,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -7359,7 +7356,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -7379,7 +7376,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -7393,7 +7390,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>141</v>
       </c>
@@ -7407,7 +7404,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>150</v>
       </c>
@@ -7421,7 +7418,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>231</v>
       </c>
@@ -7441,7 +7438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>133</v>
       </c>
@@ -7455,7 +7452,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>234</v>
       </c>
@@ -7475,7 +7472,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>133</v>
       </c>
@@ -7489,7 +7486,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>236</v>
       </c>
@@ -7509,7 +7506,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>238</v>
       </c>
@@ -7529,7 +7526,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>216</v>
       </c>
@@ -7543,7 +7540,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>242</v>
       </c>
@@ -7563,7 +7560,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>133</v>
       </c>
@@ -7577,7 +7574,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>141</v>
       </c>
@@ -7591,7 +7588,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>150</v>
       </c>
@@ -7605,7 +7602,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>244</v>
       </c>
@@ -7625,7 +7622,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>246</v>
       </c>
@@ -7645,7 +7642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>133</v>
       </c>
@@ -7659,7 +7656,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>249</v>
       </c>
@@ -7679,7 +7676,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>133</v>
       </c>
@@ -7693,7 +7690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -7707,7 +7704,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>150</v>
       </c>
@@ -7721,7 +7718,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>157</v>
       </c>
@@ -7735,7 +7732,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>256</v>
       </c>
@@ -7755,7 +7752,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -7775,7 +7772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -7789,7 +7786,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>141</v>
       </c>
@@ -7803,7 +7800,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>150</v>
       </c>
@@ -7832,20 +7829,20 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7865,7 +7862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>163</v>
       </c>
@@ -7885,7 +7882,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>216</v>
       </c>
@@ -7899,7 +7896,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>264</v>
       </c>
@@ -7919,7 +7916,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>265</v>
       </c>
@@ -7936,7 +7933,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>267</v>
       </c>
@@ -7947,7 +7944,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>270</v>
       </c>
@@ -7967,7 +7964,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>216</v>
       </c>
@@ -7981,7 +7978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>165</v>
       </c>
@@ -7995,7 +7992,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>274</v>
       </c>
@@ -8015,7 +8012,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>276</v>
       </c>
@@ -8035,7 +8032,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>280</v>
       </c>
@@ -8055,7 +8052,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>133</v>
       </c>
@@ -8069,7 +8066,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>141</v>
       </c>
@@ -8083,7 +8080,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>150</v>
       </c>
@@ -8097,7 +8094,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>157</v>
       </c>
@@ -8111,7 +8108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>287</v>
       </c>
@@ -8131,7 +8128,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>216</v>
       </c>
@@ -8145,7 +8142,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>265</v>
       </c>
@@ -8162,7 +8159,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>290</v>
       </c>
@@ -8173,7 +8170,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>214</v>
       </c>
@@ -8193,7 +8190,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>293</v>
       </c>
@@ -8213,7 +8210,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>295</v>
       </c>
@@ -8233,7 +8230,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -8247,7 +8244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8261,7 +8258,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>299</v>
       </c>
@@ -8281,7 +8278,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>300</v>
       </c>
@@ -8301,7 +8298,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>133</v>
       </c>
@@ -8315,7 +8312,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -8329,7 +8326,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -8343,7 +8340,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>306</v>
       </c>
@@ -8363,7 +8360,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>307</v>
       </c>
@@ -8383,7 +8380,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>216</v>
       </c>
@@ -8397,7 +8394,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>308</v>
       </c>
@@ -8411,7 +8408,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>164</v>
       </c>
@@ -8425,7 +8422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>165</v>
       </c>
@@ -8439,7 +8436,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>312</v>
       </c>
@@ -8459,7 +8456,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>133</v>
       </c>
@@ -8473,7 +8470,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>315</v>
       </c>
@@ -8493,7 +8490,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>216</v>
       </c>
@@ -8507,7 +8504,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>238</v>
       </c>
@@ -8527,7 +8524,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>317</v>
       </c>
@@ -8547,7 +8544,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>133</v>
       </c>
@@ -8561,7 +8558,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>141</v>
       </c>
@@ -8575,7 +8572,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>319</v>
       </c>
@@ -8595,7 +8592,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -8609,7 +8606,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>141</v>
       </c>
@@ -8623,7 +8620,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>150</v>
       </c>
@@ -8637,7 +8634,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>326</v>
       </c>
@@ -8657,7 +8654,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>328</v>
       </c>
@@ -8677,7 +8674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -8691,7 +8688,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -8705,7 +8702,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -8719,7 +8716,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>157</v>
       </c>
@@ -8733,7 +8730,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>265</v>
       </c>
@@ -8750,7 +8747,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>337</v>
       </c>
@@ -8761,7 +8758,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>339</v>
       </c>
@@ -8781,7 +8778,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>133</v>
       </c>
@@ -8795,7 +8792,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>341</v>
       </c>
@@ -8815,7 +8812,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>133</v>
       </c>
@@ -8829,7 +8826,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>141</v>
       </c>
@@ -8843,7 +8840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>150</v>
       </c>
@@ -8857,7 +8854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>157</v>
       </c>
@@ -8885,21 +8882,21 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8919,7 +8916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -8939,7 +8936,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -8953,7 +8950,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>141</v>
       </c>
@@ -8967,7 +8964,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>350</v>
       </c>
@@ -8987,7 +8984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>133</v>
       </c>
@@ -9001,7 +8998,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>141</v>
       </c>
@@ -9015,7 +9012,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -9035,7 +9032,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>265</v>
       </c>
@@ -9052,7 +9049,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>320</v>
       </c>
@@ -9063,7 +9060,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -9083,7 +9080,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>216</v>
       </c>
@@ -9097,7 +9094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>308</v>
       </c>
@@ -9111,7 +9108,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -9131,7 +9128,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>165</v>
       </c>
@@ -9145,7 +9142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>127</v>
       </c>
@@ -9159,7 +9156,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>366</v>
       </c>
@@ -9179,7 +9176,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>165</v>
       </c>
@@ -9193,7 +9190,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>287</v>
       </c>
@@ -9213,7 +9210,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>133</v>
       </c>
@@ -9227,7 +9224,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>141</v>
       </c>
@@ -9241,7 +9238,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -9255,7 +9252,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>157</v>
       </c>
@@ -9269,7 +9266,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>265</v>
       </c>
@@ -9286,7 +9283,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>301</v>
       </c>
@@ -9297,7 +9294,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>379</v>
       </c>
@@ -9317,9 +9314,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B37" t="s">
         <v>18</v>
@@ -9337,7 +9334,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>216</v>
       </c>
@@ -9351,7 +9348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>165</v>
       </c>
@@ -9365,7 +9362,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>384</v>
       </c>
@@ -9385,7 +9382,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>216</v>
       </c>
@@ -9399,7 +9396,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>165</v>
       </c>
@@ -9413,7 +9410,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -9433,9 +9430,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>390</v>
+        <v>639</v>
       </c>
       <c r="B47" t="s">
         <v>90</v>
@@ -9450,15 +9447,15 @@
         <v>136</v>
       </c>
       <c r="F47" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>136</v>
@@ -9467,12 +9464,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>141</v>
       </c>
       <c r="D49" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>129</v>
@@ -9481,9 +9478,9 @@
         <v>351</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B51" t="s">
         <v>90</v>
@@ -9492,18 +9489,18 @@
         <v>127</v>
       </c>
       <c r="D51" t="s">
+        <v>394</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" t="s">
         <v>395</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F51" t="s">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>396</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>397</v>
       </c>
       <c r="B53" t="s">
         <v>90</v>
@@ -9512,30 +9509,30 @@
         <v>165</v>
       </c>
       <c r="D53" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F53" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>127</v>
       </c>
       <c r="D54" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F54" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>133</v>
       </c>
@@ -9546,52 +9543,52 @@
         <v>136</v>
       </c>
       <c r="F55" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>141</v>
       </c>
       <c r="D56" t="s">
+        <v>402</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" t="s">
         <v>403</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F56" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>150</v>
       </c>
       <c r="D57" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F57" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>157</v>
       </c>
       <c r="D58" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F58" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>307</v>
       </c>
@@ -9611,9 +9608,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -9622,7 +9619,7 @@
         <v>215</v>
       </c>
       <c r="D62" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>129</v>
@@ -9631,9 +9628,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
@@ -9642,21 +9639,21 @@
         <v>165</v>
       </c>
       <c r="D64" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F64" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>127</v>
       </c>
       <c r="D65" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>136</v>
@@ -9665,7 +9662,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -9676,10 +9673,10 @@
         <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>315</v>
       </c>
@@ -9690,49 +9687,49 @@
         <v>165</v>
       </c>
       <c r="D68" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F68" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>127</v>
       </c>
       <c r="D69" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F69" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>133</v>
       </c>
       <c r="D70" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>141</v>
       </c>
       <c r="D71" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>136</v>
@@ -9741,7 +9738,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>150</v>
       </c>
@@ -9755,9 +9752,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
@@ -9766,30 +9763,30 @@
         <v>127</v>
       </c>
       <c r="D74" t="s">
+        <v>420</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F74" t="s">
         <v>421</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F74" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>133</v>
       </c>
       <c r="D75" t="s">
+        <v>422</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" t="s">
         <v>423</v>
       </c>
-      <c r="E75" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F75" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>141</v>
       </c>
@@ -9800,29 +9797,29 @@
         <v>136</v>
       </c>
       <c r="F76" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>150</v>
       </c>
       <c r="D77" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F77" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>157</v>
       </c>
       <c r="D78" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>136</v>
@@ -9831,7 +9828,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>238</v>
       </c>
@@ -9842,7 +9839,7 @@
         <v>164</v>
       </c>
       <c r="D80" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>136</v>
@@ -9851,21 +9848,21 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>165</v>
       </c>
       <c r="D81" t="s">
+        <v>428</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F81" t="s">
         <v>429</v>
       </c>
-      <c r="E81" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F81" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>127</v>
       </c>
@@ -9879,12 +9876,12 @@
         <v>365</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>133</v>
       </c>
       <c r="D83" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>129</v>
@@ -9893,9 +9890,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B85" t="s">
         <v>14</v>
@@ -9913,9 +9910,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B87" t="s">
         <v>14</v>
@@ -9924,49 +9921,49 @@
         <v>165</v>
       </c>
       <c r="D87" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F87" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>127</v>
       </c>
       <c r="D88" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F88" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>133</v>
       </c>
       <c r="D89" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F89" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>141</v>
       </c>
       <c r="D90" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>136</v>
@@ -9975,7 +9972,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>150</v>
       </c>
@@ -9986,24 +9983,24 @@
         <v>136</v>
       </c>
       <c r="F91" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>157</v>
       </c>
       <c r="D92" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F92" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>326</v>
       </c>
@@ -10014,7 +10011,7 @@
         <v>127</v>
       </c>
       <c r="D94" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>136</v>
@@ -10023,35 +10020,35 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>133</v>
       </c>
       <c r="D95" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F95" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>141</v>
       </c>
       <c r="D96" t="s">
+        <v>442</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F96" t="s">
         <v>443</v>
       </c>
-      <c r="E96" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F96" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>328</v>
       </c>
@@ -10062,7 +10059,7 @@
         <v>127</v>
       </c>
       <c r="D98" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>136</v>
@@ -10071,7 +10068,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>133</v>
       </c>
@@ -10085,7 +10082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>141</v>
       </c>
@@ -10096,18 +10093,18 @@
         <v>129</v>
       </c>
       <c r="F100" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>446</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>447</v>
       </c>
       <c r="B102" t="s">
         <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D102" t="s">
         <v>279</v>
@@ -10119,12 +10116,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D103" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>129</v>
@@ -10147,21 +10144,21 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A46" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10181,7 +10178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -10198,10 +10195,10 @@
         <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -10212,10 +10209,10 @@
         <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>141</v>
       </c>
@@ -10226,15 +10223,15 @@
         <v>136</v>
       </c>
       <c r="F4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>136</v>
@@ -10243,7 +10240,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>157</v>
       </c>
@@ -10254,12 +10251,12 @@
         <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -10274,10 +10271,10 @@
         <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -10297,12 +10294,12 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>136</v>
@@ -10311,21 +10308,21 @@
         <v>334</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F12" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>264</v>
       </c>
@@ -10336,7 +10333,7 @@
         <v>133</v>
       </c>
       <c r="D14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>136</v>
@@ -10345,7 +10342,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -10359,7 +10356,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>150</v>
       </c>
@@ -10370,10 +10367,10 @@
         <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>265</v>
       </c>
@@ -10381,7 +10378,7 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>136</v>
@@ -10390,18 +10387,18 @@
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
+        <v>458</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" t="s">
         <v>459</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F19" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>270</v>
       </c>
@@ -10418,10 +10415,10 @@
         <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>133</v>
       </c>
@@ -10432,10 +10429,10 @@
         <v>129</v>
       </c>
       <c r="F22" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>362</v>
       </c>
@@ -10446,16 +10443,16 @@
         <v>165</v>
       </c>
       <c r="D24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F24" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>127</v>
       </c>
@@ -10466,24 +10463,24 @@
         <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>133</v>
       </c>
       <c r="D26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F26" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>366</v>
       </c>
@@ -10494,7 +10491,7 @@
         <v>165</v>
       </c>
       <c r="D28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>129</v>
@@ -10503,9 +10500,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -10520,15 +10517,15 @@
         <v>136</v>
       </c>
       <c r="F30" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>129</v>
@@ -10537,24 +10534,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F33" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>279</v>
       </c>
@@ -10565,9 +10562,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
@@ -10585,7 +10582,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>384</v>
       </c>
@@ -10596,7 +10593,7 @@
         <v>165</v>
       </c>
       <c r="D38" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>129</v>
@@ -10605,9 +10602,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B40" t="s">
         <v>18</v>
@@ -10625,12 +10622,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>136</v>
@@ -10639,21 +10636,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>141</v>
       </c>
       <c r="D42" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F42" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -10667,7 +10664,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -10678,7 +10675,7 @@
         <v>164</v>
       </c>
       <c r="D45" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>136</v>
@@ -10687,12 +10684,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>165</v>
       </c>
       <c r="D46" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>129</v>
@@ -10701,9 +10698,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>390</v>
+        <v>639</v>
       </c>
       <c r="B48" t="s">
         <v>90</v>
@@ -10712,18 +10709,18 @@
         <v>127</v>
       </c>
       <c r="D48" t="s">
+        <v>474</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" t="s">
         <v>475</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F48" t="s">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>476</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>477</v>
       </c>
       <c r="B50" t="s">
         <v>90</v>
@@ -10738,12 +10735,12 @@
         <v>129</v>
       </c>
       <c r="F50" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B52" t="s">
         <v>90</v>
@@ -10761,21 +10758,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>133</v>
       </c>
       <c r="D53" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F53" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>141</v>
       </c>
@@ -10789,7 +10786,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>307</v>
       </c>
@@ -10800,7 +10797,7 @@
         <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>129</v>
@@ -10809,9 +10806,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
@@ -10829,21 +10826,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F59" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -10857,7 +10854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>157</v>
       </c>
@@ -10871,9 +10868,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -10882,16 +10879,16 @@
         <v>165</v>
       </c>
       <c r="D63" t="s">
+        <v>481</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" t="s">
         <v>482</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F63" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>315</v>
       </c>
@@ -10902,7 +10899,7 @@
         <v>165</v>
       </c>
       <c r="D65" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>136</v>
@@ -10911,7 +10908,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>127</v>
       </c>
@@ -10925,21 +10922,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>133</v>
       </c>
       <c r="D67" t="s">
+        <v>484</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F67" t="s">
         <v>485</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>238</v>
       </c>
@@ -10950,7 +10947,7 @@
         <v>164</v>
       </c>
       <c r="D69" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>136</v>
@@ -10959,23 +10956,23 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>165</v>
       </c>
       <c r="D70" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
@@ -10984,32 +10981,32 @@
         <v>133</v>
       </c>
       <c r="D72" t="s">
+        <v>488</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>489</v>
       </c>
-      <c r="E72" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F72" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>141</v>
       </c>
       <c r="D73" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F73" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
@@ -11018,21 +11015,21 @@
         <v>165</v>
       </c>
       <c r="D75" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F75" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>127</v>
       </c>
       <c r="D76" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>136</v>
@@ -11041,7 +11038,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>133</v>
       </c>
@@ -11055,7 +11052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>141</v>
       </c>
@@ -11066,10 +11063,10 @@
         <v>136</v>
       </c>
       <c r="F78" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>150</v>
       </c>
@@ -11083,7 +11080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>157</v>
       </c>
@@ -11094,10 +11091,10 @@
         <v>136</v>
       </c>
       <c r="F80" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>326</v>
       </c>
@@ -11108,7 +11105,7 @@
         <v>127</v>
       </c>
       <c r="D82" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>129</v>
@@ -11117,15 +11114,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B84" t="s">
         <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D84" t="s">
         <v>168</v>
@@ -11134,15 +11131,15 @@
         <v>136</v>
       </c>
       <c r="F84" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D85" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>136</v>
@@ -11151,21 +11148,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>150</v>
       </c>
       <c r="D86" t="s">
+        <v>497</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F86" t="s">
         <v>498</v>
       </c>
-      <c r="E86" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F86" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>157</v>
       </c>
@@ -11193,20 +11190,20 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11226,7 +11223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -11237,21 +11234,21 @@
         <v>127</v>
       </c>
       <c r="D2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" t="s">
         <v>501</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>129</v>
@@ -11260,9 +11257,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -11277,10 +11274,10 @@
         <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -11291,10 +11288,10 @@
         <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -11308,7 +11305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>150</v>
       </c>
@@ -11319,10 +11316,10 @@
         <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -11333,16 +11330,16 @@
         <v>164</v>
       </c>
       <c r="D10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>265</v>
       </c>
@@ -11350,7 +11347,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>136</v>
@@ -11359,7 +11356,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>267</v>
       </c>
@@ -11370,7 +11367,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -11381,16 +11378,16 @@
         <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -11404,7 +11401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -11415,12 +11412,12 @@
         <v>129</v>
       </c>
       <c r="F17" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -11429,30 +11426,30 @@
         <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F19" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F20" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>141</v>
       </c>
@@ -11463,10 +11460,10 @@
         <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>150</v>
       </c>
@@ -11480,7 +11477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>157</v>
       </c>
@@ -11494,9 +11491,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -11511,24 +11508,24 @@
         <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>133</v>
       </c>
       <c r="D26" t="s">
+        <v>514</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" t="s">
         <v>515</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>315</v>
       </c>
@@ -11539,21 +11536,21 @@
         <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F28" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>129</v>
@@ -11562,7 +11559,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>238</v>
       </c>
@@ -11573,32 +11570,32 @@
         <v>164</v>
       </c>
       <c r="D31" t="s">
+        <v>524</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" t="s">
         <v>525</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F31" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>165</v>
       </c>
       <c r="D32" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F32" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
@@ -11607,7 +11604,7 @@
         <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>136</v>
@@ -11616,7 +11613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -11627,29 +11624,29 @@
         <v>136</v>
       </c>
       <c r="F35" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
       <c r="D36" t="s">
+        <v>522</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" t="s">
         <v>523</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F36" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>150</v>
       </c>
       <c r="D37" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>129</v>
@@ -11658,7 +11655,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>299</v>
       </c>
@@ -11669,7 +11666,7 @@
         <v>164</v>
       </c>
       <c r="D39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>136</v>
@@ -11678,12 +11675,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>165</v>
       </c>
       <c r="D40" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>136</v>
@@ -11692,12 +11689,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>129</v>
@@ -11706,9 +11703,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -11717,35 +11714,35 @@
         <v>133</v>
       </c>
       <c r="D43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F43" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>141</v>
       </c>
       <c r="D44" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F44" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>150</v>
       </c>
       <c r="D45" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>136</v>
@@ -11754,12 +11751,12 @@
         <v>351</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>157</v>
       </c>
       <c r="D46" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>129</v>
@@ -11768,9 +11765,9 @@
         <v>323</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -11788,7 +11785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>133</v>
       </c>
@@ -11799,38 +11796,38 @@
         <v>136</v>
       </c>
       <c r="F49" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F50" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>150</v>
       </c>
       <c r="D51" t="s">
+        <v>536</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" t="s">
         <v>537</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F51" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>157</v>
       </c>
@@ -11858,20 +11855,20 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11891,9 +11888,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -11908,15 +11905,15 @@
         <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>136</v>
@@ -11925,12 +11922,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>136</v>
@@ -11939,7 +11936,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>141</v>
       </c>
@@ -11950,15 +11947,15 @@
         <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>136</v>
@@ -11967,7 +11964,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>157</v>
       </c>
@@ -11981,9 +11978,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -11992,16 +11989,16 @@
         <v>127</v>
       </c>
       <c r="D9" t="s">
+        <v>542</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" t="s">
         <v>543</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>163</v>
       </c>
@@ -12018,15 +12015,15 @@
         <v>136</v>
       </c>
       <c r="F11" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>136</v>
@@ -12035,12 +12032,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>136</v>
@@ -12049,23 +12046,23 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>133</v>
       </c>
       <c r="D14" t="s">
+        <v>546</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" t="s">
         <v>547</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -12074,16 +12071,16 @@
         <v>133</v>
       </c>
       <c r="D16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -12094,7 +12091,7 @@
         <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>136</v>
@@ -12103,12 +12100,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>136</v>
@@ -12117,21 +12114,21 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>141</v>
       </c>
       <c r="D20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F20" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>366</v>
       </c>
@@ -12142,16 +12139,16 @@
         <v>165</v>
       </c>
       <c r="D22" t="s">
+        <v>550</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" t="s">
         <v>551</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>127</v>
       </c>
@@ -12162,10 +12159,10 @@
         <v>136</v>
       </c>
       <c r="F23" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>133</v>
       </c>
@@ -12176,10 +12173,10 @@
         <v>136</v>
       </c>
       <c r="F24" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>141</v>
       </c>
@@ -12190,12 +12187,12 @@
         <v>129</v>
       </c>
       <c r="F25" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -12213,12 +12210,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>133</v>
       </c>
       <c r="D28" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>136</v>
@@ -12227,21 +12224,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F29" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>150</v>
       </c>
@@ -12255,7 +12252,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>157</v>
       </c>
@@ -12266,12 +12263,12 @@
         <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -12280,21 +12277,21 @@
         <v>165</v>
       </c>
       <c r="D33" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F33" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>136</v>
@@ -12303,21 +12300,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F35" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -12328,15 +12325,15 @@
         <v>136</v>
       </c>
       <c r="F36" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>150</v>
       </c>
       <c r="D37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>136</v>
@@ -12345,7 +12342,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>157</v>
       </c>
@@ -12356,10 +12353,10 @@
         <v>136</v>
       </c>
       <c r="F38" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>384</v>
       </c>
@@ -12370,7 +12367,7 @@
         <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>136</v>
@@ -12379,12 +12376,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>129</v>
@@ -12393,7 +12390,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>299</v>
       </c>
@@ -12404,7 +12401,7 @@
         <v>164</v>
       </c>
       <c r="D43" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>136</v>
@@ -12413,12 +12410,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>165</v>
       </c>
       <c r="D44" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>136</v>
@@ -12427,23 +12424,23 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F45" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B47" t="s">
         <v>90</v>
@@ -12452,18 +12449,18 @@
         <v>133</v>
       </c>
       <c r="D47" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F47" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B49" t="s">
         <v>90</v>
@@ -12481,7 +12478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>133</v>
       </c>
@@ -12495,7 +12492,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>141</v>
       </c>
@@ -12506,10 +12503,10 @@
         <v>129</v>
       </c>
       <c r="F51" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>307</v>
       </c>
@@ -12529,12 +12526,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>165</v>
       </c>
       <c r="D54" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>136</v>
@@ -12543,21 +12540,21 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>127</v>
       </c>
       <c r="D55" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F55" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>133</v>
       </c>
@@ -12568,15 +12565,15 @@
         <v>136</v>
       </c>
       <c r="F56" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>141</v>
       </c>
       <c r="D57" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>136</v>
@@ -12585,12 +12582,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>129</v>
@@ -12599,9 +12596,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
@@ -12619,7 +12616,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>127</v>
       </c>
@@ -12630,12 +12627,12 @@
         <v>129</v>
       </c>
       <c r="F61" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -12650,15 +12647,15 @@
         <v>136</v>
       </c>
       <c r="F63" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>133</v>
       </c>
       <c r="D64" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>136</v>
@@ -12667,12 +12664,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>141</v>
       </c>
       <c r="D65" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>136</v>
@@ -12681,12 +12678,12 @@
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>150</v>
       </c>
       <c r="D66" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>129</v>
@@ -12695,7 +12692,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>315</v>
       </c>
@@ -12706,16 +12703,16 @@
         <v>127</v>
       </c>
       <c r="D68" t="s">
+        <v>572</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F68" t="s">
         <v>573</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F68" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>238</v>
       </c>
@@ -12732,10 +12729,10 @@
         <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>165</v>
       </c>
@@ -12749,12 +12746,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>127</v>
       </c>
       <c r="D72" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>136</v>
@@ -12763,7 +12760,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -12777,12 +12774,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>141</v>
       </c>
       <c r="D74" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>136</v>
@@ -12791,21 +12788,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>150</v>
       </c>
       <c r="D75" t="s">
+        <v>574</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F75" t="s">
         <v>575</v>
       </c>
-      <c r="E75" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F75" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>244</v>
       </c>
@@ -12816,16 +12813,16 @@
         <v>133</v>
       </c>
       <c r="D77" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F77" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>141</v>
       </c>
@@ -12839,52 +12836,52 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B80" t="s">
         <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D80" t="s">
+        <v>579</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>447</v>
+      </c>
+      <c r="D81" t="s">
+        <v>484</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F81" t="s">
         <v>580</v>
       </c>
-      <c r="E80" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F80" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
-        <v>448</v>
-      </c>
-      <c r="D81" t="s">
-        <v>485</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F81" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D82" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F82" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -12901,20 +12898,20 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12934,7 +12931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -12945,18 +12942,18 @@
         <v>133</v>
       </c>
       <c r="D2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" t="s">
         <v>583</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>584</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>585</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -12965,16 +12962,16 @@
         <v>127</v>
       </c>
       <c r="D4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" t="s">
         <v>586</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -12991,24 +12988,24 @@
         <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>127</v>
       </c>
@@ -13019,24 +13016,24 @@
         <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>270</v>
       </c>
@@ -13047,7 +13044,7 @@
         <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>136</v>
@@ -13056,7 +13053,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>133</v>
       </c>
@@ -13070,9 +13067,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -13081,7 +13078,7 @@
         <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>136</v>
@@ -13090,12 +13087,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>136</v>
@@ -13104,12 +13101,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>129</v>
@@ -13118,7 +13115,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>362</v>
       </c>
@@ -13135,10 +13132,10 @@
         <v>129</v>
       </c>
       <c r="F18" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>366</v>
       </c>
@@ -13158,9 +13155,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -13178,23 +13175,23 @@
         <v>355</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -13209,29 +13206,29 @@
         <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>141</v>
       </c>
       <c r="D26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F26" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>150</v>
       </c>
       <c r="D27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>136</v>
@@ -13240,12 +13237,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>129</v>
@@ -13254,9 +13251,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -13265,16 +13262,16 @@
         <v>165</v>
       </c>
       <c r="D30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>384</v>
       </c>
@@ -13291,15 +13288,15 @@
         <v>136</v>
       </c>
       <c r="F32" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>133</v>
       </c>
       <c r="D33" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>136</v>
@@ -13308,26 +13305,26 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>141</v>
       </c>
       <c r="D34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F34" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>150</v>
       </c>
       <c r="D35" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>129</v>
@@ -13336,7 +13333,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>299</v>
       </c>
@@ -13347,16 +13344,16 @@
         <v>164</v>
       </c>
       <c r="D37" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F37" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>165</v>
       </c>
@@ -13370,7 +13367,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>127</v>
       </c>
@@ -13381,12 +13378,12 @@
         <v>129</v>
       </c>
       <c r="F39" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B41" t="s">
         <v>90</v>
@@ -13404,12 +13401,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>136</v>
@@ -13418,21 +13415,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F43" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>150</v>
       </c>
@@ -13446,7 +13443,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>157</v>
       </c>
@@ -13457,12 +13454,12 @@
         <v>129</v>
       </c>
       <c r="F45" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B47" t="s">
         <v>90</v>
@@ -13480,9 +13477,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -13491,32 +13488,32 @@
         <v>133</v>
       </c>
       <c r="D49" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F49" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F50" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -13525,7 +13522,7 @@
         <v>127</v>
       </c>
       <c r="D52" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>136</v>
@@ -13534,21 +13531,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>133</v>
       </c>
       <c r="D53" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F53" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>315</v>
       </c>
@@ -13565,10 +13562,10 @@
         <v>136</v>
       </c>
       <c r="F55" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>133</v>
       </c>
@@ -13579,10 +13576,10 @@
         <v>136</v>
       </c>
       <c r="F56" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>141</v>
       </c>
@@ -13593,24 +13590,24 @@
         <v>136</v>
       </c>
       <c r="F57" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F58" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>238</v>
       </c>
@@ -13621,7 +13618,7 @@
         <v>164</v>
       </c>
       <c r="D60" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>136</v>
@@ -13630,26 +13627,26 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>165</v>
       </c>
       <c r="D61" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F61" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>127</v>
       </c>
       <c r="D62" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>136</v>
@@ -13658,26 +13655,26 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>133</v>
       </c>
       <c r="D63" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F63" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>136</v>
@@ -13686,23 +13683,23 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>150</v>
       </c>
       <c r="D65" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F65" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>616</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>617</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -13717,10 +13714,10 @@
         <v>136</v>
       </c>
       <c r="F67" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>141</v>
       </c>
@@ -13731,12 +13728,12 @@
         <v>129</v>
       </c>
       <c r="F68" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>619</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>620</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -13751,21 +13748,21 @@
         <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D72" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>136</v>
@@ -13774,26 +13771,26 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D73" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F73" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D74" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>129</v>
@@ -13802,26 +13799,26 @@
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>150</v>
       </c>
       <c r="D75" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F75" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>157</v>
       </c>
       <c r="D76" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>136</v>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3121" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6793CE9C-E699-4F43-AC87-8224E3B73E7E}"/>
+  <xr:revisionPtr revIDLastSave="3123" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F16653C-4807-4730-BA53-D7313C7EECAD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="9" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="10" r:id="rId1"/>
@@ -4337,7 +4337,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A9282421-0523-4C67-AE1B-EF70907B0B08}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4349,7 +4349,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{05F7C485-A527-4D7E-B296-CECC4873A8FA}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4729,7 +4729,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4850,7 +4850,7 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5973,7 +5973,7 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6289,7 +6289,7 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7014,7 +7014,7 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7828,7 +7828,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8883,7 +8883,7 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10144,8 +10144,8 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A46" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11189,7 +11189,7 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11854,7 +11854,7 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12897,7 +12897,7 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3123" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F16653C-4807-4730-BA53-D7313C7EECAD}"/>
+  <xr:revisionPtr revIDLastSave="3124" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BE6318A-3890-46FD-9C60-8ACC954C5BE2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="9" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="9" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="10" r:id="rId1"/>
@@ -4423,10 +4423,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4733,17 +4729,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4763,7 +4759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -4783,7 +4779,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -4803,7 +4799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -4823,7 +4819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>133</v>
       </c>
@@ -4854,17 +4850,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4884,7 +4880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -4904,7 +4900,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -4918,7 +4914,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>150</v>
       </c>
@@ -4932,7 +4928,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>157</v>
       </c>
@@ -4946,7 +4942,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -4966,7 +4962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>165</v>
       </c>
@@ -4980,7 +4976,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>127</v>
       </c>
@@ -4994,7 +4990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>133</v>
       </c>
@@ -5008,7 +5004,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>141</v>
       </c>
@@ -5022,7 +5018,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -5036,7 +5032,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>157</v>
       </c>
@@ -5050,7 +5046,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -5070,7 +5066,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -5084,7 +5080,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -5098,7 +5094,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -5118,7 +5114,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>127</v>
       </c>
@@ -5132,7 +5128,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>133</v>
       </c>
@@ -5146,7 +5142,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>141</v>
       </c>
@@ -5160,7 +5156,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -5174,7 +5170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>157</v>
       </c>
@@ -5188,7 +5184,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>366</v>
       </c>
@@ -5208,7 +5204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>127</v>
       </c>
@@ -5222,7 +5218,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>133</v>
       </c>
@@ -5236,7 +5232,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>141</v>
       </c>
@@ -5250,7 +5246,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>558</v>
       </c>
@@ -5270,7 +5266,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -5284,7 +5280,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>150</v>
       </c>
@@ -5298,7 +5294,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>157</v>
       </c>
@@ -5312,7 +5308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>631</v>
       </c>
@@ -5332,7 +5328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>127</v>
       </c>
@@ -5346,7 +5342,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>133</v>
       </c>
@@ -5360,7 +5356,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>141</v>
       </c>
@@ -5374,7 +5370,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -5388,7 +5384,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>157</v>
       </c>
@@ -5402,7 +5398,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>384</v>
       </c>
@@ -5422,7 +5418,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -5442,7 +5438,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>165</v>
       </c>
@@ -5456,7 +5452,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>127</v>
       </c>
@@ -5470,7 +5466,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>133</v>
       </c>
@@ -5484,7 +5480,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>141</v>
       </c>
@@ -5498,7 +5494,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>150</v>
       </c>
@@ -5512,7 +5508,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>639</v>
       </c>
@@ -5532,7 +5528,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>133</v>
       </c>
@@ -5546,7 +5542,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>307</v>
       </c>
@@ -5566,7 +5562,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>165</v>
       </c>
@@ -5580,7 +5576,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>127</v>
       </c>
@@ -5594,7 +5590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>133</v>
       </c>
@@ -5608,7 +5604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>141</v>
       </c>
@@ -5622,7 +5618,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -5636,7 +5632,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>413</v>
       </c>
@@ -5656,7 +5652,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -5670,7 +5666,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>315</v>
       </c>
@@ -5690,7 +5686,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -5704,7 +5700,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>141</v>
       </c>
@@ -5718,7 +5714,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>150</v>
       </c>
@@ -5732,7 +5728,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>238</v>
       </c>
@@ -5752,7 +5748,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>165</v>
       </c>
@@ -5766,7 +5762,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>127</v>
       </c>
@@ -5780,7 +5776,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -5794,7 +5790,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -5808,7 +5804,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -5822,7 +5818,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>157</v>
       </c>
@@ -5836,7 +5832,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>326</v>
       </c>
@@ -5856,7 +5852,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>127</v>
       </c>
@@ -5870,7 +5866,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>133</v>
       </c>
@@ -5884,7 +5880,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>141</v>
       </c>
@@ -5898,7 +5894,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>578</v>
       </c>
@@ -5918,7 +5914,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>447</v>
       </c>
@@ -5932,7 +5928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>447</v>
       </c>
@@ -5946,7 +5942,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>150</v>
       </c>
@@ -5977,17 +5973,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -6007,7 +6003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -6028,7 +6024,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -6049,7 +6045,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -6070,7 +6066,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -6091,7 +6087,7 @@
         <v>0.30555555555555558</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -6112,7 +6108,7 @@
         <v>0.54716981132075471</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -6133,7 +6129,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -6154,7 +6150,7 @@
         <v>0.6071428571428571</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -6175,7 +6171,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -6196,7 +6192,7 @@
         <v>0.38235294117647056</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -6217,7 +6213,7 @@
         <v>0.74545454545454548</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -6242,7 +6238,7 @@
         <v>0.52991452991452992</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -6293,17 +6289,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6323,7 +6319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -6343,7 +6339,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -6357,7 +6353,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -6377,7 +6373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -6391,7 +6387,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -6405,7 +6401,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>140</v>
       </c>
@@ -6425,7 +6421,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>133</v>
       </c>
@@ -6439,7 +6435,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>141</v>
       </c>
@@ -6453,7 +6449,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>148</v>
       </c>
@@ -6473,7 +6469,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>148</v>
       </c>
@@ -6493,7 +6489,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -6507,7 +6503,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -6521,7 +6517,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>150</v>
       </c>
@@ -6535,7 +6531,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>148</v>
       </c>
@@ -6555,7 +6551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>130</v>
       </c>
@@ -6575,7 +6571,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>133</v>
       </c>
@@ -6589,7 +6585,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>141</v>
       </c>
@@ -6603,7 +6599,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -6623,7 +6619,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>177</v>
       </c>
@@ -6643,7 +6639,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -6657,7 +6653,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>177</v>
       </c>
@@ -6677,7 +6673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>133</v>
       </c>
@@ -6691,7 +6687,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>182</v>
       </c>
@@ -6711,7 +6707,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>140</v>
       </c>
@@ -6731,7 +6727,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>133</v>
       </c>
@@ -6745,7 +6741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>141</v>
       </c>
@@ -6759,7 +6755,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>150</v>
       </c>
@@ -6773,7 +6769,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>157</v>
       </c>
@@ -6787,7 +6783,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -6807,7 +6803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>133</v>
       </c>
@@ -6821,7 +6817,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>141</v>
       </c>
@@ -6835,7 +6831,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>150</v>
       </c>
@@ -6849,7 +6845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>157</v>
       </c>
@@ -6863,7 +6859,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -6883,7 +6879,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>133</v>
       </c>
@@ -6897,7 +6893,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -6911,7 +6907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>150</v>
       </c>
@@ -6925,7 +6921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>199</v>
       </c>
@@ -6945,7 +6941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>133</v>
       </c>
@@ -6959,7 +6955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>141</v>
       </c>
@@ -6973,7 +6969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>150</v>
       </c>
@@ -6987,7 +6983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>157</v>
       </c>
@@ -7018,17 +7014,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7048,7 +7044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -7068,7 +7064,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -7082,7 +7078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>204</v>
       </c>
@@ -7102,7 +7098,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -7116,7 +7112,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -7130,7 +7126,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>150</v>
       </c>
@@ -7144,7 +7140,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>157</v>
       </c>
@@ -7158,7 +7154,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>212</v>
       </c>
@@ -7178,7 +7174,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>214</v>
       </c>
@@ -7198,7 +7194,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>216</v>
       </c>
@@ -7212,7 +7208,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -7232,7 +7228,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>133</v>
       </c>
@@ -7246,7 +7242,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>141</v>
       </c>
@@ -7260,7 +7256,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>222</v>
       </c>
@@ -7280,7 +7276,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>133</v>
       </c>
@@ -7294,7 +7290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>141</v>
       </c>
@@ -7308,7 +7304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -7322,7 +7318,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>157</v>
       </c>
@@ -7336,7 +7332,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -7356,7 +7352,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -7376,7 +7372,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -7390,7 +7386,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>141</v>
       </c>
@@ -7404,7 +7400,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>150</v>
       </c>
@@ -7418,7 +7414,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>231</v>
       </c>
@@ -7438,7 +7434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>133</v>
       </c>
@@ -7452,7 +7448,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>234</v>
       </c>
@@ -7472,7 +7468,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>133</v>
       </c>
@@ -7486,7 +7482,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>236</v>
       </c>
@@ -7506,7 +7502,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>238</v>
       </c>
@@ -7526,7 +7522,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>216</v>
       </c>
@@ -7540,7 +7536,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>242</v>
       </c>
@@ -7560,7 +7556,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>133</v>
       </c>
@@ -7574,7 +7570,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>141</v>
       </c>
@@ -7588,7 +7584,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>150</v>
       </c>
@@ -7602,7 +7598,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>244</v>
       </c>
@@ -7622,7 +7618,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>246</v>
       </c>
@@ -7642,7 +7638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>133</v>
       </c>
@@ -7656,7 +7652,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>249</v>
       </c>
@@ -7676,7 +7672,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>133</v>
       </c>
@@ -7690,7 +7686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -7704,7 +7700,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>150</v>
       </c>
@@ -7718,7 +7714,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>157</v>
       </c>
@@ -7732,7 +7728,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>256</v>
       </c>
@@ -7752,7 +7748,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -7772,7 +7768,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -7786,7 +7782,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>141</v>
       </c>
@@ -7800,7 +7796,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>150</v>
       </c>
@@ -7832,17 +7828,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7862,7 +7858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>163</v>
       </c>
@@ -7882,7 +7878,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>216</v>
       </c>
@@ -7896,7 +7892,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>264</v>
       </c>
@@ -7916,7 +7912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>265</v>
       </c>
@@ -7933,7 +7929,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>267</v>
       </c>
@@ -7944,7 +7940,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>270</v>
       </c>
@@ -7964,7 +7960,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>216</v>
       </c>
@@ -7978,7 +7974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>165</v>
       </c>
@@ -7992,7 +7988,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>274</v>
       </c>
@@ -8012,7 +8008,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>276</v>
       </c>
@@ -8032,7 +8028,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>280</v>
       </c>
@@ -8052,7 +8048,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>133</v>
       </c>
@@ -8066,7 +8062,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>141</v>
       </c>
@@ -8080,7 +8076,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>150</v>
       </c>
@@ -8094,7 +8090,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>157</v>
       </c>
@@ -8108,7 +8104,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>287</v>
       </c>
@@ -8128,7 +8124,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>216</v>
       </c>
@@ -8142,7 +8138,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>265</v>
       </c>
@@ -8159,7 +8155,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>290</v>
       </c>
@@ -8170,7 +8166,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>214</v>
       </c>
@@ -8190,7 +8186,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>293</v>
       </c>
@@ -8210,7 +8206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>295</v>
       </c>
@@ -8230,7 +8226,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -8244,7 +8240,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8258,7 +8254,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>299</v>
       </c>
@@ -8278,7 +8274,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>300</v>
       </c>
@@ -8298,7 +8294,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>133</v>
       </c>
@@ -8312,7 +8308,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -8326,7 +8322,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -8340,7 +8336,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>306</v>
       </c>
@@ -8360,7 +8356,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>307</v>
       </c>
@@ -8380,7 +8376,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>216</v>
       </c>
@@ -8394,7 +8390,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>308</v>
       </c>
@@ -8408,7 +8404,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>164</v>
       </c>
@@ -8422,7 +8418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>165</v>
       </c>
@@ -8436,7 +8432,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>312</v>
       </c>
@@ -8456,7 +8452,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>133</v>
       </c>
@@ -8470,7 +8466,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>315</v>
       </c>
@@ -8490,7 +8486,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>216</v>
       </c>
@@ -8504,7 +8500,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>238</v>
       </c>
@@ -8524,7 +8520,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>317</v>
       </c>
@@ -8544,7 +8540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>133</v>
       </c>
@@ -8558,7 +8554,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>141</v>
       </c>
@@ -8572,7 +8568,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>319</v>
       </c>
@@ -8592,7 +8588,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -8606,7 +8602,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>141</v>
       </c>
@@ -8620,7 +8616,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>150</v>
       </c>
@@ -8634,7 +8630,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>326</v>
       </c>
@@ -8654,7 +8650,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>328</v>
       </c>
@@ -8674,7 +8670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -8688,7 +8684,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -8702,7 +8698,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -8716,7 +8712,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>157</v>
       </c>
@@ -8730,7 +8726,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>265</v>
       </c>
@@ -8747,7 +8743,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>337</v>
       </c>
@@ -8758,7 +8754,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>339</v>
       </c>
@@ -8778,7 +8774,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>133</v>
       </c>
@@ -8792,7 +8788,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>341</v>
       </c>
@@ -8812,7 +8808,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>133</v>
       </c>
@@ -8826,7 +8822,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>141</v>
       </c>
@@ -8840,7 +8836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>150</v>
       </c>
@@ -8854,7 +8850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>157</v>
       </c>
@@ -8886,17 +8882,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8916,7 +8912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -8936,7 +8932,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -8950,7 +8946,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>141</v>
       </c>
@@ -8964,7 +8960,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>350</v>
       </c>
@@ -8984,7 +8980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>133</v>
       </c>
@@ -8998,7 +8994,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>141</v>
       </c>
@@ -9012,7 +9008,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -9032,7 +9028,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>265</v>
       </c>
@@ -9049,7 +9045,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>320</v>
       </c>
@@ -9060,7 +9056,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -9080,7 +9076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>216</v>
       </c>
@@ -9094,7 +9090,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>308</v>
       </c>
@@ -9108,7 +9104,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -9128,7 +9124,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>165</v>
       </c>
@@ -9142,7 +9138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>127</v>
       </c>
@@ -9156,7 +9152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>366</v>
       </c>
@@ -9176,7 +9172,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>165</v>
       </c>
@@ -9190,7 +9186,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>287</v>
       </c>
@@ -9210,7 +9206,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>133</v>
       </c>
@@ -9224,7 +9220,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>141</v>
       </c>
@@ -9238,7 +9234,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -9252,7 +9248,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>157</v>
       </c>
@@ -9266,7 +9262,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>265</v>
       </c>
@@ -9283,7 +9279,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>301</v>
       </c>
@@ -9294,7 +9290,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>379</v>
       </c>
@@ -9314,7 +9310,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>631</v>
       </c>
@@ -9334,7 +9330,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>216</v>
       </c>
@@ -9348,7 +9344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>165</v>
       </c>
@@ -9362,7 +9358,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>384</v>
       </c>
@@ -9382,7 +9378,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>216</v>
       </c>
@@ -9396,7 +9392,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>165</v>
       </c>
@@ -9410,7 +9406,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -9430,7 +9426,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>639</v>
       </c>
@@ -9450,7 +9446,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>133</v>
       </c>
@@ -9464,7 +9460,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>141</v>
       </c>
@@ -9478,7 +9474,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>393</v>
       </c>
@@ -9498,7 +9494,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>396</v>
       </c>
@@ -9518,7 +9514,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>127</v>
       </c>
@@ -9532,7 +9528,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>133</v>
       </c>
@@ -9546,7 +9542,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -9560,7 +9556,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>150</v>
       </c>
@@ -9574,7 +9570,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>157</v>
       </c>
@@ -9588,7 +9584,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>307</v>
       </c>
@@ -9608,7 +9604,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>408</v>
       </c>
@@ -9628,7 +9624,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>413</v>
       </c>
@@ -9648,7 +9644,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>127</v>
       </c>
@@ -9662,7 +9658,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -9676,7 +9672,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>315</v>
       </c>
@@ -9696,7 +9692,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>127</v>
       </c>
@@ -9710,7 +9706,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>133</v>
       </c>
@@ -9724,7 +9720,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>141</v>
       </c>
@@ -9738,7 +9734,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>150</v>
       </c>
@@ -9752,7 +9748,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>425</v>
       </c>
@@ -9772,7 +9768,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>133</v>
       </c>
@@ -9786,7 +9782,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>141</v>
       </c>
@@ -9800,7 +9796,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>150</v>
       </c>
@@ -9814,7 +9810,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>157</v>
       </c>
@@ -9828,7 +9824,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>238</v>
       </c>
@@ -9848,7 +9844,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>165</v>
       </c>
@@ -9862,7 +9858,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>127</v>
       </c>
@@ -9876,7 +9872,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>133</v>
       </c>
@@ -9890,7 +9886,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>431</v>
       </c>
@@ -9910,7 +9906,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>432</v>
       </c>
@@ -9930,7 +9926,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>127</v>
       </c>
@@ -9944,7 +9940,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>133</v>
       </c>
@@ -9958,7 +9954,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>141</v>
       </c>
@@ -9972,7 +9968,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>150</v>
       </c>
@@ -9986,7 +9982,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>157</v>
       </c>
@@ -10000,7 +9996,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>326</v>
       </c>
@@ -10020,7 +10016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>133</v>
       </c>
@@ -10034,7 +10030,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>141</v>
       </c>
@@ -10048,7 +10044,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>328</v>
       </c>
@@ -10068,7 +10064,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>133</v>
       </c>
@@ -10082,7 +10078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>141</v>
       </c>
@@ -10096,7 +10092,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>446</v>
       </c>
@@ -10116,7 +10112,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>447</v>
       </c>
@@ -10148,17 +10144,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10178,7 +10174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -10198,7 +10194,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -10212,7 +10208,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>141</v>
       </c>
@@ -10226,7 +10222,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>150</v>
       </c>
@@ -10240,7 +10236,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>157</v>
       </c>
@@ -10254,7 +10250,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>452</v>
       </c>
@@ -10274,7 +10270,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -10294,7 +10290,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>165</v>
       </c>
@@ -10308,7 +10304,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>127</v>
       </c>
@@ -10322,7 +10318,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>264</v>
       </c>
@@ -10342,7 +10338,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -10356,7 +10352,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>150</v>
       </c>
@@ -10370,7 +10366,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>265</v>
       </c>
@@ -10387,7 +10383,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>458</v>
       </c>
@@ -10398,7 +10394,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>270</v>
       </c>
@@ -10418,7 +10414,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>133</v>
       </c>
@@ -10432,7 +10428,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>362</v>
       </c>
@@ -10452,7 +10448,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>127</v>
       </c>
@@ -10466,7 +10462,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>133</v>
       </c>
@@ -10480,7 +10476,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>366</v>
       </c>
@@ -10500,7 +10496,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>468</v>
       </c>
@@ -10520,7 +10516,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>133</v>
       </c>
@@ -10534,7 +10530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>463</v>
       </c>
@@ -10551,7 +10547,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>279</v>
       </c>
@@ -10562,7 +10558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>631</v>
       </c>
@@ -10582,7 +10578,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>384</v>
       </c>
@@ -10602,7 +10598,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>473</v>
       </c>
@@ -10622,7 +10618,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>133</v>
       </c>
@@ -10636,7 +10632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -10650,7 +10646,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -10664,7 +10660,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -10684,7 +10680,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>165</v>
       </c>
@@ -10698,7 +10694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>639</v>
       </c>
@@ -10718,7 +10714,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>476</v>
       </c>
@@ -10738,7 +10734,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>396</v>
       </c>
@@ -10758,7 +10754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>133</v>
       </c>
@@ -10772,7 +10768,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>141</v>
       </c>
@@ -10786,7 +10782,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>307</v>
       </c>
@@ -10806,7 +10802,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>408</v>
       </c>
@@ -10826,7 +10822,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>141</v>
       </c>
@@ -10840,7 +10836,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -10854,7 +10850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>157</v>
       </c>
@@ -10868,7 +10864,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>413</v>
       </c>
@@ -10888,7 +10884,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>315</v>
       </c>
@@ -10908,7 +10904,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>127</v>
       </c>
@@ -10922,7 +10918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>133</v>
       </c>
@@ -10936,7 +10932,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>238</v>
       </c>
@@ -10956,7 +10952,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>165</v>
       </c>
@@ -10970,7 +10966,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>491</v>
       </c>
@@ -10990,7 +10986,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>141</v>
       </c>
@@ -11004,7 +11000,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>432</v>
       </c>
@@ -11024,7 +11020,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>127</v>
       </c>
@@ -11038,7 +11034,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>133</v>
       </c>
@@ -11052,7 +11048,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>141</v>
       </c>
@@ -11066,7 +11062,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>150</v>
       </c>
@@ -11080,7 +11076,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>157</v>
       </c>
@@ -11094,7 +11090,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>326</v>
       </c>
@@ -11114,7 +11110,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>446</v>
       </c>
@@ -11134,7 +11130,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>447</v>
       </c>
@@ -11148,7 +11144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>150</v>
       </c>
@@ -11162,7 +11158,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>157</v>
       </c>
@@ -11193,17 +11189,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11223,7 +11219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -11243,7 +11239,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -11257,7 +11253,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>505</v>
       </c>
@@ -11277,7 +11273,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -11291,7 +11287,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -11305,7 +11301,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>150</v>
       </c>
@@ -11319,7 +11315,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -11339,7 +11335,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>265</v>
       </c>
@@ -11356,7 +11352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>267</v>
       </c>
@@ -11367,7 +11363,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -11387,7 +11383,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -11401,7 +11397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -11415,7 +11411,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>632</v>
       </c>
@@ -11435,7 +11431,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>133</v>
       </c>
@@ -11449,7 +11445,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>141</v>
       </c>
@@ -11463,7 +11459,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>150</v>
       </c>
@@ -11477,7 +11473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>157</v>
       </c>
@@ -11491,7 +11487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>513</v>
       </c>
@@ -11511,7 +11507,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>133</v>
       </c>
@@ -11525,7 +11521,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>315</v>
       </c>
@@ -11545,7 +11541,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -11559,7 +11555,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>238</v>
       </c>
@@ -11579,7 +11575,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>165</v>
       </c>
@@ -11593,7 +11589,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>473</v>
       </c>
@@ -11613,7 +11609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -11627,7 +11623,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -11641,7 +11637,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -11655,7 +11651,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>299</v>
       </c>
@@ -11675,7 +11671,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>165</v>
       </c>
@@ -11689,7 +11685,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>127</v>
       </c>
@@ -11703,7 +11699,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>528</v>
       </c>
@@ -11723,7 +11719,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>141</v>
       </c>
@@ -11737,7 +11733,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>150</v>
       </c>
@@ -11751,7 +11747,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>157</v>
       </c>
@@ -11765,7 +11761,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>533</v>
       </c>
@@ -11785,7 +11781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>133</v>
       </c>
@@ -11799,7 +11795,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -11813,7 +11809,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>150</v>
       </c>
@@ -11827,7 +11823,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>157</v>
       </c>
@@ -11858,17 +11854,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11888,7 +11884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>538</v>
       </c>
@@ -11908,7 +11904,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>127</v>
       </c>
@@ -11922,7 +11918,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>133</v>
       </c>
@@ -11936,7 +11932,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>141</v>
       </c>
@@ -11950,7 +11946,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -11964,7 +11960,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>157</v>
       </c>
@@ -11978,7 +11974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>541</v>
       </c>
@@ -11998,7 +11994,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>163</v>
       </c>
@@ -12018,7 +12014,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>165</v>
       </c>
@@ -12032,7 +12028,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>127</v>
       </c>
@@ -12046,7 +12042,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>133</v>
       </c>
@@ -12060,7 +12056,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>632</v>
       </c>
@@ -12080,7 +12076,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -12100,7 +12096,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>133</v>
       </c>
@@ -12114,7 +12110,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>141</v>
       </c>
@@ -12128,7 +12124,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>366</v>
       </c>
@@ -12148,7 +12144,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>127</v>
       </c>
@@ -12162,7 +12158,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>133</v>
       </c>
@@ -12176,7 +12172,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>141</v>
       </c>
@@ -12190,7 +12186,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>558</v>
       </c>
@@ -12210,7 +12206,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>133</v>
       </c>
@@ -12224,7 +12220,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>141</v>
       </c>
@@ -12238,7 +12234,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>150</v>
       </c>
@@ -12252,7 +12248,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>157</v>
       </c>
@@ -12266,7 +12262,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>631</v>
       </c>
@@ -12286,7 +12282,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>127</v>
       </c>
@@ -12300,7 +12296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -12314,7 +12310,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -12328,7 +12324,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -12342,7 +12338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>157</v>
       </c>
@@ -12356,7 +12352,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>384</v>
       </c>
@@ -12376,7 +12372,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>133</v>
       </c>
@@ -12390,7 +12386,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>299</v>
       </c>
@@ -12410,7 +12406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>165</v>
       </c>
@@ -12424,7 +12420,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>127</v>
       </c>
@@ -12438,7 +12434,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>563</v>
       </c>
@@ -12458,7 +12454,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>396</v>
       </c>
@@ -12478,7 +12474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>133</v>
       </c>
@@ -12492,7 +12488,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>141</v>
       </c>
@@ -12506,7 +12502,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>307</v>
       </c>
@@ -12526,7 +12522,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>165</v>
       </c>
@@ -12540,7 +12536,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>127</v>
       </c>
@@ -12554,7 +12550,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>133</v>
       </c>
@@ -12568,7 +12564,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>141</v>
       </c>
@@ -12582,7 +12578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>150</v>
       </c>
@@ -12596,7 +12592,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>568</v>
       </c>
@@ -12616,7 +12612,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>127</v>
       </c>
@@ -12630,7 +12626,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>413</v>
       </c>
@@ -12650,7 +12646,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>133</v>
       </c>
@@ -12664,7 +12660,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>141</v>
       </c>
@@ -12678,7 +12674,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>150</v>
       </c>
@@ -12692,7 +12688,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>315</v>
       </c>
@@ -12712,7 +12708,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>238</v>
       </c>
@@ -12732,7 +12728,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>165</v>
       </c>
@@ -12746,7 +12742,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>127</v>
       </c>
@@ -12760,7 +12756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -12774,7 +12770,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -12788,7 +12784,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -12802,7 +12798,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>244</v>
       </c>
@@ -12822,7 +12818,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>141</v>
       </c>
@@ -12836,7 +12832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>578</v>
       </c>
@@ -12856,7 +12852,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>447</v>
       </c>
@@ -12870,7 +12866,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>447</v>
       </c>
@@ -12901,17 +12897,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12931,7 +12927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -12951,7 +12947,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>584</v>
       </c>
@@ -12971,7 +12967,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -12991,7 +12987,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>165</v>
       </c>
@@ -13005,7 +13001,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>127</v>
       </c>
@@ -13019,7 +13015,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>133</v>
       </c>
@@ -13033,7 +13029,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>270</v>
       </c>
@@ -13053,7 +13049,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>133</v>
       </c>
@@ -13067,7 +13063,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>632</v>
       </c>
@@ -13087,7 +13083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>133</v>
       </c>
@@ -13101,7 +13097,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>141</v>
       </c>
@@ -13115,7 +13111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>362</v>
       </c>
@@ -13135,7 +13131,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>366</v>
       </c>
@@ -13155,7 +13151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>468</v>
       </c>
@@ -13175,7 +13171,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>133</v>
       </c>
@@ -13189,7 +13185,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>558</v>
       </c>
@@ -13209,7 +13205,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>141</v>
       </c>
@@ -13223,7 +13219,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>150</v>
       </c>
@@ -13237,7 +13233,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>157</v>
       </c>
@@ -13251,7 +13247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>631</v>
       </c>
@@ -13271,7 +13267,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>384</v>
       </c>
@@ -13291,7 +13287,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>133</v>
       </c>
@@ -13305,7 +13301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -13319,7 +13315,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>150</v>
       </c>
@@ -13333,7 +13329,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>299</v>
       </c>
@@ -13353,7 +13349,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>165</v>
       </c>
@@ -13367,7 +13363,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>127</v>
       </c>
@@ -13381,7 +13377,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>639</v>
       </c>
@@ -13401,7 +13397,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>133</v>
       </c>
@@ -13415,7 +13411,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>141</v>
       </c>
@@ -13429,7 +13425,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>150</v>
       </c>
@@ -13443,7 +13439,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>157</v>
       </c>
@@ -13457,7 +13453,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>563</v>
       </c>
@@ -13477,7 +13473,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>408</v>
       </c>
@@ -13497,7 +13493,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -13511,7 +13507,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>413</v>
       </c>
@@ -13531,7 +13527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>133</v>
       </c>
@@ -13545,7 +13541,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>315</v>
       </c>
@@ -13565,7 +13561,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>133</v>
       </c>
@@ -13579,7 +13575,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>141</v>
       </c>
@@ -13593,7 +13589,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>150</v>
       </c>
@@ -13607,7 +13603,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>238</v>
       </c>
@@ -13627,7 +13623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>165</v>
       </c>
@@ -13641,7 +13637,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>127</v>
       </c>
@@ -13655,7 +13651,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -13669,7 +13665,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>141</v>
       </c>
@@ -13683,7 +13679,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>150</v>
       </c>
@@ -13697,7 +13693,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>616</v>
       </c>
@@ -13717,7 +13713,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>141</v>
       </c>
@@ -13731,7 +13727,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>619</v>
       </c>
@@ -13751,7 +13747,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>578</v>
       </c>
@@ -13771,7 +13767,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>447</v>
       </c>
@@ -13785,7 +13781,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>447</v>
       </c>
@@ -13799,7 +13795,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -13813,7 +13809,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>157</v>
       </c>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3124" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BE6318A-3890-46FD-9C60-8ACC954C5BE2}"/>
+  <xr:revisionPtr revIDLastSave="3125" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57FE0C89-A88B-49CB-9854-AFA3061DF821}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="9" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="9" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="10" r:id="rId1"/>
@@ -4423,6 +4423,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4729,17 +4733,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4759,7 +4763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -4779,7 +4783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -4799,7 +4803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -4819,7 +4823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>133</v>
       </c>
@@ -4850,17 +4854,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4880,7 +4884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -4900,7 +4904,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -4914,7 +4918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>150</v>
       </c>
@@ -4928,7 +4932,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>157</v>
       </c>
@@ -4942,7 +4946,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -4962,7 +4966,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>165</v>
       </c>
@@ -4976,7 +4980,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>127</v>
       </c>
@@ -4990,7 +4994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>133</v>
       </c>
@@ -5004,7 +5008,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>141</v>
       </c>
@@ -5018,7 +5022,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -5032,7 +5036,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>157</v>
       </c>
@@ -5046,7 +5050,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -5066,7 +5070,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -5080,7 +5084,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -5094,7 +5098,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -5114,7 +5118,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>127</v>
       </c>
@@ -5128,7 +5132,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>133</v>
       </c>
@@ -5142,7 +5146,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>141</v>
       </c>
@@ -5156,7 +5160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -5170,7 +5174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>157</v>
       </c>
@@ -5184,7 +5188,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>366</v>
       </c>
@@ -5204,7 +5208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>127</v>
       </c>
@@ -5218,7 +5222,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>133</v>
       </c>
@@ -5232,7 +5236,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>141</v>
       </c>
@@ -5246,7 +5250,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>558</v>
       </c>
@@ -5266,7 +5270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -5280,7 +5284,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>150</v>
       </c>
@@ -5294,7 +5298,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>157</v>
       </c>
@@ -5308,7 +5312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>631</v>
       </c>
@@ -5328,7 +5332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>127</v>
       </c>
@@ -5342,7 +5346,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>133</v>
       </c>
@@ -5356,7 +5360,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>141</v>
       </c>
@@ -5370,7 +5374,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -5384,7 +5388,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>157</v>
       </c>
@@ -5398,7 +5402,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>384</v>
       </c>
@@ -5418,7 +5422,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -5438,7 +5442,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>165</v>
       </c>
@@ -5452,7 +5456,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>127</v>
       </c>
@@ -5466,7 +5470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>133</v>
       </c>
@@ -5480,7 +5484,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>141</v>
       </c>
@@ -5494,7 +5498,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>150</v>
       </c>
@@ -5508,7 +5512,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>639</v>
       </c>
@@ -5528,7 +5532,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>133</v>
       </c>
@@ -5542,7 +5546,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>307</v>
       </c>
@@ -5562,7 +5566,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>165</v>
       </c>
@@ -5576,7 +5580,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>127</v>
       </c>
@@ -5590,7 +5594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>133</v>
       </c>
@@ -5604,7 +5608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>141</v>
       </c>
@@ -5618,7 +5622,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -5632,7 +5636,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>413</v>
       </c>
@@ -5652,7 +5656,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -5666,7 +5670,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>315</v>
       </c>
@@ -5686,7 +5690,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -5700,7 +5704,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>141</v>
       </c>
@@ -5714,7 +5718,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>150</v>
       </c>
@@ -5728,7 +5732,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>238</v>
       </c>
@@ -5748,7 +5752,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>165</v>
       </c>
@@ -5762,7 +5766,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>127</v>
       </c>
@@ -5776,7 +5780,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -5790,7 +5794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -5804,7 +5808,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -5818,7 +5822,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>157</v>
       </c>
@@ -5832,7 +5836,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>326</v>
       </c>
@@ -5852,7 +5856,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>127</v>
       </c>
@@ -5866,7 +5870,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>133</v>
       </c>
@@ -5880,7 +5884,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>141</v>
       </c>
@@ -5894,7 +5898,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>578</v>
       </c>
@@ -5914,7 +5918,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>447</v>
       </c>
@@ -5928,7 +5932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>447</v>
       </c>
@@ -5942,7 +5946,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>150</v>
       </c>
@@ -5973,17 +5977,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -6003,7 +6007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -6024,7 +6028,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -6045,7 +6049,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -6066,7 +6070,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -6087,7 +6091,7 @@
         <v>0.30555555555555558</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -6108,7 +6112,7 @@
         <v>0.54716981132075471</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -6129,7 +6133,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -6150,7 +6154,7 @@
         <v>0.6071428571428571</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -6171,7 +6175,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -6192,7 +6196,7 @@
         <v>0.38235294117647056</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -6213,7 +6217,7 @@
         <v>0.74545454545454548</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -6238,7 +6242,7 @@
         <v>0.52991452991452992</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -6289,17 +6293,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6319,7 +6323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -6339,7 +6343,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -6353,7 +6357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -6373,7 +6377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -6387,7 +6391,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -6401,7 +6405,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>140</v>
       </c>
@@ -6421,7 +6425,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>133</v>
       </c>
@@ -6435,7 +6439,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>141</v>
       </c>
@@ -6449,7 +6453,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>148</v>
       </c>
@@ -6469,7 +6473,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>148</v>
       </c>
@@ -6489,7 +6493,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -6503,7 +6507,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -6517,7 +6521,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>150</v>
       </c>
@@ -6531,7 +6535,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>148</v>
       </c>
@@ -6551,7 +6555,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>130</v>
       </c>
@@ -6571,7 +6575,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>133</v>
       </c>
@@ -6585,7 +6589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>141</v>
       </c>
@@ -6599,7 +6603,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -6619,7 +6623,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>177</v>
       </c>
@@ -6639,7 +6643,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -6653,7 +6657,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>177</v>
       </c>
@@ -6673,7 +6677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>133</v>
       </c>
@@ -6687,7 +6691,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>182</v>
       </c>
@@ -6707,7 +6711,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>140</v>
       </c>
@@ -6727,7 +6731,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>133</v>
       </c>
@@ -6741,7 +6745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>141</v>
       </c>
@@ -6755,7 +6759,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>150</v>
       </c>
@@ -6769,7 +6773,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>157</v>
       </c>
@@ -6783,7 +6787,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -6803,7 +6807,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>133</v>
       </c>
@@ -6817,7 +6821,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>141</v>
       </c>
@@ -6831,7 +6835,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>150</v>
       </c>
@@ -6845,7 +6849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>157</v>
       </c>
@@ -6859,7 +6863,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -6879,7 +6883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>133</v>
       </c>
@@ -6893,7 +6897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -6907,7 +6911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>150</v>
       </c>
@@ -6921,7 +6925,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>199</v>
       </c>
@@ -6941,7 +6945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>133</v>
       </c>
@@ -6955,7 +6959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>141</v>
       </c>
@@ -6969,7 +6973,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>150</v>
       </c>
@@ -6983,7 +6987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>157</v>
       </c>
@@ -7014,17 +7018,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7044,7 +7048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -7064,7 +7068,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -7078,7 +7082,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>204</v>
       </c>
@@ -7098,7 +7102,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -7112,7 +7116,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -7126,7 +7130,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>150</v>
       </c>
@@ -7140,7 +7144,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>157</v>
       </c>
@@ -7154,7 +7158,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>212</v>
       </c>
@@ -7174,7 +7178,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>214</v>
       </c>
@@ -7194,7 +7198,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>216</v>
       </c>
@@ -7208,7 +7212,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -7228,7 +7232,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>133</v>
       </c>
@@ -7242,7 +7246,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>141</v>
       </c>
@@ -7256,7 +7260,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>222</v>
       </c>
@@ -7276,7 +7280,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>133</v>
       </c>
@@ -7290,7 +7294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>141</v>
       </c>
@@ -7304,7 +7308,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -7318,7 +7322,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>157</v>
       </c>
@@ -7332,7 +7336,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -7352,7 +7356,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -7372,7 +7376,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -7386,7 +7390,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>141</v>
       </c>
@@ -7400,7 +7404,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>150</v>
       </c>
@@ -7414,7 +7418,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>231</v>
       </c>
@@ -7434,7 +7438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>133</v>
       </c>
@@ -7448,7 +7452,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>234</v>
       </c>
@@ -7468,7 +7472,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>133</v>
       </c>
@@ -7482,7 +7486,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>236</v>
       </c>
@@ -7502,7 +7506,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>238</v>
       </c>
@@ -7522,7 +7526,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>216</v>
       </c>
@@ -7536,7 +7540,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>242</v>
       </c>
@@ -7556,7 +7560,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>133</v>
       </c>
@@ -7570,7 +7574,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>141</v>
       </c>
@@ -7584,7 +7588,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>150</v>
       </c>
@@ -7598,7 +7602,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>244</v>
       </c>
@@ -7618,7 +7622,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>246</v>
       </c>
@@ -7638,7 +7642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>133</v>
       </c>
@@ -7652,7 +7656,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>249</v>
       </c>
@@ -7672,7 +7676,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>133</v>
       </c>
@@ -7686,7 +7690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -7700,7 +7704,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>150</v>
       </c>
@@ -7714,7 +7718,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>157</v>
       </c>
@@ -7728,7 +7732,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>256</v>
       </c>
@@ -7748,7 +7752,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -7768,7 +7772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -7782,7 +7786,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>141</v>
       </c>
@@ -7796,7 +7800,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>150</v>
       </c>
@@ -7828,17 +7832,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7858,7 +7862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>163</v>
       </c>
@@ -7878,7 +7882,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>216</v>
       </c>
@@ -7892,7 +7896,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>264</v>
       </c>
@@ -7912,7 +7916,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>265</v>
       </c>
@@ -7929,7 +7933,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>267</v>
       </c>
@@ -7940,7 +7944,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>270</v>
       </c>
@@ -7960,7 +7964,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>216</v>
       </c>
@@ -7974,7 +7978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>165</v>
       </c>
@@ -7988,7 +7992,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>274</v>
       </c>
@@ -8008,7 +8012,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>276</v>
       </c>
@@ -8028,7 +8032,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>280</v>
       </c>
@@ -8048,7 +8052,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>133</v>
       </c>
@@ -8062,7 +8066,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>141</v>
       </c>
@@ -8076,7 +8080,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>150</v>
       </c>
@@ -8090,7 +8094,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>157</v>
       </c>
@@ -8104,7 +8108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>287</v>
       </c>
@@ -8124,7 +8128,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>216</v>
       </c>
@@ -8138,7 +8142,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>265</v>
       </c>
@@ -8155,7 +8159,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>290</v>
       </c>
@@ -8166,7 +8170,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>214</v>
       </c>
@@ -8186,7 +8190,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>293</v>
       </c>
@@ -8206,7 +8210,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>295</v>
       </c>
@@ -8226,7 +8230,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -8240,7 +8244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8254,7 +8258,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>299</v>
       </c>
@@ -8274,7 +8278,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>300</v>
       </c>
@@ -8294,7 +8298,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>133</v>
       </c>
@@ -8308,7 +8312,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -8322,7 +8326,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -8336,7 +8340,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>306</v>
       </c>
@@ -8356,7 +8360,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>307</v>
       </c>
@@ -8376,7 +8380,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>216</v>
       </c>
@@ -8390,7 +8394,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>308</v>
       </c>
@@ -8404,7 +8408,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>164</v>
       </c>
@@ -8418,7 +8422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>165</v>
       </c>
@@ -8432,7 +8436,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>312</v>
       </c>
@@ -8452,7 +8456,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>133</v>
       </c>
@@ -8466,7 +8470,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>315</v>
       </c>
@@ -8486,7 +8490,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>216</v>
       </c>
@@ -8500,7 +8504,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>238</v>
       </c>
@@ -8520,7 +8524,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>317</v>
       </c>
@@ -8540,7 +8544,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>133</v>
       </c>
@@ -8554,7 +8558,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>141</v>
       </c>
@@ -8568,7 +8572,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>319</v>
       </c>
@@ -8588,7 +8592,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -8602,7 +8606,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>141</v>
       </c>
@@ -8616,7 +8620,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>150</v>
       </c>
@@ -8630,7 +8634,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>326</v>
       </c>
@@ -8650,7 +8654,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>328</v>
       </c>
@@ -8670,7 +8674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -8684,7 +8688,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -8698,7 +8702,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -8712,7 +8716,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>157</v>
       </c>
@@ -8726,7 +8730,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>265</v>
       </c>
@@ -8743,7 +8747,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>337</v>
       </c>
@@ -8754,7 +8758,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>339</v>
       </c>
@@ -8774,7 +8778,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>133</v>
       </c>
@@ -8788,7 +8792,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>341</v>
       </c>
@@ -8808,7 +8812,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>133</v>
       </c>
@@ -8822,7 +8826,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>141</v>
       </c>
@@ -8836,7 +8840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>150</v>
       </c>
@@ -8850,7 +8854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>157</v>
       </c>
@@ -8882,17 +8886,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8912,7 +8916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -8932,7 +8936,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -8946,7 +8950,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>141</v>
       </c>
@@ -8960,7 +8964,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>350</v>
       </c>
@@ -8980,7 +8984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>133</v>
       </c>
@@ -8994,7 +8998,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>141</v>
       </c>
@@ -9008,7 +9012,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -9028,7 +9032,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>265</v>
       </c>
@@ -9045,7 +9049,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>320</v>
       </c>
@@ -9056,7 +9060,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -9076,7 +9080,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>216</v>
       </c>
@@ -9090,7 +9094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>308</v>
       </c>
@@ -9104,7 +9108,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -9124,7 +9128,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>165</v>
       </c>
@@ -9138,7 +9142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>127</v>
       </c>
@@ -9152,7 +9156,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>366</v>
       </c>
@@ -9172,7 +9176,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>165</v>
       </c>
@@ -9186,7 +9190,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>287</v>
       </c>
@@ -9206,7 +9210,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>133</v>
       </c>
@@ -9220,7 +9224,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>141</v>
       </c>
@@ -9234,7 +9238,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -9248,7 +9252,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>157</v>
       </c>
@@ -9262,7 +9266,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>265</v>
       </c>
@@ -9279,7 +9283,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>301</v>
       </c>
@@ -9290,7 +9294,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>379</v>
       </c>
@@ -9310,7 +9314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>631</v>
       </c>
@@ -9330,7 +9334,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>216</v>
       </c>
@@ -9344,7 +9348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>165</v>
       </c>
@@ -9358,7 +9362,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>384</v>
       </c>
@@ -9378,7 +9382,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>216</v>
       </c>
@@ -9392,7 +9396,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>165</v>
       </c>
@@ -9406,7 +9410,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -9426,7 +9430,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>639</v>
       </c>
@@ -9446,7 +9450,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>133</v>
       </c>
@@ -9460,7 +9464,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>141</v>
       </c>
@@ -9474,7 +9478,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>393</v>
       </c>
@@ -9494,7 +9498,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>396</v>
       </c>
@@ -9514,7 +9518,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>127</v>
       </c>
@@ -9528,7 +9532,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>133</v>
       </c>
@@ -9542,7 +9546,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -9556,7 +9560,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>150</v>
       </c>
@@ -9570,7 +9574,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>157</v>
       </c>
@@ -9584,7 +9588,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>307</v>
       </c>
@@ -9604,7 +9608,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>408</v>
       </c>
@@ -9624,7 +9628,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>413</v>
       </c>
@@ -9644,7 +9648,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>127</v>
       </c>
@@ -9658,7 +9662,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -9672,7 +9676,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>315</v>
       </c>
@@ -9692,7 +9696,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>127</v>
       </c>
@@ -9706,7 +9710,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>133</v>
       </c>
@@ -9720,7 +9724,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>141</v>
       </c>
@@ -9734,7 +9738,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>150</v>
       </c>
@@ -9748,7 +9752,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>425</v>
       </c>
@@ -9768,7 +9772,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>133</v>
       </c>
@@ -9782,7 +9786,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>141</v>
       </c>
@@ -9796,7 +9800,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>150</v>
       </c>
@@ -9810,7 +9814,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>157</v>
       </c>
@@ -9824,7 +9828,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>238</v>
       </c>
@@ -9844,7 +9848,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>165</v>
       </c>
@@ -9858,7 +9862,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>127</v>
       </c>
@@ -9872,7 +9876,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>133</v>
       </c>
@@ -9886,7 +9890,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>431</v>
       </c>
@@ -9906,7 +9910,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>432</v>
       </c>
@@ -9926,7 +9930,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>127</v>
       </c>
@@ -9940,7 +9944,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>133</v>
       </c>
@@ -9954,7 +9958,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>141</v>
       </c>
@@ -9968,7 +9972,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>150</v>
       </c>
@@ -9982,7 +9986,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>157</v>
       </c>
@@ -9996,7 +10000,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>326</v>
       </c>
@@ -10016,7 +10020,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>133</v>
       </c>
@@ -10030,7 +10034,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>141</v>
       </c>
@@ -10044,7 +10048,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>328</v>
       </c>
@@ -10064,7 +10068,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>133</v>
       </c>
@@ -10078,7 +10082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>141</v>
       </c>
@@ -10092,7 +10096,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>446</v>
       </c>
@@ -10112,7 +10116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>447</v>
       </c>
@@ -10144,17 +10148,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10174,7 +10178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -10194,7 +10198,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -10208,7 +10212,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>141</v>
       </c>
@@ -10222,7 +10226,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>150</v>
       </c>
@@ -10236,7 +10240,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>157</v>
       </c>
@@ -10250,7 +10254,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>452</v>
       </c>
@@ -10270,7 +10274,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -10290,7 +10294,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>165</v>
       </c>
@@ -10304,7 +10308,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>127</v>
       </c>
@@ -10318,7 +10322,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>264</v>
       </c>
@@ -10338,7 +10342,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -10352,7 +10356,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>150</v>
       </c>
@@ -10366,7 +10370,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>265</v>
       </c>
@@ -10383,7 +10387,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>458</v>
       </c>
@@ -10394,7 +10398,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>270</v>
       </c>
@@ -10414,7 +10418,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>133</v>
       </c>
@@ -10428,7 +10432,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>362</v>
       </c>
@@ -10448,7 +10452,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>127</v>
       </c>
@@ -10462,7 +10466,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>133</v>
       </c>
@@ -10476,7 +10480,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>366</v>
       </c>
@@ -10496,7 +10500,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>468</v>
       </c>
@@ -10516,7 +10520,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>133</v>
       </c>
@@ -10530,7 +10534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>463</v>
       </c>
@@ -10547,7 +10551,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>279</v>
       </c>
@@ -10558,7 +10562,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>631</v>
       </c>
@@ -10578,7 +10582,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>384</v>
       </c>
@@ -10598,7 +10602,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>473</v>
       </c>
@@ -10618,7 +10622,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>133</v>
       </c>
@@ -10632,7 +10636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -10646,7 +10650,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -10660,7 +10664,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -10680,7 +10684,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>165</v>
       </c>
@@ -10694,7 +10698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>639</v>
       </c>
@@ -10714,7 +10718,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>476</v>
       </c>
@@ -10734,7 +10738,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>396</v>
       </c>
@@ -10754,7 +10758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>133</v>
       </c>
@@ -10768,7 +10772,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>141</v>
       </c>
@@ -10782,7 +10786,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>307</v>
       </c>
@@ -10802,7 +10806,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>408</v>
       </c>
@@ -10822,7 +10826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>141</v>
       </c>
@@ -10836,7 +10840,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -10850,7 +10854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>157</v>
       </c>
@@ -10864,7 +10868,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>413</v>
       </c>
@@ -10884,7 +10888,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>315</v>
       </c>
@@ -10904,7 +10908,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>127</v>
       </c>
@@ -10918,7 +10922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>133</v>
       </c>
@@ -10932,7 +10936,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>238</v>
       </c>
@@ -10952,7 +10956,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>165</v>
       </c>
@@ -10966,7 +10970,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>491</v>
       </c>
@@ -10986,7 +10990,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>141</v>
       </c>
@@ -11000,7 +11004,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>432</v>
       </c>
@@ -11020,7 +11024,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>127</v>
       </c>
@@ -11034,7 +11038,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>133</v>
       </c>
@@ -11048,7 +11052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>141</v>
       </c>
@@ -11062,7 +11066,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>150</v>
       </c>
@@ -11076,7 +11080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>157</v>
       </c>
@@ -11090,7 +11094,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>326</v>
       </c>
@@ -11110,7 +11114,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>446</v>
       </c>
@@ -11130,7 +11134,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>447</v>
       </c>
@@ -11144,7 +11148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>150</v>
       </c>
@@ -11158,7 +11162,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>157</v>
       </c>
@@ -11189,17 +11193,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11219,7 +11223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -11239,7 +11243,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -11253,7 +11257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>505</v>
       </c>
@@ -11273,7 +11277,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -11287,7 +11291,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -11301,7 +11305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>150</v>
       </c>
@@ -11315,7 +11319,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -11335,7 +11339,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>265</v>
       </c>
@@ -11352,7 +11356,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>267</v>
       </c>
@@ -11363,7 +11367,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -11383,7 +11387,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -11397,7 +11401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -11411,7 +11415,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>632</v>
       </c>
@@ -11431,7 +11435,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>133</v>
       </c>
@@ -11445,7 +11449,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>141</v>
       </c>
@@ -11459,7 +11463,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>150</v>
       </c>
@@ -11473,7 +11477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>157</v>
       </c>
@@ -11487,7 +11491,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>513</v>
       </c>
@@ -11507,7 +11511,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>133</v>
       </c>
@@ -11521,7 +11525,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>315</v>
       </c>
@@ -11541,7 +11545,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -11555,7 +11559,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>238</v>
       </c>
@@ -11575,7 +11579,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>165</v>
       </c>
@@ -11589,7 +11593,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>473</v>
       </c>
@@ -11609,7 +11613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -11623,7 +11627,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -11637,7 +11641,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -11651,7 +11655,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>299</v>
       </c>
@@ -11671,7 +11675,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>165</v>
       </c>
@@ -11685,7 +11689,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>127</v>
       </c>
@@ -11699,7 +11703,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>528</v>
       </c>
@@ -11719,7 +11723,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>141</v>
       </c>
@@ -11733,7 +11737,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>150</v>
       </c>
@@ -11747,7 +11751,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>157</v>
       </c>
@@ -11761,7 +11765,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>533</v>
       </c>
@@ -11781,7 +11785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>133</v>
       </c>
@@ -11795,7 +11799,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -11809,7 +11813,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>150</v>
       </c>
@@ -11823,7 +11827,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>157</v>
       </c>
@@ -11854,17 +11858,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11884,7 +11888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>538</v>
       </c>
@@ -11904,7 +11908,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>127</v>
       </c>
@@ -11918,7 +11922,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>133</v>
       </c>
@@ -11932,7 +11936,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>141</v>
       </c>
@@ -11946,7 +11950,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -11960,7 +11964,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>157</v>
       </c>
@@ -11974,7 +11978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>541</v>
       </c>
@@ -11994,7 +11998,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>163</v>
       </c>
@@ -12014,7 +12018,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>165</v>
       </c>
@@ -12028,7 +12032,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>127</v>
       </c>
@@ -12042,7 +12046,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>133</v>
       </c>
@@ -12056,7 +12060,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>632</v>
       </c>
@@ -12076,7 +12080,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -12096,7 +12100,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>133</v>
       </c>
@@ -12110,7 +12114,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>141</v>
       </c>
@@ -12124,7 +12128,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>366</v>
       </c>
@@ -12144,7 +12148,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>127</v>
       </c>
@@ -12158,7 +12162,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>133</v>
       </c>
@@ -12172,7 +12176,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>141</v>
       </c>
@@ -12186,7 +12190,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>558</v>
       </c>
@@ -12206,7 +12210,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>133</v>
       </c>
@@ -12220,7 +12224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>141</v>
       </c>
@@ -12234,7 +12238,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>150</v>
       </c>
@@ -12248,7 +12252,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>157</v>
       </c>
@@ -12262,7 +12266,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>631</v>
       </c>
@@ -12282,7 +12286,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>127</v>
       </c>
@@ -12296,7 +12300,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -12310,7 +12314,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -12324,7 +12328,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -12338,7 +12342,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>157</v>
       </c>
@@ -12352,7 +12356,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>384</v>
       </c>
@@ -12372,7 +12376,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>133</v>
       </c>
@@ -12386,7 +12390,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>299</v>
       </c>
@@ -12406,7 +12410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>165</v>
       </c>
@@ -12420,7 +12424,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>127</v>
       </c>
@@ -12434,7 +12438,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>563</v>
       </c>
@@ -12454,7 +12458,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>396</v>
       </c>
@@ -12474,7 +12478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>133</v>
       </c>
@@ -12488,7 +12492,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>141</v>
       </c>
@@ -12502,7 +12506,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>307</v>
       </c>
@@ -12522,7 +12526,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>165</v>
       </c>
@@ -12536,7 +12540,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>127</v>
       </c>
@@ -12550,7 +12554,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>133</v>
       </c>
@@ -12564,7 +12568,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>141</v>
       </c>
@@ -12578,7 +12582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>150</v>
       </c>
@@ -12592,7 +12596,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>568</v>
       </c>
@@ -12612,7 +12616,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>127</v>
       </c>
@@ -12626,7 +12630,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>413</v>
       </c>
@@ -12646,7 +12650,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>133</v>
       </c>
@@ -12660,7 +12664,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>141</v>
       </c>
@@ -12674,7 +12678,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>150</v>
       </c>
@@ -12688,7 +12692,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>315</v>
       </c>
@@ -12708,7 +12712,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>238</v>
       </c>
@@ -12728,7 +12732,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>165</v>
       </c>
@@ -12742,7 +12746,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>127</v>
       </c>
@@ -12756,7 +12760,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -12770,7 +12774,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -12784,7 +12788,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -12798,7 +12802,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>244</v>
       </c>
@@ -12818,7 +12822,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>141</v>
       </c>
@@ -12832,7 +12836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>578</v>
       </c>
@@ -12852,7 +12856,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>447</v>
       </c>
@@ -12866,7 +12870,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>447</v>
       </c>
@@ -12897,17 +12901,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12927,7 +12931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -12947,7 +12951,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>584</v>
       </c>
@@ -12967,7 +12971,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -12987,7 +12991,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>165</v>
       </c>
@@ -13001,7 +13005,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>127</v>
       </c>
@@ -13015,7 +13019,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>133</v>
       </c>
@@ -13029,7 +13033,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>270</v>
       </c>
@@ -13049,7 +13053,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>133</v>
       </c>
@@ -13063,7 +13067,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>632</v>
       </c>
@@ -13083,7 +13087,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>133</v>
       </c>
@@ -13097,7 +13101,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>141</v>
       </c>
@@ -13111,7 +13115,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>362</v>
       </c>
@@ -13131,7 +13135,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>366</v>
       </c>
@@ -13151,7 +13155,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>468</v>
       </c>
@@ -13171,7 +13175,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>133</v>
       </c>
@@ -13185,7 +13189,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>558</v>
       </c>
@@ -13205,7 +13209,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>141</v>
       </c>
@@ -13219,7 +13223,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>150</v>
       </c>
@@ -13233,7 +13237,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>157</v>
       </c>
@@ -13247,7 +13251,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>631</v>
       </c>
@@ -13267,7 +13271,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>384</v>
       </c>
@@ -13287,7 +13291,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>133</v>
       </c>
@@ -13301,7 +13305,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -13315,7 +13319,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>150</v>
       </c>
@@ -13329,7 +13333,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>299</v>
       </c>
@@ -13349,7 +13353,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>165</v>
       </c>
@@ -13363,7 +13367,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>127</v>
       </c>
@@ -13377,7 +13381,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>639</v>
       </c>
@@ -13397,7 +13401,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>133</v>
       </c>
@@ -13411,7 +13415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>141</v>
       </c>
@@ -13425,7 +13429,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>150</v>
       </c>
@@ -13439,7 +13443,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>157</v>
       </c>
@@ -13453,7 +13457,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>563</v>
       </c>
@@ -13473,7 +13477,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>408</v>
       </c>
@@ -13493,7 +13497,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -13507,7 +13511,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>413</v>
       </c>
@@ -13527,7 +13531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>133</v>
       </c>
@@ -13541,7 +13545,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>315</v>
       </c>
@@ -13561,7 +13565,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>133</v>
       </c>
@@ -13575,7 +13579,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>141</v>
       </c>
@@ -13589,7 +13593,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>150</v>
       </c>
@@ -13603,7 +13607,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>238</v>
       </c>
@@ -13623,7 +13627,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>165</v>
       </c>
@@ -13637,7 +13641,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>127</v>
       </c>
@@ -13651,7 +13655,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -13665,7 +13669,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>141</v>
       </c>
@@ -13679,7 +13683,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>150</v>
       </c>
@@ -13693,7 +13697,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>616</v>
       </c>
@@ -13713,7 +13717,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>141</v>
       </c>
@@ -13727,7 +13731,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>619</v>
       </c>
@@ -13747,7 +13751,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>578</v>
       </c>
@@ -13767,7 +13771,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>447</v>
       </c>
@@ -13781,7 +13785,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>447</v>
       </c>
@@ -13795,7 +13799,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -13809,7 +13813,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>157</v>
       </c>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3125" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57FE0C89-A88B-49CB-9854-AFA3061DF821}"/>
+  <xr:revisionPtr revIDLastSave="3177" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9B200F1-39BE-44D1-B94B-AAA3607517D5}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="9" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="11" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="10" r:id="rId1"/>
@@ -23,9 +23,10 @@
     <sheet name="2021" sheetId="7" r:id="rId8"/>
     <sheet name="2022" sheetId="8" r:id="rId9"/>
     <sheet name="2023" sheetId="12" r:id="rId10"/>
-    <sheet name="Stats" sheetId="9" r:id="rId11"/>
-    <sheet name="Wins-Losses" sheetId="13" r:id="rId12"/>
-    <sheet name="Winning Percentile Range" sheetId="14" r:id="rId13"/>
+    <sheet name="2024" sheetId="15" r:id="rId11"/>
+    <sheet name="Stats" sheetId="9" r:id="rId12"/>
+    <sheet name="Wins-Losses" sheetId="16" r:id="rId13"/>
+    <sheet name="Winning Percentile Range" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="660">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -2019,6 +2020,15 @@
   </si>
   <si>
     <t>6-2 3-6 6-3</t>
+  </si>
+  <si>
+    <t>BRISBANE INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Lucia Bronzetti (ITALY)</t>
   </si>
 </sst>
 </file>
@@ -2171,13 +2181,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Aryna</a:t>
+              <a:t>Aryna Sabalenka (BELARUS): Wins-Losses</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Sabalenka (BELARUS): Wins-Losses</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2243,10 +2248,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$11</c:f>
+              <c:f>Stats!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2277,15 +2282,18 @@
                 <c:pt idx="9">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$D$2:$D$11</c:f>
+              <c:f>Stats!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2316,12 +2324,15 @@
                 <c:pt idx="9">
                   <c:v>55</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-563C-40FA-B63A-16D2ADCBEADB}"/>
+              <c16:uniqueId val="{00000000-EF8D-48FB-9190-B52FECB858A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2351,10 +2362,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$11</c:f>
+              <c:f>Stats!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2385,15 +2396,18 @@
                 <c:pt idx="9">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$E$2:$E$11</c:f>
+              <c:f>Stats!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2424,12 +2438,15 @@
                 <c:pt idx="9">
                   <c:v>14</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-563C-40FA-B63A-16D2ADCBEADB}"/>
+              <c16:uniqueId val="{00000001-EF8D-48FB-9190-B52FECB858A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2443,11 +2460,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1924944896"/>
-        <c:axId val="1924943232"/>
+        <c:axId val="927252655"/>
+        <c:axId val="925344463"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1924944896"/>
+        <c:axId val="927252655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2545,7 +2562,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1924943232"/>
+        <c:crossAx val="925344463"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2553,7 +2570,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1924943232"/>
+        <c:axId val="925344463"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2594,7 +2611,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t>NUMBER OF MATCHES</a:t>
+                  <a:t>NUMBER OF MTACHES</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2659,7 +2676,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1924944896"/>
+        <c:crossAx val="927252655"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2769,8 +2786,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Aryna Sabalenka (BELARUS): Winning Percentile Range</a:t>
+              <a:t>Aryna</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Sabalenka (BELARUS): Winning Percentile Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2863,10 +2885,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$11</c:f>
+              <c:f>Stats!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2897,15 +2919,18 @@
                 <c:pt idx="9">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$F$2:$F$11</c:f>
+              <c:f>Stats!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>-2</c:v>
                 </c:pt>
@@ -2936,13 +2961,16 @@
                 <c:pt idx="9">
                   <c:v>0.74545454545454548</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BF5C-4C06-9760-35641EBA2CB5}"/>
+              <c16:uniqueId val="{00000000-D25E-4D59-8F58-354B4928A722}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2956,11 +2984,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1170004960"/>
-        <c:axId val="1170007872"/>
+        <c:axId val="1009857455"/>
+        <c:axId val="929022975"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1170004960"/>
+        <c:axId val="1009857455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3058,7 +3086,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1170007872"/>
+        <c:crossAx val="929022975"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3066,7 +3094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1170007872"/>
+        <c:axId val="929022975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3172,7 +3200,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1170004960"/>
+        <c:crossAx val="1009857455"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4334,25 +4362,25 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A9282421-0523-4C67-AE1B-EF70907B0B08}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AAE3610B-DBCF-4DD5-A0D1-BF6FFAA494C2}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{05F7C485-A527-4D7E-B296-CECC4873A8FA}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2854045E-8EF5-4D1B-B5EF-99AB45C18E91}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </chartsheet>
 </file>
@@ -4361,13 +4389,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8572500" cy="5827568"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41BEEB42-DBC3-2E0B-080E-67486FF1CB7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB0F04EB-6165-E11E-3BDC-48ADC9307FEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4394,13 +4422,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C0100CC-26AA-CE97-B03B-2CC5509B8BE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D3548BC-6D07-C84C-9554-99F97DE407D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4730,20 +4758,20 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4763,7 +4791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -4783,7 +4811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -4803,7 +4831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -4823,7 +4851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>133</v>
       </c>
@@ -4851,20 +4879,20 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4884,7 +4912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -4904,7 +4932,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -4918,7 +4946,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>150</v>
       </c>
@@ -4932,7 +4960,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>157</v>
       </c>
@@ -4946,7 +4974,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -4966,7 +4994,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>165</v>
       </c>
@@ -4980,7 +5008,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>127</v>
       </c>
@@ -4994,7 +5022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>133</v>
       </c>
@@ -5008,7 +5036,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>141</v>
       </c>
@@ -5022,7 +5050,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -5036,7 +5064,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>157</v>
       </c>
@@ -5050,7 +5078,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -5070,7 +5098,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -5084,7 +5112,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -5098,7 +5126,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -5118,7 +5146,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>127</v>
       </c>
@@ -5132,7 +5160,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>133</v>
       </c>
@@ -5146,7 +5174,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>141</v>
       </c>
@@ -5160,7 +5188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -5174,7 +5202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>157</v>
       </c>
@@ -5188,7 +5216,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>366</v>
       </c>
@@ -5208,7 +5236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>127</v>
       </c>
@@ -5222,7 +5250,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>133</v>
       </c>
@@ -5236,7 +5264,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>141</v>
       </c>
@@ -5250,7 +5278,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>558</v>
       </c>
@@ -5270,7 +5298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -5284,7 +5312,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>150</v>
       </c>
@@ -5298,7 +5326,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>157</v>
       </c>
@@ -5312,7 +5340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>631</v>
       </c>
@@ -5332,7 +5360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>127</v>
       </c>
@@ -5346,7 +5374,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>133</v>
       </c>
@@ -5360,7 +5388,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>141</v>
       </c>
@@ -5374,7 +5402,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -5388,7 +5416,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>157</v>
       </c>
@@ -5402,7 +5430,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>384</v>
       </c>
@@ -5422,7 +5450,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -5442,7 +5470,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>165</v>
       </c>
@@ -5456,7 +5484,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>127</v>
       </c>
@@ -5470,7 +5498,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>133</v>
       </c>
@@ -5484,7 +5512,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>141</v>
       </c>
@@ -5498,7 +5526,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>150</v>
       </c>
@@ -5512,7 +5540,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>639</v>
       </c>
@@ -5532,7 +5560,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>133</v>
       </c>
@@ -5546,7 +5574,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>307</v>
       </c>
@@ -5566,7 +5594,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>165</v>
       </c>
@@ -5580,7 +5608,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>127</v>
       </c>
@@ -5594,7 +5622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>133</v>
       </c>
@@ -5608,7 +5636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>141</v>
       </c>
@@ -5622,7 +5650,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -5636,7 +5664,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>413</v>
       </c>
@@ -5656,7 +5684,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -5670,7 +5698,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>315</v>
       </c>
@@ -5690,7 +5718,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -5704,7 +5732,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>141</v>
       </c>
@@ -5718,7 +5746,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>150</v>
       </c>
@@ -5732,7 +5760,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>238</v>
       </c>
@@ -5752,7 +5780,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>165</v>
       </c>
@@ -5766,7 +5794,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>127</v>
       </c>
@@ -5780,7 +5808,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -5794,7 +5822,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -5808,7 +5836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -5822,7 +5850,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>157</v>
       </c>
@@ -5836,7 +5864,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>326</v>
       </c>
@@ -5856,7 +5884,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>127</v>
       </c>
@@ -5870,7 +5898,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>133</v>
       </c>
@@ -5884,7 +5912,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>141</v>
       </c>
@@ -5898,7 +5926,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>578</v>
       </c>
@@ -5918,7 +5946,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>447</v>
       </c>
@@ -5932,7 +5960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>447</v>
       </c>
@@ -5946,7 +5974,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>150</v>
       </c>
@@ -5967,27 +5995,150 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EC9DEA-1CF9-4F4C-8A41-1AA7AF355EA9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>659</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="F2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" t="s">
+        <v>495</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE4EC6-9F9F-4F32-B740-030390455317}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -6007,7 +6158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -6028,7 +6179,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -6049,7 +6200,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -6070,7 +6221,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -6091,7 +6242,7 @@
         <v>0.30555555555555558</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -6112,7 +6263,7 @@
         <v>0.54716981132075471</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -6133,7 +6284,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -6154,7 +6305,7 @@
         <v>0.6071428571428571</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -6175,7 +6326,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -6196,7 +6347,7 @@
         <v>0.38235294117647056</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -6213,62 +6364,83 @@
         <v>14</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" ref="F11" si="1">(D11-E11)/D11</f>
+        <f t="shared" ref="F11:F12" si="1">(D11-E11)/D11</f>
         <v>0.74545454545454548</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2024</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
-        <f>SUM(B2:B11)</f>
-        <v>184</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" ref="C12:E12" si="2">SUM(C2:C11)</f>
+      <c r="B13" s="3">
+        <f>SUM(B2:B12)</f>
+        <v>185</v>
+      </c>
+      <c r="C13" s="3">
+        <f>SUM(C2:C12)</f>
         <v>13</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="3">
+        <f>SUM(D2:D12)</f>
+        <v>355</v>
+      </c>
+      <c r="E13" s="3">
+        <f>SUM(E2:E12)</f>
+        <v>166</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
+        <v>0.53239436619718306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <f>AVERAGE(B2:B12)</f>
+        <v>16.818181818181817</v>
+      </c>
+      <c r="C14" s="3">
+        <f>AVERAGE(C2:C12)</f>
+        <v>1.1818181818181819</v>
+      </c>
+      <c r="D14" s="3">
+        <f>AVERAGE(D2:D12)</f>
+        <v>32.272727272727273</v>
+      </c>
+      <c r="E14" s="3">
+        <f>AVERAGE(E2:E12)</f>
+        <v>15.090909090909092</v>
+      </c>
+      <c r="F14" s="4">
         <f t="shared" si="2"/>
-        <v>351</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="2"/>
-        <v>165</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" ref="F12:F13" si="3">(D12-E12)/D12</f>
-        <v>0.52991452991452992</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3">
-        <f>AVERAGE(B2:B11)</f>
-        <v>18.399999999999999</v>
-      </c>
-      <c r="C13" s="3">
-        <f t="shared" ref="C13:E13" si="4">AVERAGE(C2:C11)</f>
-        <v>1.3</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="4"/>
-        <v>35.1</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="4"/>
-        <v>16.5</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="3"/>
-        <v>0.52991452991452992</v>
+        <v>0.53239436619718306</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F11">
+  <conditionalFormatting sqref="F2:F12">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -6290,20 +6462,20 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6323,7 +6495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -6343,7 +6515,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -6357,7 +6529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -6377,7 +6549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -6391,7 +6563,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -6405,7 +6577,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>140</v>
       </c>
@@ -6425,7 +6597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>133</v>
       </c>
@@ -6439,7 +6611,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>141</v>
       </c>
@@ -6453,7 +6625,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>148</v>
       </c>
@@ -6473,7 +6645,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>148</v>
       </c>
@@ -6493,7 +6665,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -6507,7 +6679,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -6521,7 +6693,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>150</v>
       </c>
@@ -6535,7 +6707,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>148</v>
       </c>
@@ -6555,7 +6727,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>130</v>
       </c>
@@ -6575,7 +6747,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>133</v>
       </c>
@@ -6589,7 +6761,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>141</v>
       </c>
@@ -6603,7 +6775,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -6623,7 +6795,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>177</v>
       </c>
@@ -6643,7 +6815,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -6657,7 +6829,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>177</v>
       </c>
@@ -6677,7 +6849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>133</v>
       </c>
@@ -6691,7 +6863,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>182</v>
       </c>
@@ -6711,7 +6883,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>140</v>
       </c>
@@ -6731,7 +6903,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>133</v>
       </c>
@@ -6745,7 +6917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>141</v>
       </c>
@@ -6759,7 +6931,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>150</v>
       </c>
@@ -6773,7 +6945,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>157</v>
       </c>
@@ -6787,7 +6959,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -6807,7 +6979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>133</v>
       </c>
@@ -6821,7 +6993,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>141</v>
       </c>
@@ -6835,7 +7007,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>150</v>
       </c>
@@ -6849,7 +7021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>157</v>
       </c>
@@ -6863,7 +7035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -6883,7 +7055,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>133</v>
       </c>
@@ -6897,7 +7069,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -6911,7 +7083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>150</v>
       </c>
@@ -6925,7 +7097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>199</v>
       </c>
@@ -6945,7 +7117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>133</v>
       </c>
@@ -6959,7 +7131,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>141</v>
       </c>
@@ -6973,7 +7145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>150</v>
       </c>
@@ -6987,7 +7159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>157</v>
       </c>
@@ -7015,20 +7187,20 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7048,7 +7220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -7068,7 +7240,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -7082,7 +7254,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>204</v>
       </c>
@@ -7102,7 +7274,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -7116,7 +7288,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -7130,7 +7302,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>150</v>
       </c>
@@ -7144,7 +7316,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>157</v>
       </c>
@@ -7158,7 +7330,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>212</v>
       </c>
@@ -7178,7 +7350,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>214</v>
       </c>
@@ -7198,7 +7370,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>216</v>
       </c>
@@ -7212,7 +7384,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -7232,7 +7404,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>133</v>
       </c>
@@ -7246,7 +7418,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>141</v>
       </c>
@@ -7260,7 +7432,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>222</v>
       </c>
@@ -7280,7 +7452,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>133</v>
       </c>
@@ -7294,7 +7466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>141</v>
       </c>
@@ -7308,7 +7480,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -7322,7 +7494,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>157</v>
       </c>
@@ -7336,7 +7508,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -7356,7 +7528,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -7376,7 +7548,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -7390,7 +7562,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>141</v>
       </c>
@@ -7404,7 +7576,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>150</v>
       </c>
@@ -7418,7 +7590,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>231</v>
       </c>
@@ -7438,7 +7610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>133</v>
       </c>
@@ -7452,7 +7624,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>234</v>
       </c>
@@ -7472,7 +7644,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>133</v>
       </c>
@@ -7486,7 +7658,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>236</v>
       </c>
@@ -7506,7 +7678,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>238</v>
       </c>
@@ -7526,7 +7698,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>216</v>
       </c>
@@ -7540,7 +7712,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>242</v>
       </c>
@@ -7560,7 +7732,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>133</v>
       </c>
@@ -7574,7 +7746,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>141</v>
       </c>
@@ -7588,7 +7760,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>150</v>
       </c>
@@ -7602,7 +7774,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>244</v>
       </c>
@@ -7622,7 +7794,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>246</v>
       </c>
@@ -7642,7 +7814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>133</v>
       </c>
@@ -7656,7 +7828,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>249</v>
       </c>
@@ -7676,7 +7848,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>133</v>
       </c>
@@ -7690,7 +7862,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -7704,7 +7876,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>150</v>
       </c>
@@ -7718,7 +7890,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>157</v>
       </c>
@@ -7732,7 +7904,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>256</v>
       </c>
@@ -7752,7 +7924,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -7772,7 +7944,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -7786,7 +7958,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>141</v>
       </c>
@@ -7800,7 +7972,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>150</v>
       </c>
@@ -7829,20 +8001,20 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7862,7 +8034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>163</v>
       </c>
@@ -7882,7 +8054,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>216</v>
       </c>
@@ -7896,7 +8068,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>264</v>
       </c>
@@ -7916,7 +8088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>265</v>
       </c>
@@ -7933,7 +8105,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>267</v>
       </c>
@@ -7944,7 +8116,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>270</v>
       </c>
@@ -7964,7 +8136,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>216</v>
       </c>
@@ -7978,7 +8150,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>165</v>
       </c>
@@ -7992,7 +8164,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>274</v>
       </c>
@@ -8012,7 +8184,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>276</v>
       </c>
@@ -8032,7 +8204,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>280</v>
       </c>
@@ -8052,7 +8224,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>133</v>
       </c>
@@ -8066,7 +8238,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>141</v>
       </c>
@@ -8080,7 +8252,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>150</v>
       </c>
@@ -8094,7 +8266,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>157</v>
       </c>
@@ -8108,7 +8280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>287</v>
       </c>
@@ -8128,7 +8300,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>216</v>
       </c>
@@ -8142,7 +8314,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>265</v>
       </c>
@@ -8159,7 +8331,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>290</v>
       </c>
@@ -8170,7 +8342,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>214</v>
       </c>
@@ -8190,7 +8362,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>293</v>
       </c>
@@ -8210,7 +8382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>295</v>
       </c>
@@ -8230,7 +8402,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -8244,7 +8416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8258,7 +8430,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>299</v>
       </c>
@@ -8278,7 +8450,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>300</v>
       </c>
@@ -8298,7 +8470,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>133</v>
       </c>
@@ -8312,7 +8484,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -8326,7 +8498,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -8340,7 +8512,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>306</v>
       </c>
@@ -8360,7 +8532,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>307</v>
       </c>
@@ -8380,7 +8552,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>216</v>
       </c>
@@ -8394,7 +8566,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>308</v>
       </c>
@@ -8408,7 +8580,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>164</v>
       </c>
@@ -8422,7 +8594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>165</v>
       </c>
@@ -8436,7 +8608,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>312</v>
       </c>
@@ -8456,7 +8628,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>133</v>
       </c>
@@ -8470,7 +8642,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>315</v>
       </c>
@@ -8490,7 +8662,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>216</v>
       </c>
@@ -8504,7 +8676,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>238</v>
       </c>
@@ -8524,7 +8696,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>317</v>
       </c>
@@ -8544,7 +8716,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>133</v>
       </c>
@@ -8558,7 +8730,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>141</v>
       </c>
@@ -8572,7 +8744,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>319</v>
       </c>
@@ -8592,7 +8764,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -8606,7 +8778,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>141</v>
       </c>
@@ -8620,7 +8792,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>150</v>
       </c>
@@ -8634,7 +8806,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>326</v>
       </c>
@@ -8654,7 +8826,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>328</v>
       </c>
@@ -8674,7 +8846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -8688,7 +8860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -8702,7 +8874,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -8716,7 +8888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>157</v>
       </c>
@@ -8730,7 +8902,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>265</v>
       </c>
@@ -8747,7 +8919,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>337</v>
       </c>
@@ -8758,7 +8930,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>339</v>
       </c>
@@ -8778,7 +8950,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>133</v>
       </c>
@@ -8792,7 +8964,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>341</v>
       </c>
@@ -8812,7 +8984,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>133</v>
       </c>
@@ -8826,7 +8998,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>141</v>
       </c>
@@ -8840,7 +9012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>150</v>
       </c>
@@ -8854,7 +9026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>157</v>
       </c>
@@ -8883,20 +9055,20 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8916,7 +9088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -8936,7 +9108,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -8950,7 +9122,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>141</v>
       </c>
@@ -8964,7 +9136,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>350</v>
       </c>
@@ -8984,7 +9156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>133</v>
       </c>
@@ -8998,7 +9170,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>141</v>
       </c>
@@ -9012,7 +9184,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -9032,7 +9204,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>265</v>
       </c>
@@ -9049,7 +9221,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>320</v>
       </c>
@@ -9060,7 +9232,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -9080,7 +9252,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>216</v>
       </c>
@@ -9094,7 +9266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>308</v>
       </c>
@@ -9108,7 +9280,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -9128,7 +9300,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>165</v>
       </c>
@@ -9142,7 +9314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>127</v>
       </c>
@@ -9156,7 +9328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>366</v>
       </c>
@@ -9176,7 +9348,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>165</v>
       </c>
@@ -9190,7 +9362,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>287</v>
       </c>
@@ -9210,7 +9382,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>133</v>
       </c>
@@ -9224,7 +9396,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>141</v>
       </c>
@@ -9238,7 +9410,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -9252,7 +9424,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>157</v>
       </c>
@@ -9266,7 +9438,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>265</v>
       </c>
@@ -9283,7 +9455,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>301</v>
       </c>
@@ -9294,7 +9466,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>379</v>
       </c>
@@ -9314,7 +9486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>631</v>
       </c>
@@ -9334,7 +9506,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>216</v>
       </c>
@@ -9348,7 +9520,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>165</v>
       </c>
@@ -9362,7 +9534,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>384</v>
       </c>
@@ -9382,7 +9554,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>216</v>
       </c>
@@ -9396,7 +9568,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>165</v>
       </c>
@@ -9410,7 +9582,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -9430,7 +9602,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>639</v>
       </c>
@@ -9450,7 +9622,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>133</v>
       </c>
@@ -9464,7 +9636,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>141</v>
       </c>
@@ -9478,7 +9650,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>393</v>
       </c>
@@ -9498,7 +9670,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>396</v>
       </c>
@@ -9518,7 +9690,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>127</v>
       </c>
@@ -9532,7 +9704,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>133</v>
       </c>
@@ -9546,7 +9718,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -9560,7 +9732,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>150</v>
       </c>
@@ -9574,7 +9746,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>157</v>
       </c>
@@ -9588,7 +9760,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>307</v>
       </c>
@@ -9608,7 +9780,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>408</v>
       </c>
@@ -9628,7 +9800,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>413</v>
       </c>
@@ -9648,7 +9820,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>127</v>
       </c>
@@ -9662,7 +9834,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -9676,7 +9848,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>315</v>
       </c>
@@ -9696,7 +9868,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>127</v>
       </c>
@@ -9710,7 +9882,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>133</v>
       </c>
@@ -9724,7 +9896,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>141</v>
       </c>
@@ -9738,7 +9910,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>150</v>
       </c>
@@ -9752,7 +9924,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>425</v>
       </c>
@@ -9772,7 +9944,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>133</v>
       </c>
@@ -9786,7 +9958,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>141</v>
       </c>
@@ -9800,7 +9972,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>150</v>
       </c>
@@ -9814,7 +9986,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>157</v>
       </c>
@@ -9828,7 +10000,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>238</v>
       </c>
@@ -9848,7 +10020,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>165</v>
       </c>
@@ -9862,7 +10034,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>127</v>
       </c>
@@ -9876,7 +10048,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>133</v>
       </c>
@@ -9890,7 +10062,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>431</v>
       </c>
@@ -9910,7 +10082,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>432</v>
       </c>
@@ -9930,7 +10102,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>127</v>
       </c>
@@ -9944,7 +10116,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>133</v>
       </c>
@@ -9958,7 +10130,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>141</v>
       </c>
@@ -9972,7 +10144,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>150</v>
       </c>
@@ -9986,7 +10158,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>157</v>
       </c>
@@ -10000,7 +10172,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>326</v>
       </c>
@@ -10020,7 +10192,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>133</v>
       </c>
@@ -10034,7 +10206,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>141</v>
       </c>
@@ -10048,7 +10220,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>328</v>
       </c>
@@ -10068,7 +10240,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>133</v>
       </c>
@@ -10082,7 +10254,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>141</v>
       </c>
@@ -10096,7 +10268,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>446</v>
       </c>
@@ -10116,7 +10288,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>447</v>
       </c>
@@ -10145,20 +10317,20 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10178,7 +10350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -10198,7 +10370,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -10212,7 +10384,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>141</v>
       </c>
@@ -10226,7 +10398,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>150</v>
       </c>
@@ -10240,7 +10412,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>157</v>
       </c>
@@ -10254,7 +10426,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>452</v>
       </c>
@@ -10274,7 +10446,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -10294,7 +10466,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>165</v>
       </c>
@@ -10308,7 +10480,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>127</v>
       </c>
@@ -10322,7 +10494,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>264</v>
       </c>
@@ -10342,7 +10514,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -10356,7 +10528,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>150</v>
       </c>
@@ -10370,7 +10542,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>265</v>
       </c>
@@ -10387,7 +10559,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>458</v>
       </c>
@@ -10398,7 +10570,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>270</v>
       </c>
@@ -10418,7 +10590,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>133</v>
       </c>
@@ -10432,7 +10604,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>362</v>
       </c>
@@ -10452,7 +10624,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>127</v>
       </c>
@@ -10466,7 +10638,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>133</v>
       </c>
@@ -10480,7 +10652,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>366</v>
       </c>
@@ -10500,7 +10672,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>468</v>
       </c>
@@ -10520,7 +10692,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>133</v>
       </c>
@@ -10534,7 +10706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>463</v>
       </c>
@@ -10551,7 +10723,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>279</v>
       </c>
@@ -10562,7 +10734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>631</v>
       </c>
@@ -10582,7 +10754,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>384</v>
       </c>
@@ -10602,7 +10774,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>473</v>
       </c>
@@ -10622,7 +10794,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>133</v>
       </c>
@@ -10636,7 +10808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -10650,7 +10822,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -10664,7 +10836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -10684,7 +10856,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>165</v>
       </c>
@@ -10698,7 +10870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>639</v>
       </c>
@@ -10718,7 +10890,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>476</v>
       </c>
@@ -10738,7 +10910,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>396</v>
       </c>
@@ -10758,7 +10930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>133</v>
       </c>
@@ -10772,7 +10944,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>141</v>
       </c>
@@ -10786,7 +10958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>307</v>
       </c>
@@ -10806,7 +10978,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>408</v>
       </c>
@@ -10826,7 +10998,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>141</v>
       </c>
@@ -10840,7 +11012,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -10854,7 +11026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>157</v>
       </c>
@@ -10868,7 +11040,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>413</v>
       </c>
@@ -10888,7 +11060,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>315</v>
       </c>
@@ -10908,7 +11080,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>127</v>
       </c>
@@ -10922,7 +11094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>133</v>
       </c>
@@ -10936,7 +11108,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>238</v>
       </c>
@@ -10956,7 +11128,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>165</v>
       </c>
@@ -10970,7 +11142,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>491</v>
       </c>
@@ -10990,7 +11162,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>141</v>
       </c>
@@ -11004,7 +11176,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>432</v>
       </c>
@@ -11024,7 +11196,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>127</v>
       </c>
@@ -11038,7 +11210,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>133</v>
       </c>
@@ -11052,7 +11224,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>141</v>
       </c>
@@ -11066,7 +11238,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>150</v>
       </c>
@@ -11080,7 +11252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>157</v>
       </c>
@@ -11094,7 +11266,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>326</v>
       </c>
@@ -11114,7 +11286,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>446</v>
       </c>
@@ -11134,7 +11306,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>447</v>
       </c>
@@ -11148,7 +11320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>150</v>
       </c>
@@ -11162,7 +11334,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>157</v>
       </c>
@@ -11190,20 +11362,20 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11223,7 +11395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -11243,7 +11415,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -11257,7 +11429,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>505</v>
       </c>
@@ -11277,7 +11449,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -11291,7 +11463,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -11305,7 +11477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>150</v>
       </c>
@@ -11319,7 +11491,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -11339,7 +11511,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>265</v>
       </c>
@@ -11356,7 +11528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>267</v>
       </c>
@@ -11367,7 +11539,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -11387,7 +11559,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -11401,7 +11573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -11415,7 +11587,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>632</v>
       </c>
@@ -11435,7 +11607,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>133</v>
       </c>
@@ -11449,7 +11621,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>141</v>
       </c>
@@ -11463,7 +11635,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>150</v>
       </c>
@@ -11477,7 +11649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>157</v>
       </c>
@@ -11491,7 +11663,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>513</v>
       </c>
@@ -11511,7 +11683,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>133</v>
       </c>
@@ -11525,7 +11697,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>315</v>
       </c>
@@ -11545,7 +11717,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -11559,7 +11731,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>238</v>
       </c>
@@ -11579,7 +11751,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>165</v>
       </c>
@@ -11593,7 +11765,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>473</v>
       </c>
@@ -11613,7 +11785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -11627,7 +11799,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -11641,7 +11813,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -11655,7 +11827,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>299</v>
       </c>
@@ -11675,7 +11847,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>165</v>
       </c>
@@ -11689,7 +11861,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>127</v>
       </c>
@@ -11703,7 +11875,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>528</v>
       </c>
@@ -11723,7 +11895,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>141</v>
       </c>
@@ -11737,7 +11909,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>150</v>
       </c>
@@ -11751,7 +11923,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>157</v>
       </c>
@@ -11765,7 +11937,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>533</v>
       </c>
@@ -11785,7 +11957,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>133</v>
       </c>
@@ -11799,7 +11971,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -11813,7 +11985,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>150</v>
       </c>
@@ -11827,7 +11999,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>157</v>
       </c>
@@ -11855,20 +12027,20 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11888,7 +12060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>538</v>
       </c>
@@ -11908,7 +12080,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>127</v>
       </c>
@@ -11922,7 +12094,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>133</v>
       </c>
@@ -11936,7 +12108,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>141</v>
       </c>
@@ -11950,7 +12122,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -11964,7 +12136,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>157</v>
       </c>
@@ -11978,7 +12150,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>541</v>
       </c>
@@ -11998,7 +12170,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>163</v>
       </c>
@@ -12018,7 +12190,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>165</v>
       </c>
@@ -12032,7 +12204,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>127</v>
       </c>
@@ -12046,7 +12218,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>133</v>
       </c>
@@ -12060,7 +12232,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>632</v>
       </c>
@@ -12080,7 +12252,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -12100,7 +12272,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>133</v>
       </c>
@@ -12114,7 +12286,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>141</v>
       </c>
@@ -12128,7 +12300,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>366</v>
       </c>
@@ -12148,7 +12320,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>127</v>
       </c>
@@ -12162,7 +12334,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>133</v>
       </c>
@@ -12176,7 +12348,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>141</v>
       </c>
@@ -12190,7 +12362,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>558</v>
       </c>
@@ -12210,7 +12382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>133</v>
       </c>
@@ -12224,7 +12396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>141</v>
       </c>
@@ -12238,7 +12410,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>150</v>
       </c>
@@ -12252,7 +12424,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>157</v>
       </c>
@@ -12266,7 +12438,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>631</v>
       </c>
@@ -12286,7 +12458,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>127</v>
       </c>
@@ -12300,7 +12472,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -12314,7 +12486,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -12328,7 +12500,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -12342,7 +12514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>157</v>
       </c>
@@ -12356,7 +12528,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>384</v>
       </c>
@@ -12376,7 +12548,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>133</v>
       </c>
@@ -12390,7 +12562,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>299</v>
       </c>
@@ -12410,7 +12582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>165</v>
       </c>
@@ -12424,7 +12596,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>127</v>
       </c>
@@ -12438,7 +12610,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>563</v>
       </c>
@@ -12458,7 +12630,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>396</v>
       </c>
@@ -12478,7 +12650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>133</v>
       </c>
@@ -12492,7 +12664,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>141</v>
       </c>
@@ -12506,7 +12678,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>307</v>
       </c>
@@ -12526,7 +12698,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>165</v>
       </c>
@@ -12540,7 +12712,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>127</v>
       </c>
@@ -12554,7 +12726,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>133</v>
       </c>
@@ -12568,7 +12740,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>141</v>
       </c>
@@ -12582,7 +12754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>150</v>
       </c>
@@ -12596,7 +12768,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>568</v>
       </c>
@@ -12616,7 +12788,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>127</v>
       </c>
@@ -12630,7 +12802,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>413</v>
       </c>
@@ -12650,7 +12822,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>133</v>
       </c>
@@ -12664,7 +12836,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>141</v>
       </c>
@@ -12678,7 +12850,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>150</v>
       </c>
@@ -12692,7 +12864,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>315</v>
       </c>
@@ -12712,7 +12884,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>238</v>
       </c>
@@ -12732,7 +12904,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>165</v>
       </c>
@@ -12746,7 +12918,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>127</v>
       </c>
@@ -12760,7 +12932,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -12774,7 +12946,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -12788,7 +12960,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -12802,7 +12974,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>244</v>
       </c>
@@ -12822,7 +12994,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>141</v>
       </c>
@@ -12836,7 +13008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>578</v>
       </c>
@@ -12856,7 +13028,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>447</v>
       </c>
@@ -12870,7 +13042,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>447</v>
       </c>
@@ -12898,20 +13070,20 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12931,7 +13103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -12951,7 +13123,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>584</v>
       </c>
@@ -12971,7 +13143,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -12991,7 +13163,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>165</v>
       </c>
@@ -13005,7 +13177,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>127</v>
       </c>
@@ -13019,7 +13191,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>133</v>
       </c>
@@ -13033,7 +13205,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>270</v>
       </c>
@@ -13053,7 +13225,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>133</v>
       </c>
@@ -13067,7 +13239,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>632</v>
       </c>
@@ -13087,7 +13259,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>133</v>
       </c>
@@ -13101,7 +13273,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>141</v>
       </c>
@@ -13115,7 +13287,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>362</v>
       </c>
@@ -13135,7 +13307,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>366</v>
       </c>
@@ -13155,7 +13327,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>468</v>
       </c>
@@ -13175,7 +13347,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>133</v>
       </c>
@@ -13189,7 +13361,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>558</v>
       </c>
@@ -13209,7 +13381,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>141</v>
       </c>
@@ -13223,7 +13395,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>150</v>
       </c>
@@ -13237,7 +13409,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>157</v>
       </c>
@@ -13251,7 +13423,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>631</v>
       </c>
@@ -13271,7 +13443,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>384</v>
       </c>
@@ -13291,7 +13463,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>133</v>
       </c>
@@ -13305,7 +13477,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -13319,7 +13491,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>150</v>
       </c>
@@ -13333,7 +13505,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>299</v>
       </c>
@@ -13353,7 +13525,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>165</v>
       </c>
@@ -13367,7 +13539,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>127</v>
       </c>
@@ -13381,7 +13553,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>639</v>
       </c>
@@ -13401,7 +13573,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>133</v>
       </c>
@@ -13415,7 +13587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>141</v>
       </c>
@@ -13429,7 +13601,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>150</v>
       </c>
@@ -13443,7 +13615,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>157</v>
       </c>
@@ -13457,7 +13629,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>563</v>
       </c>
@@ -13477,7 +13649,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>408</v>
       </c>
@@ -13497,7 +13669,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -13511,7 +13683,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>413</v>
       </c>
@@ -13531,7 +13703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>133</v>
       </c>
@@ -13545,7 +13717,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>315</v>
       </c>
@@ -13565,7 +13737,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>133</v>
       </c>
@@ -13579,7 +13751,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>141</v>
       </c>
@@ -13593,7 +13765,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>150</v>
       </c>
@@ -13607,7 +13779,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>238</v>
       </c>
@@ -13627,7 +13799,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>165</v>
       </c>
@@ -13641,7 +13813,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>127</v>
       </c>
@@ -13655,7 +13827,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -13669,7 +13841,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>141</v>
       </c>
@@ -13683,7 +13855,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>150</v>
       </c>
@@ -13697,7 +13869,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>616</v>
       </c>
@@ -13717,7 +13889,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>141</v>
       </c>
@@ -13731,7 +13903,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>619</v>
       </c>
@@ -13751,7 +13923,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>578</v>
       </c>
@@ -13771,7 +13943,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>447</v>
       </c>
@@ -13785,7 +13957,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>447</v>
       </c>
@@ -13799,7 +13971,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -13813,7 +13985,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>157</v>
       </c>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3177" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9B200F1-39BE-44D1-B94B-AAA3607517D5}"/>
+  <xr:revisionPtr revIDLastSave="3184" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FE78F71-DF01-463B-9085-A0F1FC7BC85A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="11" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="659">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -2023,9 +2023,6 @@
   </si>
   <si>
     <t>BRISBANE INTERNATIONAL</t>
-  </si>
-  <si>
-    <t>W</t>
   </si>
   <si>
     <t>Lucia Bronzetti (ITALY)</t>
@@ -4365,7 +4362,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AAE3610B-DBCF-4DD5-A0D1-BF6FFAA494C2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4377,7 +4374,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2854045E-8EF5-4D1B-B5EF-99AB45C18E91}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4389,7 +4386,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8572500" cy="5827568"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4451,14 +4448,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4496,7 +4489,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4602,7 +4595,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4744,7 +4737,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4757,18 +4750,18 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4878,18 +4871,18 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6001,18 +5994,18 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6046,10 +6039,10 @@
         <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>658</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
         <v>501</v>
@@ -6063,7 +6056,7 @@
         <v>331</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>658</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
@@ -6077,7 +6070,7 @@
         <v>495</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>658</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -6091,7 +6084,7 @@
         <v>486</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>658</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
         <v>54</v>
@@ -6125,17 +6118,17 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6461,18 +6454,18 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7186,18 +7179,18 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -8000,18 +7993,18 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -9054,18 +9047,18 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -10316,18 +10309,18 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -11361,18 +11354,18 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -12026,18 +12019,18 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -13069,18 +13062,18 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A12 F1:F12"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3184" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FE78F71-DF01-463B-9085-A0F1FC7BC85A}"/>
+  <xr:revisionPtr revIDLastSave="3209" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8408B65F-109F-4B3A-BC18-AAB54BBCD389}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="11" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="662">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -2026,6 +2026,15 @@
   </si>
   <si>
     <t>Lucia Bronzetti (ITALY)</t>
+  </si>
+  <si>
+    <t>Brenda Fruhvirtová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Ella Seidel (GERMANY)</t>
+  </si>
+  <si>
+    <t>7-6(2) 6-4</t>
   </si>
 </sst>
 </file>
@@ -2322,7 +2331,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2959,7 +2968,7 @@
                   <c:v>0.74545454545454548</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.75</c:v>
+                  <c:v>0.90909090909090906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4448,6 +4457,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4872,7 +4885,7 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection activeCell="C7" sqref="C7:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5992,20 +6005,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E8" activeCellId="1" sqref="E2:E5 E8:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6102,6 +6115,110 @@
       </c>
       <c r="F6" t="s">
         <v>534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" t="s">
+        <v>660</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" t="s">
+        <v>659</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" t="s">
+        <v>354</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" t="s">
+        <v>455</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" t="s">
+        <v>536</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" t="s">
+        <v>514</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" t="s">
+        <v>654</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -6118,7 +6235,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6366,20 +6483,20 @@
         <v>2024</v>
       </c>
       <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="D12">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.90909090909090906</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6388,15 +6505,15 @@
       </c>
       <c r="B13" s="3">
         <f>SUM(B2:B12)</f>
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C13" s="3">
         <f>SUM(C2:C12)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3">
         <f>SUM(D2:D12)</f>
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E13" s="3">
         <f>SUM(E2:E12)</f>
@@ -6404,7 +6521,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.53239436619718306</v>
+        <v>0.54143646408839774</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6413,15 +6530,15 @@
       </c>
       <c r="B14" s="3">
         <f>AVERAGE(B2:B12)</f>
-        <v>16.818181818181817</v>
+        <v>16.90909090909091</v>
       </c>
       <c r="C14" s="3">
         <f>AVERAGE(C2:C12)</f>
-        <v>1.1818181818181819</v>
+        <v>1.2727272727272727</v>
       </c>
       <c r="D14" s="3">
         <f>AVERAGE(D2:D12)</f>
-        <v>32.272727272727273</v>
+        <v>32.909090909090907</v>
       </c>
       <c r="E14" s="3">
         <f>AVERAGE(E2:E12)</f>
@@ -6429,7 +6546,7 @@
       </c>
       <c r="F14" s="4">
         <f t="shared" si="2"/>
-        <v>0.53239436619718306</v>
+        <v>0.54143646408839763</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3209" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8408B65F-109F-4B3A-BC18-AAB54BBCD389}"/>
+  <xr:revisionPtr revIDLastSave="3216" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{475CF722-44E5-4223-965A-0F557A9CACB8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="11" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="663">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -2035,6 +2035,9 @@
   </si>
   <si>
     <t>7-6(2) 6-4</t>
+  </si>
+  <si>
+    <t>6-7(5) 6-3 6-0</t>
   </si>
 </sst>
 </file>
@@ -2445,7 +2448,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2968,7 +2971,7 @@
                   <c:v>0.74545454545454548</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.90909090909090906</c:v>
+                  <c:v>0.81818181818181823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4462,9 +4465,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4502,7 +4505,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4608,7 +4611,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4750,7 +4753,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4885,7 +4888,7 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6005,7 +6008,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" activeCellId="1" sqref="E2:E5 E8:E14"/>
@@ -6013,12 +6016,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6219,6 +6222,26 @@
       </c>
       <c r="F14" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" t="s">
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -6235,7 +6258,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6483,7 +6506,7 @@
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -6492,11 +6515,11 @@
         <v>11</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>0.90909090909090906</v>
+        <v>0.81818181818181823</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6505,7 +6528,7 @@
       </c>
       <c r="B13" s="3">
         <f>SUM(B2:B12)</f>
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C13" s="3">
         <f>SUM(C2:C12)</f>
@@ -6517,11 +6540,11 @@
       </c>
       <c r="E13" s="3">
         <f>SUM(E2:E12)</f>
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.54143646408839774</v>
+        <v>0.53867403314917128</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6530,7 +6553,7 @@
       </c>
       <c r="B14" s="3">
         <f>AVERAGE(B2:B12)</f>
-        <v>16.90909090909091</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3">
         <f>AVERAGE(C2:C12)</f>
@@ -6542,11 +6565,11 @@
       </c>
       <c r="E14" s="3">
         <f>AVERAGE(E2:E12)</f>
-        <v>15.090909090909092</v>
+        <v>15.181818181818182</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="2"/>
-        <v>0.54143646408839763</v>
+        <v>0.53867403314917128</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3216" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{475CF722-44E5-4223-965A-0F557A9CACB8}"/>
+  <xr:revisionPtr revIDLastSave="3235" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B99F6D6D-A264-4795-A2AC-E26C6987780F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="11" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="667">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -2038,6 +2038,18 @@
   </si>
   <si>
     <t>6-7(5) 6-3 6-0</t>
+  </si>
+  <si>
+    <t>Peyton Stearns (USA)</t>
+  </si>
+  <si>
+    <t>6-7(2) 6-2 7-6(6)</t>
+  </si>
+  <si>
+    <t>Emma Raducanu (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>Emma Navarro (USA)</t>
   </si>
 </sst>
 </file>
@@ -2334,7 +2346,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2448,7 +2460,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2971,7 +2983,7 @@
                   <c:v>0.74545454545454548</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.81818181818181823</c:v>
+                  <c:v>0.76923076923076927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4465,9 +4477,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4505,7 +4517,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4611,7 +4623,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4753,7 +4765,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6008,10 +6020,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" activeCellId="1" sqref="E2:E5 E8:E14"/>
+      <selection activeCell="E18" activeCellId="2" sqref="E2:E5 E8:E14 E18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6021,7 +6033,7 @@
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6242,6 +6254,54 @@
       </c>
       <c r="F16" t="s">
         <v>662</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>362</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" t="s">
+        <v>663</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" t="s">
+        <v>665</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" t="s">
+        <v>666</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -6506,20 +6566,20 @@
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>0.81818181818181823</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6528,7 +6588,7 @@
       </c>
       <c r="B13" s="3">
         <f>SUM(B2:B12)</f>
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C13" s="3">
         <f>SUM(C2:C12)</f>
@@ -6536,15 +6596,15 @@
       </c>
       <c r="D13" s="3">
         <f>SUM(D2:D12)</f>
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E13" s="3">
         <f>SUM(E2:E12)</f>
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.53867403314917128</v>
+        <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6553,7 +6613,7 @@
       </c>
       <c r="B14" s="3">
         <f>AVERAGE(B2:B12)</f>
-        <v>17</v>
+        <v>17.09090909090909</v>
       </c>
       <c r="C14" s="3">
         <f>AVERAGE(C2:C12)</f>
@@ -6561,15 +6621,15 @@
       </c>
       <c r="D14" s="3">
         <f>AVERAGE(D2:D12)</f>
-        <v>32.909090909090907</v>
+        <v>33.090909090909093</v>
       </c>
       <c r="E14" s="3">
         <f>AVERAGE(E2:E12)</f>
-        <v>15.181818181818182</v>
+        <v>15.272727272727273</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="2"/>
-        <v>0.53867403314917128</v>
+        <v>0.53846153846153844</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3235" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B99F6D6D-A264-4795-A2AC-E26C6987780F}"/>
+  <xr:revisionPtr revIDLastSave="3246" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1796EA6-B820-4AFC-88E3-8E1116E99F7B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="11" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="669">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -2050,6 +2050,12 @@
   </si>
   <si>
     <t>Emma Navarro (USA)</t>
+  </si>
+  <si>
+    <t>Anhelina Kalinina (UKRAINE)</t>
+  </si>
+  <si>
+    <t>6-4 1-6 6-1</t>
   </si>
 </sst>
 </file>
@@ -2346,7 +2352,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2460,7 +2466,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2983,7 +2989,7 @@
                   <c:v>0.74545454545454548</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.76923076923076927</c:v>
+                  <c:v>0.7142857142857143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6020,10 +6026,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" activeCellId="2" sqref="E2:E5 E8:E14 E18:E19"/>
+      <selection activeCell="E22" activeCellId="3" sqref="E2:E5 E8:E14 E18:E19 E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6302,6 +6308,40 @@
       </c>
       <c r="F20" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" t="s">
+        <v>572</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" t="s">
+        <v>667</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" t="s">
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -6566,20 +6606,20 @@
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>0.76923076923076927</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6588,7 +6628,7 @@
       </c>
       <c r="B13" s="3">
         <f>SUM(B2:B12)</f>
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C13" s="3">
         <f>SUM(C2:C12)</f>
@@ -6596,15 +6636,15 @@
       </c>
       <c r="D13" s="3">
         <f>SUM(D2:D12)</f>
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E13" s="3">
         <f>SUM(E2:E12)</f>
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.53846153846153844</v>
+        <v>0.53698630136986303</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6613,7 +6653,7 @@
       </c>
       <c r="B14" s="3">
         <f>AVERAGE(B2:B12)</f>
-        <v>17.09090909090909</v>
+        <v>17.181818181818183</v>
       </c>
       <c r="C14" s="3">
         <f>AVERAGE(C2:C12)</f>
@@ -6621,15 +6661,15 @@
       </c>
       <c r="D14" s="3">
         <f>AVERAGE(D2:D12)</f>
-        <v>33.090909090909093</v>
+        <v>33.18181818181818</v>
       </c>
       <c r="E14" s="3">
         <f>AVERAGE(E2:E12)</f>
-        <v>15.272727272727273</v>
+        <v>15.363636363636363</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="2"/>
-        <v>0.53846153846153844</v>
+        <v>0.53698630136986303</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3246" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1796EA6-B820-4AFC-88E3-8E1116E99F7B}"/>
+  <xr:revisionPtr revIDLastSave="3261" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42C60890-46EE-4A68-B51D-F8AD45B33541}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="11" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="671">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -2056,6 +2056,12 @@
   </si>
   <si>
     <t>6-4 1-6 6-1</t>
+  </si>
+  <si>
+    <t>7-6(4  4-6 3-3 RETIRED</t>
+  </si>
+  <si>
+    <t>6-3 6-3 7-5</t>
   </si>
 </sst>
 </file>
@@ -2352,7 +2358,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2466,7 +2472,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2989,7 +2995,7 @@
                   <c:v>0.74545454545454548</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7142857142857143</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6026,10 +6032,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" activeCellId="3" sqref="E2:E5 E8:E14 E18:E19 E22"/>
+      <selection activeCell="E25" activeCellId="4" sqref="E2:E5 E8:E14 E18:E19 E22 E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6037,9 +6043,9 @@
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6342,6 +6348,40 @@
       </c>
       <c r="F23" t="s">
         <v>668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>558</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" t="s">
+        <v>572</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" t="s">
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -6606,20 +6646,20 @@
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>0.7142857142857143</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6628,7 +6668,7 @@
       </c>
       <c r="B13" s="3">
         <f>SUM(B2:B12)</f>
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C13" s="3">
         <f>SUM(C2:C12)</f>
@@ -6636,15 +6676,15 @@
       </c>
       <c r="D13" s="3">
         <f>SUM(D2:D12)</f>
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E13" s="3">
         <f>SUM(E2:E12)</f>
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.53698630136986303</v>
+        <v>0.53551912568306015</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6653,7 +6693,7 @@
       </c>
       <c r="B14" s="3">
         <f>AVERAGE(B2:B12)</f>
-        <v>17.181818181818183</v>
+        <v>17.272727272727273</v>
       </c>
       <c r="C14" s="3">
         <f>AVERAGE(C2:C12)</f>
@@ -6661,15 +6701,15 @@
       </c>
       <c r="D14" s="3">
         <f>AVERAGE(D2:D12)</f>
-        <v>33.18181818181818</v>
+        <v>33.272727272727273</v>
       </c>
       <c r="E14" s="3">
         <f>AVERAGE(E2:E12)</f>
-        <v>15.363636363636363</v>
+        <v>15.454545454545455</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="2"/>
-        <v>0.53698630136986303</v>
+        <v>0.53551912568306015</v>
       </c>
     </row>
   </sheetData>
@@ -13302,8 +13342,8 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3261" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42C60890-46EE-4A68-B51D-F8AD45B33541}"/>
+  <xr:revisionPtr revIDLastSave="3284" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E6DFA42-8446-4478-90BE-27B7474A9D0B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="11" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="11" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="10" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2620" uniqueCount="676">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -2062,6 +2062,21 @@
   </si>
   <si>
     <t>6-3 6-3 7-5</t>
+  </si>
+  <si>
+    <t>Robin Montgomery (USA)</t>
+  </si>
+  <si>
+    <t>6-4 3-6 6-3</t>
+  </si>
+  <si>
+    <t>6-1 6-7(5) 6-4</t>
+  </si>
+  <si>
+    <t>1-6 7-5 7-6(5)</t>
+  </si>
+  <si>
+    <t>7-5 4-6 7-6(7)</t>
   </si>
 </sst>
 </file>
@@ -2358,7 +2373,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2472,7 +2487,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2995,7 +3010,7 @@
                   <c:v>0.74545454545454548</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4794,17 +4809,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4824,7 +4839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -4844,7 +4859,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -4864,7 +4879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -4884,7 +4899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>133</v>
       </c>
@@ -4911,21 +4926,21 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4945,7 +4960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -4965,7 +4980,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -4979,7 +4994,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>150</v>
       </c>
@@ -4993,7 +5008,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>157</v>
       </c>
@@ -5007,7 +5022,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -5027,7 +5042,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>165</v>
       </c>
@@ -5041,7 +5056,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>127</v>
       </c>
@@ -5055,7 +5070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>133</v>
       </c>
@@ -5069,7 +5084,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>141</v>
       </c>
@@ -5083,7 +5098,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -5097,7 +5112,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>157</v>
       </c>
@@ -5111,7 +5126,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -5131,7 +5146,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -5145,7 +5160,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -5159,7 +5174,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -5179,7 +5194,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>127</v>
       </c>
@@ -5193,7 +5208,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>133</v>
       </c>
@@ -5207,7 +5222,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>141</v>
       </c>
@@ -5221,7 +5236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -5235,7 +5250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>157</v>
       </c>
@@ -5249,7 +5264,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>366</v>
       </c>
@@ -5269,7 +5284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>127</v>
       </c>
@@ -5283,7 +5298,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>133</v>
       </c>
@@ -5297,7 +5312,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>141</v>
       </c>
@@ -5311,7 +5326,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>558</v>
       </c>
@@ -5331,7 +5346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -5345,7 +5360,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>150</v>
       </c>
@@ -5359,7 +5374,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>157</v>
       </c>
@@ -5373,7 +5388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>631</v>
       </c>
@@ -5393,7 +5408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>127</v>
       </c>
@@ -5407,7 +5422,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>133</v>
       </c>
@@ -5421,7 +5436,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>141</v>
       </c>
@@ -5435,7 +5450,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -5449,7 +5464,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>157</v>
       </c>
@@ -5463,7 +5478,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>384</v>
       </c>
@@ -5483,7 +5498,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -5503,7 +5518,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>165</v>
       </c>
@@ -5517,7 +5532,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>127</v>
       </c>
@@ -5531,7 +5546,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>133</v>
       </c>
@@ -5545,7 +5560,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>141</v>
       </c>
@@ -5559,7 +5574,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>150</v>
       </c>
@@ -5573,7 +5588,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>639</v>
       </c>
@@ -5593,7 +5608,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>133</v>
       </c>
@@ -5607,7 +5622,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>307</v>
       </c>
@@ -5627,7 +5642,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>165</v>
       </c>
@@ -5641,7 +5656,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>127</v>
       </c>
@@ -5655,7 +5670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>133</v>
       </c>
@@ -5669,7 +5684,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>141</v>
       </c>
@@ -5683,7 +5698,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -5697,7 +5712,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>413</v>
       </c>
@@ -5717,7 +5732,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -5731,7 +5746,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>315</v>
       </c>
@@ -5751,7 +5766,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -5765,7 +5780,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>141</v>
       </c>
@@ -5779,7 +5794,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>150</v>
       </c>
@@ -5793,7 +5808,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>238</v>
       </c>
@@ -5813,7 +5828,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>165</v>
       </c>
@@ -5827,7 +5842,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>127</v>
       </c>
@@ -5841,7 +5856,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -5855,7 +5870,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -5869,7 +5884,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -5883,7 +5898,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>157</v>
       </c>
@@ -5897,7 +5912,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>326</v>
       </c>
@@ -5917,7 +5932,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>127</v>
       </c>
@@ -5931,7 +5946,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>133</v>
       </c>
@@ -5945,7 +5960,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>141</v>
       </c>
@@ -5959,7 +5974,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>578</v>
       </c>
@@ -5979,7 +5994,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>447</v>
       </c>
@@ -5993,7 +6008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>447</v>
       </c>
@@ -6007,7 +6022,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>150</v>
       </c>
@@ -6032,23 +6047,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" activeCellId="4" sqref="E2:E5 E8:E14 E18:E19 E22 E25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E33" activeCellId="5" sqref="E6 E16 E20 E23 E26 E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6068,7 +6083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>657</v>
       </c>
@@ -6088,7 +6103,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -6102,7 +6117,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>141</v>
       </c>
@@ -6116,7 +6131,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>150</v>
       </c>
@@ -6130,7 +6145,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>157</v>
       </c>
@@ -6144,7 +6159,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>163</v>
       </c>
@@ -6164,7 +6179,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>165</v>
       </c>
@@ -6178,7 +6193,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>127</v>
       </c>
@@ -6192,7 +6207,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>133</v>
       </c>
@@ -6206,7 +6221,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>141</v>
       </c>
@@ -6220,7 +6235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>150</v>
       </c>
@@ -6234,7 +6249,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>157</v>
       </c>
@@ -6248,7 +6263,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>270</v>
       </c>
@@ -6268,7 +6283,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>362</v>
       </c>
@@ -6288,7 +6303,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>127</v>
       </c>
@@ -6302,7 +6317,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>133</v>
       </c>
@@ -6316,7 +6331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>366</v>
       </c>
@@ -6336,7 +6351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>127</v>
       </c>
@@ -6350,7 +6365,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>558</v>
       </c>
@@ -6370,7 +6385,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>141</v>
       </c>
@@ -6382,6 +6397,96 @@
       </c>
       <c r="F26" t="s">
         <v>670</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>631</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" t="s">
+        <v>671</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" t="s">
+        <v>427</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" t="s">
+        <v>634</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" t="s">
+        <v>579</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" t="s">
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -6401,17 +6506,17 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -6431,7 +6536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -6452,7 +6557,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -6473,7 +6578,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -6494,7 +6599,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -6515,7 +6620,7 @@
         <v>0.30555555555555558</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -6536,7 +6641,7 @@
         <v>0.54716981132075471</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -6557,7 +6662,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -6578,7 +6683,7 @@
         <v>0.6071428571428571</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -6599,7 +6704,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -6620,7 +6725,7 @@
         <v>0.38235294117647056</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -6641,34 +6746,34 @@
         <v>0.74545454545454548</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3">
         <f>SUM(B2:B12)</f>
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C13" s="3">
         <f>SUM(C2:C12)</f>
@@ -6676,24 +6781,24 @@
       </c>
       <c r="D13" s="3">
         <f>SUM(D2:D12)</f>
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E13" s="3">
         <f>SUM(E2:E12)</f>
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.53551912568306015</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.53908355795148244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="3">
         <f>AVERAGE(B2:B12)</f>
-        <v>17.272727272727273</v>
+        <v>17.363636363636363</v>
       </c>
       <c r="C14" s="3">
         <f>AVERAGE(C2:C12)</f>
@@ -6701,15 +6806,15 @@
       </c>
       <c r="D14" s="3">
         <f>AVERAGE(D2:D12)</f>
-        <v>33.272727272727273</v>
+        <v>33.727272727272727</v>
       </c>
       <c r="E14" s="3">
         <f>AVERAGE(E2:E12)</f>
-        <v>15.454545454545455</v>
+        <v>15.545454545454545</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="2"/>
-        <v>0.53551912568306015</v>
+        <v>0.53908355795148244</v>
       </c>
     </row>
   </sheetData>
@@ -6738,17 +6843,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6768,7 +6873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -6788,7 +6893,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -6802,7 +6907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -6822,7 +6927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -6836,7 +6941,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -6850,7 +6955,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>140</v>
       </c>
@@ -6870,7 +6975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>133</v>
       </c>
@@ -6884,7 +6989,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>141</v>
       </c>
@@ -6898,7 +7003,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>148</v>
       </c>
@@ -6918,7 +7023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>148</v>
       </c>
@@ -6938,7 +7043,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -6952,7 +7057,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -6966,7 +7071,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>150</v>
       </c>
@@ -6980,7 +7085,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>148</v>
       </c>
@@ -7000,7 +7105,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>130</v>
       </c>
@@ -7020,7 +7125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>133</v>
       </c>
@@ -7034,7 +7139,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>141</v>
       </c>
@@ -7048,7 +7153,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -7068,7 +7173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>177</v>
       </c>
@@ -7088,7 +7193,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -7102,7 +7207,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>177</v>
       </c>
@@ -7122,7 +7227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>133</v>
       </c>
@@ -7136,7 +7241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>182</v>
       </c>
@@ -7156,7 +7261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>140</v>
       </c>
@@ -7176,7 +7281,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>133</v>
       </c>
@@ -7190,7 +7295,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>141</v>
       </c>
@@ -7204,7 +7309,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>150</v>
       </c>
@@ -7218,7 +7323,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>157</v>
       </c>
@@ -7232,7 +7337,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -7252,7 +7357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>133</v>
       </c>
@@ -7266,7 +7371,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>141</v>
       </c>
@@ -7280,7 +7385,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>150</v>
       </c>
@@ -7294,7 +7399,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>157</v>
       </c>
@@ -7308,7 +7413,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -7328,7 +7433,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>133</v>
       </c>
@@ -7342,7 +7447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -7356,7 +7461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>150</v>
       </c>
@@ -7370,7 +7475,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>199</v>
       </c>
@@ -7390,7 +7495,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>133</v>
       </c>
@@ -7404,7 +7509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>141</v>
       </c>
@@ -7418,7 +7523,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>150</v>
       </c>
@@ -7432,7 +7537,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>157</v>
       </c>
@@ -7463,17 +7568,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7493,7 +7598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -7513,7 +7618,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -7527,7 +7632,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>204</v>
       </c>
@@ -7547,7 +7652,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -7561,7 +7666,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -7575,7 +7680,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>150</v>
       </c>
@@ -7589,7 +7694,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>157</v>
       </c>
@@ -7603,7 +7708,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>212</v>
       </c>
@@ -7623,7 +7728,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>214</v>
       </c>
@@ -7643,7 +7748,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>216</v>
       </c>
@@ -7657,7 +7762,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -7677,7 +7782,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>133</v>
       </c>
@@ -7691,7 +7796,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>141</v>
       </c>
@@ -7705,7 +7810,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>222</v>
       </c>
@@ -7725,7 +7830,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>133</v>
       </c>
@@ -7739,7 +7844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>141</v>
       </c>
@@ -7753,7 +7858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -7767,7 +7872,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>157</v>
       </c>
@@ -7781,7 +7886,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -7801,7 +7906,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -7821,7 +7926,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -7835,7 +7940,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>141</v>
       </c>
@@ -7849,7 +7954,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>150</v>
       </c>
@@ -7863,7 +7968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>231</v>
       </c>
@@ -7883,7 +7988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>133</v>
       </c>
@@ -7897,7 +8002,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>234</v>
       </c>
@@ -7917,7 +8022,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>133</v>
       </c>
@@ -7931,7 +8036,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>236</v>
       </c>
@@ -7951,7 +8056,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>238</v>
       </c>
@@ -7971,7 +8076,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>216</v>
       </c>
@@ -7985,7 +8090,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>242</v>
       </c>
@@ -8005,7 +8110,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>133</v>
       </c>
@@ -8019,7 +8124,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>141</v>
       </c>
@@ -8033,7 +8138,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>150</v>
       </c>
@@ -8047,7 +8152,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>244</v>
       </c>
@@ -8067,7 +8172,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>246</v>
       </c>
@@ -8087,7 +8192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>133</v>
       </c>
@@ -8101,7 +8206,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>249</v>
       </c>
@@ -8121,7 +8226,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>133</v>
       </c>
@@ -8135,7 +8240,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -8149,7 +8254,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>150</v>
       </c>
@@ -8163,7 +8268,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>157</v>
       </c>
@@ -8177,7 +8282,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>256</v>
       </c>
@@ -8197,7 +8302,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -8217,7 +8322,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -8231,7 +8336,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>141</v>
       </c>
@@ -8245,7 +8350,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>150</v>
       </c>
@@ -8277,17 +8382,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8307,7 +8412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>163</v>
       </c>
@@ -8327,7 +8432,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>216</v>
       </c>
@@ -8341,7 +8446,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>264</v>
       </c>
@@ -8361,7 +8466,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>265</v>
       </c>
@@ -8378,7 +8483,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>267</v>
       </c>
@@ -8389,7 +8494,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>270</v>
       </c>
@@ -8409,7 +8514,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>216</v>
       </c>
@@ -8423,7 +8528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>165</v>
       </c>
@@ -8437,7 +8542,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>274</v>
       </c>
@@ -8457,7 +8562,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>276</v>
       </c>
@@ -8477,7 +8582,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>280</v>
       </c>
@@ -8497,7 +8602,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>133</v>
       </c>
@@ -8511,7 +8616,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>141</v>
       </c>
@@ -8525,7 +8630,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>150</v>
       </c>
@@ -8539,7 +8644,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>157</v>
       </c>
@@ -8553,7 +8658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>287</v>
       </c>
@@ -8573,7 +8678,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>216</v>
       </c>
@@ -8587,7 +8692,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>265</v>
       </c>
@@ -8604,7 +8709,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>290</v>
       </c>
@@ -8615,7 +8720,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>214</v>
       </c>
@@ -8635,7 +8740,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>293</v>
       </c>
@@ -8655,7 +8760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>295</v>
       </c>
@@ -8675,7 +8780,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -8689,7 +8794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8703,7 +8808,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>299</v>
       </c>
@@ -8723,7 +8828,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>300</v>
       </c>
@@ -8743,7 +8848,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>133</v>
       </c>
@@ -8757,7 +8862,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -8771,7 +8876,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -8785,7 +8890,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>306</v>
       </c>
@@ -8805,7 +8910,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>307</v>
       </c>
@@ -8825,7 +8930,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>216</v>
       </c>
@@ -8839,7 +8944,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>308</v>
       </c>
@@ -8853,7 +8958,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>164</v>
       </c>
@@ -8867,7 +8972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>165</v>
       </c>
@@ -8881,7 +8986,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>312</v>
       </c>
@@ -8901,7 +9006,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>133</v>
       </c>
@@ -8915,7 +9020,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>315</v>
       </c>
@@ -8935,7 +9040,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>216</v>
       </c>
@@ -8949,7 +9054,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>238</v>
       </c>
@@ -8969,7 +9074,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>317</v>
       </c>
@@ -8989,7 +9094,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>133</v>
       </c>
@@ -9003,7 +9108,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>141</v>
       </c>
@@ -9017,7 +9122,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>319</v>
       </c>
@@ -9037,7 +9142,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -9051,7 +9156,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>141</v>
       </c>
@@ -9065,7 +9170,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>150</v>
       </c>
@@ -9079,7 +9184,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>326</v>
       </c>
@@ -9099,7 +9204,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>328</v>
       </c>
@@ -9119,7 +9224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -9133,7 +9238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -9147,7 +9252,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -9161,7 +9266,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>157</v>
       </c>
@@ -9175,7 +9280,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>265</v>
       </c>
@@ -9192,7 +9297,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>337</v>
       </c>
@@ -9203,7 +9308,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>339</v>
       </c>
@@ -9223,7 +9328,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>133</v>
       </c>
@@ -9237,7 +9342,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>341</v>
       </c>
@@ -9257,7 +9362,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>133</v>
       </c>
@@ -9271,7 +9376,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>141</v>
       </c>
@@ -9285,7 +9390,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>150</v>
       </c>
@@ -9299,7 +9404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>157</v>
       </c>
@@ -9331,17 +9436,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9361,7 +9466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -9381,7 +9486,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -9395,7 +9500,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>141</v>
       </c>
@@ -9409,7 +9514,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>350</v>
       </c>
@@ -9429,7 +9534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>133</v>
       </c>
@@ -9443,7 +9548,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>141</v>
       </c>
@@ -9457,7 +9562,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -9477,7 +9582,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>265</v>
       </c>
@@ -9494,7 +9599,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>320</v>
       </c>
@@ -9505,7 +9610,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -9525,7 +9630,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>216</v>
       </c>
@@ -9539,7 +9644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>308</v>
       </c>
@@ -9553,7 +9658,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -9573,7 +9678,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>165</v>
       </c>
@@ -9587,7 +9692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>127</v>
       </c>
@@ -9601,7 +9706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>366</v>
       </c>
@@ -9621,7 +9726,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>165</v>
       </c>
@@ -9635,7 +9740,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>287</v>
       </c>
@@ -9655,7 +9760,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>133</v>
       </c>
@@ -9669,7 +9774,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>141</v>
       </c>
@@ -9683,7 +9788,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -9697,7 +9802,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>157</v>
       </c>
@@ -9711,7 +9816,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>265</v>
       </c>
@@ -9728,7 +9833,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>301</v>
       </c>
@@ -9739,7 +9844,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>379</v>
       </c>
@@ -9759,7 +9864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>631</v>
       </c>
@@ -9779,7 +9884,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>216</v>
       </c>
@@ -9793,7 +9898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>165</v>
       </c>
@@ -9807,7 +9912,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>384</v>
       </c>
@@ -9827,7 +9932,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>216</v>
       </c>
@@ -9841,7 +9946,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>165</v>
       </c>
@@ -9855,7 +9960,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -9875,7 +9980,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>639</v>
       </c>
@@ -9895,7 +10000,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>133</v>
       </c>
@@ -9909,7 +10014,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>141</v>
       </c>
@@ -9923,7 +10028,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>393</v>
       </c>
@@ -9943,7 +10048,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>396</v>
       </c>
@@ -9963,7 +10068,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>127</v>
       </c>
@@ -9977,7 +10082,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>133</v>
       </c>
@@ -9991,7 +10096,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -10005,7 +10110,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>150</v>
       </c>
@@ -10019,7 +10124,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>157</v>
       </c>
@@ -10033,7 +10138,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>307</v>
       </c>
@@ -10053,7 +10158,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>408</v>
       </c>
@@ -10073,7 +10178,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>413</v>
       </c>
@@ -10093,7 +10198,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>127</v>
       </c>
@@ -10107,7 +10212,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -10121,7 +10226,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>315</v>
       </c>
@@ -10141,7 +10246,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>127</v>
       </c>
@@ -10155,7 +10260,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>133</v>
       </c>
@@ -10169,7 +10274,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>141</v>
       </c>
@@ -10183,7 +10288,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>150</v>
       </c>
@@ -10197,7 +10302,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>425</v>
       </c>
@@ -10217,7 +10322,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>133</v>
       </c>
@@ -10231,7 +10336,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>141</v>
       </c>
@@ -10245,7 +10350,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>150</v>
       </c>
@@ -10259,7 +10364,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>157</v>
       </c>
@@ -10273,7 +10378,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>238</v>
       </c>
@@ -10293,7 +10398,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>165</v>
       </c>
@@ -10307,7 +10412,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>127</v>
       </c>
@@ -10321,7 +10426,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>133</v>
       </c>
@@ -10335,7 +10440,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>431</v>
       </c>
@@ -10355,7 +10460,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>432</v>
       </c>
@@ -10375,7 +10480,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>127</v>
       </c>
@@ -10389,7 +10494,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>133</v>
       </c>
@@ -10403,7 +10508,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>141</v>
       </c>
@@ -10417,7 +10522,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>150</v>
       </c>
@@ -10431,7 +10536,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>157</v>
       </c>
@@ -10445,7 +10550,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>326</v>
       </c>
@@ -10465,7 +10570,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>133</v>
       </c>
@@ -10479,7 +10584,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>141</v>
       </c>
@@ -10493,7 +10598,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>328</v>
       </c>
@@ -10513,7 +10618,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>133</v>
       </c>
@@ -10527,7 +10632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>141</v>
       </c>
@@ -10541,7 +10646,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>446</v>
       </c>
@@ -10561,7 +10666,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>447</v>
       </c>
@@ -10593,17 +10698,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10623,7 +10728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -10643,7 +10748,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -10657,7 +10762,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>141</v>
       </c>
@@ -10671,7 +10776,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>150</v>
       </c>
@@ -10685,7 +10790,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>157</v>
       </c>
@@ -10699,7 +10804,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>452</v>
       </c>
@@ -10719,7 +10824,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -10739,7 +10844,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>165</v>
       </c>
@@ -10753,7 +10858,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>127</v>
       </c>
@@ -10767,7 +10872,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>264</v>
       </c>
@@ -10787,7 +10892,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -10801,7 +10906,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>150</v>
       </c>
@@ -10815,7 +10920,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>265</v>
       </c>
@@ -10832,7 +10937,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>458</v>
       </c>
@@ -10843,7 +10948,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>270</v>
       </c>
@@ -10863,7 +10968,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>133</v>
       </c>
@@ -10877,7 +10982,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>362</v>
       </c>
@@ -10897,7 +11002,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>127</v>
       </c>
@@ -10911,7 +11016,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>133</v>
       </c>
@@ -10925,7 +11030,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>366</v>
       </c>
@@ -10945,7 +11050,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>468</v>
       </c>
@@ -10965,7 +11070,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>133</v>
       </c>
@@ -10979,7 +11084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>463</v>
       </c>
@@ -10996,7 +11101,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>279</v>
       </c>
@@ -11007,7 +11112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>631</v>
       </c>
@@ -11027,7 +11132,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>384</v>
       </c>
@@ -11047,7 +11152,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>473</v>
       </c>
@@ -11067,7 +11172,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>133</v>
       </c>
@@ -11081,7 +11186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -11095,7 +11200,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -11109,7 +11214,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -11129,7 +11234,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>165</v>
       </c>
@@ -11143,7 +11248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>639</v>
       </c>
@@ -11163,7 +11268,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>476</v>
       </c>
@@ -11183,7 +11288,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>396</v>
       </c>
@@ -11203,7 +11308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>133</v>
       </c>
@@ -11217,7 +11322,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>141</v>
       </c>
@@ -11231,7 +11336,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>307</v>
       </c>
@@ -11251,7 +11356,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>408</v>
       </c>
@@ -11271,7 +11376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>141</v>
       </c>
@@ -11285,7 +11390,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -11299,7 +11404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>157</v>
       </c>
@@ -11313,7 +11418,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>413</v>
       </c>
@@ -11333,7 +11438,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>315</v>
       </c>
@@ -11353,7 +11458,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>127</v>
       </c>
@@ -11367,7 +11472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>133</v>
       </c>
@@ -11381,7 +11486,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>238</v>
       </c>
@@ -11401,7 +11506,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>165</v>
       </c>
@@ -11415,7 +11520,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>491</v>
       </c>
@@ -11435,7 +11540,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>141</v>
       </c>
@@ -11449,7 +11554,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>432</v>
       </c>
@@ -11469,7 +11574,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>127</v>
       </c>
@@ -11483,7 +11588,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>133</v>
       </c>
@@ -11497,7 +11602,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>141</v>
       </c>
@@ -11511,7 +11616,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>150</v>
       </c>
@@ -11525,7 +11630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>157</v>
       </c>
@@ -11539,7 +11644,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>326</v>
       </c>
@@ -11559,7 +11664,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>446</v>
       </c>
@@ -11579,7 +11684,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>447</v>
       </c>
@@ -11593,7 +11698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>150</v>
       </c>
@@ -11607,7 +11712,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>157</v>
       </c>
@@ -11638,17 +11743,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11668,7 +11773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -11688,7 +11793,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -11702,7 +11807,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>505</v>
       </c>
@@ -11722,7 +11827,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -11736,7 +11841,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -11750,7 +11855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>150</v>
       </c>
@@ -11764,7 +11869,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -11784,7 +11889,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>265</v>
       </c>
@@ -11801,7 +11906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>267</v>
       </c>
@@ -11812,7 +11917,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -11832,7 +11937,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -11846,7 +11951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -11860,7 +11965,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>632</v>
       </c>
@@ -11880,7 +11985,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>133</v>
       </c>
@@ -11894,7 +11999,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>141</v>
       </c>
@@ -11908,7 +12013,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>150</v>
       </c>
@@ -11922,7 +12027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>157</v>
       </c>
@@ -11936,7 +12041,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>513</v>
       </c>
@@ -11956,7 +12061,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>133</v>
       </c>
@@ -11970,7 +12075,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>315</v>
       </c>
@@ -11990,7 +12095,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -12004,7 +12109,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>238</v>
       </c>
@@ -12024,7 +12129,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>165</v>
       </c>
@@ -12038,7 +12143,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>473</v>
       </c>
@@ -12058,7 +12163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -12072,7 +12177,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -12086,7 +12191,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -12100,7 +12205,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>299</v>
       </c>
@@ -12120,7 +12225,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>165</v>
       </c>
@@ -12134,7 +12239,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>127</v>
       </c>
@@ -12148,7 +12253,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>528</v>
       </c>
@@ -12168,7 +12273,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>141</v>
       </c>
@@ -12182,7 +12287,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>150</v>
       </c>
@@ -12196,7 +12301,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>157</v>
       </c>
@@ -12210,7 +12315,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>533</v>
       </c>
@@ -12230,7 +12335,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>133</v>
       </c>
@@ -12244,7 +12349,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -12258,7 +12363,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>150</v>
       </c>
@@ -12272,7 +12377,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>157</v>
       </c>
@@ -12303,17 +12408,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12333,7 +12438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>538</v>
       </c>
@@ -12353,7 +12458,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>127</v>
       </c>
@@ -12367,7 +12472,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>133</v>
       </c>
@@ -12381,7 +12486,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>141</v>
       </c>
@@ -12395,7 +12500,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -12409,7 +12514,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>157</v>
       </c>
@@ -12423,7 +12528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>541</v>
       </c>
@@ -12443,7 +12548,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>163</v>
       </c>
@@ -12463,7 +12568,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>165</v>
       </c>
@@ -12477,7 +12582,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>127</v>
       </c>
@@ -12491,7 +12596,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>133</v>
       </c>
@@ -12505,7 +12610,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>632</v>
       </c>
@@ -12525,7 +12630,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -12545,7 +12650,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>133</v>
       </c>
@@ -12559,7 +12664,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>141</v>
       </c>
@@ -12573,7 +12678,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>366</v>
       </c>
@@ -12593,7 +12698,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>127</v>
       </c>
@@ -12607,7 +12712,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>133</v>
       </c>
@@ -12621,7 +12726,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>141</v>
       </c>
@@ -12635,7 +12740,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>558</v>
       </c>
@@ -12655,7 +12760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>133</v>
       </c>
@@ -12669,7 +12774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>141</v>
       </c>
@@ -12683,7 +12788,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>150</v>
       </c>
@@ -12697,7 +12802,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>157</v>
       </c>
@@ -12711,7 +12816,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>631</v>
       </c>
@@ -12731,7 +12836,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>127</v>
       </c>
@@ -12745,7 +12850,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -12759,7 +12864,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -12773,7 +12878,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -12787,7 +12892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>157</v>
       </c>
@@ -12801,7 +12906,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>384</v>
       </c>
@@ -12821,7 +12926,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>133</v>
       </c>
@@ -12835,7 +12940,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>299</v>
       </c>
@@ -12855,7 +12960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>165</v>
       </c>
@@ -12869,7 +12974,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>127</v>
       </c>
@@ -12883,7 +12988,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>563</v>
       </c>
@@ -12903,7 +13008,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>396</v>
       </c>
@@ -12923,7 +13028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>133</v>
       </c>
@@ -12937,7 +13042,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>141</v>
       </c>
@@ -12951,7 +13056,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>307</v>
       </c>
@@ -12971,7 +13076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>165</v>
       </c>
@@ -12985,7 +13090,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>127</v>
       </c>
@@ -12999,7 +13104,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>133</v>
       </c>
@@ -13013,7 +13118,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>141</v>
       </c>
@@ -13027,7 +13132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>150</v>
       </c>
@@ -13041,7 +13146,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>568</v>
       </c>
@@ -13061,7 +13166,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>127</v>
       </c>
@@ -13075,7 +13180,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>413</v>
       </c>
@@ -13095,7 +13200,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>133</v>
       </c>
@@ -13109,7 +13214,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>141</v>
       </c>
@@ -13123,7 +13228,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>150</v>
       </c>
@@ -13137,7 +13242,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>315</v>
       </c>
@@ -13157,7 +13262,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>238</v>
       </c>
@@ -13177,7 +13282,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>165</v>
       </c>
@@ -13191,7 +13296,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>127</v>
       </c>
@@ -13205,7 +13310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -13219,7 +13324,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -13233,7 +13338,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -13247,7 +13352,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>244</v>
       </c>
@@ -13267,7 +13372,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>141</v>
       </c>
@@ -13281,7 +13386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>578</v>
       </c>
@@ -13301,7 +13406,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>447</v>
       </c>
@@ -13315,7 +13420,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>447</v>
       </c>
@@ -13346,17 +13451,17 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13376,7 +13481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -13396,7 +13501,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>584</v>
       </c>
@@ -13416,7 +13521,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -13436,7 +13541,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>165</v>
       </c>
@@ -13450,7 +13555,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>127</v>
       </c>
@@ -13464,7 +13569,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>133</v>
       </c>
@@ -13478,7 +13583,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>270</v>
       </c>
@@ -13498,7 +13603,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>133</v>
       </c>
@@ -13512,7 +13617,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>632</v>
       </c>
@@ -13532,7 +13637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>133</v>
       </c>
@@ -13546,7 +13651,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>141</v>
       </c>
@@ -13560,7 +13665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>362</v>
       </c>
@@ -13580,7 +13685,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>366</v>
       </c>
@@ -13600,7 +13705,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>468</v>
       </c>
@@ -13620,7 +13725,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>133</v>
       </c>
@@ -13634,7 +13739,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>558</v>
       </c>
@@ -13654,7 +13759,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>141</v>
       </c>
@@ -13668,7 +13773,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>150</v>
       </c>
@@ -13682,7 +13787,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>157</v>
       </c>
@@ -13696,7 +13801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>631</v>
       </c>
@@ -13716,7 +13821,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>384</v>
       </c>
@@ -13736,7 +13841,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>133</v>
       </c>
@@ -13750,7 +13855,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -13764,7 +13869,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>150</v>
       </c>
@@ -13778,7 +13883,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>299</v>
       </c>
@@ -13798,7 +13903,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>165</v>
       </c>
@@ -13812,7 +13917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>127</v>
       </c>
@@ -13826,7 +13931,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>639</v>
       </c>
@@ -13846,7 +13951,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>133</v>
       </c>
@@ -13860,7 +13965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>141</v>
       </c>
@@ -13874,7 +13979,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>150</v>
       </c>
@@ -13888,7 +13993,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>157</v>
       </c>
@@ -13902,7 +14007,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>563</v>
       </c>
@@ -13922,7 +14027,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>408</v>
       </c>
@@ -13942,7 +14047,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -13956,7 +14061,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>413</v>
       </c>
@@ -13976,7 +14081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>133</v>
       </c>
@@ -13990,7 +14095,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>315</v>
       </c>
@@ -14010,7 +14115,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>133</v>
       </c>
@@ -14024,7 +14129,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>141</v>
       </c>
@@ -14038,7 +14143,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>150</v>
       </c>
@@ -14052,7 +14157,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>238</v>
       </c>
@@ -14072,7 +14177,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>165</v>
       </c>
@@ -14086,7 +14191,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>127</v>
       </c>
@@ -14100,7 +14205,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -14114,7 +14219,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>141</v>
       </c>
@@ -14128,7 +14233,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>150</v>
       </c>
@@ -14142,7 +14247,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>616</v>
       </c>
@@ -14162,7 +14267,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>141</v>
       </c>
@@ -14176,7 +14281,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>619</v>
       </c>
@@ -14196,7 +14301,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>578</v>
       </c>
@@ -14216,7 +14321,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>447</v>
       </c>
@@ -14230,7 +14335,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>447</v>
       </c>
@@ -14244,7 +14349,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -14258,7 +14363,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>157</v>
       </c>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3284" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E6DFA42-8446-4478-90BE-27B7474A9D0B}"/>
+  <xr:revisionPtr revIDLastSave="3307" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{070AF90F-2A6F-46F0-8717-6135BE98B765}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="11" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
+    <workbookView xWindow="4365" yWindow="4365" windowWidth="28800" windowHeight="15345" firstSheet="4" activeTab="11" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="10" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2620" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="679">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -2077,6 +2077,15 @@
   </si>
   <si>
     <t>7-5 4-6 7-6(7)</t>
+  </si>
+  <si>
+    <t>iTALIAN OPEN</t>
+  </si>
+  <si>
+    <t>Katie Volynets (USA)</t>
+  </si>
+  <si>
+    <t>4-6 6-1 7-6(7)</t>
   </si>
 </sst>
 </file>
@@ -2373,7 +2382,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2487,7 +2496,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3010,7 +3019,7 @@
                   <c:v>0.74545454545454548</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4809,17 +4818,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4839,7 +4848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -4859,7 +4868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -4879,7 +4888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -4899,7 +4908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>133</v>
       </c>
@@ -4926,21 +4935,21 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4960,7 +4969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -4980,7 +4989,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -4994,7 +5003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>150</v>
       </c>
@@ -5008,7 +5017,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>157</v>
       </c>
@@ -5022,7 +5031,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -5042,7 +5051,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>165</v>
       </c>
@@ -5056,7 +5065,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>127</v>
       </c>
@@ -5070,7 +5079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>133</v>
       </c>
@@ -5084,7 +5093,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>141</v>
       </c>
@@ -5098,7 +5107,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -5112,7 +5121,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>157</v>
       </c>
@@ -5126,7 +5135,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -5146,7 +5155,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -5160,7 +5169,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -5174,7 +5183,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -5194,7 +5203,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>127</v>
       </c>
@@ -5208,7 +5217,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>133</v>
       </c>
@@ -5222,7 +5231,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>141</v>
       </c>
@@ -5236,7 +5245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -5250,7 +5259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>157</v>
       </c>
@@ -5264,7 +5273,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>366</v>
       </c>
@@ -5284,7 +5293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>127</v>
       </c>
@@ -5298,7 +5307,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>133</v>
       </c>
@@ -5312,7 +5321,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>141</v>
       </c>
@@ -5326,7 +5335,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>558</v>
       </c>
@@ -5346,7 +5355,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -5360,7 +5369,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>150</v>
       </c>
@@ -5374,7 +5383,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>157</v>
       </c>
@@ -5388,7 +5397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>631</v>
       </c>
@@ -5408,7 +5417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>127</v>
       </c>
@@ -5422,7 +5431,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>133</v>
       </c>
@@ -5436,7 +5445,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>141</v>
       </c>
@@ -5450,7 +5459,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -5464,7 +5473,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>157</v>
       </c>
@@ -5478,7 +5487,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>384</v>
       </c>
@@ -5498,7 +5507,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -5518,7 +5527,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>165</v>
       </c>
@@ -5532,7 +5541,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>127</v>
       </c>
@@ -5546,7 +5555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>133</v>
       </c>
@@ -5560,7 +5569,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>141</v>
       </c>
@@ -5574,7 +5583,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>150</v>
       </c>
@@ -5588,7 +5597,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>639</v>
       </c>
@@ -5608,7 +5617,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>133</v>
       </c>
@@ -5622,7 +5631,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>307</v>
       </c>
@@ -5642,7 +5651,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>165</v>
       </c>
@@ -5656,7 +5665,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>127</v>
       </c>
@@ -5670,7 +5679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>133</v>
       </c>
@@ -5684,7 +5693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>141</v>
       </c>
@@ -5698,7 +5707,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -5712,7 +5721,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>413</v>
       </c>
@@ -5732,7 +5741,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -5746,7 +5755,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>315</v>
       </c>
@@ -5766,7 +5775,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -5780,7 +5789,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>141</v>
       </c>
@@ -5794,7 +5803,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>150</v>
       </c>
@@ -5808,7 +5817,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>238</v>
       </c>
@@ -5828,7 +5837,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>165</v>
       </c>
@@ -5842,7 +5851,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>127</v>
       </c>
@@ -5856,7 +5865,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -5870,7 +5879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -5884,7 +5893,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -5898,7 +5907,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>157</v>
       </c>
@@ -5912,7 +5921,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>326</v>
       </c>
@@ -5932,7 +5941,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>127</v>
       </c>
@@ -5946,7 +5955,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>133</v>
       </c>
@@ -5960,7 +5969,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>141</v>
       </c>
@@ -5974,7 +5983,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>578</v>
       </c>
@@ -5994,7 +6003,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>447</v>
       </c>
@@ -6008,7 +6017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>447</v>
       </c>
@@ -6022,7 +6031,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>150</v>
       </c>
@@ -6047,23 +6056,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E33" activeCellId="5" sqref="E6 E16 E20 E23 E26 E33"/>
+      <selection activeCell="E40" activeCellId="6" sqref="E6 E16 E20 E23 E26 E33 E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6083,7 +6092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>657</v>
       </c>
@@ -6103,7 +6112,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -6117,7 +6126,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>141</v>
       </c>
@@ -6131,7 +6140,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>150</v>
       </c>
@@ -6145,7 +6154,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>157</v>
       </c>
@@ -6159,7 +6168,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>163</v>
       </c>
@@ -6179,7 +6188,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>165</v>
       </c>
@@ -6193,7 +6202,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>127</v>
       </c>
@@ -6207,7 +6216,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>133</v>
       </c>
@@ -6221,7 +6230,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>141</v>
       </c>
@@ -6235,7 +6244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>150</v>
       </c>
@@ -6249,7 +6258,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>157</v>
       </c>
@@ -6263,7 +6272,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>270</v>
       </c>
@@ -6283,7 +6292,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>362</v>
       </c>
@@ -6303,7 +6312,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>127</v>
       </c>
@@ -6317,7 +6326,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>133</v>
       </c>
@@ -6331,7 +6340,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>366</v>
       </c>
@@ -6351,7 +6360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>127</v>
       </c>
@@ -6365,7 +6374,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>558</v>
       </c>
@@ -6385,7 +6394,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>141</v>
       </c>
@@ -6399,7 +6408,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>631</v>
       </c>
@@ -6419,7 +6428,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>127</v>
       </c>
@@ -6433,7 +6442,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>133</v>
       </c>
@@ -6447,7 +6456,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>141</v>
       </c>
@@ -6461,7 +6470,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>150</v>
       </c>
@@ -6475,7 +6484,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>157</v>
       </c>
@@ -6487,6 +6496,96 @@
       </c>
       <c r="F33" t="s">
         <v>675</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>676</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" t="s">
+        <v>677</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" t="s">
+        <v>318</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" t="s">
+        <v>433</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" t="s">
+        <v>488</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" t="s">
+        <v>427</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" t="s">
+        <v>579</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -6506,17 +6605,17 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -6536,7 +6635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -6557,7 +6656,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -6578,7 +6677,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -6599,7 +6698,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -6620,7 +6719,7 @@
         <v>0.30555555555555558</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -6641,7 +6740,7 @@
         <v>0.54716981132075471</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -6662,7 +6761,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -6683,7 +6782,7 @@
         <v>0.6071428571428571</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -6704,7 +6803,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -6725,7 +6824,7 @@
         <v>0.38235294117647056</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -6746,34 +6845,34 @@
         <v>0.74545454545454548</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3">
         <f>SUM(B2:B12)</f>
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C13" s="3">
         <f>SUM(C2:C12)</f>
@@ -6781,24 +6880,24 @@
       </c>
       <c r="D13" s="3">
         <f>SUM(D2:D12)</f>
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="E13" s="3">
         <f>SUM(E2:E12)</f>
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.53908355795148244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.54255319148936165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="3">
         <f>AVERAGE(B2:B12)</f>
-        <v>17.363636363636363</v>
+        <v>17.454545454545453</v>
       </c>
       <c r="C14" s="3">
         <f>AVERAGE(C2:C12)</f>
@@ -6806,15 +6905,15 @@
       </c>
       <c r="D14" s="3">
         <f>AVERAGE(D2:D12)</f>
-        <v>33.727272727272727</v>
+        <v>34.18181818181818</v>
       </c>
       <c r="E14" s="3">
         <f>AVERAGE(E2:E12)</f>
-        <v>15.545454545454545</v>
+        <v>15.636363636363637</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="2"/>
-        <v>0.53908355795148244</v>
+        <v>0.54255319148936165</v>
       </c>
     </row>
   </sheetData>
@@ -6843,17 +6942,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6873,7 +6972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -6893,7 +6992,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -6907,7 +7006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -6927,7 +7026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -6941,7 +7040,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -6955,7 +7054,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>140</v>
       </c>
@@ -6975,7 +7074,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>133</v>
       </c>
@@ -6989,7 +7088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>141</v>
       </c>
@@ -7003,7 +7102,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>148</v>
       </c>
@@ -7023,7 +7122,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>148</v>
       </c>
@@ -7043,7 +7142,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -7057,7 +7156,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -7071,7 +7170,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>150</v>
       </c>
@@ -7085,7 +7184,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>148</v>
       </c>
@@ -7105,7 +7204,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>130</v>
       </c>
@@ -7125,7 +7224,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>133</v>
       </c>
@@ -7139,7 +7238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>141</v>
       </c>
@@ -7153,7 +7252,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -7173,7 +7272,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>177</v>
       </c>
@@ -7193,7 +7292,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -7207,7 +7306,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>177</v>
       </c>
@@ -7227,7 +7326,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>133</v>
       </c>
@@ -7241,7 +7340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>182</v>
       </c>
@@ -7261,7 +7360,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>140</v>
       </c>
@@ -7281,7 +7380,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>133</v>
       </c>
@@ -7295,7 +7394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>141</v>
       </c>
@@ -7309,7 +7408,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>150</v>
       </c>
@@ -7323,7 +7422,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>157</v>
       </c>
@@ -7337,7 +7436,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -7357,7 +7456,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>133</v>
       </c>
@@ -7371,7 +7470,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>141</v>
       </c>
@@ -7385,7 +7484,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>150</v>
       </c>
@@ -7399,7 +7498,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>157</v>
       </c>
@@ -7413,7 +7512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -7433,7 +7532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>133</v>
       </c>
@@ -7447,7 +7546,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -7461,7 +7560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>150</v>
       </c>
@@ -7475,7 +7574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>199</v>
       </c>
@@ -7495,7 +7594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>133</v>
       </c>
@@ -7509,7 +7608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>141</v>
       </c>
@@ -7523,7 +7622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>150</v>
       </c>
@@ -7537,7 +7636,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>157</v>
       </c>
@@ -7568,17 +7667,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7598,7 +7697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -7618,7 +7717,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -7632,7 +7731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>204</v>
       </c>
@@ -7652,7 +7751,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -7666,7 +7765,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -7680,7 +7779,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>150</v>
       </c>
@@ -7694,7 +7793,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>157</v>
       </c>
@@ -7708,7 +7807,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>212</v>
       </c>
@@ -7728,7 +7827,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>214</v>
       </c>
@@ -7748,7 +7847,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>216</v>
       </c>
@@ -7762,7 +7861,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -7782,7 +7881,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>133</v>
       </c>
@@ -7796,7 +7895,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>141</v>
       </c>
@@ -7810,7 +7909,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>222</v>
       </c>
@@ -7830,7 +7929,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>133</v>
       </c>
@@ -7844,7 +7943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>141</v>
       </c>
@@ -7858,7 +7957,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -7872,7 +7971,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>157</v>
       </c>
@@ -7886,7 +7985,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -7906,7 +8005,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -7926,7 +8025,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -7940,7 +8039,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>141</v>
       </c>
@@ -7954,7 +8053,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>150</v>
       </c>
@@ -7968,7 +8067,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>231</v>
       </c>
@@ -7988,7 +8087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>133</v>
       </c>
@@ -8002,7 +8101,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>234</v>
       </c>
@@ -8022,7 +8121,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>133</v>
       </c>
@@ -8036,7 +8135,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>236</v>
       </c>
@@ -8056,7 +8155,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>238</v>
       </c>
@@ -8076,7 +8175,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>216</v>
       </c>
@@ -8090,7 +8189,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>242</v>
       </c>
@@ -8110,7 +8209,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>133</v>
       </c>
@@ -8124,7 +8223,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>141</v>
       </c>
@@ -8138,7 +8237,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>150</v>
       </c>
@@ -8152,7 +8251,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>244</v>
       </c>
@@ -8172,7 +8271,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>246</v>
       </c>
@@ -8192,7 +8291,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>133</v>
       </c>
@@ -8206,7 +8305,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>249</v>
       </c>
@@ -8226,7 +8325,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>133</v>
       </c>
@@ -8240,7 +8339,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -8254,7 +8353,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>150</v>
       </c>
@@ -8268,7 +8367,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>157</v>
       </c>
@@ -8282,7 +8381,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>256</v>
       </c>
@@ -8302,7 +8401,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -8322,7 +8421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -8336,7 +8435,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>141</v>
       </c>
@@ -8350,7 +8449,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>150</v>
       </c>
@@ -8382,17 +8481,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8412,7 +8511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>163</v>
       </c>
@@ -8432,7 +8531,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>216</v>
       </c>
@@ -8446,7 +8545,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>264</v>
       </c>
@@ -8466,7 +8565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>265</v>
       </c>
@@ -8483,7 +8582,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>267</v>
       </c>
@@ -8494,7 +8593,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>270</v>
       </c>
@@ -8514,7 +8613,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>216</v>
       </c>
@@ -8528,7 +8627,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>165</v>
       </c>
@@ -8542,7 +8641,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>274</v>
       </c>
@@ -8562,7 +8661,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>276</v>
       </c>
@@ -8582,7 +8681,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>280</v>
       </c>
@@ -8602,7 +8701,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>133</v>
       </c>
@@ -8616,7 +8715,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>141</v>
       </c>
@@ -8630,7 +8729,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>150</v>
       </c>
@@ -8644,7 +8743,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>157</v>
       </c>
@@ -8658,7 +8757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>287</v>
       </c>
@@ -8678,7 +8777,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>216</v>
       </c>
@@ -8692,7 +8791,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>265</v>
       </c>
@@ -8709,7 +8808,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>290</v>
       </c>
@@ -8720,7 +8819,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>214</v>
       </c>
@@ -8740,7 +8839,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>293</v>
       </c>
@@ -8760,7 +8859,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>295</v>
       </c>
@@ -8780,7 +8879,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -8794,7 +8893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8808,7 +8907,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>299</v>
       </c>
@@ -8828,7 +8927,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>300</v>
       </c>
@@ -8848,7 +8947,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>133</v>
       </c>
@@ -8862,7 +8961,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -8876,7 +8975,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -8890,7 +8989,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>306</v>
       </c>
@@ -8910,7 +9009,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>307</v>
       </c>
@@ -8930,7 +9029,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>216</v>
       </c>
@@ -8944,7 +9043,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>308</v>
       </c>
@@ -8958,7 +9057,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>164</v>
       </c>
@@ -8972,7 +9071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>165</v>
       </c>
@@ -8986,7 +9085,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>312</v>
       </c>
@@ -9006,7 +9105,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>133</v>
       </c>
@@ -9020,7 +9119,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>315</v>
       </c>
@@ -9040,7 +9139,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>216</v>
       </c>
@@ -9054,7 +9153,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>238</v>
       </c>
@@ -9074,7 +9173,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>317</v>
       </c>
@@ -9094,7 +9193,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>133</v>
       </c>
@@ -9108,7 +9207,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>141</v>
       </c>
@@ -9122,7 +9221,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>319</v>
       </c>
@@ -9142,7 +9241,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -9156,7 +9255,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>141</v>
       </c>
@@ -9170,7 +9269,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>150</v>
       </c>
@@ -9184,7 +9283,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>326</v>
       </c>
@@ -9204,7 +9303,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>328</v>
       </c>
@@ -9224,7 +9323,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -9238,7 +9337,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -9252,7 +9351,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -9266,7 +9365,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>157</v>
       </c>
@@ -9280,7 +9379,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>265</v>
       </c>
@@ -9297,7 +9396,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>337</v>
       </c>
@@ -9308,7 +9407,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>339</v>
       </c>
@@ -9328,7 +9427,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>133</v>
       </c>
@@ -9342,7 +9441,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>341</v>
       </c>
@@ -9362,7 +9461,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>133</v>
       </c>
@@ -9376,7 +9475,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>141</v>
       </c>
@@ -9390,7 +9489,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>150</v>
       </c>
@@ -9404,7 +9503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>157</v>
       </c>
@@ -9436,17 +9535,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9466,7 +9565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -9486,7 +9585,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -9500,7 +9599,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>141</v>
       </c>
@@ -9514,7 +9613,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>350</v>
       </c>
@@ -9534,7 +9633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>133</v>
       </c>
@@ -9548,7 +9647,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>141</v>
       </c>
@@ -9562,7 +9661,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -9582,7 +9681,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>265</v>
       </c>
@@ -9599,7 +9698,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>320</v>
       </c>
@@ -9610,7 +9709,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -9630,7 +9729,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>216</v>
       </c>
@@ -9644,7 +9743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>308</v>
       </c>
@@ -9658,7 +9757,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -9678,7 +9777,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>165</v>
       </c>
@@ -9692,7 +9791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>127</v>
       </c>
@@ -9706,7 +9805,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>366</v>
       </c>
@@ -9726,7 +9825,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>165</v>
       </c>
@@ -9740,7 +9839,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>287</v>
       </c>
@@ -9760,7 +9859,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>133</v>
       </c>
@@ -9774,7 +9873,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>141</v>
       </c>
@@ -9788,7 +9887,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -9802,7 +9901,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>157</v>
       </c>
@@ -9816,7 +9915,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>265</v>
       </c>
@@ -9833,7 +9932,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>301</v>
       </c>
@@ -9844,7 +9943,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>379</v>
       </c>
@@ -9864,7 +9963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>631</v>
       </c>
@@ -9884,7 +9983,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>216</v>
       </c>
@@ -9898,7 +9997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>165</v>
       </c>
@@ -9912,7 +10011,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>384</v>
       </c>
@@ -9932,7 +10031,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>216</v>
       </c>
@@ -9946,7 +10045,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>165</v>
       </c>
@@ -9960,7 +10059,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -9980,7 +10079,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>639</v>
       </c>
@@ -10000,7 +10099,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>133</v>
       </c>
@@ -10014,7 +10113,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>141</v>
       </c>
@@ -10028,7 +10127,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>393</v>
       </c>
@@ -10048,7 +10147,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>396</v>
       </c>
@@ -10068,7 +10167,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>127</v>
       </c>
@@ -10082,7 +10181,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>133</v>
       </c>
@@ -10096,7 +10195,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -10110,7 +10209,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>150</v>
       </c>
@@ -10124,7 +10223,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>157</v>
       </c>
@@ -10138,7 +10237,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>307</v>
       </c>
@@ -10158,7 +10257,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>408</v>
       </c>
@@ -10178,7 +10277,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>413</v>
       </c>
@@ -10198,7 +10297,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>127</v>
       </c>
@@ -10212,7 +10311,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -10226,7 +10325,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>315</v>
       </c>
@@ -10246,7 +10345,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>127</v>
       </c>
@@ -10260,7 +10359,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>133</v>
       </c>
@@ -10274,7 +10373,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>141</v>
       </c>
@@ -10288,7 +10387,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>150</v>
       </c>
@@ -10302,7 +10401,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>425</v>
       </c>
@@ -10322,7 +10421,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>133</v>
       </c>
@@ -10336,7 +10435,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>141</v>
       </c>
@@ -10350,7 +10449,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>150</v>
       </c>
@@ -10364,7 +10463,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>157</v>
       </c>
@@ -10378,7 +10477,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>238</v>
       </c>
@@ -10398,7 +10497,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>165</v>
       </c>
@@ -10412,7 +10511,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>127</v>
       </c>
@@ -10426,7 +10525,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>133</v>
       </c>
@@ -10440,7 +10539,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>431</v>
       </c>
@@ -10460,7 +10559,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>432</v>
       </c>
@@ -10480,7 +10579,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>127</v>
       </c>
@@ -10494,7 +10593,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>133</v>
       </c>
@@ -10508,7 +10607,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>141</v>
       </c>
@@ -10522,7 +10621,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>150</v>
       </c>
@@ -10536,7 +10635,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>157</v>
       </c>
@@ -10550,7 +10649,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>326</v>
       </c>
@@ -10570,7 +10669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>133</v>
       </c>
@@ -10584,7 +10683,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>141</v>
       </c>
@@ -10598,7 +10697,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>328</v>
       </c>
@@ -10618,7 +10717,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>133</v>
       </c>
@@ -10632,7 +10731,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>141</v>
       </c>
@@ -10646,7 +10745,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>446</v>
       </c>
@@ -10666,7 +10765,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>447</v>
       </c>
@@ -10698,17 +10797,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10728,7 +10827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -10748,7 +10847,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -10762,7 +10861,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>141</v>
       </c>
@@ -10776,7 +10875,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>150</v>
       </c>
@@ -10790,7 +10889,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>157</v>
       </c>
@@ -10804,7 +10903,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>452</v>
       </c>
@@ -10824,7 +10923,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -10844,7 +10943,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>165</v>
       </c>
@@ -10858,7 +10957,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>127</v>
       </c>
@@ -10872,7 +10971,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>264</v>
       </c>
@@ -10892,7 +10991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -10906,7 +11005,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>150</v>
       </c>
@@ -10920,7 +11019,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>265</v>
       </c>
@@ -10937,7 +11036,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>458</v>
       </c>
@@ -10948,7 +11047,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>270</v>
       </c>
@@ -10968,7 +11067,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>133</v>
       </c>
@@ -10982,7 +11081,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>362</v>
       </c>
@@ -11002,7 +11101,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>127</v>
       </c>
@@ -11016,7 +11115,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>133</v>
       </c>
@@ -11030,7 +11129,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>366</v>
       </c>
@@ -11050,7 +11149,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>468</v>
       </c>
@@ -11070,7 +11169,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>133</v>
       </c>
@@ -11084,7 +11183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>463</v>
       </c>
@@ -11101,7 +11200,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>279</v>
       </c>
@@ -11112,7 +11211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>631</v>
       </c>
@@ -11132,7 +11231,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>384</v>
       </c>
@@ -11152,7 +11251,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>473</v>
       </c>
@@ -11172,7 +11271,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>133</v>
       </c>
@@ -11186,7 +11285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -11200,7 +11299,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -11214,7 +11313,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -11234,7 +11333,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>165</v>
       </c>
@@ -11248,7 +11347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>639</v>
       </c>
@@ -11268,7 +11367,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>476</v>
       </c>
@@ -11288,7 +11387,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>396</v>
       </c>
@@ -11308,7 +11407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>133</v>
       </c>
@@ -11322,7 +11421,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>141</v>
       </c>
@@ -11336,7 +11435,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>307</v>
       </c>
@@ -11356,7 +11455,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>408</v>
       </c>
@@ -11376,7 +11475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>141</v>
       </c>
@@ -11390,7 +11489,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -11404,7 +11503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>157</v>
       </c>
@@ -11418,7 +11517,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>413</v>
       </c>
@@ -11438,7 +11537,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>315</v>
       </c>
@@ -11458,7 +11557,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>127</v>
       </c>
@@ -11472,7 +11571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>133</v>
       </c>
@@ -11486,7 +11585,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>238</v>
       </c>
@@ -11506,7 +11605,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>165</v>
       </c>
@@ -11520,7 +11619,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>491</v>
       </c>
@@ -11540,7 +11639,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>141</v>
       </c>
@@ -11554,7 +11653,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>432</v>
       </c>
@@ -11574,7 +11673,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>127</v>
       </c>
@@ -11588,7 +11687,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>133</v>
       </c>
@@ -11602,7 +11701,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>141</v>
       </c>
@@ -11616,7 +11715,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>150</v>
       </c>
@@ -11630,7 +11729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>157</v>
       </c>
@@ -11644,7 +11743,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>326</v>
       </c>
@@ -11664,7 +11763,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>446</v>
       </c>
@@ -11684,7 +11783,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>447</v>
       </c>
@@ -11698,7 +11797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>150</v>
       </c>
@@ -11712,7 +11811,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>157</v>
       </c>
@@ -11743,17 +11842,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11773,7 +11872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -11793,7 +11892,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -11807,7 +11906,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>505</v>
       </c>
@@ -11827,7 +11926,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -11841,7 +11940,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -11855,7 +11954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>150</v>
       </c>
@@ -11869,7 +11968,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -11889,7 +11988,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>265</v>
       </c>
@@ -11906,7 +12005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>267</v>
       </c>
@@ -11917,7 +12016,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -11937,7 +12036,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -11951,7 +12050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -11965,7 +12064,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>632</v>
       </c>
@@ -11985,7 +12084,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>133</v>
       </c>
@@ -11999,7 +12098,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>141</v>
       </c>
@@ -12013,7 +12112,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>150</v>
       </c>
@@ -12027,7 +12126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>157</v>
       </c>
@@ -12041,7 +12140,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>513</v>
       </c>
@@ -12061,7 +12160,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>133</v>
       </c>
@@ -12075,7 +12174,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>315</v>
       </c>
@@ -12095,7 +12194,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -12109,7 +12208,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>238</v>
       </c>
@@ -12129,7 +12228,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>165</v>
       </c>
@@ -12143,7 +12242,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>473</v>
       </c>
@@ -12163,7 +12262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -12177,7 +12276,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -12191,7 +12290,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -12205,7 +12304,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>299</v>
       </c>
@@ -12225,7 +12324,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>165</v>
       </c>
@@ -12239,7 +12338,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>127</v>
       </c>
@@ -12253,7 +12352,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>528</v>
       </c>
@@ -12273,7 +12372,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>141</v>
       </c>
@@ -12287,7 +12386,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>150</v>
       </c>
@@ -12301,7 +12400,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>157</v>
       </c>
@@ -12315,7 +12414,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>533</v>
       </c>
@@ -12335,7 +12434,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>133</v>
       </c>
@@ -12349,7 +12448,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -12363,7 +12462,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>150</v>
       </c>
@@ -12377,7 +12476,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>157</v>
       </c>
@@ -12408,17 +12507,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12438,7 +12537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>538</v>
       </c>
@@ -12458,7 +12557,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>127</v>
       </c>
@@ -12472,7 +12571,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>133</v>
       </c>
@@ -12486,7 +12585,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>141</v>
       </c>
@@ -12500,7 +12599,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -12514,7 +12613,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>157</v>
       </c>
@@ -12528,7 +12627,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>541</v>
       </c>
@@ -12548,7 +12647,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>163</v>
       </c>
@@ -12568,7 +12667,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>165</v>
       </c>
@@ -12582,7 +12681,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>127</v>
       </c>
@@ -12596,7 +12695,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>133</v>
       </c>
@@ -12610,7 +12709,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>632</v>
       </c>
@@ -12630,7 +12729,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -12650,7 +12749,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>133</v>
       </c>
@@ -12664,7 +12763,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>141</v>
       </c>
@@ -12678,7 +12777,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>366</v>
       </c>
@@ -12698,7 +12797,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>127</v>
       </c>
@@ -12712,7 +12811,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>133</v>
       </c>
@@ -12726,7 +12825,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>141</v>
       </c>
@@ -12740,7 +12839,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>558</v>
       </c>
@@ -12760,7 +12859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>133</v>
       </c>
@@ -12774,7 +12873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>141</v>
       </c>
@@ -12788,7 +12887,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>150</v>
       </c>
@@ -12802,7 +12901,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>157</v>
       </c>
@@ -12816,7 +12915,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>631</v>
       </c>
@@ -12836,7 +12935,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>127</v>
       </c>
@@ -12850,7 +12949,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -12864,7 +12963,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -12878,7 +12977,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -12892,7 +12991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>157</v>
       </c>
@@ -12906,7 +13005,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>384</v>
       </c>
@@ -12926,7 +13025,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>133</v>
       </c>
@@ -12940,7 +13039,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>299</v>
       </c>
@@ -12960,7 +13059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>165</v>
       </c>
@@ -12974,7 +13073,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>127</v>
       </c>
@@ -12988,7 +13087,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>563</v>
       </c>
@@ -13008,7 +13107,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>396</v>
       </c>
@@ -13028,7 +13127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>133</v>
       </c>
@@ -13042,7 +13141,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>141</v>
       </c>
@@ -13056,7 +13155,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>307</v>
       </c>
@@ -13076,7 +13175,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>165</v>
       </c>
@@ -13090,7 +13189,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>127</v>
       </c>
@@ -13104,7 +13203,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>133</v>
       </c>
@@ -13118,7 +13217,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>141</v>
       </c>
@@ -13132,7 +13231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>150</v>
       </c>
@@ -13146,7 +13245,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>568</v>
       </c>
@@ -13166,7 +13265,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>127</v>
       </c>
@@ -13180,7 +13279,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>413</v>
       </c>
@@ -13200,7 +13299,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>133</v>
       </c>
@@ -13214,7 +13313,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>141</v>
       </c>
@@ -13228,7 +13327,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>150</v>
       </c>
@@ -13242,7 +13341,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>315</v>
       </c>
@@ -13262,7 +13361,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>238</v>
       </c>
@@ -13282,7 +13381,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>165</v>
       </c>
@@ -13296,7 +13395,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>127</v>
       </c>
@@ -13310,7 +13409,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -13324,7 +13423,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -13338,7 +13437,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -13352,7 +13451,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>244</v>
       </c>
@@ -13372,7 +13471,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>141</v>
       </c>
@@ -13386,7 +13485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>578</v>
       </c>
@@ -13406,7 +13505,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>447</v>
       </c>
@@ -13420,7 +13519,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>447</v>
       </c>
@@ -13451,17 +13550,17 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13481,7 +13580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -13501,7 +13600,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>584</v>
       </c>
@@ -13521,7 +13620,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -13541,7 +13640,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>165</v>
       </c>
@@ -13555,7 +13654,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>127</v>
       </c>
@@ -13569,7 +13668,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>133</v>
       </c>
@@ -13583,7 +13682,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>270</v>
       </c>
@@ -13603,7 +13702,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>133</v>
       </c>
@@ -13617,7 +13716,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>632</v>
       </c>
@@ -13637,7 +13736,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>133</v>
       </c>
@@ -13651,7 +13750,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>141</v>
       </c>
@@ -13665,7 +13764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>362</v>
       </c>
@@ -13685,7 +13784,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>366</v>
       </c>
@@ -13705,7 +13804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>468</v>
       </c>
@@ -13725,7 +13824,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>133</v>
       </c>
@@ -13739,7 +13838,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>558</v>
       </c>
@@ -13759,7 +13858,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>141</v>
       </c>
@@ -13773,7 +13872,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>150</v>
       </c>
@@ -13787,7 +13886,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>157</v>
       </c>
@@ -13801,7 +13900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>631</v>
       </c>
@@ -13821,7 +13920,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>384</v>
       </c>
@@ -13841,7 +13940,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>133</v>
       </c>
@@ -13855,7 +13954,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -13869,7 +13968,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>150</v>
       </c>
@@ -13883,7 +13982,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>299</v>
       </c>
@@ -13903,7 +14002,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>165</v>
       </c>
@@ -13917,7 +14016,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>127</v>
       </c>
@@ -13931,7 +14030,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>639</v>
       </c>
@@ -13951,7 +14050,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>133</v>
       </c>
@@ -13965,7 +14064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>141</v>
       </c>
@@ -13979,7 +14078,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>150</v>
       </c>
@@ -13993,7 +14092,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>157</v>
       </c>
@@ -14007,7 +14106,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>563</v>
       </c>
@@ -14027,7 +14126,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>408</v>
       </c>
@@ -14047,7 +14146,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -14061,7 +14160,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>413</v>
       </c>
@@ -14081,7 +14180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>133</v>
       </c>
@@ -14095,7 +14194,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>315</v>
       </c>
@@ -14115,7 +14214,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>133</v>
       </c>
@@ -14129,7 +14228,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>141</v>
       </c>
@@ -14143,7 +14242,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>150</v>
       </c>
@@ -14157,7 +14256,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>238</v>
       </c>
@@ -14177,7 +14276,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>165</v>
       </c>
@@ -14191,7 +14290,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>127</v>
       </c>
@@ -14205,7 +14304,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -14219,7 +14318,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>141</v>
       </c>
@@ -14233,7 +14332,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>150</v>
       </c>
@@ -14247,7 +14346,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>616</v>
       </c>
@@ -14267,7 +14366,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>141</v>
       </c>
@@ -14281,7 +14380,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>619</v>
       </c>
@@ -14301,7 +14400,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>578</v>
       </c>
@@ -14321,7 +14420,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>447</v>
       </c>
@@ -14335,7 +14434,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>447</v>
       </c>
@@ -14349,7 +14448,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -14363,7 +14462,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>157</v>
       </c>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3307" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{070AF90F-2A6F-46F0-8717-6135BE98B765}"/>
+  <xr:revisionPtr revIDLastSave="3332" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FFD5E09-D2AA-4F08-9795-CE4D65ADCD77}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="4365" windowWidth="28800" windowHeight="15345" firstSheet="4" activeTab="11" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="11" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="10" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="683">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -2086,6 +2086,18 @@
   </si>
   <si>
     <t>4-6 6-1 7-6(7)</t>
+  </si>
+  <si>
+    <t>Erika Andreeva (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Moyuka Uchijima (JAPAN)</t>
+  </si>
+  <si>
+    <t>6-7(5) 6-4 6-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-5 6-1 </t>
   </si>
 </sst>
 </file>
@@ -2382,7 +2394,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2496,7 +2508,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3019,7 +3031,7 @@
                   <c:v>0.74545454545454548</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72</c:v>
+                  <c:v>0.72413793103448276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4508,10 +4520,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4818,17 +4826,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4848,7 +4856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -4868,7 +4876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -4888,7 +4896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -4908,7 +4916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>133</v>
       </c>
@@ -4939,17 +4947,17 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4969,7 +4977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -4989,7 +4997,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -5003,7 +5011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>150</v>
       </c>
@@ -5017,7 +5025,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>157</v>
       </c>
@@ -5031,7 +5039,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -5051,7 +5059,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>165</v>
       </c>
@@ -5065,7 +5073,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>127</v>
       </c>
@@ -5079,7 +5087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>133</v>
       </c>
@@ -5093,7 +5101,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>141</v>
       </c>
@@ -5107,7 +5115,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -5121,7 +5129,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>157</v>
       </c>
@@ -5135,7 +5143,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -5155,7 +5163,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -5169,7 +5177,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -5183,7 +5191,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -5203,7 +5211,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>127</v>
       </c>
@@ -5217,7 +5225,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>133</v>
       </c>
@@ -5231,7 +5239,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>141</v>
       </c>
@@ -5245,7 +5253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -5259,7 +5267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>157</v>
       </c>
@@ -5273,7 +5281,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>366</v>
       </c>
@@ -5293,7 +5301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>127</v>
       </c>
@@ -5307,7 +5315,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>133</v>
       </c>
@@ -5321,7 +5329,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>141</v>
       </c>
@@ -5335,7 +5343,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>558</v>
       </c>
@@ -5355,7 +5363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -5369,7 +5377,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>150</v>
       </c>
@@ -5383,7 +5391,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>157</v>
       </c>
@@ -5397,7 +5405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>631</v>
       </c>
@@ -5417,7 +5425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>127</v>
       </c>
@@ -5431,7 +5439,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>133</v>
       </c>
@@ -5445,7 +5453,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>141</v>
       </c>
@@ -5459,7 +5467,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -5473,7 +5481,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>157</v>
       </c>
@@ -5487,7 +5495,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>384</v>
       </c>
@@ -5507,7 +5515,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -5527,7 +5535,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>165</v>
       </c>
@@ -5541,7 +5549,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>127</v>
       </c>
@@ -5555,7 +5563,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>133</v>
       </c>
@@ -5569,7 +5577,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>141</v>
       </c>
@@ -5583,7 +5591,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>150</v>
       </c>
@@ -5597,7 +5605,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>639</v>
       </c>
@@ -5617,7 +5625,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>133</v>
       </c>
@@ -5631,7 +5639,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>307</v>
       </c>
@@ -5651,7 +5659,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>165</v>
       </c>
@@ -5665,7 +5673,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>127</v>
       </c>
@@ -5679,7 +5687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>133</v>
       </c>
@@ -5693,7 +5701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>141</v>
       </c>
@@ -5707,7 +5715,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -5721,7 +5729,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>413</v>
       </c>
@@ -5741,7 +5749,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -5755,7 +5763,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>315</v>
       </c>
@@ -5775,7 +5783,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -5789,7 +5797,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>141</v>
       </c>
@@ -5803,7 +5811,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>150</v>
       </c>
@@ -5817,7 +5825,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>238</v>
       </c>
@@ -5837,7 +5845,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>165</v>
       </c>
@@ -5851,7 +5859,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>127</v>
       </c>
@@ -5865,7 +5873,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -5879,7 +5887,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -5893,7 +5901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -5907,7 +5915,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>157</v>
       </c>
@@ -5921,7 +5929,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>326</v>
       </c>
@@ -5941,7 +5949,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>127</v>
       </c>
@@ -5955,7 +5963,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>133</v>
       </c>
@@ -5969,7 +5977,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>141</v>
       </c>
@@ -5983,7 +5991,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>578</v>
       </c>
@@ -6003,7 +6011,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>447</v>
       </c>
@@ -6017,7 +6025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>447</v>
       </c>
@@ -6031,7 +6039,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>150</v>
       </c>
@@ -6056,23 +6064,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E40" activeCellId="6" sqref="E6 E16 E20 E23 E26 E33 E40"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E46" activeCellId="7" sqref="E6 E16 E20 E23 E26 E33 E40 E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6092,7 +6100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>657</v>
       </c>
@@ -6112,7 +6120,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -6126,7 +6134,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>141</v>
       </c>
@@ -6140,7 +6148,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>150</v>
       </c>
@@ -6154,7 +6162,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>157</v>
       </c>
@@ -6168,7 +6176,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>163</v>
       </c>
@@ -6188,7 +6196,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>165</v>
       </c>
@@ -6202,7 +6210,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>127</v>
       </c>
@@ -6216,7 +6224,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>133</v>
       </c>
@@ -6230,7 +6238,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>141</v>
       </c>
@@ -6244,7 +6252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>150</v>
       </c>
@@ -6258,7 +6266,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>157</v>
       </c>
@@ -6272,7 +6280,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>270</v>
       </c>
@@ -6292,7 +6300,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>362</v>
       </c>
@@ -6312,7 +6320,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>127</v>
       </c>
@@ -6326,7 +6334,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>133</v>
       </c>
@@ -6340,7 +6348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>366</v>
       </c>
@@ -6360,7 +6368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>127</v>
       </c>
@@ -6374,7 +6382,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>558</v>
       </c>
@@ -6394,7 +6402,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>141</v>
       </c>
@@ -6408,7 +6416,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>631</v>
       </c>
@@ -6428,7 +6436,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>127</v>
       </c>
@@ -6442,7 +6450,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>133</v>
       </c>
@@ -6456,7 +6464,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>141</v>
       </c>
@@ -6470,7 +6478,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>150</v>
       </c>
@@ -6484,7 +6492,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>157</v>
       </c>
@@ -6498,7 +6506,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>676</v>
       </c>
@@ -6518,7 +6526,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>127</v>
       </c>
@@ -6532,7 +6540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>133</v>
       </c>
@@ -6546,7 +6554,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>141</v>
       </c>
@@ -6560,7 +6568,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>150</v>
       </c>
@@ -6574,7 +6582,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>157</v>
       </c>
@@ -6586,6 +6594,82 @@
       </c>
       <c r="F40" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>299</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" t="s">
+        <v>679</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" t="s">
+        <v>680</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" t="s">
+        <v>572</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" t="s">
+        <v>666</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" t="s">
+        <v>634</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -6605,17 +6689,17 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -6635,7 +6719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -6656,7 +6740,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -6677,7 +6761,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -6698,7 +6782,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -6719,7 +6803,7 @@
         <v>0.30555555555555558</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -6740,7 +6824,7 @@
         <v>0.54716981132075471</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -6761,7 +6845,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -6782,7 +6866,7 @@
         <v>0.6071428571428571</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -6803,7 +6887,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -6824,7 +6908,7 @@
         <v>0.38235294117647056</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -6845,34 +6929,34 @@
         <v>0.74545454545454548</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.72413793103448276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3">
         <f>SUM(B2:B12)</f>
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C13" s="3">
         <f>SUM(C2:C12)</f>
@@ -6880,24 +6964,24 @@
       </c>
       <c r="D13" s="3">
         <f>SUM(D2:D12)</f>
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E13" s="3">
         <f>SUM(E2:E12)</f>
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.54255319148936165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.54473684210526319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="3">
         <f>AVERAGE(B2:B12)</f>
-        <v>17.454545454545453</v>
+        <v>17.545454545454547</v>
       </c>
       <c r="C14" s="3">
         <f>AVERAGE(C2:C12)</f>
@@ -6905,15 +6989,15 @@
       </c>
       <c r="D14" s="3">
         <f>AVERAGE(D2:D12)</f>
-        <v>34.18181818181818</v>
+        <v>34.545454545454547</v>
       </c>
       <c r="E14" s="3">
         <f>AVERAGE(E2:E12)</f>
-        <v>15.636363636363637</v>
+        <v>15.727272727272727</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="2"/>
-        <v>0.54255319148936165</v>
+        <v>0.54473684210526319</v>
       </c>
     </row>
   </sheetData>
@@ -6942,17 +7026,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6972,7 +7056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -6992,7 +7076,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -7006,7 +7090,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -7026,7 +7110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -7040,7 +7124,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -7054,7 +7138,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>140</v>
       </c>
@@ -7074,7 +7158,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>133</v>
       </c>
@@ -7088,7 +7172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>141</v>
       </c>
@@ -7102,7 +7186,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>148</v>
       </c>
@@ -7122,7 +7206,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>148</v>
       </c>
@@ -7142,7 +7226,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -7156,7 +7240,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -7170,7 +7254,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>150</v>
       </c>
@@ -7184,7 +7268,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>148</v>
       </c>
@@ -7204,7 +7288,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>130</v>
       </c>
@@ -7224,7 +7308,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>133</v>
       </c>
@@ -7238,7 +7322,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>141</v>
       </c>
@@ -7252,7 +7336,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -7272,7 +7356,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>177</v>
       </c>
@@ -7292,7 +7376,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -7306,7 +7390,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>177</v>
       </c>
@@ -7326,7 +7410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>133</v>
       </c>
@@ -7340,7 +7424,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>182</v>
       </c>
@@ -7360,7 +7444,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>140</v>
       </c>
@@ -7380,7 +7464,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>133</v>
       </c>
@@ -7394,7 +7478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>141</v>
       </c>
@@ -7408,7 +7492,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>150</v>
       </c>
@@ -7422,7 +7506,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>157</v>
       </c>
@@ -7436,7 +7520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -7456,7 +7540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>133</v>
       </c>
@@ -7470,7 +7554,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>141</v>
       </c>
@@ -7484,7 +7568,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>150</v>
       </c>
@@ -7498,7 +7582,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>157</v>
       </c>
@@ -7512,7 +7596,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -7532,7 +7616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>133</v>
       </c>
@@ -7546,7 +7630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -7560,7 +7644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>150</v>
       </c>
@@ -7574,7 +7658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>199</v>
       </c>
@@ -7594,7 +7678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>133</v>
       </c>
@@ -7608,7 +7692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>141</v>
       </c>
@@ -7622,7 +7706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>150</v>
       </c>
@@ -7636,7 +7720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>157</v>
       </c>
@@ -7667,17 +7751,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7697,7 +7781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -7717,7 +7801,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -7731,7 +7815,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>204</v>
       </c>
@@ -7751,7 +7835,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -7765,7 +7849,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -7779,7 +7863,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>150</v>
       </c>
@@ -7793,7 +7877,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>157</v>
       </c>
@@ -7807,7 +7891,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>212</v>
       </c>
@@ -7827,7 +7911,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>214</v>
       </c>
@@ -7847,7 +7931,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>216</v>
       </c>
@@ -7861,7 +7945,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -7881,7 +7965,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>133</v>
       </c>
@@ -7895,7 +7979,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>141</v>
       </c>
@@ -7909,7 +7993,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>222</v>
       </c>
@@ -7929,7 +8013,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>133</v>
       </c>
@@ -7943,7 +8027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>141</v>
       </c>
@@ -7957,7 +8041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -7971,7 +8055,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>157</v>
       </c>
@@ -7985,7 +8069,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -8005,7 +8089,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -8025,7 +8109,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -8039,7 +8123,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>141</v>
       </c>
@@ -8053,7 +8137,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>150</v>
       </c>
@@ -8067,7 +8151,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>231</v>
       </c>
@@ -8087,7 +8171,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>133</v>
       </c>
@@ -8101,7 +8185,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>234</v>
       </c>
@@ -8121,7 +8205,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>133</v>
       </c>
@@ -8135,7 +8219,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>236</v>
       </c>
@@ -8155,7 +8239,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>238</v>
       </c>
@@ -8175,7 +8259,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>216</v>
       </c>
@@ -8189,7 +8273,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>242</v>
       </c>
@@ -8209,7 +8293,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>133</v>
       </c>
@@ -8223,7 +8307,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>141</v>
       </c>
@@ -8237,7 +8321,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>150</v>
       </c>
@@ -8251,7 +8335,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>244</v>
       </c>
@@ -8271,7 +8355,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>246</v>
       </c>
@@ -8291,7 +8375,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>133</v>
       </c>
@@ -8305,7 +8389,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>249</v>
       </c>
@@ -8325,7 +8409,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>133</v>
       </c>
@@ -8339,7 +8423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -8353,7 +8437,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>150</v>
       </c>
@@ -8367,7 +8451,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>157</v>
       </c>
@@ -8381,7 +8465,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>256</v>
       </c>
@@ -8401,7 +8485,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -8421,7 +8505,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -8435,7 +8519,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>141</v>
       </c>
@@ -8449,7 +8533,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>150</v>
       </c>
@@ -8481,17 +8565,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8511,7 +8595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>163</v>
       </c>
@@ -8531,7 +8615,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>216</v>
       </c>
@@ -8545,7 +8629,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>264</v>
       </c>
@@ -8565,7 +8649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>265</v>
       </c>
@@ -8582,7 +8666,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>267</v>
       </c>
@@ -8593,7 +8677,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>270</v>
       </c>
@@ -8613,7 +8697,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>216</v>
       </c>
@@ -8627,7 +8711,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>165</v>
       </c>
@@ -8641,7 +8725,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>274</v>
       </c>
@@ -8661,7 +8745,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>276</v>
       </c>
@@ -8681,7 +8765,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>280</v>
       </c>
@@ -8701,7 +8785,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>133</v>
       </c>
@@ -8715,7 +8799,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>141</v>
       </c>
@@ -8729,7 +8813,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>150</v>
       </c>
@@ -8743,7 +8827,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>157</v>
       </c>
@@ -8757,7 +8841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>287</v>
       </c>
@@ -8777,7 +8861,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>216</v>
       </c>
@@ -8791,7 +8875,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>265</v>
       </c>
@@ -8808,7 +8892,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>290</v>
       </c>
@@ -8819,7 +8903,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>214</v>
       </c>
@@ -8839,7 +8923,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>293</v>
       </c>
@@ -8859,7 +8943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>295</v>
       </c>
@@ -8879,7 +8963,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -8893,7 +8977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8907,7 +8991,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>299</v>
       </c>
@@ -8927,7 +9011,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>300</v>
       </c>
@@ -8947,7 +9031,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>133</v>
       </c>
@@ -8961,7 +9045,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -8975,7 +9059,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -8989,7 +9073,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>306</v>
       </c>
@@ -9009,7 +9093,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>307</v>
       </c>
@@ -9029,7 +9113,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>216</v>
       </c>
@@ -9043,7 +9127,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>308</v>
       </c>
@@ -9057,7 +9141,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>164</v>
       </c>
@@ -9071,7 +9155,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>165</v>
       </c>
@@ -9085,7 +9169,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>312</v>
       </c>
@@ -9105,7 +9189,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>133</v>
       </c>
@@ -9119,7 +9203,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>315</v>
       </c>
@@ -9139,7 +9223,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>216</v>
       </c>
@@ -9153,7 +9237,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>238</v>
       </c>
@@ -9173,7 +9257,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>317</v>
       </c>
@@ -9193,7 +9277,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>133</v>
       </c>
@@ -9207,7 +9291,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>141</v>
       </c>
@@ -9221,7 +9305,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>319</v>
       </c>
@@ -9241,7 +9325,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -9255,7 +9339,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>141</v>
       </c>
@@ -9269,7 +9353,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>150</v>
       </c>
@@ -9283,7 +9367,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>326</v>
       </c>
@@ -9303,7 +9387,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>328</v>
       </c>
@@ -9323,7 +9407,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -9337,7 +9421,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -9351,7 +9435,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -9365,7 +9449,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>157</v>
       </c>
@@ -9379,7 +9463,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>265</v>
       </c>
@@ -9396,7 +9480,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>337</v>
       </c>
@@ -9407,7 +9491,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>339</v>
       </c>
@@ -9427,7 +9511,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>133</v>
       </c>
@@ -9441,7 +9525,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>341</v>
       </c>
@@ -9461,7 +9545,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>133</v>
       </c>
@@ -9475,7 +9559,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>141</v>
       </c>
@@ -9489,7 +9573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>150</v>
       </c>
@@ -9503,7 +9587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>157</v>
       </c>
@@ -9535,17 +9619,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9565,7 +9649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -9585,7 +9669,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -9599,7 +9683,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>141</v>
       </c>
@@ -9613,7 +9697,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>350</v>
       </c>
@@ -9633,7 +9717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>133</v>
       </c>
@@ -9647,7 +9731,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>141</v>
       </c>
@@ -9661,7 +9745,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -9681,7 +9765,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>265</v>
       </c>
@@ -9698,7 +9782,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>320</v>
       </c>
@@ -9709,7 +9793,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -9729,7 +9813,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>216</v>
       </c>
@@ -9743,7 +9827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>308</v>
       </c>
@@ -9757,7 +9841,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -9777,7 +9861,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>165</v>
       </c>
@@ -9791,7 +9875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>127</v>
       </c>
@@ -9805,7 +9889,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>366</v>
       </c>
@@ -9825,7 +9909,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>165</v>
       </c>
@@ -9839,7 +9923,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>287</v>
       </c>
@@ -9859,7 +9943,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>133</v>
       </c>
@@ -9873,7 +9957,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>141</v>
       </c>
@@ -9887,7 +9971,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -9901,7 +9985,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>157</v>
       </c>
@@ -9915,7 +9999,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>265</v>
       </c>
@@ -9932,7 +10016,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>301</v>
       </c>
@@ -9943,7 +10027,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>379</v>
       </c>
@@ -9963,7 +10047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>631</v>
       </c>
@@ -9983,7 +10067,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>216</v>
       </c>
@@ -9997,7 +10081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>165</v>
       </c>
@@ -10011,7 +10095,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>384</v>
       </c>
@@ -10031,7 +10115,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>216</v>
       </c>
@@ -10045,7 +10129,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>165</v>
       </c>
@@ -10059,7 +10143,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -10079,7 +10163,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>639</v>
       </c>
@@ -10099,7 +10183,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>133</v>
       </c>
@@ -10113,7 +10197,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>141</v>
       </c>
@@ -10127,7 +10211,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>393</v>
       </c>
@@ -10147,7 +10231,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>396</v>
       </c>
@@ -10167,7 +10251,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>127</v>
       </c>
@@ -10181,7 +10265,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>133</v>
       </c>
@@ -10195,7 +10279,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -10209,7 +10293,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>150</v>
       </c>
@@ -10223,7 +10307,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>157</v>
       </c>
@@ -10237,7 +10321,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>307</v>
       </c>
@@ -10257,7 +10341,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>408</v>
       </c>
@@ -10277,7 +10361,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>413</v>
       </c>
@@ -10297,7 +10381,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>127</v>
       </c>
@@ -10311,7 +10395,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -10325,7 +10409,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>315</v>
       </c>
@@ -10345,7 +10429,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>127</v>
       </c>
@@ -10359,7 +10443,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>133</v>
       </c>
@@ -10373,7 +10457,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>141</v>
       </c>
@@ -10387,7 +10471,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>150</v>
       </c>
@@ -10401,7 +10485,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>425</v>
       </c>
@@ -10421,7 +10505,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>133</v>
       </c>
@@ -10435,7 +10519,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>141</v>
       </c>
@@ -10449,7 +10533,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>150</v>
       </c>
@@ -10463,7 +10547,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>157</v>
       </c>
@@ -10477,7 +10561,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>238</v>
       </c>
@@ -10497,7 +10581,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>165</v>
       </c>
@@ -10511,7 +10595,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>127</v>
       </c>
@@ -10525,7 +10609,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>133</v>
       </c>
@@ -10539,7 +10623,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>431</v>
       </c>
@@ -10559,7 +10643,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>432</v>
       </c>
@@ -10579,7 +10663,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>127</v>
       </c>
@@ -10593,7 +10677,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>133</v>
       </c>
@@ -10607,7 +10691,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>141</v>
       </c>
@@ -10621,7 +10705,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>150</v>
       </c>
@@ -10635,7 +10719,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>157</v>
       </c>
@@ -10649,7 +10733,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>326</v>
       </c>
@@ -10669,7 +10753,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>133</v>
       </c>
@@ -10683,7 +10767,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>141</v>
       </c>
@@ -10697,7 +10781,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>328</v>
       </c>
@@ -10717,7 +10801,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>133</v>
       </c>
@@ -10731,7 +10815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>141</v>
       </c>
@@ -10745,7 +10829,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>446</v>
       </c>
@@ -10765,7 +10849,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>447</v>
       </c>
@@ -10797,17 +10881,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10827,7 +10911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -10847,7 +10931,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -10861,7 +10945,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>141</v>
       </c>
@@ -10875,7 +10959,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>150</v>
       </c>
@@ -10889,7 +10973,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>157</v>
       </c>
@@ -10903,7 +10987,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>452</v>
       </c>
@@ -10923,7 +11007,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -10943,7 +11027,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>165</v>
       </c>
@@ -10957,7 +11041,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>127</v>
       </c>
@@ -10971,7 +11055,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>264</v>
       </c>
@@ -10991,7 +11075,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -11005,7 +11089,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>150</v>
       </c>
@@ -11019,7 +11103,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>265</v>
       </c>
@@ -11036,7 +11120,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>458</v>
       </c>
@@ -11047,7 +11131,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>270</v>
       </c>
@@ -11067,7 +11151,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>133</v>
       </c>
@@ -11081,7 +11165,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>362</v>
       </c>
@@ -11101,7 +11185,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>127</v>
       </c>
@@ -11115,7 +11199,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>133</v>
       </c>
@@ -11129,7 +11213,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>366</v>
       </c>
@@ -11149,7 +11233,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>468</v>
       </c>
@@ -11169,7 +11253,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>133</v>
       </c>
@@ -11183,7 +11267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>463</v>
       </c>
@@ -11200,7 +11284,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>279</v>
       </c>
@@ -11211,7 +11295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>631</v>
       </c>
@@ -11231,7 +11315,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>384</v>
       </c>
@@ -11251,7 +11335,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>473</v>
       </c>
@@ -11271,7 +11355,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>133</v>
       </c>
@@ -11285,7 +11369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -11299,7 +11383,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -11313,7 +11397,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -11333,7 +11417,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>165</v>
       </c>
@@ -11347,7 +11431,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>639</v>
       </c>
@@ -11367,7 +11451,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>476</v>
       </c>
@@ -11387,7 +11471,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>396</v>
       </c>
@@ -11407,7 +11491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>133</v>
       </c>
@@ -11421,7 +11505,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>141</v>
       </c>
@@ -11435,7 +11519,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>307</v>
       </c>
@@ -11455,7 +11539,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>408</v>
       </c>
@@ -11475,7 +11559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>141</v>
       </c>
@@ -11489,7 +11573,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -11503,7 +11587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>157</v>
       </c>
@@ -11517,7 +11601,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>413</v>
       </c>
@@ -11537,7 +11621,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>315</v>
       </c>
@@ -11557,7 +11641,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>127</v>
       </c>
@@ -11571,7 +11655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>133</v>
       </c>
@@ -11585,7 +11669,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>238</v>
       </c>
@@ -11605,7 +11689,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>165</v>
       </c>
@@ -11619,7 +11703,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>491</v>
       </c>
@@ -11639,7 +11723,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>141</v>
       </c>
@@ -11653,7 +11737,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>432</v>
       </c>
@@ -11673,7 +11757,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>127</v>
       </c>
@@ -11687,7 +11771,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>133</v>
       </c>
@@ -11701,7 +11785,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>141</v>
       </c>
@@ -11715,7 +11799,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>150</v>
       </c>
@@ -11729,7 +11813,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>157</v>
       </c>
@@ -11743,7 +11827,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>326</v>
       </c>
@@ -11763,7 +11847,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>446</v>
       </c>
@@ -11783,7 +11867,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>447</v>
       </c>
@@ -11797,7 +11881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>150</v>
       </c>
@@ -11811,7 +11895,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>157</v>
       </c>
@@ -11842,17 +11926,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11872,7 +11956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -11892,7 +11976,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -11906,7 +11990,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>505</v>
       </c>
@@ -11926,7 +12010,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -11940,7 +12024,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -11954,7 +12038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>150</v>
       </c>
@@ -11968,7 +12052,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -11988,7 +12072,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>265</v>
       </c>
@@ -12005,7 +12089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>267</v>
       </c>
@@ -12016,7 +12100,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -12036,7 +12120,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -12050,7 +12134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -12064,7 +12148,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>632</v>
       </c>
@@ -12084,7 +12168,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>133</v>
       </c>
@@ -12098,7 +12182,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>141</v>
       </c>
@@ -12112,7 +12196,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>150</v>
       </c>
@@ -12126,7 +12210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>157</v>
       </c>
@@ -12140,7 +12224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>513</v>
       </c>
@@ -12160,7 +12244,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>133</v>
       </c>
@@ -12174,7 +12258,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>315</v>
       </c>
@@ -12194,7 +12278,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -12208,7 +12292,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>238</v>
       </c>
@@ -12228,7 +12312,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>165</v>
       </c>
@@ -12242,7 +12326,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>473</v>
       </c>
@@ -12262,7 +12346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -12276,7 +12360,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -12290,7 +12374,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -12304,7 +12388,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>299</v>
       </c>
@@ -12324,7 +12408,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>165</v>
       </c>
@@ -12338,7 +12422,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>127</v>
       </c>
@@ -12352,7 +12436,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>528</v>
       </c>
@@ -12372,7 +12456,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>141</v>
       </c>
@@ -12386,7 +12470,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>150</v>
       </c>
@@ -12400,7 +12484,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>157</v>
       </c>
@@ -12414,7 +12498,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>533</v>
       </c>
@@ -12434,7 +12518,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>133</v>
       </c>
@@ -12448,7 +12532,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -12462,7 +12546,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>150</v>
       </c>
@@ -12476,7 +12560,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>157</v>
       </c>
@@ -12507,17 +12591,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12537,7 +12621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>538</v>
       </c>
@@ -12557,7 +12641,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>127</v>
       </c>
@@ -12571,7 +12655,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>133</v>
       </c>
@@ -12585,7 +12669,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>141</v>
       </c>
@@ -12599,7 +12683,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -12613,7 +12697,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>157</v>
       </c>
@@ -12627,7 +12711,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>541</v>
       </c>
@@ -12647,7 +12731,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>163</v>
       </c>
@@ -12667,7 +12751,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>165</v>
       </c>
@@ -12681,7 +12765,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>127</v>
       </c>
@@ -12695,7 +12779,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>133</v>
       </c>
@@ -12709,7 +12793,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>632</v>
       </c>
@@ -12729,7 +12813,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -12749,7 +12833,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>133</v>
       </c>
@@ -12763,7 +12847,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>141</v>
       </c>
@@ -12777,7 +12861,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>366</v>
       </c>
@@ -12797,7 +12881,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>127</v>
       </c>
@@ -12811,7 +12895,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>133</v>
       </c>
@@ -12825,7 +12909,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>141</v>
       </c>
@@ -12839,7 +12923,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>558</v>
       </c>
@@ -12859,7 +12943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>133</v>
       </c>
@@ -12873,7 +12957,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>141</v>
       </c>
@@ -12887,7 +12971,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>150</v>
       </c>
@@ -12901,7 +12985,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>157</v>
       </c>
@@ -12915,7 +12999,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>631</v>
       </c>
@@ -12935,7 +13019,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>127</v>
       </c>
@@ -12949,7 +13033,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -12963,7 +13047,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -12977,7 +13061,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -12991,7 +13075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>157</v>
       </c>
@@ -13005,7 +13089,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>384</v>
       </c>
@@ -13025,7 +13109,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>133</v>
       </c>
@@ -13039,7 +13123,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>299</v>
       </c>
@@ -13059,7 +13143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>165</v>
       </c>
@@ -13073,7 +13157,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>127</v>
       </c>
@@ -13087,7 +13171,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>563</v>
       </c>
@@ -13107,7 +13191,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>396</v>
       </c>
@@ -13127,7 +13211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>133</v>
       </c>
@@ -13141,7 +13225,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>141</v>
       </c>
@@ -13155,7 +13239,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>307</v>
       </c>
@@ -13175,7 +13259,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>165</v>
       </c>
@@ -13189,7 +13273,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>127</v>
       </c>
@@ -13203,7 +13287,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>133</v>
       </c>
@@ -13217,7 +13301,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>141</v>
       </c>
@@ -13231,7 +13315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>150</v>
       </c>
@@ -13245,7 +13329,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>568</v>
       </c>
@@ -13265,7 +13349,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>127</v>
       </c>
@@ -13279,7 +13363,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>413</v>
       </c>
@@ -13299,7 +13383,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>133</v>
       </c>
@@ -13313,7 +13397,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>141</v>
       </c>
@@ -13327,7 +13411,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>150</v>
       </c>
@@ -13341,7 +13425,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>315</v>
       </c>
@@ -13361,7 +13445,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>238</v>
       </c>
@@ -13381,7 +13465,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>165</v>
       </c>
@@ -13395,7 +13479,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>127</v>
       </c>
@@ -13409,7 +13493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -13423,7 +13507,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -13437,7 +13521,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -13451,7 +13535,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>244</v>
       </c>
@@ -13471,7 +13555,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>141</v>
       </c>
@@ -13485,7 +13569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>578</v>
       </c>
@@ -13505,7 +13589,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>447</v>
       </c>
@@ -13519,7 +13603,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>447</v>
       </c>
@@ -13550,17 +13634,17 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13580,7 +13664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -13600,7 +13684,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>584</v>
       </c>
@@ -13620,7 +13704,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -13640,7 +13724,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>165</v>
       </c>
@@ -13654,7 +13738,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>127</v>
       </c>
@@ -13668,7 +13752,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>133</v>
       </c>
@@ -13682,7 +13766,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>270</v>
       </c>
@@ -13702,7 +13786,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>133</v>
       </c>
@@ -13716,7 +13800,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>632</v>
       </c>
@@ -13736,7 +13820,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>133</v>
       </c>
@@ -13750,7 +13834,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>141</v>
       </c>
@@ -13764,7 +13848,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>362</v>
       </c>
@@ -13784,7 +13868,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>366</v>
       </c>
@@ -13804,7 +13888,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>468</v>
       </c>
@@ -13824,7 +13908,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>133</v>
       </c>
@@ -13838,7 +13922,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>558</v>
       </c>
@@ -13858,7 +13942,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>141</v>
       </c>
@@ -13872,7 +13956,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>150</v>
       </c>
@@ -13886,7 +13970,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>157</v>
       </c>
@@ -13900,7 +13984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>631</v>
       </c>
@@ -13920,7 +14004,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>384</v>
       </c>
@@ -13940,7 +14024,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>133</v>
       </c>
@@ -13954,7 +14038,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -13968,7 +14052,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>150</v>
       </c>
@@ -13982,7 +14066,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>299</v>
       </c>
@@ -14002,7 +14086,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>165</v>
       </c>
@@ -14016,7 +14100,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>127</v>
       </c>
@@ -14030,7 +14114,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>639</v>
       </c>
@@ -14050,7 +14134,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>133</v>
       </c>
@@ -14064,7 +14148,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>141</v>
       </c>
@@ -14078,7 +14162,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>150</v>
       </c>
@@ -14092,7 +14176,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>157</v>
       </c>
@@ -14106,7 +14190,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>563</v>
       </c>
@@ -14126,7 +14210,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>408</v>
       </c>
@@ -14146,7 +14230,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -14160,7 +14244,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>413</v>
       </c>
@@ -14180,7 +14264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>133</v>
       </c>
@@ -14194,7 +14278,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>315</v>
       </c>
@@ -14214,7 +14298,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>133</v>
       </c>
@@ -14228,7 +14312,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>141</v>
       </c>
@@ -14242,7 +14326,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>150</v>
       </c>
@@ -14256,7 +14340,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>238</v>
       </c>
@@ -14276,7 +14360,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>165</v>
       </c>
@@ -14290,7 +14374,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>127</v>
       </c>
@@ -14304,7 +14388,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -14318,7 +14402,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>141</v>
       </c>
@@ -14332,7 +14416,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>150</v>
       </c>
@@ -14346,7 +14430,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>616</v>
       </c>
@@ -14366,7 +14450,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>141</v>
       </c>
@@ -14380,7 +14464,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>619</v>
       </c>
@@ -14400,7 +14484,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>578</v>
       </c>
@@ -14420,7 +14504,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>447</v>
       </c>
@@ -14434,7 +14518,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>447</v>
       </c>
@@ -14448,7 +14532,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -14462,7 +14546,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>157</v>
       </c>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3332" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FFD5E09-D2AA-4F08-9795-CE4D65ADCD77}"/>
+  <xr:revisionPtr revIDLastSave="3344" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96494E6B-D978-4844-BE68-C589838634AA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="11" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="11" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="10" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="685">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -2098,6 +2098,12 @@
   </si>
   <si>
     <t xml:space="preserve">7-5 6-1 </t>
+  </si>
+  <si>
+    <t>BERLIN OPEN</t>
+  </si>
+  <si>
+    <t>5-1 RETIRED</t>
   </si>
 </sst>
 </file>
@@ -2394,7 +2400,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2508,7 +2514,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3031,7 +3037,7 @@
                   <c:v>0.74545454545454548</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72413793103448276</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4826,17 +4832,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4856,7 +4862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -4876,7 +4882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -4896,7 +4902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -4916,7 +4922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>133</v>
       </c>
@@ -4947,17 +4953,17 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4977,7 +4983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -4997,7 +5003,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -5011,7 +5017,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>150</v>
       </c>
@@ -5025,7 +5031,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>157</v>
       </c>
@@ -5039,7 +5045,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -5059,7 +5065,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>165</v>
       </c>
@@ -5073,7 +5079,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>127</v>
       </c>
@@ -5087,7 +5093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>133</v>
       </c>
@@ -5101,7 +5107,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>141</v>
       </c>
@@ -5115,7 +5121,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -5129,7 +5135,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>157</v>
       </c>
@@ -5143,7 +5149,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -5163,7 +5169,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -5177,7 +5183,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -5191,7 +5197,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -5211,7 +5217,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>127</v>
       </c>
@@ -5225,7 +5231,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>133</v>
       </c>
@@ -5239,7 +5245,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>141</v>
       </c>
@@ -5253,7 +5259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -5267,7 +5273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>157</v>
       </c>
@@ -5281,7 +5287,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>366</v>
       </c>
@@ -5301,7 +5307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>127</v>
       </c>
@@ -5315,7 +5321,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>133</v>
       </c>
@@ -5329,7 +5335,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>141</v>
       </c>
@@ -5343,7 +5349,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>558</v>
       </c>
@@ -5363,7 +5369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -5377,7 +5383,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>150</v>
       </c>
@@ -5391,7 +5397,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>157</v>
       </c>
@@ -5405,7 +5411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>631</v>
       </c>
@@ -5425,7 +5431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>127</v>
       </c>
@@ -5439,7 +5445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>133</v>
       </c>
@@ -5453,7 +5459,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>141</v>
       </c>
@@ -5467,7 +5473,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -5481,7 +5487,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>157</v>
       </c>
@@ -5495,7 +5501,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>384</v>
       </c>
@@ -5515,7 +5521,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -5535,7 +5541,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>165</v>
       </c>
@@ -5549,7 +5555,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>127</v>
       </c>
@@ -5563,7 +5569,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>133</v>
       </c>
@@ -5577,7 +5583,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>141</v>
       </c>
@@ -5591,7 +5597,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>150</v>
       </c>
@@ -5605,7 +5611,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>639</v>
       </c>
@@ -5625,7 +5631,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>133</v>
       </c>
@@ -5639,7 +5645,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>307</v>
       </c>
@@ -5659,7 +5665,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>165</v>
       </c>
@@ -5673,7 +5679,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>127</v>
       </c>
@@ -5687,7 +5693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>133</v>
       </c>
@@ -5701,7 +5707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>141</v>
       </c>
@@ -5715,7 +5721,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -5729,7 +5735,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>413</v>
       </c>
@@ -5749,7 +5755,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -5763,7 +5769,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>315</v>
       </c>
@@ -5783,7 +5789,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -5797,7 +5803,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>141</v>
       </c>
@@ -5811,7 +5817,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>150</v>
       </c>
@@ -5825,7 +5831,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>238</v>
       </c>
@@ -5845,7 +5851,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>165</v>
       </c>
@@ -5859,7 +5865,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>127</v>
       </c>
@@ -5873,7 +5879,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -5887,7 +5893,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -5901,7 +5907,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -5915,7 +5921,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>157</v>
       </c>
@@ -5929,7 +5935,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>326</v>
       </c>
@@ -5949,7 +5955,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>127</v>
       </c>
@@ -5963,7 +5969,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>133</v>
       </c>
@@ -5977,7 +5983,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>141</v>
       </c>
@@ -5991,7 +5997,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>578</v>
       </c>
@@ -6011,7 +6017,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>447</v>
       </c>
@@ -6025,7 +6031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>447</v>
       </c>
@@ -6039,7 +6045,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>150</v>
       </c>
@@ -6064,23 +6070,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E46" activeCellId="7" sqref="E6 E16 E20 E23 E26 E33 E40 E46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6100,7 +6106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>657</v>
       </c>
@@ -6120,7 +6126,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -6134,7 +6140,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>141</v>
       </c>
@@ -6148,7 +6154,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>150</v>
       </c>
@@ -6162,7 +6168,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>157</v>
       </c>
@@ -6176,7 +6182,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>163</v>
       </c>
@@ -6196,7 +6202,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>165</v>
       </c>
@@ -6210,7 +6216,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>127</v>
       </c>
@@ -6224,7 +6230,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>133</v>
       </c>
@@ -6238,7 +6244,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>141</v>
       </c>
@@ -6252,7 +6258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>150</v>
       </c>
@@ -6266,7 +6272,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>157</v>
       </c>
@@ -6280,7 +6286,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>270</v>
       </c>
@@ -6300,7 +6306,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>362</v>
       </c>
@@ -6320,7 +6326,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>127</v>
       </c>
@@ -6334,7 +6340,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>133</v>
       </c>
@@ -6348,7 +6354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>366</v>
       </c>
@@ -6368,7 +6374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>127</v>
       </c>
@@ -6382,7 +6388,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>558</v>
       </c>
@@ -6402,7 +6408,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>141</v>
       </c>
@@ -6416,7 +6422,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>631</v>
       </c>
@@ -6436,7 +6442,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>127</v>
       </c>
@@ -6450,7 +6456,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>133</v>
       </c>
@@ -6464,7 +6470,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>141</v>
       </c>
@@ -6478,7 +6484,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>150</v>
       </c>
@@ -6492,7 +6498,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>157</v>
       </c>
@@ -6506,7 +6512,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>676</v>
       </c>
@@ -6526,7 +6532,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>127</v>
       </c>
@@ -6540,7 +6546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>133</v>
       </c>
@@ -6554,7 +6560,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>141</v>
       </c>
@@ -6568,7 +6574,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>150</v>
       </c>
@@ -6582,7 +6588,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>157</v>
       </c>
@@ -6596,7 +6602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>299</v>
       </c>
@@ -6616,7 +6622,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>165</v>
       </c>
@@ -6630,7 +6636,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>127</v>
       </c>
@@ -6644,7 +6650,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>133</v>
       </c>
@@ -6658,7 +6664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>141</v>
       </c>
@@ -6670,6 +6676,40 @@
       </c>
       <c r="F46" t="s">
         <v>681</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>683</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" t="s">
+        <v>495</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" t="s">
+        <v>230</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" t="s">
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -6689,17 +6729,17 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -6719,7 +6759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -6740,7 +6780,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -6761,7 +6801,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -6782,7 +6822,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -6803,7 +6843,7 @@
         <v>0.30555555555555558</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -6824,7 +6864,7 @@
         <v>0.54716981132075471</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -6845,7 +6885,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -6866,7 +6906,7 @@
         <v>0.6071428571428571</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -6887,7 +6927,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -6908,7 +6948,7 @@
         <v>0.38235294117647056</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -6929,34 +6969,34 @@
         <v>0.74545454545454548</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>0.72413793103448276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3">
         <f>SUM(B2:B12)</f>
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C13" s="3">
         <f>SUM(C2:C12)</f>
@@ -6964,24 +7004,24 @@
       </c>
       <c r="D13" s="3">
         <f>SUM(D2:D12)</f>
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E13" s="3">
         <f>SUM(E2:E12)</f>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.54473684210526319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.54330708661417326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="3">
         <f>AVERAGE(B2:B12)</f>
-        <v>17.545454545454547</v>
+        <v>17.636363636363637</v>
       </c>
       <c r="C14" s="3">
         <f>AVERAGE(C2:C12)</f>
@@ -6989,15 +7029,15 @@
       </c>
       <c r="D14" s="3">
         <f>AVERAGE(D2:D12)</f>
-        <v>34.545454545454547</v>
+        <v>34.636363636363633</v>
       </c>
       <c r="E14" s="3">
         <f>AVERAGE(E2:E12)</f>
-        <v>15.727272727272727</v>
+        <v>15.818181818181818</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="2"/>
-        <v>0.54473684210526319</v>
+        <v>0.54330708661417315</v>
       </c>
     </row>
   </sheetData>
@@ -7026,17 +7066,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7056,7 +7096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -7076,7 +7116,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -7090,7 +7130,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -7110,7 +7150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -7124,7 +7164,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -7138,7 +7178,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>140</v>
       </c>
@@ -7158,7 +7198,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>133</v>
       </c>
@@ -7172,7 +7212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>141</v>
       </c>
@@ -7186,7 +7226,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>148</v>
       </c>
@@ -7206,7 +7246,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>148</v>
       </c>
@@ -7226,7 +7266,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -7240,7 +7280,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -7254,7 +7294,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>150</v>
       </c>
@@ -7268,7 +7308,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>148</v>
       </c>
@@ -7288,7 +7328,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>130</v>
       </c>
@@ -7308,7 +7348,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>133</v>
       </c>
@@ -7322,7 +7362,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>141</v>
       </c>
@@ -7336,7 +7376,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -7356,7 +7396,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>177</v>
       </c>
@@ -7376,7 +7416,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -7390,7 +7430,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>177</v>
       </c>
@@ -7410,7 +7450,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>133</v>
       </c>
@@ -7424,7 +7464,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>182</v>
       </c>
@@ -7444,7 +7484,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>140</v>
       </c>
@@ -7464,7 +7504,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>133</v>
       </c>
@@ -7478,7 +7518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>141</v>
       </c>
@@ -7492,7 +7532,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>150</v>
       </c>
@@ -7506,7 +7546,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>157</v>
       </c>
@@ -7520,7 +7560,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -7540,7 +7580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>133</v>
       </c>
@@ -7554,7 +7594,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>141</v>
       </c>
@@ -7568,7 +7608,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>150</v>
       </c>
@@ -7582,7 +7622,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>157</v>
       </c>
@@ -7596,7 +7636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -7616,7 +7656,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>133</v>
       </c>
@@ -7630,7 +7670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -7644,7 +7684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>150</v>
       </c>
@@ -7658,7 +7698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>199</v>
       </c>
@@ -7678,7 +7718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>133</v>
       </c>
@@ -7692,7 +7732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>141</v>
       </c>
@@ -7706,7 +7746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>150</v>
       </c>
@@ -7720,7 +7760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>157</v>
       </c>
@@ -7751,17 +7791,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7781,7 +7821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -7801,7 +7841,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -7815,7 +7855,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>204</v>
       </c>
@@ -7835,7 +7875,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -7849,7 +7889,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -7863,7 +7903,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>150</v>
       </c>
@@ -7877,7 +7917,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>157</v>
       </c>
@@ -7891,7 +7931,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>212</v>
       </c>
@@ -7911,7 +7951,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>214</v>
       </c>
@@ -7931,7 +7971,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>216</v>
       </c>
@@ -7945,7 +7985,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -7965,7 +8005,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>133</v>
       </c>
@@ -7979,7 +8019,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>141</v>
       </c>
@@ -7993,7 +8033,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>222</v>
       </c>
@@ -8013,7 +8053,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>133</v>
       </c>
@@ -8027,7 +8067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>141</v>
       </c>
@@ -8041,7 +8081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -8055,7 +8095,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>157</v>
       </c>
@@ -8069,7 +8109,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -8089,7 +8129,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -8109,7 +8149,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -8123,7 +8163,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>141</v>
       </c>
@@ -8137,7 +8177,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>150</v>
       </c>
@@ -8151,7 +8191,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>231</v>
       </c>
@@ -8171,7 +8211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>133</v>
       </c>
@@ -8185,7 +8225,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>234</v>
       </c>
@@ -8205,7 +8245,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>133</v>
       </c>
@@ -8219,7 +8259,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>236</v>
       </c>
@@ -8239,7 +8279,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>238</v>
       </c>
@@ -8259,7 +8299,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>216</v>
       </c>
@@ -8273,7 +8313,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>242</v>
       </c>
@@ -8293,7 +8333,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>133</v>
       </c>
@@ -8307,7 +8347,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>141</v>
       </c>
@@ -8321,7 +8361,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>150</v>
       </c>
@@ -8335,7 +8375,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>244</v>
       </c>
@@ -8355,7 +8395,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>246</v>
       </c>
@@ -8375,7 +8415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>133</v>
       </c>
@@ -8389,7 +8429,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>249</v>
       </c>
@@ -8409,7 +8449,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>133</v>
       </c>
@@ -8423,7 +8463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -8437,7 +8477,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>150</v>
       </c>
@@ -8451,7 +8491,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>157</v>
       </c>
@@ -8465,7 +8505,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>256</v>
       </c>
@@ -8485,7 +8525,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -8505,7 +8545,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -8519,7 +8559,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>141</v>
       </c>
@@ -8533,7 +8573,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>150</v>
       </c>
@@ -8565,17 +8605,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8595,7 +8635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>163</v>
       </c>
@@ -8615,7 +8655,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>216</v>
       </c>
@@ -8629,7 +8669,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>264</v>
       </c>
@@ -8649,7 +8689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>265</v>
       </c>
@@ -8666,7 +8706,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>267</v>
       </c>
@@ -8677,7 +8717,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>270</v>
       </c>
@@ -8697,7 +8737,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>216</v>
       </c>
@@ -8711,7 +8751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>165</v>
       </c>
@@ -8725,7 +8765,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>274</v>
       </c>
@@ -8745,7 +8785,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>276</v>
       </c>
@@ -8765,7 +8805,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>280</v>
       </c>
@@ -8785,7 +8825,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>133</v>
       </c>
@@ -8799,7 +8839,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>141</v>
       </c>
@@ -8813,7 +8853,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>150</v>
       </c>
@@ -8827,7 +8867,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>157</v>
       </c>
@@ -8841,7 +8881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>287</v>
       </c>
@@ -8861,7 +8901,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>216</v>
       </c>
@@ -8875,7 +8915,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>265</v>
       </c>
@@ -8892,7 +8932,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>290</v>
       </c>
@@ -8903,7 +8943,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>214</v>
       </c>
@@ -8923,7 +8963,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>293</v>
       </c>
@@ -8943,7 +8983,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>295</v>
       </c>
@@ -8963,7 +9003,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -8977,7 +9017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -8991,7 +9031,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>299</v>
       </c>
@@ -9011,7 +9051,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>300</v>
       </c>
@@ -9031,7 +9071,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>133</v>
       </c>
@@ -9045,7 +9085,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -9059,7 +9099,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -9073,7 +9113,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>306</v>
       </c>
@@ -9093,7 +9133,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>307</v>
       </c>
@@ -9113,7 +9153,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>216</v>
       </c>
@@ -9127,7 +9167,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>308</v>
       </c>
@@ -9141,7 +9181,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>164</v>
       </c>
@@ -9155,7 +9195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>165</v>
       </c>
@@ -9169,7 +9209,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>312</v>
       </c>
@@ -9189,7 +9229,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>133</v>
       </c>
@@ -9203,7 +9243,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>315</v>
       </c>
@@ -9223,7 +9263,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>216</v>
       </c>
@@ -9237,7 +9277,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>238</v>
       </c>
@@ -9257,7 +9297,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>317</v>
       </c>
@@ -9277,7 +9317,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>133</v>
       </c>
@@ -9291,7 +9331,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>141</v>
       </c>
@@ -9305,7 +9345,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>319</v>
       </c>
@@ -9325,7 +9365,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -9339,7 +9379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>141</v>
       </c>
@@ -9353,7 +9393,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>150</v>
       </c>
@@ -9367,7 +9407,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>326</v>
       </c>
@@ -9387,7 +9427,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>328</v>
       </c>
@@ -9407,7 +9447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -9421,7 +9461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -9435,7 +9475,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -9449,7 +9489,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>157</v>
       </c>
@@ -9463,7 +9503,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>265</v>
       </c>
@@ -9480,7 +9520,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>337</v>
       </c>
@@ -9491,7 +9531,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>339</v>
       </c>
@@ -9511,7 +9551,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>133</v>
       </c>
@@ -9525,7 +9565,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>341</v>
       </c>
@@ -9545,7 +9585,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>133</v>
       </c>
@@ -9559,7 +9599,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>141</v>
       </c>
@@ -9573,7 +9613,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>150</v>
       </c>
@@ -9587,7 +9627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>157</v>
       </c>
@@ -9619,17 +9659,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9649,7 +9689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -9669,7 +9709,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -9683,7 +9723,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>141</v>
       </c>
@@ -9697,7 +9737,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>350</v>
       </c>
@@ -9717,7 +9757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>133</v>
       </c>
@@ -9731,7 +9771,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>141</v>
       </c>
@@ -9745,7 +9785,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -9765,7 +9805,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>265</v>
       </c>
@@ -9782,7 +9822,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>320</v>
       </c>
@@ -9793,7 +9833,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -9813,7 +9853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>216</v>
       </c>
@@ -9827,7 +9867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>308</v>
       </c>
@@ -9841,7 +9881,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -9861,7 +9901,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>165</v>
       </c>
@@ -9875,7 +9915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>127</v>
       </c>
@@ -9889,7 +9929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>366</v>
       </c>
@@ -9909,7 +9949,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>165</v>
       </c>
@@ -9923,7 +9963,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>287</v>
       </c>
@@ -9943,7 +9983,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>133</v>
       </c>
@@ -9957,7 +9997,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>141</v>
       </c>
@@ -9971,7 +10011,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -9985,7 +10025,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>157</v>
       </c>
@@ -9999,7 +10039,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>265</v>
       </c>
@@ -10016,7 +10056,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>301</v>
       </c>
@@ -10027,7 +10067,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>379</v>
       </c>
@@ -10047,7 +10087,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>631</v>
       </c>
@@ -10067,7 +10107,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>216</v>
       </c>
@@ -10081,7 +10121,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>165</v>
       </c>
@@ -10095,7 +10135,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>384</v>
       </c>
@@ -10115,7 +10155,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>216</v>
       </c>
@@ -10129,7 +10169,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>165</v>
       </c>
@@ -10143,7 +10183,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -10163,7 +10203,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>639</v>
       </c>
@@ -10183,7 +10223,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>133</v>
       </c>
@@ -10197,7 +10237,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>141</v>
       </c>
@@ -10211,7 +10251,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>393</v>
       </c>
@@ -10231,7 +10271,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>396</v>
       </c>
@@ -10251,7 +10291,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>127</v>
       </c>
@@ -10265,7 +10305,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>133</v>
       </c>
@@ -10279,7 +10319,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -10293,7 +10333,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>150</v>
       </c>
@@ -10307,7 +10347,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>157</v>
       </c>
@@ -10321,7 +10361,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>307</v>
       </c>
@@ -10341,7 +10381,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>408</v>
       </c>
@@ -10361,7 +10401,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>413</v>
       </c>
@@ -10381,7 +10421,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>127</v>
       </c>
@@ -10395,7 +10435,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -10409,7 +10449,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>315</v>
       </c>
@@ -10429,7 +10469,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>127</v>
       </c>
@@ -10443,7 +10483,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>133</v>
       </c>
@@ -10457,7 +10497,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>141</v>
       </c>
@@ -10471,7 +10511,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>150</v>
       </c>
@@ -10485,7 +10525,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>425</v>
       </c>
@@ -10505,7 +10545,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>133</v>
       </c>
@@ -10519,7 +10559,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>141</v>
       </c>
@@ -10533,7 +10573,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>150</v>
       </c>
@@ -10547,7 +10587,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>157</v>
       </c>
@@ -10561,7 +10601,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>238</v>
       </c>
@@ -10581,7 +10621,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>165</v>
       </c>
@@ -10595,7 +10635,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>127</v>
       </c>
@@ -10609,7 +10649,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>133</v>
       </c>
@@ -10623,7 +10663,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>431</v>
       </c>
@@ -10643,7 +10683,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>432</v>
       </c>
@@ -10663,7 +10703,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>127</v>
       </c>
@@ -10677,7 +10717,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>133</v>
       </c>
@@ -10691,7 +10731,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>141</v>
       </c>
@@ -10705,7 +10745,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>150</v>
       </c>
@@ -10719,7 +10759,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>157</v>
       </c>
@@ -10733,7 +10773,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>326</v>
       </c>
@@ -10753,7 +10793,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>133</v>
       </c>
@@ -10767,7 +10807,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>141</v>
       </c>
@@ -10781,7 +10821,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>328</v>
       </c>
@@ -10801,7 +10841,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>133</v>
       </c>
@@ -10815,7 +10855,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>141</v>
       </c>
@@ -10829,7 +10869,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>446</v>
       </c>
@@ -10849,7 +10889,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>447</v>
       </c>
@@ -10881,17 +10921,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10911,7 +10951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -10931,7 +10971,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -10945,7 +10985,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>141</v>
       </c>
@@ -10959,7 +10999,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>150</v>
       </c>
@@ -10973,7 +11013,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>157</v>
       </c>
@@ -10987,7 +11027,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>452</v>
       </c>
@@ -11007,7 +11047,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -11027,7 +11067,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>165</v>
       </c>
@@ -11041,7 +11081,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>127</v>
       </c>
@@ -11055,7 +11095,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>264</v>
       </c>
@@ -11075,7 +11115,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -11089,7 +11129,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>150</v>
       </c>
@@ -11103,7 +11143,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>265</v>
       </c>
@@ -11120,7 +11160,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>458</v>
       </c>
@@ -11131,7 +11171,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>270</v>
       </c>
@@ -11151,7 +11191,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>133</v>
       </c>
@@ -11165,7 +11205,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>362</v>
       </c>
@@ -11185,7 +11225,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>127</v>
       </c>
@@ -11199,7 +11239,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>133</v>
       </c>
@@ -11213,7 +11253,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>366</v>
       </c>
@@ -11233,7 +11273,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>468</v>
       </c>
@@ -11253,7 +11293,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>133</v>
       </c>
@@ -11267,7 +11307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>463</v>
       </c>
@@ -11284,7 +11324,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>279</v>
       </c>
@@ -11295,7 +11335,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>631</v>
       </c>
@@ -11315,7 +11355,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>384</v>
       </c>
@@ -11335,7 +11375,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>473</v>
       </c>
@@ -11355,7 +11395,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>133</v>
       </c>
@@ -11369,7 +11409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -11383,7 +11423,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -11397,7 +11437,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>299</v>
       </c>
@@ -11417,7 +11457,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>165</v>
       </c>
@@ -11431,7 +11471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>639</v>
       </c>
@@ -11451,7 +11491,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>476</v>
       </c>
@@ -11471,7 +11511,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>396</v>
       </c>
@@ -11491,7 +11531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>133</v>
       </c>
@@ -11505,7 +11545,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>141</v>
       </c>
@@ -11519,7 +11559,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>307</v>
       </c>
@@ -11539,7 +11579,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>408</v>
       </c>
@@ -11559,7 +11599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>141</v>
       </c>
@@ -11573,7 +11613,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -11587,7 +11627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>157</v>
       </c>
@@ -11601,7 +11641,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>413</v>
       </c>
@@ -11621,7 +11661,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>315</v>
       </c>
@@ -11641,7 +11681,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>127</v>
       </c>
@@ -11655,7 +11695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>133</v>
       </c>
@@ -11669,7 +11709,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>238</v>
       </c>
@@ -11689,7 +11729,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>165</v>
       </c>
@@ -11703,7 +11743,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>491</v>
       </c>
@@ -11723,7 +11763,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>141</v>
       </c>
@@ -11737,7 +11777,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>432</v>
       </c>
@@ -11757,7 +11797,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>127</v>
       </c>
@@ -11771,7 +11811,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>133</v>
       </c>
@@ -11785,7 +11825,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>141</v>
       </c>
@@ -11799,7 +11839,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>150</v>
       </c>
@@ -11813,7 +11853,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>157</v>
       </c>
@@ -11827,7 +11867,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>326</v>
       </c>
@@ -11847,7 +11887,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>446</v>
       </c>
@@ -11867,7 +11907,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>447</v>
       </c>
@@ -11881,7 +11921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>150</v>
       </c>
@@ -11895,7 +11935,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>157</v>
       </c>
@@ -11926,17 +11966,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11956,7 +11996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -11976,7 +12016,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>133</v>
       </c>
@@ -11990,7 +12030,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>505</v>
       </c>
@@ -12010,7 +12050,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>133</v>
       </c>
@@ -12024,7 +12064,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -12038,7 +12078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>150</v>
       </c>
@@ -12052,7 +12092,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -12072,7 +12112,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>265</v>
       </c>
@@ -12089,7 +12129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>267</v>
       </c>
@@ -12100,7 +12140,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -12120,7 +12160,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -12134,7 +12174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -12148,7 +12188,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>632</v>
       </c>
@@ -12168,7 +12208,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>133</v>
       </c>
@@ -12182,7 +12222,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>141</v>
       </c>
@@ -12196,7 +12236,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>150</v>
       </c>
@@ -12210,7 +12250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>157</v>
       </c>
@@ -12224,7 +12264,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>513</v>
       </c>
@@ -12244,7 +12284,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>133</v>
       </c>
@@ -12258,7 +12298,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>315</v>
       </c>
@@ -12278,7 +12318,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>133</v>
       </c>
@@ -12292,7 +12332,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>238</v>
       </c>
@@ -12312,7 +12352,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>165</v>
       </c>
@@ -12326,7 +12366,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>473</v>
       </c>
@@ -12346,7 +12386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -12360,7 +12400,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -12374,7 +12414,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -12388,7 +12428,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>299</v>
       </c>
@@ -12408,7 +12448,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>165</v>
       </c>
@@ -12422,7 +12462,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>127</v>
       </c>
@@ -12436,7 +12476,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>528</v>
       </c>
@@ -12456,7 +12496,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>141</v>
       </c>
@@ -12470,7 +12510,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>150</v>
       </c>
@@ -12484,7 +12524,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>157</v>
       </c>
@@ -12498,7 +12538,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>533</v>
       </c>
@@ -12518,7 +12558,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>133</v>
       </c>
@@ -12532,7 +12572,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -12546,7 +12586,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>150</v>
       </c>
@@ -12560,7 +12600,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>157</v>
       </c>
@@ -12591,17 +12631,17 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12621,7 +12661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>538</v>
       </c>
@@ -12641,7 +12681,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>127</v>
       </c>
@@ -12655,7 +12695,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>133</v>
       </c>
@@ -12669,7 +12709,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>141</v>
       </c>
@@ -12683,7 +12723,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -12697,7 +12737,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>157</v>
       </c>
@@ -12711,7 +12751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>541</v>
       </c>
@@ -12731,7 +12771,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>163</v>
       </c>
@@ -12751,7 +12791,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>165</v>
       </c>
@@ -12765,7 +12805,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>127</v>
       </c>
@@ -12779,7 +12819,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>133</v>
       </c>
@@ -12793,7 +12833,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>632</v>
       </c>
@@ -12813,7 +12853,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -12833,7 +12873,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>133</v>
       </c>
@@ -12847,7 +12887,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>141</v>
       </c>
@@ -12861,7 +12901,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>366</v>
       </c>
@@ -12881,7 +12921,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>127</v>
       </c>
@@ -12895,7 +12935,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>133</v>
       </c>
@@ -12909,7 +12949,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>141</v>
       </c>
@@ -12923,7 +12963,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>558</v>
       </c>
@@ -12943,7 +12983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>133</v>
       </c>
@@ -12957,7 +12997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>141</v>
       </c>
@@ -12971,7 +13011,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>150</v>
       </c>
@@ -12985,7 +13025,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>157</v>
       </c>
@@ -12999,7 +13039,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>631</v>
       </c>
@@ -13019,7 +13059,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>127</v>
       </c>
@@ -13033,7 +13073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>133</v>
       </c>
@@ -13047,7 +13087,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -13061,7 +13101,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -13075,7 +13115,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>157</v>
       </c>
@@ -13089,7 +13129,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>384</v>
       </c>
@@ -13109,7 +13149,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>133</v>
       </c>
@@ -13123,7 +13163,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>299</v>
       </c>
@@ -13143,7 +13183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>165</v>
       </c>
@@ -13157,7 +13197,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>127</v>
       </c>
@@ -13171,7 +13211,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>563</v>
       </c>
@@ -13191,7 +13231,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>396</v>
       </c>
@@ -13211,7 +13251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>133</v>
       </c>
@@ -13225,7 +13265,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>141</v>
       </c>
@@ -13239,7 +13279,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>307</v>
       </c>
@@ -13259,7 +13299,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>165</v>
       </c>
@@ -13273,7 +13313,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>127</v>
       </c>
@@ -13287,7 +13327,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>133</v>
       </c>
@@ -13301,7 +13341,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>141</v>
       </c>
@@ -13315,7 +13355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>150</v>
       </c>
@@ -13329,7 +13369,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>568</v>
       </c>
@@ -13349,7 +13389,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>127</v>
       </c>
@@ -13363,7 +13403,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>413</v>
       </c>
@@ -13383,7 +13423,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>133</v>
       </c>
@@ -13397,7 +13437,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>141</v>
       </c>
@@ -13411,7 +13451,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>150</v>
       </c>
@@ -13425,7 +13465,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>315</v>
       </c>
@@ -13445,7 +13485,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>238</v>
       </c>
@@ -13465,7 +13505,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>165</v>
       </c>
@@ -13479,7 +13519,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>127</v>
       </c>
@@ -13493,7 +13533,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>133</v>
       </c>
@@ -13507,7 +13547,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -13521,7 +13561,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -13535,7 +13575,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>244</v>
       </c>
@@ -13555,7 +13595,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>141</v>
       </c>
@@ -13569,7 +13609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>578</v>
       </c>
@@ -13589,7 +13629,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>447</v>
       </c>
@@ -13603,7 +13643,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>447</v>
       </c>
@@ -13634,17 +13674,17 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13664,7 +13704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -13684,7 +13724,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>584</v>
       </c>
@@ -13704,7 +13744,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -13724,7 +13764,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>165</v>
       </c>
@@ -13738,7 +13778,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>127</v>
       </c>
@@ -13752,7 +13792,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>133</v>
       </c>
@@ -13766,7 +13806,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>270</v>
       </c>
@@ -13786,7 +13826,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>133</v>
       </c>
@@ -13800,7 +13840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>632</v>
       </c>
@@ -13820,7 +13860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>133</v>
       </c>
@@ -13834,7 +13874,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>141</v>
       </c>
@@ -13848,7 +13888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>362</v>
       </c>
@@ -13868,7 +13908,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>366</v>
       </c>
@@ -13888,7 +13928,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>468</v>
       </c>
@@ -13908,7 +13948,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>133</v>
       </c>
@@ -13922,7 +13962,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>558</v>
       </c>
@@ -13942,7 +13982,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>141</v>
       </c>
@@ -13956,7 +13996,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>150</v>
       </c>
@@ -13970,7 +14010,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>157</v>
       </c>
@@ -13984,7 +14024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>631</v>
       </c>
@@ -14004,7 +14044,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>384</v>
       </c>
@@ -14024,7 +14064,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>133</v>
       </c>
@@ -14038,7 +14078,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -14052,7 +14092,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>150</v>
       </c>
@@ -14066,7 +14106,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>299</v>
       </c>
@@ -14086,7 +14126,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>165</v>
       </c>
@@ -14100,7 +14140,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>127</v>
       </c>
@@ -14114,7 +14154,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>639</v>
       </c>
@@ -14134,7 +14174,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>133</v>
       </c>
@@ -14148,7 +14188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>141</v>
       </c>
@@ -14162,7 +14202,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>150</v>
       </c>
@@ -14176,7 +14216,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>157</v>
       </c>
@@ -14190,7 +14230,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>563</v>
       </c>
@@ -14210,7 +14250,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>408</v>
       </c>
@@ -14230,7 +14270,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -14244,7 +14284,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>413</v>
       </c>
@@ -14264,7 +14304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>133</v>
       </c>
@@ -14278,7 +14318,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>315</v>
       </c>
@@ -14298,7 +14338,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>133</v>
       </c>
@@ -14312,7 +14352,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>141</v>
       </c>
@@ -14326,7 +14366,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>150</v>
       </c>
@@ -14340,7 +14380,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>238</v>
       </c>
@@ -14360,7 +14400,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>165</v>
       </c>
@@ -14374,7 +14414,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>127</v>
       </c>
@@ -14388,7 +14428,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -14402,7 +14442,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>141</v>
       </c>
@@ -14416,7 +14456,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>150</v>
       </c>
@@ -14430,7 +14470,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>616</v>
       </c>
@@ -14450,7 +14490,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>141</v>
       </c>
@@ -14464,7 +14504,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>619</v>
       </c>
@@ -14484,7 +14524,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>578</v>
       </c>
@@ -14504,7 +14544,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>447</v>
       </c>
@@ -14518,7 +14558,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>447</v>
       </c>
@@ -14532,7 +14572,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>150</v>
       </c>
@@ -14546,7 +14586,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>157</v>
       </c>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3344" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96494E6B-D978-4844-BE68-C589838634AA}"/>
+  <xr:revisionPtr revIDLastSave="3462" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1A01AE1-F8E9-4405-BF8D-5D3F469BF3EE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="11" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
+    <workbookView minimized="1" xWindow="1635" yWindow="5595" windowWidth="8625" windowHeight="15285" firstSheet="4" activeTab="11" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="10" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="695">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -2079,9 +2079,6 @@
     <t>7-5 4-6 7-6(7)</t>
   </si>
   <si>
-    <t>iTALIAN OPEN</t>
-  </si>
-  <si>
     <t>Katie Volynets (USA)</t>
   </si>
   <si>
@@ -2104,6 +2101,39 @@
   </si>
   <si>
     <t>5-1 RETIRED</t>
+  </si>
+  <si>
+    <t>7-5 4-6 6-4</t>
+  </si>
+  <si>
+    <t>Yuan Yue (CHINA)</t>
+  </si>
+  <si>
+    <t>Elisabetta Cocciaretto (ITALY)</t>
+  </si>
+  <si>
+    <t>6-3 7-6(2)</t>
+  </si>
+  <si>
+    <t>Mananchaya Sawangkaew (THAILAND)</t>
+  </si>
+  <si>
+    <t>7-6(5) 2-6 6-4</t>
+  </si>
+  <si>
+    <t>Ashlyn Krueger (USA)</t>
+  </si>
+  <si>
+    <t>6-3, 5-7, 6-3</t>
+  </si>
+  <si>
+    <t>1-6 6-4 6-0</t>
+  </si>
+  <si>
+    <t>1-6 6-4 6-4</t>
+  </si>
+  <si>
+    <t>Magdalena Frech (POLAND)</t>
   </si>
 </sst>
 </file>
@@ -2400,7 +2430,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2514,7 +2544,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3037,7 +3067,7 @@
                   <c:v>0.74545454545454548</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4829,7 +4859,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4949,8 +4979,8 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6070,10 +6100,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E76" activeCellId="11" sqref="E6 E16 E20 E23 E26 E33 E40 E46 E49 E53 E57 E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6514,7 +6544,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>676</v>
+        <v>384</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
@@ -6523,7 +6553,7 @@
         <v>165</v>
       </c>
       <c r="D35" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>136</v>
@@ -6557,7 +6587,7 @@
         <v>136</v>
       </c>
       <c r="F37" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -6613,7 +6643,7 @@
         <v>164</v>
       </c>
       <c r="D42" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>136</v>
@@ -6627,7 +6657,7 @@
         <v>165</v>
       </c>
       <c r="D43" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>136</v>
@@ -6647,7 +6677,7 @@
         <v>136</v>
       </c>
       <c r="F44" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6675,12 +6705,12 @@
         <v>129</v>
       </c>
       <c r="F46" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B48" t="s">
         <v>90</v>
@@ -6698,7 +6728,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>141</v>
       </c>
@@ -6709,7 +6739,421 @@
         <v>129</v>
       </c>
       <c r="F49" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>312</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" t="s">
+        <v>637</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" t="s">
         <v>684</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" t="s">
+        <v>486</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" t="s">
+        <v>627</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F53" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>413</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" t="s">
+        <v>685</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" t="s">
+        <v>454</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" t="s">
+        <v>455</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>315</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" t="s">
+        <v>686</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" t="s">
+        <v>433</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" t="s">
+        <v>158</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62" t="s">
+        <v>579</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" t="s">
+        <v>518</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>238</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" t="s">
+        <v>342</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" t="s">
+        <v>658</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>127</v>
+      </c>
+      <c r="D67" t="s">
+        <v>285</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" t="s">
+        <v>168</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69" t="s">
+        <v>654</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>150</v>
+      </c>
+      <c r="D70" t="s">
+        <v>666</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>157</v>
+      </c>
+      <c r="D71" t="s">
+        <v>518</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>326</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>165</v>
+      </c>
+      <c r="D73" t="s">
+        <v>688</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>127</v>
+      </c>
+      <c r="D74" t="s">
+        <v>690</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" t="s">
+        <v>411</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>141</v>
+      </c>
+      <c r="D76" t="s">
+        <v>497</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F76" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>432</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
+        <v>127</v>
+      </c>
+      <c r="D78" t="s">
+        <v>522</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>133</v>
+      </c>
+      <c r="D79" t="s">
+        <v>499</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F79" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>141</v>
+      </c>
+      <c r="D80" t="s">
+        <v>694</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>150</v>
+      </c>
+      <c r="D81" t="s">
+        <v>514</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F81" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>157</v>
+      </c>
+      <c r="D82" t="s">
+        <v>654</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F82" t="s">
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -6974,20 +7418,20 @@
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6996,23 +7440,23 @@
       </c>
       <c r="B13" s="3">
         <f>SUM(B2:B12)</f>
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C13" s="3">
         <f>SUM(C2:C12)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3">
         <f>SUM(D2:D12)</f>
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="E13" s="3">
         <f>SUM(E2:E12)</f>
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.54330708661417326</v>
+        <v>0.562962962962963</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7021,23 +7465,23 @@
       </c>
       <c r="B14" s="3">
         <f>AVERAGE(B2:B12)</f>
-        <v>17.636363636363637</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="C14" s="3">
         <f>AVERAGE(C2:C12)</f>
-        <v>1.2727272727272727</v>
+        <v>1.5454545454545454</v>
       </c>
       <c r="D14" s="3">
         <f>AVERAGE(D2:D12)</f>
-        <v>34.636363636363633</v>
+        <v>36.81818181818182</v>
       </c>
       <c r="E14" s="3">
         <f>AVERAGE(E2:E12)</f>
-        <v>15.818181818181818</v>
+        <v>16.09090909090909</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="2"/>
-        <v>0.54330708661417315</v>
+        <v>0.562962962962963</v>
       </c>
     </row>
   </sheetData>
@@ -7063,7 +7507,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7788,7 +8232,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8602,7 +9046,7 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9656,7 +10100,7 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10918,7 +11362,7 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11963,7 +12407,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12628,7 +13072,7 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13671,7 +14115,7 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3462" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1A01AE1-F8E9-4405-BF8D-5D3F469BF3EE}"/>
+  <xr:revisionPtr revIDLastSave="3563" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B1DA8BE-B9E4-4961-A0D2-4BD0AFFD06C8}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1635" yWindow="5595" windowWidth="8625" windowHeight="15285" firstSheet="4" activeTab="11" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" firstSheet="1" activeTab="11" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="10" r:id="rId1"/>
@@ -24,9 +24,10 @@
     <sheet name="2022" sheetId="8" r:id="rId9"/>
     <sheet name="2023" sheetId="12" r:id="rId10"/>
     <sheet name="2024" sheetId="15" r:id="rId11"/>
-    <sheet name="Stats" sheetId="9" r:id="rId12"/>
-    <sheet name="Wins-Losses" sheetId="16" r:id="rId13"/>
-    <sheet name="Winning Percentile Range" sheetId="17" r:id="rId14"/>
+    <sheet name="2025" sheetId="18" r:id="rId12"/>
+    <sheet name="Stats" sheetId="9" r:id="rId13"/>
+    <sheet name="Wins-Losses" sheetId="19" r:id="rId14"/>
+    <sheet name="Winning Percentile Range" sheetId="20" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="698">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -861,9 +862,6 @@
     <t>3-6 7-6(6) 6-4</t>
   </si>
   <si>
-    <t>DUBAI TENNIS CHAMPIONSHIPS</t>
-  </si>
-  <si>
     <t>Lyudmyla Kichenok (UKRAINE)</t>
   </si>
   <si>
@@ -2058,9 +2056,6 @@
     <t>6-4 1-6 6-1</t>
   </si>
   <si>
-    <t>7-6(4  4-6 3-3 RETIRED</t>
-  </si>
-  <si>
     <t>6-3 6-3 7-5</t>
   </si>
   <si>
@@ -2124,9 +2119,6 @@
     <t>Ashlyn Krueger (USA)</t>
   </si>
   <si>
-    <t>6-3, 5-7, 6-3</t>
-  </si>
-  <si>
     <t>1-6 6-4 6-0</t>
   </si>
   <si>
@@ -2134,6 +2126,24 @@
   </si>
   <si>
     <t>Magdalena Frech (POLAND)</t>
+  </si>
+  <si>
+    <t>6-3 5-7 6-3</t>
+  </si>
+  <si>
+    <t>7-6(4) 6-3</t>
+  </si>
+  <si>
+    <t>DUBAI OPEN</t>
+  </si>
+  <si>
+    <t>Renata Zarazúa (MEXICO)</t>
+  </si>
+  <si>
+    <t>Polina Kudermetova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>7-6(4)  4-6 3-3 RETIRED</t>
   </si>
 </sst>
 </file>
@@ -2222,7 +2232,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2231,6 +2241,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2353,10 +2364,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$12</c:f>
+              <c:f>Stats!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2390,15 +2401,18 @@
                 <c:pt idx="10">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$D$2:$D$12</c:f>
+              <c:f>Stats!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2430,14 +2444,17 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54</c:v>
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EF8D-48FB-9190-B52FECB858A7}"/>
+              <c16:uniqueId val="{00000000-EB86-4834-A6BC-693DCA2ACE47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2467,10 +2484,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$12</c:f>
+              <c:f>Stats!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2504,15 +2521,18 @@
                 <c:pt idx="10">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$E$2:$E$12</c:f>
+              <c:f>Stats!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2544,14 +2564,17 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EF8D-48FB-9190-B52FECB858A7}"/>
+              <c16:uniqueId val="{00000001-EB86-4834-A6BC-693DCA2ACE47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2565,11 +2588,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="927252655"/>
-        <c:axId val="925344463"/>
+        <c:axId val="409057488"/>
+        <c:axId val="409061808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="927252655"/>
+        <c:axId val="409057488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2667,7 +2690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="925344463"/>
+        <c:crossAx val="409061808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2675,7 +2698,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="925344463"/>
+        <c:axId val="409061808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2716,7 +2739,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t>NUMBER OF MTACHES</a:t>
+                  <a:t>NUMBER OF MATCHES</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2781,7 +2804,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="927252655"/>
+        <c:crossAx val="409057488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2891,13 +2914,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Aryna</a:t>
+              <a:t>Aryna Sabalenka (BELARUS): Winning Percentile Range</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Sabalenka (BELARUS): Winning Percentile Range</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2990,10 +3008,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$12</c:f>
+              <c:f>Stats!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -3027,15 +3045,18 @@
                 <c:pt idx="10">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$F$2:$F$12</c:f>
+              <c:f>Stats!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-2</c:v>
                 </c:pt>
@@ -3067,7 +3088,10 @@
                   <c:v>0.74545454545454548</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.77777777777777779</c:v>
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3075,7 +3099,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D25E-4D59-8F58-354B4928A722}"/>
+              <c16:uniqueId val="{00000000-945C-4FAC-BFF8-73DFEEC078CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3089,11 +3113,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1009857455"/>
-        <c:axId val="929022975"/>
+        <c:axId val="1862937936"/>
+        <c:axId val="2018248672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1009857455"/>
+        <c:axId val="1862937936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3191,7 +3215,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="929022975"/>
+        <c:crossAx val="2018248672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3199,7 +3223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="929022975"/>
+        <c:axId val="2018248672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3305,7 +3329,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1009857455"/>
+        <c:crossAx val="1862937936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4467,10 +4491,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AAE3610B-DBCF-4DD5-A0D1-BF6FFAA494C2}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{047929A3-60B1-47F1-8EF2-27DF27F63981}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4479,10 +4503,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2854045E-8EF5-4D1B-B5EF-99AB45C18E91}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9A814184-F75B-4BD9-8837-A3D2C7882259}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4494,13 +4518,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8580504" cy="5835063"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB0F04EB-6165-E11E-3BDC-48ADC9307FEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ACDC6CF-F973-A273-7C33-EE174331015F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4527,13 +4551,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8580504" cy="5835063"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D3548BC-6D07-C84C-9554-99F97DE407D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{163A98EA-2E9E-33FE-03EA-6CBD5D2813F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4554,6 +4578,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4979,13 +5007,13 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
@@ -5181,7 +5209,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>270</v>
+        <v>694</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -5190,7 +5218,7 @@
         <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>136</v>
@@ -5204,13 +5232,13 @@
         <v>133</v>
       </c>
       <c r="D16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5218,18 +5246,18 @@
         <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -5252,7 +5280,7 @@
         <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>136</v>
@@ -5266,13 +5294,13 @@
         <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5280,7 +5308,7 @@
         <v>141</v>
       </c>
       <c r="D22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>136</v>
@@ -5294,7 +5322,7 @@
         <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>136</v>
@@ -5314,12 +5342,12 @@
         <v>129</v>
       </c>
       <c r="F24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -5342,13 +5370,13 @@
         <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5356,7 +5384,7 @@
         <v>133</v>
       </c>
       <c r="D28" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>136</v>
@@ -5370,7 +5398,7 @@
         <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>129</v>
@@ -5381,7 +5409,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -5390,7 +5418,7 @@
         <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>136</v>
@@ -5404,13 +5432,13 @@
         <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F32" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -5418,13 +5446,13 @@
         <v>150</v>
       </c>
       <c r="D33" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -5432,7 +5460,7 @@
         <v>157</v>
       </c>
       <c r="D34" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>129</v>
@@ -5443,7 +5471,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
@@ -5452,7 +5480,7 @@
         <v>165</v>
       </c>
       <c r="D36" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>136</v>
@@ -5466,7 +5494,7 @@
         <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>136</v>
@@ -5480,7 +5508,7 @@
         <v>133</v>
       </c>
       <c r="D38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>136</v>
@@ -5494,7 +5522,7 @@
         <v>141</v>
       </c>
       <c r="D39" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>136</v>
@@ -5508,7 +5536,7 @@
         <v>150</v>
       </c>
       <c r="D40" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>136</v>
@@ -5522,18 +5550,18 @@
         <v>157</v>
       </c>
       <c r="D41" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F41" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
@@ -5542,18 +5570,18 @@
         <v>165</v>
       </c>
       <c r="D43" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F43" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B45" t="s">
         <v>18</v>
@@ -5562,7 +5590,7 @@
         <v>164</v>
       </c>
       <c r="D45" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>136</v>
@@ -5576,7 +5604,7 @@
         <v>165</v>
       </c>
       <c r="D46" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>136</v>
@@ -5590,7 +5618,7 @@
         <v>127</v>
       </c>
       <c r="D47" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>136</v>
@@ -5604,7 +5632,7 @@
         <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>136</v>
@@ -5618,7 +5646,7 @@
         <v>141</v>
       </c>
       <c r="D49" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>136</v>
@@ -5632,18 +5660,18 @@
         <v>150</v>
       </c>
       <c r="D50" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F50" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B52" t="s">
         <v>90</v>
@@ -5652,7 +5680,7 @@
         <v>127</v>
       </c>
       <c r="D52" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>136</v>
@@ -5672,12 +5700,12 @@
         <v>129</v>
       </c>
       <c r="F53" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B55" t="s">
         <v>90</v>
@@ -5686,7 +5714,7 @@
         <v>164</v>
       </c>
       <c r="D55" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>136</v>
@@ -5700,13 +5728,13 @@
         <v>165</v>
       </c>
       <c r="D56" t="s">
+        <v>642</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" t="s">
         <v>643</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F56" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -5714,7 +5742,7 @@
         <v>127</v>
       </c>
       <c r="D57" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>136</v>
@@ -5728,7 +5756,7 @@
         <v>133</v>
       </c>
       <c r="D58" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>136</v>
@@ -5742,7 +5770,7 @@
         <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>136</v>
@@ -5756,18 +5784,18 @@
         <v>150</v>
       </c>
       <c r="D60" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F60" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -5776,13 +5804,13 @@
         <v>127</v>
       </c>
       <c r="D62" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F62" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -5796,12 +5824,12 @@
         <v>129</v>
       </c>
       <c r="F63" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
@@ -5810,13 +5838,13 @@
         <v>127</v>
       </c>
       <c r="D65" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F65" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -5824,13 +5852,13 @@
         <v>133</v>
       </c>
       <c r="D66" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F66" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -5838,7 +5866,7 @@
         <v>141</v>
       </c>
       <c r="D67" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>136</v>
@@ -5852,13 +5880,13 @@
         <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -5872,7 +5900,7 @@
         <v>164</v>
       </c>
       <c r="D70" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>136</v>
@@ -5886,7 +5914,7 @@
         <v>165</v>
       </c>
       <c r="D71" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>136</v>
@@ -5900,7 +5928,7 @@
         <v>127</v>
       </c>
       <c r="D72" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>136</v>
@@ -5914,7 +5942,7 @@
         <v>133</v>
       </c>
       <c r="D73" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>136</v>
@@ -5928,7 +5956,7 @@
         <v>141</v>
       </c>
       <c r="D74" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>136</v>
@@ -5942,13 +5970,13 @@
         <v>150</v>
       </c>
       <c r="D75" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F75" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -5956,18 +5984,18 @@
         <v>157</v>
       </c>
       <c r="D76" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F76" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B78" t="s">
         <v>14</v>
@@ -5976,13 +6004,13 @@
         <v>165</v>
       </c>
       <c r="D78" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F78" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -5990,13 +6018,13 @@
         <v>127</v>
       </c>
       <c r="D79" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F79" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -6004,13 +6032,13 @@
         <v>133</v>
       </c>
       <c r="D80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F80" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -6029,16 +6057,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B83" t="s">
         <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D83" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>136</v>
@@ -6049,10 +6077,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D84" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>129</v>
@@ -6063,7 +6091,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D85" t="s">
         <v>172</v>
@@ -6072,7 +6100,7 @@
         <v>136</v>
       </c>
       <c r="F85" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -6080,7 +6108,7 @@
         <v>150</v>
       </c>
       <c r="D86" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>129</v>
@@ -6100,20 +6128,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E76" activeCellId="11" sqref="E6 E16 E20 E23 E26 E33 E40 E46 E49 E53 E57 E76"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6138,7 +6166,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -6147,13 +6175,13 @@
         <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6161,7 +6189,7 @@
         <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>136</v>
@@ -6175,7 +6203,7 @@
         <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>136</v>
@@ -6189,7 +6217,7 @@
         <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>136</v>
@@ -6209,7 +6237,7 @@
         <v>129</v>
       </c>
       <c r="F6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6223,7 +6251,7 @@
         <v>164</v>
       </c>
       <c r="D8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>136</v>
@@ -6237,7 +6265,7 @@
         <v>165</v>
       </c>
       <c r="D9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>136</v>
@@ -6251,7 +6279,7 @@
         <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>136</v>
@@ -6265,7 +6293,7 @@
         <v>133</v>
       </c>
       <c r="D11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>136</v>
@@ -6279,7 +6307,7 @@
         <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>136</v>
@@ -6293,13 +6321,13 @@
         <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F13" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6307,7 +6335,7 @@
         <v>157</v>
       </c>
       <c r="D14" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>136</v>
@@ -6318,7 +6346,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>270</v>
+        <v>694</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -6333,12 +6361,12 @@
         <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -6347,13 +6375,13 @@
         <v>165</v>
       </c>
       <c r="D18" t="s">
+        <v>662</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" t="s">
         <v>663</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -6361,7 +6389,7 @@
         <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>136</v>
@@ -6375,7 +6403,7 @@
         <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>129</v>
@@ -6386,7 +6414,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -6395,7 +6423,7 @@
         <v>165</v>
       </c>
       <c r="D22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>136</v>
@@ -6409,18 +6437,18 @@
         <v>127</v>
       </c>
       <c r="D23" t="s">
+        <v>666</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" t="s">
         <v>667</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -6429,13 +6457,13 @@
         <v>133</v>
       </c>
       <c r="D25" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>669</v>
+        <v>697</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -6449,12 +6477,12 @@
         <v>129</v>
       </c>
       <c r="F26" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
@@ -6469,7 +6497,7 @@
         <v>136</v>
       </c>
       <c r="F28" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6477,13 +6505,13 @@
         <v>127</v>
       </c>
       <c r="D29" t="s">
+        <v>669</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" t="s">
         <v>671</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6491,7 +6519,7 @@
         <v>133</v>
       </c>
       <c r="D30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>136</v>
@@ -6505,7 +6533,7 @@
         <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>136</v>
@@ -6525,7 +6553,7 @@
         <v>136</v>
       </c>
       <c r="F32" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -6533,18 +6561,18 @@
         <v>157</v>
       </c>
       <c r="D33" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F33" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
@@ -6553,13 +6581,13 @@
         <v>165</v>
       </c>
       <c r="D35" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F35" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6567,7 +6595,7 @@
         <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>136</v>
@@ -6581,13 +6609,13 @@
         <v>133</v>
       </c>
       <c r="D37" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F37" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -6595,7 +6623,7 @@
         <v>141</v>
       </c>
       <c r="D38" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>136</v>
@@ -6609,7 +6637,7 @@
         <v>150</v>
       </c>
       <c r="D39" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>136</v>
@@ -6623,7 +6651,7 @@
         <v>157</v>
       </c>
       <c r="D40" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>129</v>
@@ -6634,7 +6662,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B42" t="s">
         <v>18</v>
@@ -6643,13 +6671,13 @@
         <v>164</v>
       </c>
       <c r="D42" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F42" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -6657,7 +6685,7 @@
         <v>165</v>
       </c>
       <c r="D43" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>136</v>
@@ -6671,13 +6699,13 @@
         <v>127</v>
       </c>
       <c r="D44" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F44" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6685,7 +6713,7 @@
         <v>133</v>
       </c>
       <c r="D45" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>136</v>
@@ -6699,18 +6727,18 @@
         <v>141</v>
       </c>
       <c r="D46" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F46" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B48" t="s">
         <v>90</v>
@@ -6719,7 +6747,7 @@
         <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>136</v>
@@ -6739,12 +6767,12 @@
         <v>129</v>
       </c>
       <c r="F49" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
@@ -6753,13 +6781,13 @@
         <v>133</v>
       </c>
       <c r="D51" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F51" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6767,7 +6795,7 @@
         <v>141</v>
       </c>
       <c r="D52" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>136</v>
@@ -6781,18 +6809,18 @@
         <v>150</v>
       </c>
       <c r="D53" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F53" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
@@ -6801,7 +6829,7 @@
         <v>127</v>
       </c>
       <c r="D55" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>136</v>
@@ -6815,7 +6843,7 @@
         <v>133</v>
       </c>
       <c r="D56" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>136</v>
@@ -6829,7 +6857,7 @@
         <v>141</v>
       </c>
       <c r="D57" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>129</v>
@@ -6840,7 +6868,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
@@ -6849,7 +6877,7 @@
         <v>127</v>
       </c>
       <c r="D59" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>136</v>
@@ -6863,7 +6891,7 @@
         <v>133</v>
       </c>
       <c r="D60" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>136</v>
@@ -6891,7 +6919,7 @@
         <v>150</v>
       </c>
       <c r="D62" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>136</v>
@@ -6905,7 +6933,7 @@
         <v>157</v>
       </c>
       <c r="D63" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>136</v>
@@ -6925,7 +6953,7 @@
         <v>164</v>
       </c>
       <c r="D65" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>136</v>
@@ -6939,7 +6967,7 @@
         <v>165</v>
       </c>
       <c r="D66" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>136</v>
@@ -6953,7 +6981,7 @@
         <v>127</v>
       </c>
       <c r="D67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>136</v>
@@ -6981,13 +7009,13 @@
         <v>141</v>
       </c>
       <c r="D69" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F69" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -6995,13 +7023,13 @@
         <v>150</v>
       </c>
       <c r="D70" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -7009,18 +7037,18 @@
         <v>157</v>
       </c>
       <c r="D71" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F71" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
@@ -7029,7 +7057,7 @@
         <v>165</v>
       </c>
       <c r="D73" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>136</v>
@@ -7043,7 +7071,7 @@
         <v>127</v>
       </c>
       <c r="D74" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>136</v>
@@ -7057,7 +7085,7 @@
         <v>133</v>
       </c>
       <c r="D75" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>136</v>
@@ -7071,18 +7099,18 @@
         <v>141</v>
       </c>
       <c r="D76" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F76" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B78" t="s">
         <v>14</v>
@@ -7091,7 +7119,7 @@
         <v>127</v>
       </c>
       <c r="D78" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>136</v>
@@ -7105,13 +7133,13 @@
         <v>133</v>
       </c>
       <c r="D79" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F79" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -7119,7 +7147,7 @@
         <v>141</v>
       </c>
       <c r="D80" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>136</v>
@@ -7128,32 +7156,97 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>150</v>
       </c>
       <c r="D81" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F81" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>157</v>
       </c>
       <c r="D82" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F82" t="s">
-        <v>691</v>
+        <v>692</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" t="s">
+        <v>446</v>
+      </c>
+      <c r="D84" t="s">
+        <v>304</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="8"/>
+      <c r="C85" t="s">
+        <v>446</v>
+      </c>
+      <c r="D85" t="s">
+        <v>653</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="C86" t="s">
+        <v>446</v>
+      </c>
+      <c r="D86" t="s">
+        <v>172</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F86" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="C87" t="s">
+        <v>150</v>
+      </c>
+      <c r="D87" t="s">
+        <v>513</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F87" t="s">
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -7163,14 +7256,137 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CE301A-08B4-4512-8C32-315D51B1B83E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>695</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" t="s">
+        <v>498</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" t="s">
+        <v>626</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" t="s">
+        <v>633</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" t="s">
+        <v>696</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE4EC6-9F9F-4F32-B740-030390455317}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A13 F1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7409,7 +7625,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" ref="F11:F12" si="1">(D11-E11)/D11</f>
+        <f t="shared" ref="F11:F13" si="1">(D11-E11)/D11</f>
         <v>0.74545454545454548</v>
       </c>
     </row>
@@ -7418,74 +7634,95 @@
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>0.77777777777777779</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <f>SUM(B2:B12)</f>
-        <v>200</v>
-      </c>
-      <c r="C13" s="3">
-        <f>SUM(C2:C12)</f>
-        <v>17</v>
-      </c>
-      <c r="D13" s="3">
-        <f>SUM(D2:D12)</f>
-        <v>405</v>
-      </c>
-      <c r="E13" s="3">
-        <f>SUM(E2:E12)</f>
-        <v>177</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.562962962962963</v>
+      <c r="A13">
+        <v>2025</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <f>SUM(B2:B13)</f>
+        <v>202</v>
+      </c>
+      <c r="C14" s="3">
+        <f>SUM(C2:C13)</f>
+        <v>18</v>
+      </c>
+      <c r="D14" s="3">
+        <f>SUM(D2:D13)</f>
+        <v>412</v>
+      </c>
+      <c r="E14" s="3">
+        <f>SUM(E2:E13)</f>
+        <v>179</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" ref="F14:F15" si="2">(D14-E14)/D14</f>
+        <v>0.56553398058252424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
-        <f>AVERAGE(B2:B12)</f>
-        <v>18.181818181818183</v>
-      </c>
-      <c r="C14" s="3">
-        <f>AVERAGE(C2:C12)</f>
-        <v>1.5454545454545454</v>
-      </c>
-      <c r="D14" s="3">
-        <f>AVERAGE(D2:D12)</f>
-        <v>36.81818181818182</v>
-      </c>
-      <c r="E14" s="3">
-        <f>AVERAGE(E2:E12)</f>
-        <v>16.09090909090909</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="B15" s="3">
+        <f>AVERAGE(B2:B13)</f>
+        <v>16.833333333333332</v>
+      </c>
+      <c r="C15" s="3">
+        <f>AVERAGE(C2:C13)</f>
+        <v>1.5</v>
+      </c>
+      <c r="D15" s="3">
+        <f>AVERAGE(D2:D13)</f>
+        <v>34.333333333333336</v>
+      </c>
+      <c r="E15" s="3">
+        <f>AVERAGE(E2:E13)</f>
+        <v>14.916666666666666</v>
+      </c>
+      <c r="F15" s="4">
         <f t="shared" si="2"/>
-        <v>0.562962962962963</v>
+        <v>0.56553398058252435</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F12">
+  <conditionalFormatting sqref="F2:F13">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -8231,7 +8468,7 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9163,7 +9400,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>270</v>
+        <v>694</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -9172,7 +9409,7 @@
         <v>215</v>
       </c>
       <c r="D10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>136</v>
@@ -9186,7 +9423,7 @@
         <v>216</v>
       </c>
       <c r="D11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>136</v>
@@ -9200,7 +9437,7 @@
         <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>129</v>
@@ -9211,7 +9448,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -9220,7 +9457,7 @@
         <v>215</v>
       </c>
       <c r="D14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>129</v>
@@ -9231,7 +9468,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -9240,18 +9477,18 @@
         <v>127</v>
       </c>
       <c r="D16" t="s">
+        <v>276</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" t="s">
         <v>277</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -9260,7 +9497,7 @@
         <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>136</v>
@@ -9274,7 +9511,7 @@
         <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>136</v>
@@ -9288,7 +9525,7 @@
         <v>141</v>
       </c>
       <c r="D20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>136</v>
@@ -9302,13 +9539,13 @@
         <v>150</v>
       </c>
       <c r="D21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -9316,7 +9553,7 @@
         <v>157</v>
       </c>
       <c r="D22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>129</v>
@@ -9327,7 +9564,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -9336,7 +9573,7 @@
         <v>215</v>
       </c>
       <c r="D24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>136</v>
@@ -9367,24 +9604,24 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -9409,7 +9646,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
@@ -9418,7 +9655,7 @@
         <v>127</v>
       </c>
       <c r="D32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>129</v>
@@ -9429,7 +9666,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
@@ -9438,7 +9675,7 @@
         <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>136</v>
@@ -9452,7 +9689,7 @@
         <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>136</v>
@@ -9466,7 +9703,7 @@
         <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>129</v>
@@ -9477,7 +9714,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s">
         <v>18</v>
@@ -9497,7 +9734,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B40" t="s">
         <v>90</v>
@@ -9506,7 +9743,7 @@
         <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>136</v>
@@ -9520,7 +9757,7 @@
         <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>136</v>
@@ -9534,7 +9771,7 @@
         <v>141</v>
       </c>
       <c r="D42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>136</v>
@@ -9548,7 +9785,7 @@
         <v>150</v>
       </c>
       <c r="D43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>129</v>
@@ -9559,7 +9796,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B45" t="s">
         <v>90</v>
@@ -9568,7 +9805,7 @@
         <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>129</v>
@@ -9579,7 +9816,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B47" t="s">
         <v>90</v>
@@ -9588,7 +9825,7 @@
         <v>215</v>
       </c>
       <c r="D47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>136</v>
@@ -9602,7 +9839,7 @@
         <v>216</v>
       </c>
       <c r="D48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>136</v>
@@ -9613,10 +9850,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D49" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>136</v>
@@ -9644,7 +9881,7 @@
         <v>165</v>
       </c>
       <c r="D51" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>129</v>
@@ -9655,7 +9892,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
@@ -9664,13 +9901,13 @@
         <v>127</v>
       </c>
       <c r="D53" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F53" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -9678,7 +9915,7 @@
         <v>133</v>
       </c>
       <c r="D54" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>129</v>
@@ -9689,7 +9926,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
@@ -9698,7 +9935,7 @@
         <v>215</v>
       </c>
       <c r="D56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>136</v>
@@ -9732,7 +9969,7 @@
         <v>215</v>
       </c>
       <c r="D59" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>129</v>
@@ -9743,7 +9980,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -9780,7 +10017,7 @@
         <v>141</v>
       </c>
       <c r="D63" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>129</v>
@@ -9791,7 +10028,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
@@ -9806,7 +10043,7 @@
         <v>136</v>
       </c>
       <c r="F65" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -9814,7 +10051,7 @@
         <v>133</v>
       </c>
       <c r="D66" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>136</v>
@@ -9828,13 +10065,13 @@
         <v>141</v>
       </c>
       <c r="D67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F67" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -9842,18 +10079,18 @@
         <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -9862,7 +10099,7 @@
         <v>215</v>
       </c>
       <c r="D70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>129</v>
@@ -9873,7 +10110,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
@@ -9882,7 +10119,7 @@
         <v>127</v>
       </c>
       <c r="D72" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>136</v>
@@ -9896,7 +10133,7 @@
         <v>133</v>
       </c>
       <c r="D73" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>136</v>
@@ -9910,13 +10147,13 @@
         <v>141</v>
       </c>
       <c r="D74" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F74" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -9924,7 +10161,7 @@
         <v>150</v>
       </c>
       <c r="D75" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>136</v>
@@ -9938,13 +10175,13 @@
         <v>157</v>
       </c>
       <c r="D76" t="s">
+        <v>331</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F76" t="s">
         <v>332</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F76" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -9955,29 +10192,29 @@
         <v>14</v>
       </c>
       <c r="D78" t="s">
+        <v>334</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F78" t="s">
         <v>335</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F78" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
+        <v>336</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F79" t="s">
         <v>337</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F79" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B81" t="s">
         <v>14</v>
@@ -9986,7 +10223,7 @@
         <v>127</v>
       </c>
       <c r="D81" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>136</v>
@@ -10000,7 +10237,7 @@
         <v>133</v>
       </c>
       <c r="D82" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>129</v>
@@ -10011,7 +10248,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B84" t="s">
         <v>14</v>
@@ -10020,7 +10257,7 @@
         <v>127</v>
       </c>
       <c r="D84" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>136</v>
@@ -10034,7 +10271,7 @@
         <v>133</v>
       </c>
       <c r="D85" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>136</v>
@@ -10048,7 +10285,7 @@
         <v>141</v>
       </c>
       <c r="D86" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>136</v>
@@ -10062,7 +10299,7 @@
         <v>150</v>
       </c>
       <c r="D87" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>136</v>
@@ -10076,13 +10313,13 @@
         <v>157</v>
       </c>
       <c r="D88" t="s">
+        <v>344</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F88" t="s">
         <v>345</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F88" t="s">
-        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -10099,13 +10336,13 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
@@ -10135,7 +10372,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -10144,13 +10381,13 @@
         <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -10158,13 +10395,13 @@
         <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -10172,18 +10409,18 @@
         <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -10192,7 +10429,7 @@
         <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>136</v>
@@ -10212,7 +10449,7 @@
         <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -10220,7 +10457,7 @@
         <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>129</v>
@@ -10240,13 +10477,13 @@
         <v>164</v>
       </c>
       <c r="D10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -10257,29 +10494,29 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
+        <v>357</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" t="s">
         <v>358</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>270</v>
+        <v>694</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -10288,7 +10525,7 @@
         <v>215</v>
       </c>
       <c r="D15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>136</v>
@@ -10302,7 +10539,7 @@
         <v>216</v>
       </c>
       <c r="D16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>136</v>
@@ -10313,10 +10550,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>129</v>
@@ -10327,7 +10564,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -10336,13 +10573,13 @@
         <v>164</v>
       </c>
       <c r="D19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -10350,7 +10587,7 @@
         <v>165</v>
       </c>
       <c r="D20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>136</v>
@@ -10375,7 +10612,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -10384,13 +10621,13 @@
         <v>164</v>
       </c>
       <c r="D23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -10398,18 +10635,18 @@
         <v>165</v>
       </c>
       <c r="D24" t="s">
+        <v>367</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" t="s">
         <v>368</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
@@ -10424,7 +10661,7 @@
         <v>136</v>
       </c>
       <c r="F26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -10432,13 +10669,13 @@
         <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -10446,13 +10683,13 @@
         <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F28" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -10460,7 +10697,7 @@
         <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>136</v>
@@ -10480,7 +10717,7 @@
         <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -10491,29 +10728,29 @@
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
@@ -10522,7 +10759,7 @@
         <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>129</v>
@@ -10533,7 +10770,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B37" t="s">
         <v>18</v>
@@ -10542,7 +10779,7 @@
         <v>215</v>
       </c>
       <c r="D37" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>136</v>
@@ -10556,7 +10793,7 @@
         <v>216</v>
       </c>
       <c r="D38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>136</v>
@@ -10570,18 +10807,18 @@
         <v>165</v>
       </c>
       <c r="D39" t="s">
+        <v>381</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" t="s">
         <v>382</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F39" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B41" t="s">
         <v>18</v>
@@ -10590,7 +10827,7 @@
         <v>215</v>
       </c>
       <c r="D41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>136</v>
@@ -10604,13 +10841,13 @@
         <v>216</v>
       </c>
       <c r="D42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -10618,18 +10855,18 @@
         <v>165</v>
       </c>
       <c r="D43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B45" t="s">
         <v>18</v>
@@ -10649,7 +10886,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B47" t="s">
         <v>90</v>
@@ -10664,7 +10901,7 @@
         <v>136</v>
       </c>
       <c r="F47" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -10672,7 +10909,7 @@
         <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>136</v>
@@ -10686,18 +10923,18 @@
         <v>141</v>
       </c>
       <c r="D49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F49" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B51" t="s">
         <v>90</v>
@@ -10706,18 +10943,18 @@
         <v>127</v>
       </c>
       <c r="D51" t="s">
+        <v>393</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" t="s">
         <v>394</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F51" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B53" t="s">
         <v>90</v>
@@ -10726,13 +10963,13 @@
         <v>165</v>
       </c>
       <c r="D53" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -10740,13 +10977,13 @@
         <v>127</v>
       </c>
       <c r="D54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -10760,7 +10997,7 @@
         <v>136</v>
       </c>
       <c r="F55" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -10768,13 +11005,13 @@
         <v>141</v>
       </c>
       <c r="D56" t="s">
+        <v>401</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" t="s">
         <v>402</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F56" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -10782,13 +11019,13 @@
         <v>150</v>
       </c>
       <c r="D57" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F57" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -10796,18 +11033,18 @@
         <v>157</v>
       </c>
       <c r="D58" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F58" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B60" t="s">
         <v>90</v>
@@ -10827,7 +11064,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -10836,7 +11073,7 @@
         <v>215</v>
       </c>
       <c r="D62" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>129</v>
@@ -10847,7 +11084,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
@@ -10856,13 +11093,13 @@
         <v>165</v>
       </c>
       <c r="D64" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -10870,7 +11107,7 @@
         <v>127</v>
       </c>
       <c r="D65" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>136</v>
@@ -10890,12 +11127,12 @@
         <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
@@ -10904,13 +11141,13 @@
         <v>165</v>
       </c>
       <c r="D68" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F68" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -10918,13 +11155,13 @@
         <v>127</v>
       </c>
       <c r="D69" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F69" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -10932,13 +11169,13 @@
         <v>133</v>
       </c>
       <c r="D70" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -10946,13 +11183,13 @@
         <v>141</v>
       </c>
       <c r="D71" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F71" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -10960,18 +11197,18 @@
         <v>150</v>
       </c>
       <c r="D72" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F72" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
@@ -10980,13 +11217,13 @@
         <v>127</v>
       </c>
       <c r="D74" t="s">
+        <v>419</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F74" t="s">
         <v>420</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F74" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -10994,13 +11231,13 @@
         <v>133</v>
       </c>
       <c r="D75" t="s">
+        <v>421</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" t="s">
         <v>422</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F75" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -11014,7 +11251,7 @@
         <v>136</v>
       </c>
       <c r="F76" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -11022,13 +11259,13 @@
         <v>150</v>
       </c>
       <c r="D77" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F77" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -11036,13 +11273,13 @@
         <v>157</v>
       </c>
       <c r="D78" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F78" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -11056,7 +11293,7 @@
         <v>164</v>
       </c>
       <c r="D80" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>136</v>
@@ -11070,13 +11307,13 @@
         <v>165</v>
       </c>
       <c r="D81" t="s">
+        <v>427</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F81" t="s">
         <v>428</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F81" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -11084,13 +11321,13 @@
         <v>127</v>
       </c>
       <c r="D82" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F82" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -11098,18 +11335,18 @@
         <v>133</v>
       </c>
       <c r="D83" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F83" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B85" t="s">
         <v>14</v>
@@ -11118,7 +11355,7 @@
         <v>127</v>
       </c>
       <c r="D85" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>129</v>
@@ -11129,7 +11366,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B87" t="s">
         <v>14</v>
@@ -11138,13 +11375,13 @@
         <v>165</v>
       </c>
       <c r="D87" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F87" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -11152,13 +11389,13 @@
         <v>127</v>
       </c>
       <c r="D88" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F88" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -11166,13 +11403,13 @@
         <v>133</v>
       </c>
       <c r="D89" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F89" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -11180,13 +11417,13 @@
         <v>141</v>
       </c>
       <c r="D90" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -11194,13 +11431,13 @@
         <v>150</v>
       </c>
       <c r="D91" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F91" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -11208,18 +11445,18 @@
         <v>157</v>
       </c>
       <c r="D92" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F92" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B94" t="s">
         <v>14</v>
@@ -11228,7 +11465,7 @@
         <v>127</v>
       </c>
       <c r="D94" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>136</v>
@@ -11242,13 +11479,13 @@
         <v>133</v>
       </c>
       <c r="D95" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F95" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -11256,18 +11493,18 @@
         <v>141</v>
       </c>
       <c r="D96" t="s">
+        <v>441</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F96" t="s">
         <v>442</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F96" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B98" t="s">
         <v>14</v>
@@ -11276,7 +11513,7 @@
         <v>127</v>
       </c>
       <c r="D98" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>136</v>
@@ -11304,27 +11541,27 @@
         <v>141</v>
       </c>
       <c r="D100" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F100" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B102" t="s">
         <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D102" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>136</v>
@@ -11335,10 +11572,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D103" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>129</v>
@@ -11361,7 +11598,7 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11397,7 +11634,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -11406,13 +11643,13 @@
         <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -11420,13 +11657,13 @@
         <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -11434,13 +11671,13 @@
         <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -11448,7 +11685,7 @@
         <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>136</v>
@@ -11462,18 +11699,18 @@
         <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -11482,13 +11719,13 @@
         <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -11508,7 +11745,7 @@
         <v>136</v>
       </c>
       <c r="F10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -11516,13 +11753,13 @@
         <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -11530,13 +11767,13 @@
         <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -11550,7 +11787,7 @@
         <v>133</v>
       </c>
       <c r="D14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>136</v>
@@ -11564,13 +11801,13 @@
         <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -11584,7 +11821,7 @@
         <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -11595,29 +11832,29 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
+        <v>457</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" t="s">
         <v>458</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F19" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>694</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -11632,7 +11869,7 @@
         <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -11646,12 +11883,12 @@
         <v>129</v>
       </c>
       <c r="F22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -11660,13 +11897,13 @@
         <v>165</v>
       </c>
       <c r="D24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F24" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -11674,13 +11911,13 @@
         <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -11688,18 +11925,18 @@
         <v>133</v>
       </c>
       <c r="D26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -11708,18 +11945,18 @@
         <v>165</v>
       </c>
       <c r="D28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -11728,13 +11965,13 @@
         <v>127</v>
       </c>
       <c r="D30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -11742,7 +11979,7 @@
         <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>129</v>
@@ -11753,24 +11990,24 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F33" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>129</v>
@@ -11781,7 +12018,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
@@ -11790,7 +12027,7 @@
         <v>165</v>
       </c>
       <c r="D36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>129</v>
@@ -11801,7 +12038,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B38" t="s">
         <v>18</v>
@@ -11810,7 +12047,7 @@
         <v>165</v>
       </c>
       <c r="D38" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>129</v>
@@ -11821,7 +12058,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B40" t="s">
         <v>18</v>
@@ -11830,7 +12067,7 @@
         <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>136</v>
@@ -11844,7 +12081,7 @@
         <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>136</v>
@@ -11858,13 +12095,13 @@
         <v>141</v>
       </c>
       <c r="D42" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F42" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -11872,7 +12109,7 @@
         <v>150</v>
       </c>
       <c r="D43" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>129</v>
@@ -11883,7 +12120,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B45" t="s">
         <v>18</v>
@@ -11892,7 +12129,7 @@
         <v>164</v>
       </c>
       <c r="D45" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>136</v>
@@ -11906,7 +12143,7 @@
         <v>165</v>
       </c>
       <c r="D46" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>129</v>
@@ -11917,7 +12154,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B48" t="s">
         <v>90</v>
@@ -11926,18 +12163,18 @@
         <v>127</v>
       </c>
       <c r="D48" t="s">
+        <v>473</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" t="s">
         <v>474</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F48" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B50" t="s">
         <v>90</v>
@@ -11946,18 +12183,18 @@
         <v>127</v>
       </c>
       <c r="D50" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F50" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B52" t="s">
         <v>90</v>
@@ -11980,13 +12217,13 @@
         <v>133</v>
       </c>
       <c r="D53" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F53" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -12005,7 +12242,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B56" t="s">
         <v>90</v>
@@ -12014,7 +12251,7 @@
         <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>129</v>
@@ -12025,7 +12262,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
@@ -12034,7 +12271,7 @@
         <v>133</v>
       </c>
       <c r="D58" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>136</v>
@@ -12048,13 +12285,13 @@
         <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F59" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -12076,7 +12313,7 @@
         <v>157</v>
       </c>
       <c r="D61" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>129</v>
@@ -12087,7 +12324,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -12096,18 +12333,18 @@
         <v>165</v>
       </c>
       <c r="D63" t="s">
+        <v>480</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" t="s">
         <v>481</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F63" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
@@ -12116,7 +12353,7 @@
         <v>165</v>
       </c>
       <c r="D65" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>136</v>
@@ -12130,7 +12367,7 @@
         <v>127</v>
       </c>
       <c r="D66" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>136</v>
@@ -12144,13 +12381,13 @@
         <v>133</v>
       </c>
       <c r="D67" t="s">
+        <v>483</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F67" t="s">
         <v>484</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -12164,7 +12401,7 @@
         <v>164</v>
       </c>
       <c r="D69" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>136</v>
@@ -12178,18 +12415,18 @@
         <v>165</v>
       </c>
       <c r="D70" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
@@ -12198,13 +12435,13 @@
         <v>133</v>
       </c>
       <c r="D72" t="s">
+        <v>487</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>488</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F72" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -12212,18 +12449,18 @@
         <v>141</v>
       </c>
       <c r="D73" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F73" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
@@ -12232,13 +12469,13 @@
         <v>165</v>
       </c>
       <c r="D75" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F75" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -12246,7 +12483,7 @@
         <v>127</v>
       </c>
       <c r="D76" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>136</v>
@@ -12280,7 +12517,7 @@
         <v>136</v>
       </c>
       <c r="F78" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -12288,7 +12525,7 @@
         <v>150</v>
       </c>
       <c r="D79" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>136</v>
@@ -12302,18 +12539,18 @@
         <v>157</v>
       </c>
       <c r="D80" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F80" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B82" t="s">
         <v>14</v>
@@ -12322,7 +12559,7 @@
         <v>127</v>
       </c>
       <c r="D82" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>129</v>
@@ -12333,13 +12570,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B84" t="s">
         <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D84" t="s">
         <v>168</v>
@@ -12348,15 +12585,15 @@
         <v>136</v>
       </c>
       <c r="F84" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D85" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>136</v>
@@ -12370,13 +12607,13 @@
         <v>150</v>
       </c>
       <c r="D86" t="s">
+        <v>496</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F86" t="s">
         <v>497</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F86" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -12406,7 +12643,7 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12442,7 +12679,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -12451,13 +12688,13 @@
         <v>127</v>
       </c>
       <c r="D2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" t="s">
         <v>500</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -12465,7 +12702,7 @@
         <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>129</v>
@@ -12476,7 +12713,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -12485,13 +12722,13 @@
         <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -12499,13 +12736,13 @@
         <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -12513,7 +12750,7 @@
         <v>141</v>
       </c>
       <c r="D7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>136</v>
@@ -12527,13 +12764,13 @@
         <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -12547,13 +12784,13 @@
         <v>164</v>
       </c>
       <c r="D10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -12564,7 +12801,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>136</v>
@@ -12586,7 +12823,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>270</v>
+        <v>694</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -12595,13 +12832,13 @@
         <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -12623,18 +12860,18 @@
         <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -12643,13 +12880,13 @@
         <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -12657,13 +12894,13 @@
         <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -12671,13 +12908,13 @@
         <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -12685,7 +12922,7 @@
         <v>150</v>
       </c>
       <c r="D22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>136</v>
@@ -12699,7 +12936,7 @@
         <v>157</v>
       </c>
       <c r="D23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>136</v>
@@ -12710,7 +12947,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -12719,13 +12956,13 @@
         <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -12733,18 +12970,18 @@
         <v>133</v>
       </c>
       <c r="D26" t="s">
+        <v>513</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" t="s">
         <v>514</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -12753,13 +12990,13 @@
         <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F28" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -12767,7 +13004,7 @@
         <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>129</v>
@@ -12787,13 +13024,13 @@
         <v>164</v>
       </c>
       <c r="D31" t="s">
+        <v>523</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" t="s">
         <v>524</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F31" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -12801,18 +13038,18 @@
         <v>165</v>
       </c>
       <c r="D32" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F32" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
@@ -12821,7 +13058,7 @@
         <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>136</v>
@@ -12835,13 +13072,13 @@
         <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -12849,13 +13086,13 @@
         <v>141</v>
       </c>
       <c r="D36" t="s">
+        <v>521</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" t="s">
         <v>522</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F36" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -12863,7 +13100,7 @@
         <v>150</v>
       </c>
       <c r="D37" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>129</v>
@@ -12874,7 +13111,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s">
         <v>18</v>
@@ -12883,7 +13120,7 @@
         <v>164</v>
       </c>
       <c r="D39" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>136</v>
@@ -12897,7 +13134,7 @@
         <v>165</v>
       </c>
       <c r="D40" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>136</v>
@@ -12911,7 +13148,7 @@
         <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>129</v>
@@ -12922,7 +13159,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -12931,13 +13168,13 @@
         <v>133</v>
       </c>
       <c r="D43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F43" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -12945,13 +13182,13 @@
         <v>141</v>
       </c>
       <c r="D44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F44" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -12959,13 +13196,13 @@
         <v>150</v>
       </c>
       <c r="D45" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F45" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -12973,18 +13210,18 @@
         <v>157</v>
       </c>
       <c r="D46" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F46" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -12993,7 +13230,7 @@
         <v>127</v>
       </c>
       <c r="D48" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>136</v>
@@ -13007,13 +13244,13 @@
         <v>133</v>
       </c>
       <c r="D49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F49" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.25">
@@ -13021,13 +13258,13 @@
         <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F50" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.25">
@@ -13035,13 +13272,13 @@
         <v>150</v>
       </c>
       <c r="D51" t="s">
+        <v>535</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" t="s">
         <v>536</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F51" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.25">
@@ -13071,13 +13308,13 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
@@ -13107,7 +13344,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -13116,13 +13353,13 @@
         <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -13130,7 +13367,7 @@
         <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>136</v>
@@ -13144,7 +13381,7 @@
         <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>136</v>
@@ -13164,7 +13401,7 @@
         <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -13172,7 +13409,7 @@
         <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>136</v>
@@ -13197,7 +13434,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -13206,13 +13443,13 @@
         <v>127</v>
       </c>
       <c r="D9" t="s">
+        <v>541</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" t="s">
         <v>542</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -13226,13 +13463,13 @@
         <v>164</v>
       </c>
       <c r="D11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -13240,7 +13477,7 @@
         <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>136</v>
@@ -13254,7 +13491,7 @@
         <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>136</v>
@@ -13268,18 +13505,18 @@
         <v>133</v>
       </c>
       <c r="D14" t="s">
+        <v>545</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" t="s">
         <v>546</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -13288,18 +13525,18 @@
         <v>133</v>
       </c>
       <c r="D16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>270</v>
+        <v>694</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -13308,7 +13545,7 @@
         <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>136</v>
@@ -13322,7 +13559,7 @@
         <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>136</v>
@@ -13336,18 +13573,18 @@
         <v>141</v>
       </c>
       <c r="D20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -13356,13 +13593,13 @@
         <v>165</v>
       </c>
       <c r="D22" t="s">
+        <v>549</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" t="s">
         <v>550</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -13376,7 +13613,7 @@
         <v>136</v>
       </c>
       <c r="F23" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -13390,7 +13627,7 @@
         <v>136</v>
       </c>
       <c r="F24" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -13398,18 +13635,18 @@
         <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -13432,7 +13669,7 @@
         <v>133</v>
       </c>
       <c r="D28" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>136</v>
@@ -13446,13 +13683,13 @@
         <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F29" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -13460,7 +13697,7 @@
         <v>150</v>
       </c>
       <c r="D30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>136</v>
@@ -13474,18 +13711,18 @@
         <v>157</v>
       </c>
       <c r="D31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -13494,13 +13731,13 @@
         <v>165</v>
       </c>
       <c r="D33" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -13508,7 +13745,7 @@
         <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>136</v>
@@ -13522,13 +13759,13 @@
         <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F35" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -13542,7 +13779,7 @@
         <v>136</v>
       </c>
       <c r="F36" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -13550,7 +13787,7 @@
         <v>150</v>
       </c>
       <c r="D37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>136</v>
@@ -13564,18 +13801,18 @@
         <v>157</v>
       </c>
       <c r="D38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F38" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B40" t="s">
         <v>18</v>
@@ -13584,7 +13821,7 @@
         <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>136</v>
@@ -13598,7 +13835,7 @@
         <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>129</v>
@@ -13609,7 +13846,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
@@ -13618,7 +13855,7 @@
         <v>164</v>
       </c>
       <c r="D43" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>136</v>
@@ -13632,7 +13869,7 @@
         <v>165</v>
       </c>
       <c r="D44" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>136</v>
@@ -13646,18 +13883,18 @@
         <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F45" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B47" t="s">
         <v>90</v>
@@ -13666,18 +13903,18 @@
         <v>133</v>
       </c>
       <c r="D47" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F47" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B49" t="s">
         <v>90</v>
@@ -13686,7 +13923,7 @@
         <v>127</v>
       </c>
       <c r="D49" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>136</v>
@@ -13700,7 +13937,7 @@
         <v>133</v>
       </c>
       <c r="D50" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>136</v>
@@ -13714,18 +13951,18 @@
         <v>141</v>
       </c>
       <c r="D51" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F51" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B53" t="s">
         <v>90</v>
@@ -13734,7 +13971,7 @@
         <v>164</v>
       </c>
       <c r="D53" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>136</v>
@@ -13748,7 +13985,7 @@
         <v>165</v>
       </c>
       <c r="D54" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>136</v>
@@ -13762,13 +13999,13 @@
         <v>127</v>
       </c>
       <c r="D55" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F55" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -13782,7 +14019,7 @@
         <v>136</v>
       </c>
       <c r="F56" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -13790,7 +14027,7 @@
         <v>141</v>
       </c>
       <c r="D57" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>136</v>
@@ -13804,7 +14041,7 @@
         <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>129</v>
@@ -13815,7 +14052,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
@@ -13844,12 +14081,12 @@
         <v>129</v>
       </c>
       <c r="F61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -13858,13 +14095,13 @@
         <v>127</v>
       </c>
       <c r="D63" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F63" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -13872,7 +14109,7 @@
         <v>133</v>
       </c>
       <c r="D64" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>136</v>
@@ -13886,13 +14123,13 @@
         <v>141</v>
       </c>
       <c r="D65" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F65" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -13900,18 +14137,18 @@
         <v>150</v>
       </c>
       <c r="D66" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
@@ -13920,13 +14157,13 @@
         <v>127</v>
       </c>
       <c r="D68" t="s">
+        <v>571</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F68" t="s">
         <v>572</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F68" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -13946,7 +14183,7 @@
         <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -13968,7 +14205,7 @@
         <v>127</v>
       </c>
       <c r="D72" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>136</v>
@@ -13996,7 +14233,7 @@
         <v>141</v>
       </c>
       <c r="D74" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>136</v>
@@ -14010,13 +14247,13 @@
         <v>150</v>
       </c>
       <c r="D75" t="s">
+        <v>573</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F75" t="s">
         <v>574</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F75" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -14030,13 +14267,13 @@
         <v>133</v>
       </c>
       <c r="D77" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F77" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -14044,7 +14281,7 @@
         <v>141</v>
       </c>
       <c r="D78" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>129</v>
@@ -14055,50 +14292,50 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B80" t="s">
         <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D80" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F80" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D81" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F81" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D82" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F82" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -14120,7 +14357,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
@@ -14159,18 +14396,18 @@
         <v>133</v>
       </c>
       <c r="D2" t="s">
+        <v>581</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" t="s">
         <v>582</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -14179,13 +14416,13 @@
         <v>127</v>
       </c>
       <c r="D4" t="s">
+        <v>584</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" t="s">
         <v>585</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -14205,7 +14442,7 @@
         <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -14213,13 +14450,13 @@
         <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -14233,7 +14470,7 @@
         <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -14241,18 +14478,18 @@
         <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>270</v>
+        <v>694</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -14261,7 +14498,7 @@
         <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>136</v>
@@ -14275,7 +14512,7 @@
         <v>133</v>
       </c>
       <c r="D12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>129</v>
@@ -14286,7 +14523,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -14295,7 +14532,7 @@
         <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>136</v>
@@ -14309,7 +14546,7 @@
         <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>136</v>
@@ -14323,7 +14560,7 @@
         <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>129</v>
@@ -14334,7 +14571,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -14343,18 +14580,18 @@
         <v>165</v>
       </c>
       <c r="D18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -14374,7 +14611,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -14383,13 +14620,13 @@
         <v>127</v>
       </c>
       <c r="D22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -14397,18 +14634,18 @@
         <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -14417,13 +14654,13 @@
         <v>133</v>
       </c>
       <c r="D25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -14431,13 +14668,13 @@
         <v>141</v>
       </c>
       <c r="D26" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F26" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -14445,7 +14682,7 @@
         <v>150</v>
       </c>
       <c r="D27" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>136</v>
@@ -14459,7 +14696,7 @@
         <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>129</v>
@@ -14470,7 +14707,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -14479,18 +14716,18 @@
         <v>165</v>
       </c>
       <c r="D30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
@@ -14505,7 +14742,7 @@
         <v>136</v>
       </c>
       <c r="F32" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -14513,7 +14750,7 @@
         <v>133</v>
       </c>
       <c r="D33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>136</v>
@@ -14527,13 +14764,13 @@
         <v>141</v>
       </c>
       <c r="D34" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F34" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -14541,18 +14778,18 @@
         <v>150</v>
       </c>
       <c r="D35" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s">
         <v>18</v>
@@ -14561,13 +14798,13 @@
         <v>164</v>
       </c>
       <c r="D37" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F37" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -14575,7 +14812,7 @@
         <v>165</v>
       </c>
       <c r="D38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>136</v>
@@ -14589,18 +14826,18 @@
         <v>127</v>
       </c>
       <c r="D39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F39" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B41" t="s">
         <v>90</v>
@@ -14609,7 +14846,7 @@
         <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>136</v>
@@ -14623,7 +14860,7 @@
         <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>136</v>
@@ -14637,13 +14874,13 @@
         <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F43" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -14665,18 +14902,18 @@
         <v>157</v>
       </c>
       <c r="D45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F45" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B47" t="s">
         <v>90</v>
@@ -14696,7 +14933,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -14705,13 +14942,13 @@
         <v>133</v>
       </c>
       <c r="D49" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F49" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -14719,18 +14956,18 @@
         <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F50" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -14739,7 +14976,7 @@
         <v>127</v>
       </c>
       <c r="D52" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>136</v>
@@ -14753,18 +14990,18 @@
         <v>133</v>
       </c>
       <c r="D53" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F53" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
@@ -14779,7 +15016,7 @@
         <v>136</v>
       </c>
       <c r="F55" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -14793,7 +15030,7 @@
         <v>136</v>
       </c>
       <c r="F56" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -14807,7 +15044,7 @@
         <v>136</v>
       </c>
       <c r="F57" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -14815,13 +15052,13 @@
         <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F58" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -14835,7 +15072,7 @@
         <v>164</v>
       </c>
       <c r="D60" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>136</v>
@@ -14849,13 +15086,13 @@
         <v>165</v>
       </c>
       <c r="D61" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -14863,7 +15100,7 @@
         <v>127</v>
       </c>
       <c r="D62" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>136</v>
@@ -14877,13 +15114,13 @@
         <v>133</v>
       </c>
       <c r="D63" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F63" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -14891,7 +15128,7 @@
         <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>136</v>
@@ -14905,18 +15142,18 @@
         <v>150</v>
       </c>
       <c r="D65" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F65" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -14925,13 +15162,13 @@
         <v>133</v>
       </c>
       <c r="D67" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F67" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -14945,12 +15182,12 @@
         <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -14965,21 +15202,21 @@
         <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D72" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>136</v>
@@ -14990,30 +15227,30 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D73" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F73" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D74" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F74" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -15021,13 +15258,13 @@
         <v>150</v>
       </c>
       <c r="D75" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F75" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -15035,7 +15272,7 @@
         <v>157</v>
       </c>
       <c r="D76" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>136</v>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3563" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B1DA8BE-B9E4-4961-A0D2-4BD0AFFD06C8}"/>
+  <xr:revisionPtr revIDLastSave="3611" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3837D5F-88D8-4E83-AE79-2051EE470FFC}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" firstSheet="1" activeTab="11" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="12" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="10" r:id="rId1"/>
@@ -26,8 +26,6 @@
     <sheet name="2024" sheetId="15" r:id="rId11"/>
     <sheet name="2025" sheetId="18" r:id="rId12"/>
     <sheet name="Stats" sheetId="9" r:id="rId13"/>
-    <sheet name="Wins-Losses" sheetId="19" r:id="rId14"/>
-    <sheet name="Winning Percentile Range" sheetId="20" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="706">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -2144,6 +2142,30 @@
   </si>
   <si>
     <t>7-6(4)  4-6 3-3 RETIRED</t>
+  </si>
+  <si>
+    <t>6-3, 6-2</t>
+  </si>
+  <si>
+    <t>Jessica Bouzas Maneiro</t>
+  </si>
+  <si>
+    <t>6-3, 7-5</t>
+  </si>
+  <si>
+    <t>Nastia Pavlyuchenkova</t>
+  </si>
+  <si>
+    <t>6-3 2-6 7-5</t>
+  </si>
+  <si>
+    <t>Clara Tauson (DENMARK)</t>
+  </si>
+  <si>
+    <t>QATAR OPEN</t>
+  </si>
+  <si>
+    <t>3-6 6-3 7-6(5)</t>
   </si>
 </sst>
 </file>
@@ -2447,14 +2469,14 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EB86-4834-A6BC-693DCA2ACE47}"/>
+              <c16:uniqueId val="{00000000-EFA5-4B9B-BDD7-9A35845B2744}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2567,14 +2589,14 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EB86-4834-A6BC-693DCA2ACE47}"/>
+              <c16:uniqueId val="{00000001-EFA5-4B9B-BDD7-9A35845B2744}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2876,6 +2898,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3091,7 +3118,7 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3099,7 +3126,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-945C-4FAC-BFF8-73DFEEC078CE}"/>
+              <c16:uniqueId val="{00000001-C85D-42D2-B1EC-09EA48751D1B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3401,6 +3428,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4490,47 +4522,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{047929A3-60B1-47F1-8EF2-27DF27F63981}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9A814184-F75B-4BD9-8837-A3D2C7882259}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8580504" cy="5835063"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ACDC6CF-F973-A273-7C33-EE174331015F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83F332CE-A244-8B0B-94C1-D5FF8FED75B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4543,27 +4559,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8580504" cy="5835063"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{163A98EA-2E9E-33FE-03EA-6CBD5D2813F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DA3BAFB-90AC-D2D3-58D9-765A3C4CD175}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4571,17 +4590,13 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6131,7 +6146,7 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7260,20 +7275,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" activeCellId="2" sqref="E2:E6 E8:E13 E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7370,6 +7385,164 @@
       </c>
       <c r="F6" t="s">
         <v>596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" t="s">
+        <v>699</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" t="s">
+        <v>703</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" t="s">
+        <v>633</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" t="s">
+        <v>701</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" t="s">
+        <v>571</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>704</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" t="s">
+        <v>284</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>694</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" t="s">
+        <v>703</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -7385,8 +7558,8 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A13 F1:F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7655,20 +7828,20 @@
         <v>2025</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7677,7 +7850,7 @@
       </c>
       <c r="B14" s="3">
         <f>SUM(B2:B13)</f>
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C14" s="3">
         <f>SUM(C2:C13)</f>
@@ -7685,15 +7858,15 @@
       </c>
       <c r="D14" s="3">
         <f>SUM(D2:D13)</f>
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="E14" s="3">
         <f>SUM(E2:E13)</f>
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ref="F14:F15" si="2">(D14-E14)/D14</f>
-        <v>0.56553398058252424</v>
+        <v>0.56563245823389019</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7702,7 +7875,7 @@
       </c>
       <c r="B15" s="3">
         <f>AVERAGE(B2:B13)</f>
-        <v>16.833333333333332</v>
+        <v>17.083333333333332</v>
       </c>
       <c r="C15" s="3">
         <f>AVERAGE(C2:C13)</f>
@@ -7710,15 +7883,15 @@
       </c>
       <c r="D15" s="3">
         <f>AVERAGE(D2:D13)</f>
-        <v>34.333333333333336</v>
+        <v>34.916666666666664</v>
       </c>
       <c r="E15" s="3">
         <f>AVERAGE(E2:E13)</f>
-        <v>14.916666666666666</v>
+        <v>15.166666666666666</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="2"/>
-        <v>0.56553398058252435</v>
+        <v>0.5656324582338903</v>
       </c>
     </row>
   </sheetData>
@@ -7733,6 +7906,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="86" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3611" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3837D5F-88D8-4E83-AE79-2051EE470FFC}"/>
+  <xr:revisionPtr revIDLastSave="3674" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBCABA1C-79F5-46E0-96AC-CF45030A0B09}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="12" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="12" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="10" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="708">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -1532,9 +1532,6 @@
     <t>6-3 3-6 6-1</t>
   </si>
   <si>
-    <t>Daria Kasatkina (RUSSIA)</t>
-  </si>
-  <si>
     <t>6-4 3-6 7-5</t>
   </si>
   <si>
@@ -2144,15 +2141,6 @@
     <t>7-6(4)  4-6 3-3 RETIRED</t>
   </si>
   <si>
-    <t>6-3, 6-2</t>
-  </si>
-  <si>
-    <t>Jessica Bouzas Maneiro</t>
-  </si>
-  <si>
-    <t>6-3, 7-5</t>
-  </si>
-  <si>
     <t>Nastia Pavlyuchenkova</t>
   </si>
   <si>
@@ -2166,6 +2154,24 @@
   </si>
   <si>
     <t>3-6 6-3 7-6(5)</t>
+  </si>
+  <si>
+    <t>McCartney Kessler (USA)</t>
+  </si>
+  <si>
+    <t>Sonay Kartal (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>Jessica Bouzas Maneiro (SPAIN)</t>
+  </si>
+  <si>
+    <t>6-1 RETIRED</t>
+  </si>
+  <si>
+    <t>Elena-Gabriela Ruse (ROMANIA)</t>
+  </si>
+  <si>
+    <t>Daria Kasatkina (AUSTRALIA)</t>
   </si>
 </sst>
 </file>
@@ -2271,7 +2277,48 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2460,7 +2507,7 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>55</c:v>
@@ -2469,7 +2516,7 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2580,7 +2627,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>14</c:v>
@@ -2589,7 +2636,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3109,7 +3156,7 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.38235294117647056</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.74545454545454548</c:v>
@@ -3118,7 +3165,7 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.75</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4599,6 +4646,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -5023,7 +5074,7 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5224,7 +5275,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -5253,7 +5304,7 @@
         <v>136</v>
       </c>
       <c r="F16" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5261,13 +5312,13 @@
         <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F17" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5309,13 +5360,13 @@
         <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5323,7 +5374,7 @@
         <v>141</v>
       </c>
       <c r="D22" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>136</v>
@@ -5357,7 +5408,7 @@
         <v>129</v>
       </c>
       <c r="F24" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5385,7 +5436,7 @@
         <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>136</v>
@@ -5399,7 +5450,7 @@
         <v>133</v>
       </c>
       <c r="D28" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>136</v>
@@ -5413,7 +5464,7 @@
         <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>129</v>
@@ -5424,7 +5475,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -5433,7 +5484,7 @@
         <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>136</v>
@@ -5447,13 +5498,13 @@
         <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F32" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -5461,7 +5512,7 @@
         <v>150</v>
       </c>
       <c r="D33" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>136</v>
@@ -5475,7 +5526,7 @@
         <v>157</v>
       </c>
       <c r="D34" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>129</v>
@@ -5486,7 +5537,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
@@ -5495,7 +5546,7 @@
         <v>165</v>
       </c>
       <c r="D36" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>136</v>
@@ -5509,7 +5560,7 @@
         <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>136</v>
@@ -5523,7 +5574,7 @@
         <v>133</v>
       </c>
       <c r="D38" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>136</v>
@@ -5537,7 +5588,7 @@
         <v>141</v>
       </c>
       <c r="D39" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>136</v>
@@ -5565,13 +5616,13 @@
         <v>157</v>
       </c>
       <c r="D41" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F41" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -5591,7 +5642,7 @@
         <v>129</v>
       </c>
       <c r="F43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -5605,7 +5656,7 @@
         <v>164</v>
       </c>
       <c r="D45" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>136</v>
@@ -5619,7 +5670,7 @@
         <v>165</v>
       </c>
       <c r="D46" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>136</v>
@@ -5633,7 +5684,7 @@
         <v>127</v>
       </c>
       <c r="D47" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>136</v>
@@ -5675,18 +5726,18 @@
         <v>150</v>
       </c>
       <c r="D50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F50" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B52" t="s">
         <v>90</v>
@@ -5715,7 +5766,7 @@
         <v>129</v>
       </c>
       <c r="F53" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -5729,7 +5780,7 @@
         <v>164</v>
       </c>
       <c r="D55" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>136</v>
@@ -5743,13 +5794,13 @@
         <v>165</v>
       </c>
       <c r="D56" t="s">
+        <v>641</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" t="s">
         <v>642</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F56" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -5799,13 +5850,13 @@
         <v>150</v>
       </c>
       <c r="D60" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F60" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -5825,7 +5876,7 @@
         <v>136</v>
       </c>
       <c r="F62" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -5839,7 +5890,7 @@
         <v>129</v>
       </c>
       <c r="F63" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -5853,13 +5904,13 @@
         <v>127</v>
       </c>
       <c r="D65" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F65" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -5867,13 +5918,13 @@
         <v>133</v>
       </c>
       <c r="D66" t="s">
-        <v>494</v>
+        <v>707</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F66" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -5881,7 +5932,7 @@
         <v>141</v>
       </c>
       <c r="D67" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>136</v>
@@ -5895,13 +5946,13 @@
         <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -5915,7 +5966,7 @@
         <v>164</v>
       </c>
       <c r="D70" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>136</v>
@@ -5929,7 +5980,7 @@
         <v>165</v>
       </c>
       <c r="D71" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>136</v>
@@ -5943,7 +5994,7 @@
         <v>127</v>
       </c>
       <c r="D72" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>136</v>
@@ -5957,7 +6008,7 @@
         <v>133</v>
       </c>
       <c r="D73" t="s">
-        <v>494</v>
+        <v>707</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>136</v>
@@ -5971,7 +6022,7 @@
         <v>141</v>
       </c>
       <c r="D74" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>136</v>
@@ -5991,7 +6042,7 @@
         <v>136</v>
       </c>
       <c r="F75" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -5999,13 +6050,13 @@
         <v>157</v>
       </c>
       <c r="D76" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F76" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -6039,7 +6090,7 @@
         <v>136</v>
       </c>
       <c r="F79" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -6053,7 +6104,7 @@
         <v>136</v>
       </c>
       <c r="F80" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -6072,7 +6123,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B83" t="s">
         <v>14</v>
@@ -6095,7 +6146,7 @@
         <v>446</v>
       </c>
       <c r="D84" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>129</v>
@@ -6115,7 +6166,7 @@
         <v>136</v>
       </c>
       <c r="F85" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -6123,7 +6174,7 @@
         <v>150</v>
       </c>
       <c r="D86" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>129</v>
@@ -6145,8 +6196,8 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6181,7 +6232,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -6190,13 +6241,13 @@
         <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6218,7 +6269,7 @@
         <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>494</v>
+        <v>707</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>136</v>
@@ -6252,7 +6303,7 @@
         <v>129</v>
       </c>
       <c r="F6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6266,7 +6317,7 @@
         <v>164</v>
       </c>
       <c r="D8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>136</v>
@@ -6280,7 +6331,7 @@
         <v>165</v>
       </c>
       <c r="D9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>136</v>
@@ -6322,7 +6373,7 @@
         <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>136</v>
@@ -6336,13 +6387,13 @@
         <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F13" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6350,7 +6401,7 @@
         <v>157</v>
       </c>
       <c r="D14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>136</v>
@@ -6361,7 +6412,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -6376,7 +6427,7 @@
         <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -6390,13 +6441,13 @@
         <v>165</v>
       </c>
       <c r="D18" t="s">
+        <v>661</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" t="s">
         <v>662</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -6404,7 +6455,7 @@
         <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>136</v>
@@ -6418,7 +6469,7 @@
         <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>129</v>
@@ -6438,7 +6489,7 @@
         <v>165</v>
       </c>
       <c r="D22" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>136</v>
@@ -6452,18 +6503,18 @@
         <v>127</v>
       </c>
       <c r="D23" t="s">
+        <v>665</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" t="s">
         <v>666</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -6472,13 +6523,13 @@
         <v>133</v>
       </c>
       <c r="D25" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -6492,12 +6543,12 @@
         <v>129</v>
       </c>
       <c r="F26" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
@@ -6512,7 +6563,7 @@
         <v>136</v>
       </c>
       <c r="F28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6520,13 +6571,13 @@
         <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F29" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6548,7 +6599,7 @@
         <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>136</v>
@@ -6568,7 +6619,7 @@
         <v>136</v>
       </c>
       <c r="F32" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -6576,13 +6627,13 @@
         <v>157</v>
       </c>
       <c r="D33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F33" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -6596,13 +6647,13 @@
         <v>165</v>
       </c>
       <c r="D35" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6630,7 +6681,7 @@
         <v>136</v>
       </c>
       <c r="F37" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -6666,7 +6717,7 @@
         <v>157</v>
       </c>
       <c r="D40" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>129</v>
@@ -6686,7 +6737,7 @@
         <v>164</v>
       </c>
       <c r="D42" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>136</v>
@@ -6700,7 +6751,7 @@
         <v>165</v>
       </c>
       <c r="D43" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>136</v>
@@ -6714,13 +6765,13 @@
         <v>127</v>
       </c>
       <c r="D44" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F44" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6728,7 +6779,7 @@
         <v>133</v>
       </c>
       <c r="D45" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>136</v>
@@ -6742,18 +6793,18 @@
         <v>141</v>
       </c>
       <c r="D46" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F46" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B48" t="s">
         <v>90</v>
@@ -6762,7 +6813,7 @@
         <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>494</v>
+        <v>707</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>136</v>
@@ -6782,7 +6833,7 @@
         <v>129</v>
       </c>
       <c r="F49" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -6796,13 +6847,13 @@
         <v>133</v>
       </c>
       <c r="D51" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F51" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6824,13 +6875,13 @@
         <v>150</v>
       </c>
       <c r="D53" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F53" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -6844,7 +6895,7 @@
         <v>127</v>
       </c>
       <c r="D55" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>136</v>
@@ -6892,7 +6943,7 @@
         <v>127</v>
       </c>
       <c r="D59" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>136</v>
@@ -6934,7 +6985,7 @@
         <v>150</v>
       </c>
       <c r="D62" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>136</v>
@@ -6948,7 +6999,7 @@
         <v>157</v>
       </c>
       <c r="D63" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>136</v>
@@ -6982,7 +7033,7 @@
         <v>165</v>
       </c>
       <c r="D66" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>136</v>
@@ -7024,7 +7075,7 @@
         <v>141</v>
       </c>
       <c r="D69" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>136</v>
@@ -7038,13 +7089,13 @@
         <v>150</v>
       </c>
       <c r="D70" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -7052,7 +7103,7 @@
         <v>157</v>
       </c>
       <c r="D71" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>136</v>
@@ -7072,7 +7123,7 @@
         <v>165</v>
       </c>
       <c r="D73" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>136</v>
@@ -7086,7 +7137,7 @@
         <v>127</v>
       </c>
       <c r="D74" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>136</v>
@@ -7114,13 +7165,13 @@
         <v>141</v>
       </c>
       <c r="D76" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F76" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -7134,7 +7185,7 @@
         <v>127</v>
       </c>
       <c r="D78" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>136</v>
@@ -7148,13 +7199,13 @@
         <v>133</v>
       </c>
       <c r="D79" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F79" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -7162,7 +7213,7 @@
         <v>141</v>
       </c>
       <c r="D80" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>136</v>
@@ -7176,13 +7227,13 @@
         <v>150</v>
       </c>
       <c r="D81" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F81" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -7190,18 +7241,18 @@
         <v>157</v>
       </c>
       <c r="D82" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F82" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B84" t="s">
         <v>14</v>
@@ -7225,7 +7276,7 @@
         <v>446</v>
       </c>
       <c r="D85" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>136</v>
@@ -7246,7 +7297,7 @@
         <v>129</v>
       </c>
       <c r="F86" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -7255,13 +7306,13 @@
         <v>150</v>
       </c>
       <c r="D87" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F87" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -7275,10 +7326,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" activeCellId="2" sqref="E2:E6 E8:E13 E18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7313,7 +7364,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -7322,7 +7373,7 @@
         <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>136</v>
@@ -7336,13 +7387,13 @@
         <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7350,7 +7401,7 @@
         <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>136</v>
@@ -7364,7 +7415,7 @@
         <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>136</v>
@@ -7378,13 +7429,13 @@
         <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7404,7 +7455,7 @@
         <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>698</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7412,13 +7463,13 @@
         <v>165</v>
       </c>
       <c r="D9" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F9" t="s">
-        <v>700</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7426,7 +7477,7 @@
         <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>136</v>
@@ -7440,7 +7491,7 @@
         <v>133</v>
       </c>
       <c r="D11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>136</v>
@@ -7454,7 +7505,7 @@
         <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>136</v>
@@ -7468,7 +7519,7 @@
         <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>136</v>
@@ -7488,12 +7539,12 @@
         <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -7508,12 +7559,12 @@
         <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -7536,7 +7587,7 @@
         <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>129</v>
@@ -7545,7 +7596,247 @@
         <v>111</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" t="s">
+        <v>702</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" t="s">
+        <v>656</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" t="s">
+        <v>703</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" t="s">
+        <v>410</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" t="s">
+        <v>632</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>365</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" t="s">
+        <v>235</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" t="s">
+        <v>706</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" t="s">
+        <v>426</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" t="s">
+        <v>652</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" t="s">
+        <v>304</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" t="s">
+        <v>516</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>556</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" t="s">
+        <v>304</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" t="s">
+        <v>487</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="E9:E14">
+    <cfRule type="uniqueValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:E26">
+    <cfRule type="uniqueValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E33">
+    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:E37">
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7559,7 +7850,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7771,14 +8062,14 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.38235294117647056</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7828,20 +8119,20 @@
         <v>2025</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7850,23 +8141,23 @@
       </c>
       <c r="B14" s="3">
         <f>SUM(B2:B13)</f>
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C14" s="3">
         <f>SUM(C2:C13)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3">
         <f>SUM(D2:D13)</f>
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="E14" s="3">
         <f>SUM(E2:E13)</f>
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ref="F14:F15" si="2">(D14-E14)/D14</f>
-        <v>0.56563245823389019</v>
+        <v>0.57076566125290018</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7875,23 +8166,23 @@
       </c>
       <c r="B15" s="3">
         <f>AVERAGE(B2:B13)</f>
-        <v>17.083333333333332</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="C15" s="3">
         <f>AVERAGE(C2:C13)</f>
-        <v>1.5</v>
+        <v>1.5833333333333333</v>
       </c>
       <c r="D15" s="3">
         <f>AVERAGE(D2:D13)</f>
-        <v>34.916666666666664</v>
+        <v>35.916666666666664</v>
       </c>
       <c r="E15" s="3">
         <f>AVERAGE(E2:E13)</f>
-        <v>15.166666666666666</v>
+        <v>15.416666666666666</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="2"/>
-        <v>0.5656324582338903</v>
+        <v>0.57076566125290029</v>
       </c>
     </row>
   </sheetData>
@@ -7917,8 +8208,8 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8642,8 +8933,8 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9456,8 +9747,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D36" sqref="D34:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9574,7 +9865,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -10510,8 +10801,8 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D33" sqref="D32:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10690,7 +10981,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -10944,7 +11235,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B37" t="s">
         <v>18</v>
@@ -11060,7 +11351,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B47" t="s">
         <v>90</v>
@@ -11772,8 +12063,8 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12028,7 +12319,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -12192,7 +12483,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
@@ -12328,7 +12619,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B48" t="s">
         <v>90</v>
@@ -12589,7 +12880,7 @@
         <v>165</v>
       </c>
       <c r="D70" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>129</v>
@@ -12733,7 +13024,7 @@
         <v>127</v>
       </c>
       <c r="D82" t="s">
-        <v>494</v>
+        <v>707</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>129</v>
@@ -12759,7 +13050,7 @@
         <v>136</v>
       </c>
       <c r="F84" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -12781,13 +13072,13 @@
         <v>150</v>
       </c>
       <c r="D86" t="s">
+        <v>495</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F86" t="s">
         <v>496</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F86" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -12817,8 +13108,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12862,13 +13153,13 @@
         <v>127</v>
       </c>
       <c r="D2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" t="s">
         <v>499</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -12876,7 +13167,7 @@
         <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>129</v>
@@ -12887,7 +13178,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -12902,7 +13193,7 @@
         <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -12916,7 +13207,7 @@
         <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -12944,7 +13235,7 @@
         <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -12964,7 +13255,7 @@
         <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -12975,7 +13266,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>136</v>
@@ -12997,7 +13288,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -13012,7 +13303,7 @@
         <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -13040,12 +13331,12 @@
         <v>129</v>
       </c>
       <c r="F17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -13060,7 +13351,7 @@
         <v>136</v>
       </c>
       <c r="F19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -13074,7 +13365,7 @@
         <v>136</v>
       </c>
       <c r="F20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -13088,7 +13379,7 @@
         <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -13121,7 +13412,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -13136,7 +13427,7 @@
         <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -13144,13 +13435,13 @@
         <v>133</v>
       </c>
       <c r="D26" t="s">
+        <v>512</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" t="s">
         <v>513</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -13164,13 +13455,13 @@
         <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -13178,7 +13469,7 @@
         <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>129</v>
@@ -13198,13 +13489,13 @@
         <v>164</v>
       </c>
       <c r="D31" t="s">
+        <v>522</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" t="s">
         <v>523</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F31" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -13218,7 +13509,7 @@
         <v>129</v>
       </c>
       <c r="F32" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -13232,7 +13523,7 @@
         <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>136</v>
@@ -13252,7 +13543,7 @@
         <v>136</v>
       </c>
       <c r="F35" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -13260,13 +13551,13 @@
         <v>141</v>
       </c>
       <c r="D36" t="s">
+        <v>520</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" t="s">
         <v>521</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F36" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -13294,7 +13585,7 @@
         <v>164</v>
       </c>
       <c r="D39" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>136</v>
@@ -13308,7 +13599,7 @@
         <v>165</v>
       </c>
       <c r="D40" t="s">
-        <v>494</v>
+        <v>707</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>136</v>
@@ -13322,7 +13613,7 @@
         <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>129</v>
@@ -13333,7 +13624,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -13342,13 +13633,13 @@
         <v>133</v>
       </c>
       <c r="D43" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -13356,13 +13647,13 @@
         <v>141</v>
       </c>
       <c r="D44" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F44" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -13370,7 +13661,7 @@
         <v>150</v>
       </c>
       <c r="D45" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>136</v>
@@ -13395,7 +13686,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -13424,7 +13715,7 @@
         <v>136</v>
       </c>
       <c r="F49" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.25">
@@ -13432,13 +13723,13 @@
         <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F50" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.25">
@@ -13446,13 +13737,13 @@
         <v>150</v>
       </c>
       <c r="D51" t="s">
+        <v>534</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" t="s">
         <v>535</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F51" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.25">
@@ -13482,8 +13773,8 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:F38"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13518,7 +13809,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -13533,7 +13824,7 @@
         <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -13555,7 +13846,7 @@
         <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>136</v>
@@ -13575,7 +13866,7 @@
         <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -13608,7 +13899,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -13617,13 +13908,13 @@
         <v>127</v>
       </c>
       <c r="D9" t="s">
+        <v>540</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" t="s">
         <v>541</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -13643,7 +13934,7 @@
         <v>136</v>
       </c>
       <c r="F11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -13651,7 +13942,7 @@
         <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>494</v>
+        <v>707</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>136</v>
@@ -13665,7 +13956,7 @@
         <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>136</v>
@@ -13679,18 +13970,18 @@
         <v>133</v>
       </c>
       <c r="D14" t="s">
+        <v>544</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" t="s">
         <v>545</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -13705,12 +13996,12 @@
         <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -13753,7 +14044,7 @@
         <v>129</v>
       </c>
       <c r="F20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -13767,13 +14058,13 @@
         <v>165</v>
       </c>
       <c r="D22" t="s">
+        <v>548</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" t="s">
         <v>549</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -13787,7 +14078,7 @@
         <v>136</v>
       </c>
       <c r="F23" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -13801,7 +14092,7 @@
         <v>136</v>
       </c>
       <c r="F24" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -13815,12 +14106,12 @@
         <v>129</v>
       </c>
       <c r="F25" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -13843,7 +14134,7 @@
         <v>133</v>
       </c>
       <c r="D28" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>136</v>
@@ -13863,7 +14154,7 @@
         <v>136</v>
       </c>
       <c r="F29" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -13891,12 +14182,12 @@
         <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -13919,7 +14210,7 @@
         <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>494</v>
+        <v>707</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>136</v>
@@ -13933,7 +14224,7 @@
         <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>136</v>
@@ -13953,7 +14244,7 @@
         <v>136</v>
       </c>
       <c r="F36" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -13981,7 +14272,7 @@
         <v>136</v>
       </c>
       <c r="F38" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -13995,7 +14286,7 @@
         <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>136</v>
@@ -14009,7 +14300,7 @@
         <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>129</v>
@@ -14029,7 +14320,7 @@
         <v>164</v>
       </c>
       <c r="D43" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>136</v>
@@ -14063,12 +14354,12 @@
         <v>129</v>
       </c>
       <c r="F45" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B47" t="s">
         <v>90</v>
@@ -14083,7 +14374,7 @@
         <v>129</v>
       </c>
       <c r="F47" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -14131,7 +14422,7 @@
         <v>129</v>
       </c>
       <c r="F51" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -14173,13 +14464,13 @@
         <v>127</v>
       </c>
       <c r="D55" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F55" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -14193,7 +14484,7 @@
         <v>136</v>
       </c>
       <c r="F56" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -14201,7 +14492,7 @@
         <v>141</v>
       </c>
       <c r="D57" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>136</v>
@@ -14226,7 +14517,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
@@ -14255,7 +14546,7 @@
         <v>129</v>
       </c>
       <c r="F61" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -14275,7 +14566,7 @@
         <v>136</v>
       </c>
       <c r="F63" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -14283,7 +14574,7 @@
         <v>133</v>
       </c>
       <c r="D64" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>136</v>
@@ -14331,13 +14622,13 @@
         <v>127</v>
       </c>
       <c r="D68" t="s">
+        <v>570</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F68" t="s">
         <v>571</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F68" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -14357,7 +14648,7 @@
         <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -14407,7 +14698,7 @@
         <v>141</v>
       </c>
       <c r="D74" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>136</v>
@@ -14421,13 +14712,13 @@
         <v>150</v>
       </c>
       <c r="D75" t="s">
+        <v>572</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F75" t="s">
         <v>573</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F75" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -14447,7 +14738,7 @@
         <v>136</v>
       </c>
       <c r="F77" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -14466,7 +14757,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B80" t="s">
         <v>14</v>
@@ -14475,13 +14766,13 @@
         <v>446</v>
       </c>
       <c r="D80" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F80" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.25">
@@ -14495,7 +14786,7 @@
         <v>129</v>
       </c>
       <c r="F81" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.25">
@@ -14503,7 +14794,7 @@
         <v>446</v>
       </c>
       <c r="D82" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>129</v>
@@ -14525,8 +14816,8 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E76" activeCellId="21" sqref="E2 E4 E9 E12 E16 E18 E20 E23 E28 E30 E35 E39 E45 E47 E50 E53 E58 E65 E68 E70 E74 E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14570,18 +14861,18 @@
         <v>133</v>
       </c>
       <c r="D2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" t="s">
         <v>581</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -14590,13 +14881,13 @@
         <v>127</v>
       </c>
       <c r="D4" t="s">
+        <v>583</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" t="s">
         <v>584</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -14616,7 +14907,7 @@
         <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -14624,13 +14915,13 @@
         <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -14644,7 +14935,7 @@
         <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -14652,18 +14943,18 @@
         <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -14672,7 +14963,7 @@
         <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>136</v>
@@ -14697,7 +14988,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -14720,7 +15011,7 @@
         <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>136</v>
@@ -14734,7 +15025,7 @@
         <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>129</v>
@@ -14760,7 +15051,7 @@
         <v>129</v>
       </c>
       <c r="F18" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -14814,12 +15105,12 @@
         <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -14848,7 +15139,7 @@
         <v>136</v>
       </c>
       <c r="F26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -14856,7 +15147,7 @@
         <v>150</v>
       </c>
       <c r="D27" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>136</v>
@@ -14870,7 +15161,7 @@
         <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>129</v>
@@ -14881,7 +15172,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -14896,7 +15187,7 @@
         <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -14916,7 +15207,7 @@
         <v>136</v>
       </c>
       <c r="F32" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -14924,7 +15215,7 @@
         <v>133</v>
       </c>
       <c r="D33" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>136</v>
@@ -14944,7 +15235,7 @@
         <v>136</v>
       </c>
       <c r="F34" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -14952,7 +15243,7 @@
         <v>150</v>
       </c>
       <c r="D35" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>129</v>
@@ -14972,13 +15263,13 @@
         <v>164</v>
       </c>
       <c r="D37" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F37" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -15006,12 +15297,12 @@
         <v>129</v>
       </c>
       <c r="F39" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B41" t="s">
         <v>90</v>
@@ -15034,7 +15325,7 @@
         <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>136</v>
@@ -15054,7 +15345,7 @@
         <v>136</v>
       </c>
       <c r="F43" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -15082,12 +15373,12 @@
         <v>129</v>
       </c>
       <c r="F45" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B47" t="s">
         <v>90</v>
@@ -15116,13 +15407,13 @@
         <v>133</v>
       </c>
       <c r="D49" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F49" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -15130,13 +15421,13 @@
         <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>494</v>
+        <v>707</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F50" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -15150,7 +15441,7 @@
         <v>127</v>
       </c>
       <c r="D52" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>136</v>
@@ -15164,13 +15455,13 @@
         <v>133</v>
       </c>
       <c r="D53" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F53" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -15190,7 +15481,7 @@
         <v>136</v>
       </c>
       <c r="F55" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -15204,7 +15495,7 @@
         <v>136</v>
       </c>
       <c r="F56" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -15218,7 +15509,7 @@
         <v>136</v>
       </c>
       <c r="F57" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -15232,7 +15523,7 @@
         <v>129</v>
       </c>
       <c r="F58" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -15246,7 +15537,7 @@
         <v>164</v>
       </c>
       <c r="D60" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>136</v>
@@ -15260,13 +15551,13 @@
         <v>165</v>
       </c>
       <c r="D61" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F61" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -15274,7 +15565,7 @@
         <v>127</v>
       </c>
       <c r="D62" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>136</v>
@@ -15294,7 +15585,7 @@
         <v>136</v>
       </c>
       <c r="F63" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -15316,18 +15607,18 @@
         <v>150</v>
       </c>
       <c r="D65" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F65" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -15342,7 +15633,7 @@
         <v>136</v>
       </c>
       <c r="F67" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -15356,12 +15647,12 @@
         <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -15376,12 +15667,12 @@
         <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
@@ -15390,7 +15681,7 @@
         <v>446</v>
       </c>
       <c r="D72" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>136</v>
@@ -15404,13 +15695,13 @@
         <v>446</v>
       </c>
       <c r="D73" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F73" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -15432,13 +15723,13 @@
         <v>150</v>
       </c>
       <c r="D75" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F75" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -15448,8 +15739,8 @@
       <c r="D76" t="s">
         <v>418</v>
       </c>
-      <c r="E76" s="6" t="s">
-        <v>136</v>
+      <c r="E76" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="F76" t="s">
         <v>63</v>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3674" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBCABA1C-79F5-46E0-96AC-CF45030A0B09}"/>
+  <xr:revisionPtr revIDLastSave="3783" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B117DC2E-9898-41A8-BD2A-83C6521B93FA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="12" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
+    <workbookView minimized="1" xWindow="2640" yWindow="2640" windowWidth="28800" windowHeight="15345" firstSheet="1" activeTab="12" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="10" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3070" uniqueCount="722">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -2141,9 +2141,6 @@
     <t>7-6(4)  4-6 3-3 RETIRED</t>
   </si>
   <si>
-    <t>Nastia Pavlyuchenkova</t>
-  </si>
-  <si>
     <t>6-3 2-6 7-5</t>
   </si>
   <si>
@@ -2172,6 +2169,51 @@
   </si>
   <si>
     <t>Daria Kasatkina (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>3-6 6-2 6-1</t>
+  </si>
+  <si>
+    <t>7-6(4) 7-6(7)</t>
+  </si>
+  <si>
+    <t>3-6 6-3 6-3</t>
+  </si>
+  <si>
+    <t>6-1 7-6(8)</t>
+  </si>
+  <si>
+    <t>7-6(3) 6-3</t>
+  </si>
+  <si>
+    <t>7-6(1) 4-6 6-0</t>
+  </si>
+  <si>
+    <t>6-7(5) 6-2 6-4</t>
+  </si>
+  <si>
+    <t>BERLIN TENNIS OPEN</t>
+  </si>
+  <si>
+    <t>6-2 7-6(6)</t>
+  </si>
+  <si>
+    <t>Rebeka Masarova (SWITZERLAND)</t>
+  </si>
+  <si>
+    <t>7-6(6) 3-6 7-6(6)</t>
+  </si>
+  <si>
+    <t>6-4, 7-6 (7-4)</t>
+  </si>
+  <si>
+    <t>Carson Branstine (CANADA)</t>
+  </si>
+  <si>
+    <t>6-1 7-5</t>
+  </si>
+  <si>
+    <t>7-6(6) 6-4</t>
   </si>
 </sst>
 </file>
@@ -2277,7 +2319,87 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2516,7 +2638,7 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2636,7 +2758,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3165,7 +3287,7 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.8</c:v>
+                  <c:v>0.80851063829787229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4646,10 +4768,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -5918,7 +6036,7 @@
         <v>133</v>
       </c>
       <c r="D66" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>136</v>
@@ -6008,7 +6126,7 @@
         <v>133</v>
       </c>
       <c r="D73" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>136</v>
@@ -6197,7 +6315,7 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6269,7 +6387,7 @@
         <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>136</v>
@@ -6813,7 +6931,7 @@
         <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>136</v>
@@ -7326,20 +7444,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A51" activeCellId="9" sqref="A2 A8 A16 A18 A21 A28 A35 A39 A46 A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7463,7 +7581,7 @@
         <v>165</v>
       </c>
       <c r="D9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>136</v>
@@ -7477,7 +7595,7 @@
         <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>136</v>
@@ -7505,7 +7623,7 @@
         <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>697</v>
+        <v>480</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>136</v>
@@ -7539,12 +7657,12 @@
         <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -7559,7 +7677,7 @@
         <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -7587,7 +7705,7 @@
         <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>129</v>
@@ -7607,7 +7725,7 @@
         <v>165</v>
       </c>
       <c r="D21" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>136</v>
@@ -7635,7 +7753,7 @@
         <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>136</v>
@@ -7711,13 +7829,13 @@
         <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F29" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -7824,17 +7942,435 @@
         <v>57</v>
       </c>
     </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>629</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" t="s">
+        <v>302</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" t="s">
+        <v>661</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" t="s">
+        <v>589</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" t="s">
+        <v>432</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" t="s">
+        <v>512</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>383</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" t="s">
+        <v>628</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" t="s">
+        <v>433</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" t="s">
+        <v>589</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" t="s">
+        <v>652</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>298</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" t="s">
+        <v>635</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" t="s">
+        <v>590</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" t="s">
+        <v>380</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" t="s">
+        <v>454</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" t="s">
+        <v>577</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" t="s">
+        <v>512</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>714</v>
+      </c>
+      <c r="B59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" t="s">
+        <v>716</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F59" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" t="s">
+        <v>172</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" t="s">
+        <v>159</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>306</v>
+      </c>
+      <c r="B63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" t="s">
+        <v>719</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64" t="s">
+        <v>625</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" t="s">
+        <v>663</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F65" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" t="s">
+        <v>168</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F66" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" t="s">
+        <v>457</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" t="s">
+        <v>454</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F68" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E9:E14">
+    <cfRule type="uniqueValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:E26">
+    <cfRule type="uniqueValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E33">
+    <cfRule type="uniqueValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:E37">
+    <cfRule type="uniqueValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E44">
+    <cfRule type="uniqueValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E49">
+    <cfRule type="uniqueValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E56">
+    <cfRule type="uniqueValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="uniqueValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59:E60">
     <cfRule type="uniqueValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21:E26">
+  <conditionalFormatting sqref="E61">
     <cfRule type="uniqueValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E33">
+  <conditionalFormatting sqref="E63:E67">
     <cfRule type="uniqueValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35:E37">
+  <conditionalFormatting sqref="E68">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8119,20 +8655,20 @@
         <v>2025</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.80851063829787229</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8141,23 +8677,23 @@
       </c>
       <c r="B14" s="3">
         <f>SUM(B2:B13)</f>
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C14" s="3">
         <f>SUM(C2:C13)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="3">
         <f>SUM(D2:D13)</f>
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="E14" s="3">
         <f>SUM(E2:E13)</f>
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ref="F14:F15" si="2">(D14-E14)/D14</f>
-        <v>0.57076566125290018</v>
+        <v>0.58278145695364236</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8166,23 +8702,23 @@
       </c>
       <c r="B15" s="3">
         <f>AVERAGE(B2:B13)</f>
-        <v>17.333333333333332</v>
+        <v>17.75</v>
       </c>
       <c r="C15" s="3">
         <f>AVERAGE(C2:C13)</f>
-        <v>1.5833333333333333</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="D15" s="3">
         <f>AVERAGE(D2:D13)</f>
-        <v>35.916666666666664</v>
+        <v>37.75</v>
       </c>
       <c r="E15" s="3">
         <f>AVERAGE(E2:E13)</f>
-        <v>15.416666666666666</v>
+        <v>15.75</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="2"/>
-        <v>0.57076566125290029</v>
+        <v>0.58278145695364236</v>
       </c>
     </row>
   </sheetData>
@@ -13024,7 +13560,7 @@
         <v>127</v>
       </c>
       <c r="D82" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>129</v>
@@ -13599,7 +14135,7 @@
         <v>165</v>
       </c>
       <c r="D40" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>136</v>
@@ -13942,7 +14478,7 @@
         <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>136</v>
@@ -14210,7 +14746,7 @@
         <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>136</v>
@@ -14816,8 +15352,8 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E76" activeCellId="21" sqref="E2 E4 E9 E12 E16 E18 E20 E23 E28 E30 E35 E39 E45 E47 E50 E53 E58 E65 E68 E70 E74 E76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15421,7 +15957,7 @@
         <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>129</v>

--- a/Tennis/WTA Tour/Aryna Sabalenka.xlsx
+++ b/Tennis/WTA Tour/Aryna Sabalenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3783" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B117DC2E-9898-41A8-BD2A-83C6521B93FA}"/>
+  <xr:revisionPtr revIDLastSave="3833" documentId="8_{93652EBB-0AF5-45D6-8517-74581B0D3CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02F10C3A-9AD6-4D32-B3CF-F13BBEBD0624}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2640" yWindow="2640" windowWidth="28800" windowHeight="15345" firstSheet="1" activeTab="12" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="11" xr2:uid="{7F24D92B-8CD8-4B00-B511-03BA08D79BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="10" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3070" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="723">
   <si>
     <t>TOURNAMENT</t>
   </si>
@@ -2204,9 +2204,6 @@
     <t>7-6(6) 3-6 7-6(6)</t>
   </si>
   <si>
-    <t>6-4, 7-6 (7-4)</t>
-  </si>
-  <si>
     <t>Carson Branstine (CANADA)</t>
   </si>
   <si>
@@ -2214,6 +2211,12 @@
   </si>
   <si>
     <t>7-6(6) 6-4</t>
+  </si>
+  <si>
+    <t>7-6(3) 4-6 7-6(5)</t>
+  </si>
+  <si>
+    <t>Cristina Bucșa (SPAIN)</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2322,67 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2638,7 +2701,7 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2758,7 +2821,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3287,7 +3350,7 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.80851063829787229</c:v>
+                  <c:v>0.8214285714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4768,6 +4831,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -6314,8 +6381,8 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65:E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7444,10 +7511,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A51" activeCellId="9" sqref="A2 A8 A16 A18 A21 A28 A35 A39 A46 A51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8257,13 +8324,13 @@
         <v>164</v>
       </c>
       <c r="D63" t="s">
+        <v>718</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" t="s">
         <v>719</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F63" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -8280,7 +8347,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>127</v>
       </c>
@@ -8291,10 +8358,10 @@
         <v>136</v>
       </c>
       <c r="F65" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>133</v>
       </c>
@@ -8305,10 +8372,10 @@
         <v>136</v>
       </c>
       <c r="F66" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>141</v>
       </c>
@@ -8322,7 +8389,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>150</v>
       </c>
@@ -8336,42 +8403,214 @@
         <v>74</v>
       </c>
     </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>314</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" t="s">
+        <v>159</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" t="s">
+        <v>663</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" t="s">
+        <v>703</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" t="s">
+        <v>172</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F73" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>238</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75" t="s">
+        <v>716</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>165</v>
+      </c>
+      <c r="D76" t="s">
+        <v>695</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F76" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" t="s">
+        <v>572</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F77" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>133</v>
+      </c>
+      <c r="D78" t="s">
+        <v>722</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F78" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>141</v>
+      </c>
+      <c r="D79" t="s">
+        <v>159</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F79" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>150</v>
+      </c>
+      <c r="D80" t="s">
+        <v>516</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81" t="s">
+        <v>454</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F81" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E9:E14">
-    <cfRule type="uniqueValues" dxfId="11" priority="12"/>
+    <cfRule type="uniqueValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E26">
-    <cfRule type="uniqueValues" dxfId="10" priority="11"/>
+    <cfRule type="uniqueValues" dxfId="16" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E33">
-    <cfRule type="uniqueValues" dxfId="9" priority="10"/>
+    <cfRule type="uniqueValues" dxfId="15" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:E37">
-    <cfRule type="uniqueValues" dxfId="8" priority="9"/>
+    <cfRule type="uniqueValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E44">
-    <cfRule type="uniqueValues" dxfId="7" priority="8"/>
+    <cfRule type="uniqueValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E49">
-    <cfRule type="uniqueValues" dxfId="6" priority="7"/>
+    <cfRule type="uniqueValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:E56">
-    <cfRule type="uniqueValues" dxfId="5" priority="6"/>
+    <cfRule type="uniqueValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="uniqueValues" dxfId="4" priority="5"/>
+    <cfRule type="uniqueValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59:E60">
-    <cfRule type="uniqueValues" dxfId="3" priority="4"/>
+    <cfRule type="uniqueValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="uniqueValues" dxfId="2" priority="3"/>
+    <cfRule type="uniqueValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:E67">
-    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
+    <cfRule type="uniqueValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="6" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70:E72">
+    <cfRule type="uniqueValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="uniqueValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8385,7 +8624,7 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -8655,20 +8894,20 @@
         <v>2025</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>0.80851063829787229</v>
+        <v>0.8214285714285714</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8677,23 +8916,23 @@
       </c>
       <c r="B14" s="3">
         <f>SUM(B2:B13)</f>
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C14" s="3">
         <f>SUM(C2:C13)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3">
         <f>SUM(D2:D13)</f>
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="E14" s="3">
         <f>SUM(E2:E13)</f>
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ref="F14:F15" si="2">(D14-E14)/D14</f>
-        <v>0.58278145695364236</v>
+        <v>0.58874458874458879</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8702,23 +8941,23 @@
       </c>
       <c r="B15" s="3">
         <f>AVERAGE(B2:B13)</f>
-        <v>17.75</v>
+        <v>17.916666666666668</v>
       </c>
       <c r="C15" s="3">
         <f>AVERAGE(C2:C13)</f>
-        <v>1.6666666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="D15" s="3">
         <f>AVERAGE(D2:D13)</f>
-        <v>37.75</v>
+        <v>38.5</v>
       </c>
       <c r="E15" s="3">
         <f>AVERAGE(E2:E13)</f>
-        <v>15.75</v>
+        <v>15.833333333333334</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="2"/>
-        <v>0.58278145695364236</v>
+        <v>0.58874458874458868</v>
       </c>
     </row>
   </sheetData>
